--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\ejemplos escalestas y cronogramas\Escaletas\Escaletas Matemáticas 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="249">
   <si>
     <t>Asignatura</t>
   </si>
@@ -403,18 +403,12 @@
     <t>Los métodos de razonamiento</t>
   </si>
   <si>
-    <t>Razonamiento inductivo</t>
-  </si>
-  <si>
     <t>MA_08_08_CO</t>
   </si>
   <si>
     <t>El razonamiento inductivo</t>
   </si>
   <si>
-    <t>Interactivo para comprender qué es el razonamiento, qué es el razonamiento inductivo y algunos ejemplos</t>
-  </si>
-  <si>
     <t>Practica el razonamiento inductivo</t>
   </si>
   <si>
@@ -422,9 +416,6 @@
   </si>
   <si>
     <t>El razonamiento inductivo en el análisis de situaciones</t>
-  </si>
-  <si>
-    <t>Interactivo mediante el cuál el estudiante resuelve situaciones aplicando el razonamiento inductivo</t>
   </si>
   <si>
     <t>Se debe proponer situaciones como: El alor del dólar en Colombia tuvo la siguiente variación en los meses de mayo,junio, julio y agosto del año 2015 (mostrar variación en tabla). Preguntar: ¿cuál puede ser una conjetura el precio del dólar en el mes de octubre del mismo año. Otro ejemplo de situación es: Manuela creción 3 centímetros cada año, durante los trs últimos años. Ahora tiene 13 años y mide 162 cm. Ella asegura que cuando llegue a los 16 medirá 174. ¿Crees que la conjetura de Manuela es correcta?
@@ -522,9 +513,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Interactivo mediante el cual se explica en qué consiste el razonamiento deductivo </t>
-  </si>
-  <si>
     <t>Aplica el razonamiento deductivo</t>
   </si>
   <si>
@@ -534,21 +522,9 @@
     <t>Proponer una situación en la cual se requiera una imagen y se realicen varias preguntas al respecto. Por ejemplo, En la puesrta de una bodega se lee la siguiente información: Prohibido el paso de camiones de carga pesada en los siguientes horarios: lunes, miércoles y viernes entre 6:00 a.m. y 6:00 p.m. Martes y jueves entre 8:00 a.m y 10: pm. Y realizar preguntas al respecto, puede algo como: un camión de carga se encuentra estacionado en la puerta de la bodega el día viernes, ¿qué hora puede ser?; si una camión se encuentra estacionado, se puede asegurar qué día de a semana es? Proponer algo por el estilo. Entre  5 y 7 preguntas.</t>
   </si>
   <si>
-    <t>Analiza y determina si las proposiciones son verdaderas o falsas</t>
-  </si>
-  <si>
-    <t>Actividad para determinar la veracidad de proposiciones dadas aplicando conceptos de razonamiento deductivo</t>
-  </si>
-  <si>
     <t>Proponer proposiciones en las cuales se aplique razomaniento deductivo, por ejemplo afirmaciones geométricas como: si un triangulo es isósceles entonces tiene dos lados congruentes y otras como: si un níño tiene más de tres años entonces viaja gratis en los buses. Buscar contextos matemáticos y cotidianos. Algunas falsas y otras verdaderas. Proponer entre 6 y 8 ejercicios.</t>
   </si>
   <si>
-    <t>¿Qué se puede afirmar?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para analizar la información gráfica ymediante el razonamiento deductivo,  realizar afirmaciones </t>
-  </si>
-  <si>
     <t>Proponer una figura. La misma para 5 o 6 ejercicios. Se pregunta: ¿Qué afirmaciones se pueden realizar de la figura? La figura pueden ángulos consecutivos, adyacentes, opuestos por el vértice, etc. Las afirmaciones son, por ejemplo: Los puntos A, B y C son lineales; Las semirrectas AB y BC, son rayos opuestos; La suma de las medidas de los ángulos ABC y DBE, son suplementarios, en fin depende de la figura que se proponga, pero que permita el análisis deductivo de la información gráfica.</t>
   </si>
   <si>
@@ -564,19 +540,10 @@
     <t>Organiza los pasos de la demostración</t>
   </si>
   <si>
-    <t>Los métodos de demostración</t>
-  </si>
-  <si>
-    <t>Interactivo con el cual se exponen los distintos métodos de demostración</t>
-  </si>
-  <si>
     <t>Actividades sobre El razonamiento deductivo</t>
   </si>
   <si>
     <t>En las opciones colocar: métoso directo, método indirecto, demostración por contraejemplo. En cada ficha, dar la explicación correspondiente con elemplos de demostración de teoremas relativamente sencillos para que la comprensión sea clara.</t>
-  </si>
-  <si>
-    <t>Actividad para organizar los pasos de una demotración siguiendo el método directo</t>
   </si>
   <si>
     <t>En la imagen ubicar una tabla con los pasos de la demostración. En los textos ubicar las justificaciones correspondientes a cada caso. El enunciado debe decir: Organiza los pasos que justifican la demostración del siguiente teorema: XXXX</t>
@@ -599,9 +566,6 @@
   </si>
   <si>
     <t>Construir un F13 off line de dos pestañas. Una que se llame Presentación y otra  Aplicación En la primera mostrar un ejemplo de una demostración con imagen. Por ejemplo:Demostar que los ánguos opuestos por le vértice son congruentes. Mostrar la figura, y una tabla con los pasos. Se debe explicar cada uno con su justificación. En la segunda pestaña la propuesta para que los estudiantes realicen dos o tres demostraciones.</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los métodos de demostración</t>
   </si>
   <si>
     <r>
@@ -730,9 +694,6 @@
     <t>Las relaciones angulares</t>
   </si>
   <si>
-    <t>Interactiva para reasar las relaciones angulares</t>
-  </si>
-  <si>
     <t>Comprende las relaciones angulares</t>
   </si>
   <si>
@@ -751,9 +712,6 @@
     <t>Identifica ángulos entre rectas paralelas</t>
   </si>
   <si>
-    <t>Actividad para reconocer ángulso formados entre rectas paralelas y una transversal</t>
-  </si>
-  <si>
     <t>En las imágenes deben aparecer las distintas clses de ángulos que se determinan entre rectas paralelas y una transversal. El estudiante debe seleccionar lo que corresponda de las opciones dadas, es decir seleccionar si corresponde a alternos internos, correspondientes, opuestos por el vértice, etc .</t>
   </si>
   <si>
@@ -817,9 +775,6 @@
     <t>Mostrar la construcción de un triángulo equilátero, de un cuadrado, de un pentágono, de un hexágono y un octágono (todos regulares). Cada botón con su imagen. En cada imagen mostrar los cuatro o cinco pasoa de la construcción. Numerados consecutivamente y organizados en el espacio. Es decir en la solicitud gráfica pedir que los pasos se organicen de manera horizontal, un paso seguido de otro.</t>
   </si>
   <si>
-    <t>Actividades sobre Los ángulos en polígonos</t>
-  </si>
-  <si>
     <t>Actividades que reúnan lo trabajado en el tema. Ver plataforma España</t>
   </si>
   <si>
@@ -859,15 +814,9 @@
     <t>Competencias</t>
   </si>
   <si>
-    <t>Razonamiento deductivo</t>
-  </si>
-  <si>
     <t>Los ángulos y las rectas</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Los ángulos en polígonos</t>
-  </si>
-  <si>
     <t>Los ángulos y los polígonos</t>
   </si>
   <si>
@@ -977,6 +926,51 @@
   </si>
   <si>
     <t>Deduce ángulos</t>
+  </si>
+  <si>
+    <t>Analiza mediante el razonamiento deductivo</t>
+  </si>
+  <si>
+    <t>Analiza y determina proposiciones</t>
+  </si>
+  <si>
+    <t>Aplica las relaciones angulares</t>
+  </si>
+  <si>
+    <t>Interactivo para estudiar qué es el razonamiento inductivo</t>
+  </si>
+  <si>
+    <t>Interactivo para resolver situaciones aplicando el razonamiento inductivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo en el cual se explica en qué consiste el razonamiento deductivo </t>
+  </si>
+  <si>
+    <t>Actividad para aplicar conceptos de razonamiento deductivo</t>
+  </si>
+  <si>
+    <t>Actividad para aplicar el razonamiento deductivo</t>
+  </si>
+  <si>
+    <t>Actividad para organizar los pasos de una demostración siguiendo el método directo</t>
+  </si>
+  <si>
+    <t>Interactivo para reasar las relaciones angulares</t>
+  </si>
+  <si>
+    <t>Actividad para identificar ángulos entre rectas paralelas</t>
+  </si>
+  <si>
+    <t>Los métodos de demostración en geometría</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los métodos de demostración en geometría</t>
+  </si>
+  <si>
+    <t>Interactivo con el cual se exponen los distintos métodos de demostración en geometría</t>
+  </si>
+  <si>
+    <t>Actividades sobre Los ángulos y las rectas</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1048,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1127,8 +1121,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1165,21 +1177,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1192,11 +1189,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1271,9 +1410,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1284,36 +1420,62 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,53 +1491,182 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,9 +1973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:B19"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,16 +1984,16 @@
     <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="27" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="11" style="38" customWidth="1"/>
-    <col min="10" max="10" width="73.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="26" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="91.5703125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="11" style="37" customWidth="1"/>
+    <col min="10" max="10" width="141.140625" style="27" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="27" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="27" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="27" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" style="38" customWidth="1"/>
+    <col min="15" max="15" width="118.7109375" style="37" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" style="22" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" style="22" customWidth="1"/>
     <col min="18" max="18" width="15.140625" style="23" customWidth="1"/>
@@ -1713,174 +2004,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="44" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="52" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="26"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="28" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="56"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="78"/>
       <c r="V2" s="26"/>
     </row>
-    <row r="3" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="90">
+        <v>1</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="94"/>
+      <c r="O3" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="97">
+        <v>6</v>
+      </c>
+      <c r="R3" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="T3" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="U3" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="V3" s="41"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="67">
-        <v>6</v>
-      </c>
-      <c r="R3" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="S3" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="T3" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="U3" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="V3" s="61"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="41" t="s">
-        <v>128</v>
+      <c r="D4" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="H4" s="17">
         <v>2</v>
@@ -1888,8 +2179,8 @@
       <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="40" t="s">
-        <v>135</v>
+      <c r="J4" s="38" t="s">
+        <v>132</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>20</v>
@@ -1901,46 +2192,46 @@
       <c r="N4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="59" t="s">
-        <v>129</v>
+      <c r="O4" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="67">
+      <c r="Q4" s="47">
         <v>6</v>
       </c>
-      <c r="R4" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S4" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T4" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="U4" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V4" s="61"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="R4" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="U4" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V4" s="41"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="31" t="s">
-        <v>130</v>
+      <c r="D5" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
@@ -1948,8 +2239,8 @@
       <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>131</v>
+      <c r="J5" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
@@ -1961,166 +2252,166 @@
         <v>53</v>
       </c>
       <c r="N5" s="7"/>
-      <c r="O5" s="29" t="s">
-        <v>132</v>
+      <c r="O5" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="P5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="67">
+      <c r="Q5" s="47">
         <v>6</v>
       </c>
-      <c r="R5" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="S5" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="T5" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="U5" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="V5" s="61"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="R5" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="S5" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="T5" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="U5" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="V5" s="41"/>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="E6" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="110">
+        <v>4</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="112" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="108"/>
+      <c r="P6" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="116">
+        <v>6</v>
+      </c>
+      <c r="R6" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="S6" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="T6" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="U6" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="V6" s="41"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="120"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="90">
+        <v>5</v>
+      </c>
+      <c r="I7" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="94"/>
+      <c r="O7" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="97">
+        <v>6</v>
+      </c>
+      <c r="R7" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="S7" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="T7" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="U7" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="V7" s="41"/>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="17">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="67">
-        <v>6</v>
-      </c>
-      <c r="R6" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S6" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T6" s="69" t="s">
-        <v>225</v>
-      </c>
-      <c r="U6" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V6" s="61"/>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="67">
-        <v>6</v>
-      </c>
-      <c r="R7" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="S7" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="T7" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="U7" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="V7" s="61"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="31" t="s">
-        <v>139</v>
+      <c r="D8" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="32" t="s">
+        <v>135</v>
       </c>
       <c r="H8" s="17">
         <v>6</v>
@@ -2128,8 +2419,8 @@
       <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>140</v>
+      <c r="J8" s="29" t="s">
+        <v>136</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>20</v>
@@ -2141,46 +2432,46 @@
       <c r="N8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="29" t="s">
-        <v>141</v>
+      <c r="O8" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="67">
+      <c r="Q8" s="47">
         <v>6</v>
       </c>
-      <c r="R8" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S8" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T8" s="69" t="s">
-        <v>227</v>
-      </c>
-      <c r="U8" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V8" s="61"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="R8" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S8" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T8" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="U8" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V8" s="41"/>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31" t="s">
-        <v>142</v>
+      <c r="D9" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="H9" s="4">
         <v>7</v>
@@ -2188,8 +2479,8 @@
       <c r="I9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>143</v>
+      <c r="J9" s="29" t="s">
+        <v>240</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>20</v>
@@ -2201,46 +2492,46 @@
       <c r="N9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="29" t="s">
-        <v>144</v>
+      <c r="O9" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="67">
+      <c r="Q9" s="47">
         <v>6</v>
       </c>
-      <c r="R9" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S9" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T9" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="U9" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V9" s="61"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="R9" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S9" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T9" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="U9" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V9" s="41"/>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="31" t="s">
-        <v>145</v>
+      <c r="D10" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="H10" s="17">
         <v>8</v>
@@ -2248,8 +2539,8 @@
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="32" t="s">
-        <v>146</v>
+      <c r="J10" s="29" t="s">
+        <v>241</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>20</v>
@@ -2261,46 +2552,46 @@
       <c r="N10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="29" t="s">
-        <v>147</v>
+      <c r="O10" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="67">
+      <c r="Q10" s="47">
         <v>6</v>
       </c>
-      <c r="R10" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S10" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T10" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="U10" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V10" s="61"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="R10" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S10" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T10" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="U10" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V10" s="41"/>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="31" t="s">
-        <v>148</v>
+      <c r="D11" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="H11" s="4">
         <v>9</v>
@@ -2308,8 +2599,8 @@
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="32" t="s">
-        <v>149</v>
+      <c r="J11" s="29" t="s">
+        <v>141</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>20</v>
@@ -2321,166 +2612,166 @@
       <c r="N11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="29" t="s">
-        <v>150</v>
+      <c r="O11" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="P11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="67">
+      <c r="Q11" s="47">
         <v>6</v>
       </c>
-      <c r="R11" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S11" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T11" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="U11" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V11" s="61"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="R11" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S11" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T11" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="U11" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V11" s="41"/>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="F12" s="108"/>
+      <c r="G12" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="110">
         <v>10</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7" t="s">
+      <c r="M12" s="115"/>
+      <c r="N12" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="17" t="s">
+      <c r="O12" s="108"/>
+      <c r="P12" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="67">
+      <c r="Q12" s="116">
         <v>6</v>
       </c>
-      <c r="R12" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S12" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T12" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="U12" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V12" s="61"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="R12" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="S12" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="T12" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="U12" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="V12" s="41"/>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="D13" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="125" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="90">
         <v>11</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="J13" s="134" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="P13" s="17" t="s">
+      <c r="N13" s="94"/>
+      <c r="O13" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="67">
+      <c r="Q13" s="97">
         <v>6</v>
       </c>
-      <c r="R13" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="S13" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="T13" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="U13" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="V13" s="61"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="R13" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="S13" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="T13" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="U13" s="100" t="s">
+        <v>202</v>
+      </c>
+      <c r="V13" s="41"/>
+    </row>
+    <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="31" t="s">
-        <v>158</v>
+      <c r="D14" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="64" t="s">
+        <v>147</v>
       </c>
       <c r="H14" s="4">
         <v>12</v>
@@ -2488,8 +2779,8 @@
       <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>159</v>
+      <c r="J14" s="68" t="s">
+        <v>148</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>20</v>
@@ -2501,46 +2792,46 @@
       <c r="N14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="29" t="s">
-        <v>160</v>
+      <c r="O14" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="P14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="67">
+      <c r="Q14" s="47">
         <v>6</v>
       </c>
-      <c r="R14" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S14" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T14" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="U14" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V14" s="61"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="R14" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S14" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="U14" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V14" s="41"/>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="31" t="s">
-        <v>151</v>
+      <c r="D15" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="64" t="s">
+        <v>143</v>
       </c>
       <c r="H15" s="17">
         <v>13</v>
@@ -2548,8 +2839,8 @@
       <c r="I15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="32" t="s">
-        <v>156</v>
+      <c r="J15" s="68" t="s">
+        <v>242</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>20</v>
@@ -2561,46 +2852,46 @@
       <c r="N15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="29" t="s">
-        <v>157</v>
+      <c r="O15" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="67">
+      <c r="Q15" s="47">
         <v>6</v>
       </c>
-      <c r="R15" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S15" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T15" s="69" t="s">
-        <v>234</v>
-      </c>
-      <c r="U15" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V15" s="61"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="R15" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S15" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T15" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="U15" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V15" s="41"/>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="31" t="s">
-        <v>161</v>
+      <c r="D16" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="H16" s="4">
         <v>14</v>
@@ -2608,8 +2899,8 @@
       <c r="I16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="32" t="s">
-        <v>162</v>
+      <c r="J16" s="68" t="s">
+        <v>151</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>20</v>
@@ -2621,164 +2912,164 @@
       <c r="N16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="29" t="s">
-        <v>163</v>
+      <c r="O16" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="67">
+      <c r="Q16" s="47">
         <v>6</v>
       </c>
-      <c r="R16" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S16" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T16" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="U16" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V16" s="61"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="R16" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S16" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T16" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="U16" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V16" s="41"/>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="F17" s="108"/>
+      <c r="G17" s="126" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" s="110">
         <v>15</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7" t="s">
+      <c r="M17" s="115"/>
+      <c r="N17" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="P17" s="17" t="s">
+      <c r="O17" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="P17" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="67">
+      <c r="Q17" s="116">
         <v>6</v>
       </c>
-      <c r="R17" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S17" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T17" s="69" t="s">
-        <v>235</v>
-      </c>
-      <c r="U17" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V17" s="61"/>
-    </row>
-    <row r="18" spans="1:25" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="R17" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="S17" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="T17" s="118" t="s">
+        <v>218</v>
+      </c>
+      <c r="U17" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="V17" s="41"/>
+    </row>
+    <row r="18" spans="1:25" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="D18" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="90">
         <v>16</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="K18" s="6" t="s">
+      <c r="J18" s="136" t="s">
+        <v>243</v>
+      </c>
+      <c r="K18" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="17" t="s">
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="67">
+      <c r="Q18" s="97">
         <v>8</v>
       </c>
-      <c r="R18" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="S18" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="T18" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="U18" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="V18" s="62"/>
-    </row>
-    <row r="19" spans="1:25" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="R18" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="S18" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="T18" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="V18" s="42"/>
+    </row>
+    <row r="19" spans="1:25" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="31" t="s">
-        <v>169</v>
+        <v>196</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="65" t="s">
+        <v>236</v>
       </c>
       <c r="H19" s="17">
         <v>17</v>
@@ -2786,8 +3077,8 @@
       <c r="I19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="32" t="s">
-        <v>170</v>
+      <c r="J19" s="137" t="s">
+        <v>157</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>19</v>
@@ -2797,44 +3088,44 @@
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="29"/>
+      <c r="O19" s="28"/>
       <c r="P19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="67">
+      <c r="Q19" s="47">
         <v>8</v>
       </c>
-      <c r="R19" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="S19" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="T19" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="U19" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="V19" s="62"/>
+      <c r="R19" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="S19" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T19" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="U19" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="V19" s="42"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="31" t="s">
-        <v>171</v>
+        <v>196</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="65" t="s">
+        <v>158</v>
       </c>
       <c r="H20" s="4">
         <v>18</v>
@@ -2842,8 +3133,8 @@
       <c r="I20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="32" t="s">
-        <v>172</v>
+      <c r="J20" s="137" t="s">
+        <v>159</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>20</v>
@@ -2855,46 +3146,46 @@
         <v>58</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="29" t="s">
-        <v>173</v>
+      <c r="O20" s="28" t="s">
+        <v>160</v>
       </c>
       <c r="P20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="67">
+      <c r="Q20" s="47">
         <v>6</v>
       </c>
-      <c r="R20" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="S20" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="T20" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="U20" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="V20" s="61"/>
+      <c r="R20" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="S20" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="T20" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="U20" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="V20" s="41"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="31" t="s">
-        <v>174</v>
+        <v>196</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="65" t="s">
+        <v>161</v>
       </c>
       <c r="H21" s="17">
         <v>19</v>
@@ -2902,8 +3193,8 @@
       <c r="I21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="32" t="s">
-        <v>175</v>
+      <c r="J21" s="137" t="s">
+        <v>244</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>20</v>
@@ -2915,46 +3206,46 @@
       <c r="N21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="29" t="s">
-        <v>176</v>
+      <c r="O21" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="P21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="67">
+      <c r="Q21" s="47">
         <v>6</v>
       </c>
-      <c r="R21" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S21" s="67" t="s">
+      <c r="R21" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S21" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T21" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="T21" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="U21" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V21" s="61"/>
+      <c r="U21" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V21" s="41"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="31" t="s">
-        <v>177</v>
+        <v>196</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="65" t="s">
+        <v>163</v>
       </c>
       <c r="H22" s="4">
         <v>20</v>
@@ -2962,8 +3253,8 @@
       <c r="I22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="32" t="s">
-        <v>178</v>
+      <c r="J22" s="137" t="s">
+        <v>164</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>20</v>
@@ -2975,46 +3266,46 @@
       <c r="N22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="O22" s="29" t="s">
-        <v>179</v>
+      <c r="O22" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="67">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="47">
         <v>6</v>
       </c>
-      <c r="R22" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S22" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T22" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="U22" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V22" s="61"/>
+      <c r="R22" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S22" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T22" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="U22" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V22" s="41"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="31" t="s">
-        <v>180</v>
+        <v>196</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="65" t="s">
+        <v>166</v>
       </c>
       <c r="H23" s="17">
         <v>21</v>
@@ -3022,8 +3313,8 @@
       <c r="I23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="32" t="s">
-        <v>181</v>
+      <c r="J23" s="137" t="s">
+        <v>167</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>20</v>
@@ -3035,162 +3326,162 @@
       <c r="N23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="29" t="s">
-        <v>182</v>
+      <c r="O23" s="28" t="s">
+        <v>168</v>
       </c>
       <c r="P23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="67">
+      <c r="Q23" s="47">
         <v>6</v>
       </c>
-      <c r="R23" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S23" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T23" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="U23" s="67" t="s">
+      <c r="R23" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S23" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T23" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="V23" s="61"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="U23" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="V23" s="41"/>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="30" t="s">
+      <c r="D24" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="H24" s="17">
+      <c r="F24" s="108"/>
+      <c r="G24" s="129" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="110">
         <v>22</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="J24" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7" t="s">
+      <c r="M24" s="115"/>
+      <c r="N24" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="17" t="s">
+      <c r="O24" s="108"/>
+      <c r="P24" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="67">
+      <c r="Q24" s="116">
         <v>6</v>
       </c>
-      <c r="R24" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S24" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T24" s="69" t="s">
-        <v>241</v>
-      </c>
-      <c r="U24" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V24" s="61"/>
-    </row>
-    <row r="25" spans="1:25" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="R24" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="S24" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="T24" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="U24" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="V24" s="41"/>
+    </row>
+    <row r="25" spans="1:25" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="D25" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="131" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="90">
         <v>23</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="K25" s="6" t="s">
+      <c r="J25" s="139" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="17" t="s">
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="67">
+      <c r="Q25" s="97">
         <v>8</v>
       </c>
-      <c r="R25" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="S25" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="T25" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="U25" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="V25" s="62"/>
-    </row>
-    <row r="26" spans="1:25" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="R25" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="S25" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="T25" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="U25" s="100" t="s">
+        <v>231</v>
+      </c>
+      <c r="V25" s="42"/>
+    </row>
+    <row r="26" spans="1:25" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="31" t="s">
-        <v>186</v>
+        <v>197</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="66" t="s">
+        <v>172</v>
       </c>
       <c r="H26" s="17">
         <v>24</v>
@@ -3198,8 +3489,8 @@
       <c r="I26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="32" t="s">
-        <v>187</v>
+      <c r="J26" s="63" t="s">
+        <v>173</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>19</v>
@@ -3209,44 +3500,44 @@
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="28"/>
       <c r="P26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="67">
+      <c r="Q26" s="47">
         <v>8</v>
       </c>
-      <c r="R26" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="S26" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="T26" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="U26" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="V26" s="62"/>
-    </row>
-    <row r="27" spans="1:25" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="R26" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="S26" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T26" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="U26" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="V26" s="42"/>
+    </row>
+    <row r="27" spans="1:25" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="31" t="s">
-        <v>188</v>
+        <v>197</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="66" t="s">
+        <v>174</v>
       </c>
       <c r="H27" s="17">
         <v>25</v>
@@ -3254,8 +3545,8 @@
       <c r="I27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="32" t="s">
-        <v>190</v>
+      <c r="J27" s="63" t="s">
+        <v>176</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>19</v>
@@ -3265,44 +3556,44 @@
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="67">
+      <c r="Q27" s="47">
         <v>8</v>
       </c>
-      <c r="R27" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="S27" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="T27" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="U27" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="V27" s="62"/>
-    </row>
-    <row r="28" spans="1:25" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="R27" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="S27" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T27" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="U27" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="V27" s="42"/>
+    </row>
+    <row r="28" spans="1:25" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="31" t="s">
-        <v>189</v>
+        <v>197</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="66" t="s">
+        <v>175</v>
       </c>
       <c r="H28" s="4">
         <v>26</v>
@@ -3310,8 +3601,8 @@
       <c r="I28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="32" t="s">
-        <v>191</v>
+      <c r="J28" s="63" t="s">
+        <v>177</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>19</v>
@@ -3321,44 +3612,44 @@
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="67">
+      <c r="Q28" s="47">
         <v>8</v>
       </c>
-      <c r="R28" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="S28" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="T28" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="U28" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="V28" s="62"/>
-    </row>
-    <row r="29" spans="1:25" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="R28" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="S28" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T28" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="U28" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="V28" s="42"/>
+    </row>
+    <row r="29" spans="1:25" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="31" t="s">
-        <v>192</v>
+        <v>197</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="66" t="s">
+        <v>178</v>
       </c>
       <c r="H29" s="17">
         <v>27</v>
@@ -3366,8 +3657,8 @@
       <c r="I29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="32" t="s">
-        <v>193</v>
+      <c r="J29" s="63" t="s">
+        <v>179</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>19</v>
@@ -3377,44 +3668,44 @@
       </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="29"/>
+      <c r="O29" s="28"/>
       <c r="P29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="67">
+      <c r="Q29" s="47">
         <v>8</v>
       </c>
-      <c r="R29" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="S29" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="T29" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="U29" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="V29" s="62"/>
+      <c r="R29" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="S29" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T29" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="U29" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="V29" s="42"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="101" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="31" t="s">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="66" t="s">
+        <v>180</v>
       </c>
       <c r="H30" s="17">
         <v>28</v>
@@ -3422,8 +3713,8 @@
       <c r="I30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="32" t="s">
-        <v>195</v>
+      <c r="J30" s="63" t="s">
+        <v>181</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>20</v>
@@ -3435,93 +3726,93 @@
         <v>58</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="29" t="s">
-        <v>196</v>
+      <c r="O30" s="28" t="s">
+        <v>182</v>
       </c>
       <c r="P30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="67">
+      <c r="Q30" s="47">
         <v>6</v>
       </c>
-      <c r="R30" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="S30" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="T30" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="U30" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="V30" s="63"/>
+      <c r="R30" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="S30" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="T30" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="U30" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="V30" s="43"/>
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
       <c r="Y30" s="23"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" s="30" t="s">
+      <c r="D31" s="106" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="F31" s="108"/>
+      <c r="G31" s="132" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" s="111">
         <v>29</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="K31" s="6" t="s">
+      <c r="J31" s="140" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7" t="s">
+      <c r="M31" s="115"/>
+      <c r="N31" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="P31" s="17" t="s">
+      <c r="O31" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="67">
+      <c r="Q31" s="116">
         <v>6</v>
       </c>
-      <c r="R31" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S31" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T31" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="U31" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V31" s="63"/>
+      <c r="R31" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="S31" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="T31" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="U31" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="V31" s="43"/>
       <c r="W31" s="23"/>
       <c r="X31" s="23"/>
       <c r="Y31" s="23"/>
@@ -3531,62 +3822,62 @@
         <v>15</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="H32" s="17">
+        <v>194</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="130" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="24">
         <v>30</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="K32" s="6" t="s">
+      <c r="J32" s="130" t="s">
+        <v>185</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7" t="s">
+      <c r="M32" s="14"/>
+      <c r="N32" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="P32" s="17" t="s">
+      <c r="O32" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="67">
+      <c r="Q32" s="83">
         <v>6</v>
       </c>
-      <c r="R32" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S32" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T32" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="U32" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V32" s="63"/>
+      <c r="R32" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="S32" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="T32" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="U32" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="V32" s="43"/>
       <c r="W32" s="23"/>
       <c r="X32" s="23"/>
       <c r="Y32" s="23"/>
@@ -3594,19 +3885,19 @@
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="67" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="17">
@@ -3615,8 +3906,8 @@
       <c r="I33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="32" t="s">
-        <v>204</v>
+      <c r="J33" s="67" t="s">
+        <v>189</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>20</v>
@@ -3626,15 +3917,15 @@
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="29"/>
+      <c r="O33" s="28"/>
       <c r="P33" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="64"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="44"/>
       <c r="V33" s="23"/>
       <c r="W33" s="23"/>
       <c r="X33" s="23"/>
@@ -3643,20 +3934,20 @@
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="31" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="67" t="s">
+        <v>187</v>
       </c>
       <c r="H34" s="4">
         <v>32</v>
@@ -3664,8 +3955,8 @@
       <c r="I34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="32" t="s">
-        <v>205</v>
+      <c r="J34" s="67" t="s">
+        <v>190</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>20</v>
@@ -3677,26 +3968,26 @@
       <c r="N34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="29"/>
+      <c r="O34" s="28"/>
       <c r="P34" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="67">
+      <c r="Q34" s="47">
         <v>6</v>
       </c>
-      <c r="R34" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S34" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T34" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="U34" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V34" s="63"/>
+      <c r="R34" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S34" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T34" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="U34" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="V34" s="43"/>
       <c r="W34" s="23"/>
       <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
@@ -3704,20 +3995,20 @@
     <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="31" t="s">
-        <v>203</v>
+      <c r="D35" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="67" t="s">
+        <v>188</v>
       </c>
       <c r="H35" s="17">
         <v>33</v>
@@ -3725,8 +4016,8 @@
       <c r="I35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="32" t="s">
-        <v>206</v>
+      <c r="J35" s="67" t="s">
+        <v>191</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>20</v>
@@ -3738,100 +4029,100 @@
       <c r="N35" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="29"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="67">
+      <c r="Q35" s="47">
         <v>6</v>
       </c>
-      <c r="R35" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="S35" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="T35" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="U35" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="V35" s="63"/>
+      <c r="R35" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="S35" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="T35" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="U35" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="V35" s="43"/>
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
       <c r="Y35" s="23"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="32"/>
+      <c r="J36" s="31"/>
       <c r="K36" s="6"/>
       <c r="L36" s="5"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="29"/>
+      <c r="O36" s="28"/>
       <c r="P36" s="17"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="63"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="43"/>
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
       <c r="Y36" s="23"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="32"/>
+      <c r="J37" s="31"/>
       <c r="K37" s="6"/>
       <c r="L37" s="5"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="29"/>
+      <c r="O37" s="28"/>
       <c r="P37" s="17"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="63"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="43"/>
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
       <c r="Y37" s="23"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="32"/>
+      <c r="J38" s="31"/>
       <c r="K38" s="6"/>
       <c r="L38" s="5"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="29"/>
+      <c r="O38" s="28"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="15"/>
       <c r="R38" s="16"/>
@@ -3845,20 +4136,20 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="32"/>
+      <c r="J39" s="31"/>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="29"/>
+      <c r="O39" s="28"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="16"/>
@@ -3872,20 +4163,20 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="32"/>
+      <c r="J40" s="31"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="29"/>
+      <c r="O40" s="28"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="16"/>
@@ -3896,20 +4187,20 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="32"/>
+      <c r="J41" s="31"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="29"/>
+      <c r="O41" s="28"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="16"/>
@@ -3920,20 +4211,20 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="32"/>
+      <c r="J42" s="31"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="29"/>
+      <c r="O42" s="28"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="15"/>
       <c r="R42" s="16"/>
@@ -3944,20 +4235,20 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="32"/>
+      <c r="J43" s="31"/>
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="29"/>
+      <c r="O43" s="28"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="15"/>
       <c r="R43" s="16"/>
@@ -3968,20 +4259,20 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="32"/>
+      <c r="J44" s="31"/>
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="29"/>
+      <c r="O44" s="28"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="15"/>
       <c r="R44" s="16"/>
@@ -3992,20 +4283,20 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="32"/>
+      <c r="J45" s="31"/>
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="29"/>
+      <c r="O45" s="28"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="16"/>
@@ -4016,20 +4307,20 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="32"/>
+      <c r="J46" s="31"/>
       <c r="K46" s="6"/>
       <c r="L46" s="5"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="29"/>
+      <c r="O46" s="28"/>
       <c r="P46" s="17"/>
       <c r="Q46" s="15"/>
       <c r="R46" s="16"/>
@@ -4040,20 +4331,20 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="28"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="32"/>
+      <c r="J47" s="31"/>
       <c r="K47" s="6"/>
       <c r="L47" s="5"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="29"/>
+      <c r="O47" s="28"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="15"/>
       <c r="R47" s="16"/>
@@ -4064,20 +4355,20 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="32"/>
+      <c r="J48" s="31"/>
       <c r="K48" s="6"/>
       <c r="L48" s="5"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="29"/>
+      <c r="O48" s="28"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="15"/>
       <c r="R48" s="16"/>
@@ -4088,20 +4379,20 @@
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="28"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="32"/>
+      <c r="J49" s="31"/>
       <c r="K49" s="6"/>
       <c r="L49" s="5"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="29"/>
+      <c r="O49" s="28"/>
       <c r="P49" s="17"/>
       <c r="Q49" s="15"/>
       <c r="R49" s="16"/>
@@ -4112,20 +4403,20 @@
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="32"/>
+      <c r="J50" s="31"/>
       <c r="K50" s="6"/>
       <c r="L50" s="5"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="29"/>
+      <c r="O50" s="28"/>
       <c r="P50" s="17"/>
       <c r="Q50" s="15"/>
       <c r="R50" s="16"/>
@@ -4136,20 +4427,20 @@
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="28"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="32"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="6"/>
       <c r="L51" s="5"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="29"/>
+      <c r="O51" s="28"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="15"/>
       <c r="R51" s="16"/>
@@ -4160,20 +4451,20 @@
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="32"/>
+      <c r="J52" s="31"/>
       <c r="K52" s="6"/>
       <c r="L52" s="5"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="29"/>
+      <c r="O52" s="28"/>
       <c r="P52" s="17"/>
       <c r="Q52" s="15"/>
       <c r="R52" s="16"/>
@@ -4184,20 +4475,20 @@
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="32"/>
+      <c r="J53" s="31"/>
       <c r="K53" s="6"/>
       <c r="L53" s="5"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="29"/>
+      <c r="O53" s="28"/>
       <c r="P53" s="17"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="16"/>
@@ -4208,20 +4499,20 @@
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="28"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="32"/>
+      <c r="J54" s="31"/>
       <c r="K54" s="6"/>
       <c r="L54" s="5"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="29"/>
+      <c r="O54" s="28"/>
       <c r="P54" s="17"/>
       <c r="Q54" s="15"/>
       <c r="R54" s="16"/>
@@ -4232,20 +4523,20 @@
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="28"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="32"/>
+      <c r="J55" s="31"/>
       <c r="K55" s="6"/>
       <c r="L55" s="5"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="29"/>
+      <c r="O55" s="28"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="16"/>
@@ -4256,20 +4547,20 @@
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="28"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="32"/>
+      <c r="J56" s="31"/>
       <c r="K56" s="6"/>
       <c r="L56" s="5"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="29"/>
+      <c r="O56" s="28"/>
       <c r="P56" s="17"/>
       <c r="Q56" s="15"/>
       <c r="R56" s="16"/>
@@ -4280,20 +4571,20 @@
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="28"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="32"/>
+      <c r="J57" s="31"/>
       <c r="K57" s="6"/>
       <c r="L57" s="5"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="29"/>
+      <c r="O57" s="28"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="15"/>
       <c r="R57" s="16"/>
@@ -4304,20 +4595,20 @@
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="28"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="32"/>
+      <c r="J58" s="31"/>
       <c r="K58" s="6"/>
       <c r="L58" s="5"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="29"/>
+      <c r="O58" s="28"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="15"/>
       <c r="R58" s="16"/>
@@ -4328,20 +4619,20 @@
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="28"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="32"/>
+      <c r="J59" s="31"/>
       <c r="K59" s="6"/>
       <c r="L59" s="5"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="29"/>
+      <c r="O59" s="28"/>
       <c r="P59" s="17"/>
       <c r="Q59" s="15"/>
       <c r="R59" s="16"/>
@@ -4352,20 +4643,20 @@
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="28"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="32"/>
+      <c r="J60" s="31"/>
       <c r="K60" s="6"/>
       <c r="L60" s="5"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="29"/>
+      <c r="O60" s="28"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="15"/>
       <c r="R60" s="16"/>
@@ -4376,20 +4667,20 @@
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="28"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="32"/>
+      <c r="J61" s="31"/>
       <c r="K61" s="6"/>
       <c r="L61" s="5"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="29"/>
+      <c r="O61" s="28"/>
       <c r="P61" s="17"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="16"/>
@@ -4400,20 +4691,20 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="28"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="32"/>
+      <c r="J62" s="31"/>
       <c r="K62" s="6"/>
       <c r="L62" s="5"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="29"/>
+      <c r="O62" s="28"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="15"/>
       <c r="R62" s="16"/>
@@ -4424,20 +4715,20 @@
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="28"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="32"/>
+      <c r="J63" s="31"/>
       <c r="K63" s="6"/>
       <c r="L63" s="5"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="29"/>
+      <c r="O63" s="28"/>
       <c r="P63" s="17"/>
       <c r="Q63" s="15"/>
       <c r="R63" s="16"/>
@@ -4448,20 +4739,20 @@
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="28"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="32"/>
+      <c r="J64" s="31"/>
       <c r="K64" s="6"/>
       <c r="L64" s="5"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="29"/>
+      <c r="O64" s="28"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="15"/>
       <c r="R64" s="16"/>
@@ -4472,20 +4763,20 @@
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="35"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="37"/>
+      <c r="J65" s="36"/>
       <c r="K65" s="13"/>
       <c r="L65" s="12"/>
       <c r="M65" s="14"/>
       <c r="N65" s="14"/>
-      <c r="O65" s="36"/>
+      <c r="O65" s="35"/>
       <c r="P65" s="24"/>
       <c r="Q65" s="18"/>
       <c r="R65" s="19"/>
@@ -4495,20 +4786,20 @@
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="28"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="32"/>
+      <c r="J66" s="31"/>
       <c r="K66" s="6"/>
       <c r="L66" s="5"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="29"/>
+      <c r="O66" s="28"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="15"/>
       <c r="R66" s="16"/>
@@ -4518,20 +4809,20 @@
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="28"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="32"/>
+      <c r="J67" s="31"/>
       <c r="K67" s="6"/>
       <c r="L67" s="5"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="29"/>
+      <c r="O67" s="28"/>
       <c r="P67" s="17"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="16"/>
@@ -4541,20 +4832,20 @@
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="28"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="32"/>
+      <c r="J68" s="31"/>
       <c r="K68" s="6"/>
       <c r="L68" s="5"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="29"/>
+      <c r="O68" s="28"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="16"/>
@@ -4564,20 +4855,20 @@
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="28"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="32"/>
+      <c r="J69" s="31"/>
       <c r="K69" s="6"/>
       <c r="L69" s="5"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="29"/>
+      <c r="O69" s="28"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="15"/>
       <c r="R69" s="16"/>
@@ -4587,20 +4878,20 @@
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="28"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="32"/>
+      <c r="J70" s="31"/>
       <c r="K70" s="6"/>
       <c r="L70" s="5"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="29"/>
+      <c r="O70" s="28"/>
       <c r="P70" s="17"/>
       <c r="Q70" s="15"/>
       <c r="R70" s="16"/>
@@ -4610,20 +4901,20 @@
     </row>
     <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="28"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="32"/>
+      <c r="J71" s="31"/>
       <c r="K71" s="6"/>
       <c r="L71" s="5"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
-      <c r="O71" s="29"/>
+      <c r="O71" s="28"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="15"/>
       <c r="R71" s="16"/>
@@ -4633,20 +4924,20 @@
     </row>
     <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="28"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="32"/>
+      <c r="J72" s="31"/>
       <c r="K72" s="6"/>
       <c r="L72" s="5"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
-      <c r="O72" s="29"/>
+      <c r="O72" s="28"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="16"/>
@@ -4656,20 +4947,20 @@
     </row>
     <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="28"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="32"/>
+      <c r="J73" s="31"/>
       <c r="K73" s="6"/>
       <c r="L73" s="5"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
-      <c r="O73" s="29"/>
+      <c r="O73" s="28"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="15"/>
       <c r="R73" s="16"/>
@@ -5040,12 +5331,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5060,6 +5345,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4815" yWindow="660" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="248">
   <si>
     <t>Asignatura</t>
   </si>
@@ -417,9 +422,6 @@
 Proponer entre 5 y 6 situaciones de ese estilo. Los anteriores son solo ejemplos.</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: El razonaimiento inductivo</t>
-  </si>
-  <si>
     <t>Actividades sobre El razonamiento inductivo</t>
   </si>
   <si>
@@ -457,9 +459,6 @@
   </si>
   <si>
     <t>Actividades sobre El razonamiento deductivo</t>
-  </si>
-  <si>
-    <t>En las opciones colocar: métoso directo, método indirecto, demostración por contraejemplo. En cada ficha, dar la explicación correspondiente con elemplos de demostración de teoremas relativamente sencillos para que la comprensión sea clara.</t>
   </si>
   <si>
     <t>En la imagen ubicar una tabla con los pasos de la demostración. En los textos ubicar las justificaciones correspondientes a cada caso. El enunciado debe decir: Organiza los pasos que justifican la demostración del siguiente teorema: XXXX</t>
@@ -484,9 +483,6 @@
     <t>Construir un F13 off line de dos pestañas. Una que se llame Presentación y otra  Aplicación En la primera mostrar un ejemplo de una demostración con imagen. Por ejemplo:Demostar que los ánguos opuestos por le vértice son congruentes. Mostrar la figura, y una tabla con los pasos. Se debe explicar cada uno con su justificación. En la segunda pestaña la propuesta para que los estudiantes realicen dos o tres demostraciones.</t>
   </si>
   <si>
-    <t>Actividades sobre Los métodos de demostración</t>
-  </si>
-  <si>
     <t>Las relaciones angulares</t>
   </si>
   <si>
@@ -496,12 +492,6 @@
     <t>Actividad para afianzar las relaciones angulares</t>
   </si>
   <si>
-    <t>Ángulos formados entre rectas perpendiculares</t>
-  </si>
-  <si>
-    <t>Interactivo que explica los ángulos determinados entre rectas paralelas y una secante</t>
-  </si>
-  <si>
     <t>En cada botón colocar una clase de ángulos con su respectiva imagen y definición.</t>
   </si>
   <si>
@@ -577,9 +567,6 @@
     <t>Proyecto: Los métodos de razonamiento</t>
   </si>
   <si>
-    <t>Proyecto mediante el cual se aplican los distintos tipos de razonamientos que contribuyen al desarrollo del pensamiento matemático</t>
-  </si>
-  <si>
     <t xml:space="preserve">Construir este recurso en un F13 off line, En el se planteará una demostración en la que se deba reconocer el tipo de razonamiento que se está empleando y el tipo de demostración con sus fases. El primer botón aludirá al enunciado que se quiere demostrar. En el segundo botón se denominará Conceptos y se nombrarán los conceptos vistos en la unidad que se requieran para el desarrollo del proyecto; el botón 3 se denominará Objetivos y se escribirán los objetivos del proyecto; el botón 4 se denominará Planificación y dará las pautas para que los estudiantes planifiquen el proyecto; el botón 5 se denominará investigación y explicará los pasos que se requieren para dar solución a la pregunta planteada al inicio del interactivo y las tareas a realizar: tipo de razonamiento, tipo de demostración, fases de la demostración; el botón 6 se denominará análisis y presentará las pautas para realizar la demostración, el botón 7 se denominará exposición con las pautas para dar a conocer los resultados obtenidos con las respectivas argumentaciones matemáticas de los mismos y finalmente, el botón 8 se denominará Evaluación e incluuirá los criterios de evaluación de la actividad. </t>
   </si>
   <si>
@@ -733,9 +720,6 @@
     <t>Interactivo para resolver situaciones aplicando el razonamiento inductivo</t>
   </si>
   <si>
-    <t xml:space="preserve">Interactivo en el cual se explica en qué consiste el razonamiento deductivo </t>
-  </si>
-  <si>
     <t>Actividad para aplicar conceptos de razonamiento deductivo</t>
   </si>
   <si>
@@ -755,12 +739,6 @@
   </si>
   <si>
     <t>Refuerza tu aprendizaje: Los métodos de demostración en geometría</t>
-  </si>
-  <si>
-    <t>Interactivo con el cual se exponen los distintos métodos de demostración en geometría</t>
-  </si>
-  <si>
-    <t>Actividades sobre Los ángulos y las rectas</t>
   </si>
   <si>
     <r>
@@ -898,12 +876,42 @@
       <t>opción 1 se denominará ¿En qué consiste? y contendrá la definición y la importancia (pues es importante en el sentido de que se puede comprobar que las conjeturas hechas gracias al razonamiento inductivo son válidas en todos los casos). La opción 2 se denominará Postulados y Teoremas y en ella se explicará qué es un postulado y qué es un teorema, debido a que estos elementos se requieren para poder justificar que la conjetura es válida en todos los casos. La opción 3 se denominará Ejemplo y en ella se radicará la importancia de escribir las conjeturas de la forma si... entonces, en donde si... corresponde a lo dado o desde lo que se parte, y el entonces... corresponde a lo que se quiere justificar; en esta opción se ubicará la respectiva imagen del ejemplo. En cada opción se colocará una imagen alusiva al tema que contenga.</t>
     </r>
   </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El razonamiento inductivo</t>
+  </si>
+  <si>
+    <t>Interactivo para estudiar en qué consiste el razonamiento deductivo</t>
+  </si>
+  <si>
+    <t>Interactivo para estudiar los distintos métodos de demostración en geometría</t>
+  </si>
+  <si>
+    <t>En las opciones colocar: método directo, método indirecto, demostración por contraejemplo. En cada ficha, dar la explicación correspondiente con elemplos de demostración de teoremas relativamente sencillos para que la comprensión sea clara.</t>
+  </si>
+  <si>
+    <t>Actividades sobre Los métodos de demostración en geometría</t>
+  </si>
+  <si>
+    <t>Los ángulos formados entre rectas perpendiculares</t>
+  </si>
+  <si>
+    <t>Interactivo que explica los ángulos formados entre rectas perpendiculares</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los ángulos en polígonos</t>
+  </si>
+  <si>
+    <t>Actividades sobre Los ángulos en polígonos</t>
+  </si>
+  <si>
+    <t>Proyecto para aplicar los distintos tipos de razonamiento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,13 +937,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1043,18 +1044,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1245,244 +1246,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1492,131 +1316,510 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1678,7 +1881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1713,7 +1916,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1924,3003 +2127,3046 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="26" style="22" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="87" customWidth="1"/>
-    <col min="7" max="7" width="91.5703125" style="143" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="87" customWidth="1"/>
-    <col min="9" max="9" width="11" style="87" customWidth="1"/>
-    <col min="10" max="10" width="141.140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="22" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="35" style="87" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="119" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="119" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="96" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="96" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="96" customWidth="1"/>
-    <col min="21" max="21" width="17" style="96" customWidth="1"/>
-    <col min="22" max="16384" width="10.85546875" style="22"/>
+    <col min="1" max="1" width="16.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="91.5703125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11" style="20" customWidth="1"/>
+    <col min="10" max="10" width="125.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="4" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="35" style="20" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="31" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="26" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="26" customWidth="1"/>
+    <col min="20" max="20" width="43.28515625" style="26" customWidth="1"/>
+    <col min="21" max="21" width="17" style="26" customWidth="1"/>
+    <col min="22" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="21"/>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="30" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="21"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="172" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="124" t="s">
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="172">
         <v>1</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="172" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="172" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="172"/>
+      <c r="O3" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P3" s="174" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="175">
+        <v>6</v>
+      </c>
+      <c r="R3" s="175" t="s">
+        <v>190</v>
+      </c>
+      <c r="S3" s="175" t="s">
+        <v>191</v>
+      </c>
+      <c r="T3" s="176" t="s">
+        <v>192</v>
+      </c>
+      <c r="U3" s="177" t="s">
+        <v>193</v>
+      </c>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="179" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="179" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="172" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="180" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="181">
+        <v>2</v>
+      </c>
+      <c r="I4" s="182" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="182" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="182" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="181" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="184">
+        <v>6</v>
+      </c>
+      <c r="R4" s="184" t="s">
+        <v>194</v>
+      </c>
+      <c r="S4" s="184" t="s">
+        <v>195</v>
+      </c>
+      <c r="T4" s="185" t="s">
+        <v>196</v>
+      </c>
+      <c r="U4" s="186" t="s">
+        <v>197</v>
+      </c>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="196" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="154">
+        <v>3</v>
+      </c>
+      <c r="I5" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="154"/>
+      <c r="O5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="P5" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="156">
+        <v>6</v>
+      </c>
+      <c r="R5" s="156" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" s="156" t="s">
+        <v>191</v>
+      </c>
+      <c r="T5" s="197" t="s">
+        <v>198</v>
+      </c>
+      <c r="U5" s="198" t="s">
+        <v>193</v>
+      </c>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="187" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="188" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="188" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="172" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="189" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="190">
+        <v>4</v>
+      </c>
+      <c r="I6" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="191" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="190" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="192">
+        <v>6</v>
+      </c>
+      <c r="R6" s="192" t="s">
+        <v>194</v>
+      </c>
+      <c r="S6" s="192" t="s">
+        <v>195</v>
+      </c>
+      <c r="T6" s="193" t="s">
+        <v>199</v>
+      </c>
+      <c r="U6" s="194" t="s">
+        <v>197</v>
+      </c>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="82" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="P7" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="85">
+        <v>6</v>
+      </c>
+      <c r="R7" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="S7" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="T7" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="U7" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="90">
+        <v>6</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="92">
+        <v>6</v>
+      </c>
+      <c r="R8" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="S8" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="T8" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="U8" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="196" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="154">
+        <v>7</v>
+      </c>
+      <c r="I9" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="156">
+        <v>6</v>
+      </c>
+      <c r="R9" s="156" t="s">
+        <v>194</v>
+      </c>
+      <c r="S9" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="T9" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="U9" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="196" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="155">
+        <v>8</v>
+      </c>
+      <c r="I10" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="156">
+        <v>6</v>
+      </c>
+      <c r="R10" s="156" t="s">
+        <v>194</v>
+      </c>
+      <c r="S10" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="T10" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="U10" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="91">
+        <v>9</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="92">
+        <v>6</v>
+      </c>
+      <c r="R11" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="S11" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="T11" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="U11" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="98">
+        <v>10</v>
+      </c>
+      <c r="I12" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="96"/>
+      <c r="P12" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="100">
+        <v>6</v>
+      </c>
+      <c r="R12" s="100" t="s">
+        <v>194</v>
+      </c>
+      <c r="S12" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="T12" s="101" t="s">
+        <v>205</v>
+      </c>
+      <c r="U12" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="V12" s="10"/>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="61">
+        <v>11</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="P13" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>6</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="T13" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="70">
+        <v>12</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>6</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="T14" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="30">
+        <v>13</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>6</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="T15" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="V15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="196" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="154">
+        <v>14</v>
+      </c>
+      <c r="I16" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="156">
+        <v>6</v>
+      </c>
+      <c r="R16" s="156" t="s">
+        <v>194</v>
+      </c>
+      <c r="S16" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="T16" s="197" t="s">
+        <v>210</v>
+      </c>
+      <c r="U16" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="V16" s="10"/>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="76">
+        <v>15</v>
+      </c>
+      <c r="I17" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>6</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="T17" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="V17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="204" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="196" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="196" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="196" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="203" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="196">
+        <v>16</v>
+      </c>
+      <c r="I18" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="199" t="s">
+        <v>232</v>
+      </c>
+      <c r="K18" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="196"/>
+      <c r="N18" s="196"/>
+      <c r="O18" s="199"/>
+      <c r="P18" s="200" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="201">
+        <v>8</v>
+      </c>
+      <c r="R18" s="201" t="s">
+        <v>219</v>
+      </c>
+      <c r="S18" s="201" t="s">
+        <v>220</v>
+      </c>
+      <c r="T18" s="201" t="s">
+        <v>150</v>
+      </c>
+      <c r="U18" s="202" t="s">
+        <v>221</v>
+      </c>
+      <c r="V18" s="19"/>
+    </row>
+    <row r="19" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19" s="155">
+        <v>17</v>
+      </c>
+      <c r="I19" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="156">
+        <v>8</v>
+      </c>
+      <c r="R19" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="S19" s="156" t="s">
+        <v>220</v>
+      </c>
+      <c r="T19" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="U19" s="198" t="s">
+        <v>221</v>
+      </c>
+      <c r="V19" s="19"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="133" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="H20" s="135">
+        <v>18</v>
+      </c>
+      <c r="I20" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="135"/>
+      <c r="O20" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="137">
+        <v>6</v>
+      </c>
+      <c r="R20" s="137" t="s">
+        <v>190</v>
+      </c>
+      <c r="S20" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="T20" s="138" t="s">
+        <v>211</v>
+      </c>
+      <c r="U20" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="V20" s="10"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="133" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="134" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="136">
+        <v>19</v>
+      </c>
+      <c r="I21" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K21" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L21" s="135" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="137">
+        <v>6</v>
+      </c>
+      <c r="R21" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="S21" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="T21" s="138" t="s">
+        <v>212</v>
+      </c>
+      <c r="U21" s="139" t="s">
+        <v>197</v>
+      </c>
+      <c r="V21" s="10"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="133" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="154">
+        <v>20</v>
+      </c>
+      <c r="I22" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="154" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154" t="s">
+        <v>120</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="156">
+        <v>6</v>
+      </c>
+      <c r="R22" s="156" t="s">
+        <v>194</v>
+      </c>
+      <c r="S22" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="T22" s="197" t="s">
+        <v>213</v>
+      </c>
+      <c r="U22" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="V22" s="10"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="133" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="133" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="134" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" s="136">
+        <v>21</v>
+      </c>
+      <c r="I23" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="135" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="135" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="137">
+        <v>6</v>
+      </c>
+      <c r="R23" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="S23" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="T23" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="U23" s="139" t="s">
+        <v>197</v>
+      </c>
+      <c r="V23" s="10"/>
+    </row>
+    <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="141" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="141" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="142" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" s="143">
+        <v>22</v>
+      </c>
+      <c r="I24" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="144" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="22"/>
+      <c r="P24" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="145">
+        <v>6</v>
+      </c>
+      <c r="R24" s="145" t="s">
+        <v>194</v>
+      </c>
+      <c r="S24" s="145" t="s">
+        <v>195</v>
+      </c>
+      <c r="T24" s="146" t="s">
+        <v>215</v>
+      </c>
+      <c r="U24" s="147" t="s">
+        <v>197</v>
+      </c>
+      <c r="V24" s="10"/>
+    </row>
+    <row r="25" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="H25" s="111">
+        <v>23</v>
+      </c>
+      <c r="I25" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="114">
+        <v>8</v>
+      </c>
+      <c r="R25" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="S25" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="T25" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="U25" s="115" t="s">
+        <v>221</v>
+      </c>
+      <c r="V25" s="19"/>
+    </row>
+    <row r="26" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="120">
+        <v>24</v>
+      </c>
+      <c r="I26" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="121">
+        <v>8</v>
+      </c>
+      <c r="R26" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="S26" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="T26" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="U26" s="123" t="s">
+        <v>221</v>
+      </c>
+      <c r="V26" s="19"/>
+    </row>
+    <row r="27" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="118" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="120">
+        <v>25</v>
+      </c>
+      <c r="I27" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="119"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="121">
+        <v>8</v>
+      </c>
+      <c r="R27" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="S27" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="T27" s="121" t="s">
+        <v>222</v>
+      </c>
+      <c r="U27" s="123" t="s">
+        <v>221</v>
+      </c>
+      <c r="V27" s="19"/>
+    </row>
+    <row r="28" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="119">
+        <v>26</v>
+      </c>
+      <c r="I28" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="121">
+        <v>8</v>
+      </c>
+      <c r="R28" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="S28" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="T28" s="121" t="s">
+        <v>223</v>
+      </c>
+      <c r="U28" s="123" t="s">
+        <v>221</v>
+      </c>
+      <c r="V28" s="19"/>
+    </row>
+    <row r="29" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="157" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="155">
+        <v>27</v>
+      </c>
+      <c r="I29" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="8" t="s">
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="156">
+        <v>8</v>
+      </c>
+      <c r="R29" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="S29" s="156" t="s">
+        <v>220</v>
+      </c>
+      <c r="T29" s="156" t="s">
+        <v>171</v>
+      </c>
+      <c r="U29" s="198" t="s">
+        <v>221</v>
+      </c>
+      <c r="V29" s="19"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="118" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="120">
+        <v>28</v>
+      </c>
+      <c r="I30" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="119"/>
+      <c r="O30" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="P30" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="121">
+        <v>6</v>
+      </c>
+      <c r="R30" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="S30" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="T30" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="U30" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="V30" s="25"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+    </row>
+    <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="125" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="125" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="126" t="s">
         <v>245</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="H31" s="128">
+        <v>29</v>
+      </c>
+      <c r="I31" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="P31" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q31" s="129">
         <v>6</v>
       </c>
-      <c r="R3" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="S3" s="45" t="s">
+      <c r="R31" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="S31" s="129" t="s">
+        <v>195</v>
+      </c>
+      <c r="T31" s="130" t="s">
+        <v>215</v>
+      </c>
+      <c r="U31" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="U3" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="V3" s="48"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="V31" s="25"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B32" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C32" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="125" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="54">
-        <v>2</v>
-      </c>
-      <c r="I4" s="55" t="s">
+      <c r="D32" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="149" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="150">
+        <v>30</v>
+      </c>
+      <c r="I32" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="120" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="60">
-        <v>6</v>
-      </c>
-      <c r="R4" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S4" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="U4" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V4" s="48"/>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="126" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="55">
-        <v>3</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="P5" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="60">
-        <v>6</v>
-      </c>
-      <c r="R5" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="S5" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="U5" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="V5" s="48"/>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="69">
-        <v>4</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="O6" s="68"/>
-      <c r="P6" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="75">
-        <v>6</v>
-      </c>
-      <c r="R6" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="S6" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="U6" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="V6" s="48"/>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="128" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="39">
-        <v>5</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="P7" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="45">
-        <v>6</v>
-      </c>
-      <c r="R7" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="S7" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="U7" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="V7" s="48"/>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="129" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="54">
-        <v>6</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="P8" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="60">
-        <v>6</v>
-      </c>
-      <c r="R8" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S8" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="U8" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V8" s="48"/>
-    </row>
-    <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="129" t="s">
-        <v>231</v>
-      </c>
-      <c r="H9" s="55">
-        <v>7</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="P9" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="60">
-        <v>6</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S9" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="U9" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V9" s="48"/>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="129" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" s="54">
-        <v>8</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="P10" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="60">
-        <v>6</v>
-      </c>
-      <c r="R10" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S10" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="U10" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V10" s="48"/>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="129" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="55">
-        <v>9</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="P11" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="60">
-        <v>6</v>
-      </c>
-      <c r="R11" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S11" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="U11" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V11" s="48"/>
-    </row>
-    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="69">
-        <v>10</v>
-      </c>
-      <c r="I12" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="75">
-        <v>6</v>
-      </c>
-      <c r="R12" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="S12" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="U12" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="V12" s="48"/>
-    </row>
-    <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="131" t="s">
-        <v>241</v>
-      </c>
-      <c r="H13" s="39">
-        <v>11</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="81" t="s">
-        <v>243</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="P13" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="45">
-        <v>6</v>
-      </c>
-      <c r="R13" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="S13" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="U13" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="V13" s="48"/>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="132" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="55">
-        <v>12</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="P14" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="60">
-        <v>6</v>
-      </c>
-      <c r="R14" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S14" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="U14" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V14" s="48"/>
-    </row>
-    <row r="15" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="132" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="54">
-        <v>13</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="82" t="s">
-        <v>238</v>
-      </c>
-      <c r="K15" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="P15" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="60">
-        <v>6</v>
-      </c>
-      <c r="R15" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S15" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="U15" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V15" s="48"/>
-    </row>
-    <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="132" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="55">
-        <v>14</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="O16" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="60">
-        <v>6</v>
-      </c>
-      <c r="R16" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S16" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="U16" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V16" s="48"/>
-    </row>
-    <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="133" t="s">
-        <v>242</v>
-      </c>
-      <c r="H17" s="69">
-        <v>15</v>
-      </c>
-      <c r="I17" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="K17" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="P17" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="75">
-        <v>6</v>
-      </c>
-      <c r="R17" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="S17" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="U17" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="V17" s="48"/>
-    </row>
-    <row r="18" spans="1:25" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="134" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="39">
-        <v>16</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="45">
-        <v>8</v>
-      </c>
-      <c r="R18" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="S18" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="T18" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="U18" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="V18" s="86"/>
-    </row>
-    <row r="19" spans="1:25" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="135" t="s">
-        <v>232</v>
-      </c>
-      <c r="H19" s="54">
-        <v>17</v>
-      </c>
-      <c r="I19" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="60">
-        <v>8</v>
-      </c>
-      <c r="R19" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="S19" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="T19" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="U19" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="V19" s="86"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="135" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="55">
-        <v>18</v>
-      </c>
-      <c r="I20" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="P20" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="60">
-        <v>6</v>
-      </c>
-      <c r="R20" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="S20" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="U20" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="V20" s="48"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="135" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="54">
-        <v>19</v>
-      </c>
-      <c r="I21" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="89" t="s">
-        <v>240</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="P21" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="60">
-        <v>6</v>
-      </c>
-      <c r="R21" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S21" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="U21" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V21" s="48"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="135" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" s="55">
-        <v>20</v>
-      </c>
-      <c r="I22" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="K22" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="O22" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="P22" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="60">
-        <v>6</v>
-      </c>
-      <c r="R22" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S22" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="U22" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V22" s="48"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="135" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="54">
-        <v>21</v>
-      </c>
-      <c r="I23" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="K23" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="P23" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="60">
-        <v>6</v>
-      </c>
-      <c r="R23" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S23" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="U23" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="V23" s="48"/>
-    </row>
-    <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="136" t="s">
-        <v>191</v>
-      </c>
-      <c r="H24" s="69">
-        <v>22</v>
-      </c>
-      <c r="I24" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="68"/>
-      <c r="P24" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="75">
-        <v>6</v>
-      </c>
-      <c r="R24" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="S24" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U24" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="V24" s="48"/>
-    </row>
-    <row r="25" spans="1:25" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="137" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="39">
-        <v>23</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="45">
-        <v>8</v>
-      </c>
-      <c r="R25" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="S25" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="T25" s="85" t="s">
-        <v>168</v>
-      </c>
-      <c r="U25" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="V25" s="86"/>
-    </row>
-    <row r="26" spans="1:25" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="138" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="54">
-        <v>24</v>
-      </c>
-      <c r="I26" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="60">
-        <v>8</v>
-      </c>
-      <c r="R26" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="S26" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="T26" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="U26" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="V26" s="86"/>
-    </row>
-    <row r="27" spans="1:25" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="138" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="54">
-        <v>25</v>
-      </c>
-      <c r="I27" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="K27" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="60">
-        <v>8</v>
-      </c>
-      <c r="R27" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="S27" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="T27" s="90" t="s">
-        <v>228</v>
-      </c>
-      <c r="U27" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="V27" s="86"/>
-    </row>
-    <row r="28" spans="1:25" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="138" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" s="55">
-        <v>26</v>
-      </c>
-      <c r="I28" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="K28" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="60">
-        <v>8</v>
-      </c>
-      <c r="R28" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="S28" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="T28" s="90" t="s">
-        <v>229</v>
-      </c>
-      <c r="U28" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="V28" s="86"/>
-    </row>
-    <row r="29" spans="1:25" s="87" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="138" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" s="54">
-        <v>27</v>
-      </c>
-      <c r="I29" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="94" t="s">
-        <v>177</v>
-      </c>
-      <c r="K29" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="60">
-        <v>8</v>
-      </c>
-      <c r="R29" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="S29" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="T29" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="U29" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="V29" s="86"/>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="54">
-        <v>28</v>
-      </c>
-      <c r="I30" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="K30" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="P30" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="60">
-        <v>6</v>
-      </c>
-      <c r="R30" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="S30" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="U30" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="V30" s="95"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="96"/>
-      <c r="Y30" s="96"/>
-    </row>
-    <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="91" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="139" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="70">
-        <v>29</v>
-      </c>
-      <c r="I31" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="97" t="s">
-        <v>244</v>
-      </c>
-      <c r="K31" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="O31" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="P31" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="75">
-        <v>6</v>
-      </c>
-      <c r="R31" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="S31" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U31" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="V31" s="95"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="H32" s="101">
-        <v>30</v>
-      </c>
-      <c r="I32" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="100" t="s">
-        <v>183</v>
+      <c r="J32" s="148" t="s">
+        <v>247</v>
       </c>
       <c r="K32" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="104" t="s">
+      <c r="L32" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105" t="s">
+      <c r="M32" s="103"/>
+      <c r="N32" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="P32" s="101" t="s">
+      <c r="O32" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="P32" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="106">
+      <c r="Q32" s="152">
         <v>6</v>
       </c>
-      <c r="R32" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="S32" s="106" t="s">
-        <v>201</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="U32" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="V32" s="95"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
+      <c r="R32" s="152" t="s">
+        <v>194</v>
+      </c>
+      <c r="S32" s="152" t="s">
+        <v>195</v>
+      </c>
+      <c r="T32" s="153" t="s">
+        <v>216</v>
+      </c>
+      <c r="U32" s="152" t="s">
+        <v>197</v>
+      </c>
+      <c r="V32" s="25"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="141" t="s">
+      <c r="D33" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="107">
         <v>31</v>
       </c>
-      <c r="I33" s="55" t="s">
+      <c r="I33" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="K33" s="56" t="s">
+      <c r="J33" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="K33" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="57" t="s">
+      <c r="L33" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54" t="s">
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="141" t="s">
-        <v>185</v>
-      </c>
-      <c r="H34" s="55">
+      <c r="D34" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="106">
         <v>32</v>
       </c>
-      <c r="I34" s="55" t="s">
+      <c r="I34" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="109" t="s">
-        <v>188</v>
-      </c>
-      <c r="K34" s="56" t="s">
+      <c r="J34" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="57" t="s">
+      <c r="L34" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58" t="s">
+      <c r="M34" s="106"/>
+      <c r="N34" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="53"/>
-      <c r="P34" s="54" t="s">
+      <c r="O34" s="104"/>
+      <c r="P34" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="60">
+      <c r="Q34" s="108">
         <v>6</v>
       </c>
-      <c r="R34" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S34" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="U34" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="V34" s="95"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="96"/>
+      <c r="R34" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="S34" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="T34" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="U34" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="V34" s="25"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="141" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="54">
+      <c r="D35" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="155">
         <v>33</v>
       </c>
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="109" t="s">
-        <v>189</v>
-      </c>
-      <c r="K35" s="56" t="s">
+      <c r="J35" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="K35" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="57" t="s">
+      <c r="L35" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58" t="s">
+      <c r="M35" s="154"/>
+      <c r="N35" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="53"/>
-      <c r="P35" s="54" t="s">
+      <c r="O35" s="28"/>
+      <c r="P35" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="60">
+      <c r="Q35" s="156">
         <v>6</v>
       </c>
-      <c r="R35" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="S35" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="U35" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="V35" s="95"/>
-      <c r="W35" s="96"/>
-      <c r="X35" s="96"/>
-      <c r="Y35" s="96"/>
+      <c r="R35" s="156" t="s">
+        <v>194</v>
+      </c>
+      <c r="S35" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="T35" s="197" t="s">
+        <v>218</v>
+      </c>
+      <c r="U35" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="V35" s="25"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="96"/>
+      <c r="A36" s="158"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="158"/>
+      <c r="L36" s="158"/>
+      <c r="M36" s="158"/>
+      <c r="N36" s="158"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="161"/>
+      <c r="Q36" s="162"/>
+      <c r="R36" s="162"/>
+      <c r="S36" s="162"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="162"/>
+      <c r="V36" s="163"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
+      <c r="A37" s="164"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="164"/>
+      <c r="N37" s="164"/>
+      <c r="O37" s="165"/>
+      <c r="P37" s="167"/>
+      <c r="Q37" s="168"/>
+      <c r="R37" s="168"/>
+      <c r="S37" s="168"/>
+      <c r="T37" s="168"/>
+      <c r="U37" s="168"/>
+      <c r="V37" s="167"/>
+      <c r="W37" s="169"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="108"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="112"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="113"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="96"/>
-      <c r="Y38" s="96"/>
+      <c r="A38" s="164"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="164"/>
+      <c r="M38" s="164"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="165"/>
+      <c r="P38" s="167"/>
+      <c r="Q38" s="167"/>
+      <c r="R38" s="167"/>
+      <c r="S38" s="167"/>
+      <c r="T38" s="167"/>
+      <c r="U38" s="167"/>
+      <c r="V38" s="167"/>
+      <c r="W38" s="169"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="108"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="112"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="113"/>
-      <c r="W39" s="96"/>
-      <c r="X39" s="96"/>
-      <c r="Y39" s="96"/>
+      <c r="A39" s="164"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
+      <c r="K39" s="164"/>
+      <c r="L39" s="164"/>
+      <c r="M39" s="164"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="165"/>
+      <c r="P39" s="167"/>
+      <c r="Q39" s="167"/>
+      <c r="R39" s="167"/>
+      <c r="S39" s="167"/>
+      <c r="T39" s="167"/>
+      <c r="U39" s="167"/>
+      <c r="V39" s="167"/>
+      <c r="W39" s="169"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="108"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="21"/>
+      <c r="A40" s="164"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="164"/>
+      <c r="L40" s="164"/>
+      <c r="M40" s="164"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="165"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="167"/>
+      <c r="S40" s="167"/>
+      <c r="T40" s="167"/>
+      <c r="U40" s="167"/>
+      <c r="V40" s="165"/>
+      <c r="W40" s="170"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="111"/>
-      <c r="T41" s="112"/>
-      <c r="U41" s="111"/>
-      <c r="V41" s="21"/>
+      <c r="A41" s="164"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="165"/>
+      <c r="K41" s="164"/>
+      <c r="L41" s="164"/>
+      <c r="M41" s="164"/>
+      <c r="N41" s="164"/>
+      <c r="O41" s="165"/>
+      <c r="P41" s="167"/>
+      <c r="Q41" s="167"/>
+      <c r="R41" s="167"/>
+      <c r="S41" s="167"/>
+      <c r="T41" s="167"/>
+      <c r="U41" s="167"/>
+      <c r="V41" s="165"/>
+      <c r="W41" s="170"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="108"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="112"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="112"/>
-      <c r="U42" s="111"/>
-      <c r="V42" s="21"/>
+      <c r="A42" s="164"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="164"/>
+      <c r="L42" s="164"/>
+      <c r="M42" s="164"/>
+      <c r="N42" s="164"/>
+      <c r="O42" s="165"/>
+      <c r="P42" s="167"/>
+      <c r="Q42" s="167"/>
+      <c r="R42" s="167"/>
+      <c r="S42" s="167"/>
+      <c r="T42" s="167"/>
+      <c r="U42" s="167"/>
+      <c r="V42" s="165"/>
+      <c r="W42" s="170"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="108"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="112"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="112"/>
-      <c r="U43" s="111"/>
-      <c r="V43" s="21"/>
+      <c r="A43" s="164"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="164"/>
+      <c r="L43" s="164"/>
+      <c r="M43" s="164"/>
+      <c r="N43" s="164"/>
+      <c r="O43" s="165"/>
+      <c r="P43" s="167"/>
+      <c r="Q43" s="167"/>
+      <c r="R43" s="167"/>
+      <c r="S43" s="167"/>
+      <c r="T43" s="167"/>
+      <c r="U43" s="167"/>
+      <c r="V43" s="165"/>
+      <c r="W43" s="170"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="108"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="112"/>
-      <c r="S44" s="111"/>
-      <c r="T44" s="112"/>
-      <c r="U44" s="111"/>
-      <c r="V44" s="21"/>
+      <c r="A44" s="164"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="165"/>
+      <c r="P44" s="167"/>
+      <c r="Q44" s="167"/>
+      <c r="R44" s="167"/>
+      <c r="S44" s="167"/>
+      <c r="T44" s="167"/>
+      <c r="U44" s="167"/>
+      <c r="V44" s="165"/>
+      <c r="W44" s="170"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="112"/>
-      <c r="S45" s="111"/>
-      <c r="T45" s="112"/>
-      <c r="U45" s="111"/>
-      <c r="V45" s="21"/>
+      <c r="A45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="165"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="164"/>
+      <c r="M45" s="164"/>
+      <c r="N45" s="164"/>
+      <c r="O45" s="165"/>
+      <c r="P45" s="167"/>
+      <c r="Q45" s="167"/>
+      <c r="R45" s="167"/>
+      <c r="S45" s="167"/>
+      <c r="T45" s="167"/>
+      <c r="U45" s="167"/>
+      <c r="V45" s="165"/>
+      <c r="W45" s="170"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="108"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="112"/>
-      <c r="S46" s="111"/>
-      <c r="T46" s="112"/>
-      <c r="U46" s="111"/>
-      <c r="V46" s="21"/>
+      <c r="A46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="164"/>
+      <c r="L46" s="164"/>
+      <c r="M46" s="164"/>
+      <c r="N46" s="164"/>
+      <c r="O46" s="165"/>
+      <c r="P46" s="167"/>
+      <c r="Q46" s="167"/>
+      <c r="R46" s="167"/>
+      <c r="S46" s="167"/>
+      <c r="T46" s="167"/>
+      <c r="U46" s="167"/>
+      <c r="V46" s="165"/>
+      <c r="W46" s="170"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="108"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="112"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="112"/>
-      <c r="U47" s="111"/>
-      <c r="V47" s="21"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="166"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="165"/>
+      <c r="K47" s="164"/>
+      <c r="L47" s="164"/>
+      <c r="M47" s="164"/>
+      <c r="N47" s="164"/>
+      <c r="O47" s="165"/>
+      <c r="P47" s="167"/>
+      <c r="Q47" s="167"/>
+      <c r="R47" s="167"/>
+      <c r="S47" s="167"/>
+      <c r="T47" s="167"/>
+      <c r="U47" s="167"/>
+      <c r="V47" s="165"/>
+      <c r="W47" s="170"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="112"/>
-      <c r="S48" s="111"/>
-      <c r="T48" s="112"/>
-      <c r="U48" s="111"/>
-      <c r="V48" s="21"/>
-    </row>
-    <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="112"/>
-      <c r="S49" s="111"/>
-      <c r="T49" s="112"/>
-      <c r="U49" s="111"/>
-      <c r="V49" s="21"/>
-    </row>
-    <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="108"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="112"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="112"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="21"/>
-    </row>
-    <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="112"/>
-      <c r="S51" s="111"/>
-      <c r="T51" s="112"/>
-      <c r="U51" s="111"/>
-      <c r="V51" s="21"/>
-    </row>
-    <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="111"/>
-      <c r="R52" s="112"/>
-      <c r="S52" s="111"/>
-      <c r="T52" s="112"/>
-      <c r="U52" s="111"/>
-      <c r="V52" s="21"/>
-    </row>
-    <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="111"/>
-      <c r="R53" s="112"/>
-      <c r="S53" s="111"/>
-      <c r="T53" s="112"/>
-      <c r="U53" s="111"/>
-      <c r="V53" s="21"/>
-    </row>
-    <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="111"/>
-      <c r="R54" s="112"/>
-      <c r="S54" s="111"/>
-      <c r="T54" s="112"/>
-      <c r="U54" s="111"/>
-      <c r="V54" s="21"/>
-    </row>
-    <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="108"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="112"/>
-      <c r="S55" s="111"/>
-      <c r="T55" s="112"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="21"/>
-    </row>
-    <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="112"/>
-      <c r="S56" s="111"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="111"/>
-      <c r="V56" s="21"/>
-    </row>
-    <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="111"/>
-      <c r="R57" s="112"/>
-      <c r="S57" s="111"/>
-      <c r="T57" s="112"/>
-      <c r="U57" s="111"/>
-      <c r="V57" s="21"/>
-    </row>
-    <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="108"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="111"/>
-      <c r="R58" s="112"/>
-      <c r="S58" s="111"/>
-      <c r="T58" s="112"/>
-      <c r="U58" s="111"/>
-      <c r="V58" s="21"/>
-    </row>
-    <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="108"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="111"/>
-      <c r="R59" s="112"/>
-      <c r="S59" s="111"/>
-      <c r="T59" s="112"/>
-      <c r="U59" s="111"/>
-      <c r="V59" s="21"/>
-    </row>
-    <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="111"/>
-      <c r="R60" s="112"/>
-      <c r="S60" s="111"/>
-      <c r="T60" s="112"/>
-      <c r="U60" s="111"/>
-      <c r="V60" s="21"/>
-    </row>
-    <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="111"/>
-      <c r="R61" s="112"/>
-      <c r="S61" s="111"/>
-      <c r="T61" s="112"/>
-      <c r="U61" s="111"/>
-      <c r="V61" s="21"/>
-    </row>
-    <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="108"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="111"/>
-      <c r="R62" s="112"/>
-      <c r="S62" s="111"/>
-      <c r="T62" s="112"/>
-      <c r="U62" s="111"/>
-      <c r="V62" s="21"/>
-    </row>
-    <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="108"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="110"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="111"/>
-      <c r="R63" s="112"/>
-      <c r="S63" s="111"/>
-      <c r="T63" s="112"/>
-      <c r="U63" s="111"/>
-      <c r="V63" s="21"/>
-    </row>
-    <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="108"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="58"/>
-      <c r="N64" s="58"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="111"/>
-      <c r="R64" s="112"/>
-      <c r="S64" s="111"/>
-      <c r="T64" s="112"/>
-      <c r="U64" s="111"/>
-      <c r="V64" s="21"/>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="102"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="103"/>
-      <c r="L65" s="104"/>
-      <c r="M65" s="105"/>
-      <c r="N65" s="105"/>
-      <c r="O65" s="99"/>
-      <c r="P65" s="101"/>
-      <c r="Q65" s="115"/>
-      <c r="R65" s="116"/>
-      <c r="S65" s="115"/>
-      <c r="T65" s="117"/>
-      <c r="U65" s="115"/>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="108"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="56"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="111"/>
-      <c r="R66" s="112"/>
-      <c r="S66" s="111"/>
-      <c r="T66" s="118"/>
-      <c r="U66" s="111"/>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="110"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="111"/>
-      <c r="R67" s="112"/>
-      <c r="S67" s="111"/>
-      <c r="T67" s="118"/>
-      <c r="U67" s="111"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="108"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="58"/>
-      <c r="N68" s="58"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="111"/>
-      <c r="R68" s="112"/>
-      <c r="S68" s="111"/>
-      <c r="T68" s="118"/>
-      <c r="U68" s="111"/>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="111"/>
-      <c r="R69" s="112"/>
-      <c r="S69" s="111"/>
-      <c r="T69" s="118"/>
-      <c r="U69" s="111"/>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="108"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="58"/>
-      <c r="N70" s="58"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="111"/>
-      <c r="R70" s="112"/>
-      <c r="S70" s="111"/>
-      <c r="T70" s="118"/>
-      <c r="U70" s="111"/>
-    </row>
-    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="108"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="110"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="58"/>
-      <c r="N71" s="58"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="111"/>
-      <c r="R71" s="112"/>
-      <c r="S71" s="111"/>
-      <c r="T71" s="118"/>
-      <c r="U71" s="111"/>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="108"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="110"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="63"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="58"/>
-      <c r="N72" s="58"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="111"/>
-      <c r="R72" s="112"/>
-      <c r="S72" s="111"/>
-      <c r="T72" s="118"/>
-      <c r="U72" s="111"/>
-    </row>
-    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="108"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="58"/>
-      <c r="N73" s="58"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="111"/>
-      <c r="R73" s="112"/>
-      <c r="S73" s="111"/>
-      <c r="T73" s="118"/>
-      <c r="U73" s="111"/>
-    </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="165"/>
+      <c r="F48" s="165"/>
+      <c r="G48" s="166"/>
+      <c r="H48" s="165"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="165"/>
+      <c r="K48" s="164"/>
+      <c r="L48" s="164"/>
+      <c r="M48" s="164"/>
+      <c r="N48" s="164"/>
+      <c r="O48" s="165"/>
+      <c r="P48" s="167"/>
+      <c r="Q48" s="167"/>
+      <c r="R48" s="167"/>
+      <c r="S48" s="167"/>
+      <c r="T48" s="167"/>
+      <c r="U48" s="167"/>
+      <c r="V48" s="165"/>
+      <c r="W48" s="170"/>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="165"/>
+      <c r="I49" s="164"/>
+      <c r="J49" s="165"/>
+      <c r="K49" s="164"/>
+      <c r="L49" s="164"/>
+      <c r="M49" s="164"/>
+      <c r="N49" s="164"/>
+      <c r="O49" s="165"/>
+      <c r="P49" s="167"/>
+      <c r="Q49" s="167"/>
+      <c r="R49" s="167"/>
+      <c r="S49" s="167"/>
+      <c r="T49" s="167"/>
+      <c r="U49" s="167"/>
+      <c r="V49" s="165"/>
+      <c r="W49" s="170"/>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="164"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="165"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="165"/>
+      <c r="K50" s="164"/>
+      <c r="L50" s="164"/>
+      <c r="M50" s="164"/>
+      <c r="N50" s="164"/>
+      <c r="O50" s="165"/>
+      <c r="P50" s="167"/>
+      <c r="Q50" s="167"/>
+      <c r="R50" s="167"/>
+      <c r="S50" s="167"/>
+      <c r="T50" s="167"/>
+      <c r="U50" s="167"/>
+      <c r="V50" s="165"/>
+      <c r="W50" s="170"/>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="164"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="165"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="164"/>
+      <c r="L51" s="164"/>
+      <c r="M51" s="164"/>
+      <c r="N51" s="164"/>
+      <c r="O51" s="165"/>
+      <c r="P51" s="167"/>
+      <c r="Q51" s="167"/>
+      <c r="R51" s="167"/>
+      <c r="S51" s="167"/>
+      <c r="T51" s="167"/>
+      <c r="U51" s="167"/>
+      <c r="V51" s="165"/>
+      <c r="W51" s="170"/>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="164"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="165"/>
+      <c r="F52" s="165"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="165"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="165"/>
+      <c r="P52" s="167"/>
+      <c r="Q52" s="167"/>
+      <c r="R52" s="167"/>
+      <c r="S52" s="167"/>
+      <c r="T52" s="167"/>
+      <c r="U52" s="167"/>
+      <c r="V52" s="165"/>
+      <c r="W52" s="170"/>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="164"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="166"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="164"/>
+      <c r="L53" s="164"/>
+      <c r="M53" s="164"/>
+      <c r="N53" s="164"/>
+      <c r="O53" s="165"/>
+      <c r="P53" s="167"/>
+      <c r="Q53" s="167"/>
+      <c r="R53" s="167"/>
+      <c r="S53" s="167"/>
+      <c r="T53" s="167"/>
+      <c r="U53" s="167"/>
+      <c r="V53" s="165"/>
+      <c r="W53" s="170"/>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="164"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="165"/>
+      <c r="K54" s="164"/>
+      <c r="L54" s="164"/>
+      <c r="M54" s="164"/>
+      <c r="N54" s="164"/>
+      <c r="O54" s="165"/>
+      <c r="P54" s="167"/>
+      <c r="Q54" s="167"/>
+      <c r="R54" s="167"/>
+      <c r="S54" s="167"/>
+      <c r="T54" s="167"/>
+      <c r="U54" s="167"/>
+      <c r="V54" s="165"/>
+      <c r="W54" s="170"/>
+    </row>
+    <row r="55" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="164"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="166"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="164"/>
+      <c r="L55" s="164"/>
+      <c r="M55" s="164"/>
+      <c r="N55" s="164"/>
+      <c r="O55" s="165"/>
+      <c r="P55" s="167"/>
+      <c r="Q55" s="167"/>
+      <c r="R55" s="167"/>
+      <c r="S55" s="167"/>
+      <c r="T55" s="167"/>
+      <c r="U55" s="167"/>
+      <c r="V55" s="165"/>
+      <c r="W55" s="170"/>
+    </row>
+    <row r="56" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="164"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="164"/>
+      <c r="L56" s="164"/>
+      <c r="M56" s="164"/>
+      <c r="N56" s="164"/>
+      <c r="O56" s="165"/>
+      <c r="P56" s="167"/>
+      <c r="Q56" s="167"/>
+      <c r="R56" s="167"/>
+      <c r="S56" s="167"/>
+      <c r="T56" s="167"/>
+      <c r="U56" s="167"/>
+      <c r="V56" s="165"/>
+      <c r="W56" s="170"/>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="164"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="165"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="165"/>
+      <c r="K57" s="164"/>
+      <c r="L57" s="164"/>
+      <c r="M57" s="164"/>
+      <c r="N57" s="164"/>
+      <c r="O57" s="165"/>
+      <c r="P57" s="167"/>
+      <c r="Q57" s="167"/>
+      <c r="R57" s="167"/>
+      <c r="S57" s="167"/>
+      <c r="T57" s="167"/>
+      <c r="U57" s="167"/>
+      <c r="V57" s="165"/>
+      <c r="W57" s="170"/>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="164"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="165"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="166"/>
+      <c r="H58" s="165"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="165"/>
+      <c r="K58" s="164"/>
+      <c r="L58" s="164"/>
+      <c r="M58" s="164"/>
+      <c r="N58" s="164"/>
+      <c r="O58" s="165"/>
+      <c r="P58" s="167"/>
+      <c r="Q58" s="167"/>
+      <c r="R58" s="167"/>
+      <c r="S58" s="167"/>
+      <c r="T58" s="167"/>
+      <c r="U58" s="167"/>
+      <c r="V58" s="165"/>
+      <c r="W58" s="170"/>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="164"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="166"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="165"/>
+      <c r="K59" s="164"/>
+      <c r="L59" s="164"/>
+      <c r="M59" s="164"/>
+      <c r="N59" s="164"/>
+      <c r="O59" s="165"/>
+      <c r="P59" s="167"/>
+      <c r="Q59" s="167"/>
+      <c r="R59" s="167"/>
+      <c r="S59" s="167"/>
+      <c r="T59" s="167"/>
+      <c r="U59" s="167"/>
+      <c r="V59" s="165"/>
+      <c r="W59" s="170"/>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="164"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="166"/>
+      <c r="H60" s="165"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="164"/>
+      <c r="L60" s="164"/>
+      <c r="M60" s="164"/>
+      <c r="N60" s="164"/>
+      <c r="O60" s="165"/>
+      <c r="P60" s="167"/>
+      <c r="Q60" s="167"/>
+      <c r="R60" s="167"/>
+      <c r="S60" s="167"/>
+      <c r="T60" s="167"/>
+      <c r="U60" s="167"/>
+      <c r="V60" s="165"/>
+      <c r="W60" s="170"/>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="164"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="166"/>
+      <c r="H61" s="165"/>
+      <c r="I61" s="164"/>
+      <c r="J61" s="165"/>
+      <c r="K61" s="164"/>
+      <c r="L61" s="164"/>
+      <c r="M61" s="164"/>
+      <c r="N61" s="164"/>
+      <c r="O61" s="165"/>
+      <c r="P61" s="167"/>
+      <c r="Q61" s="167"/>
+      <c r="R61" s="167"/>
+      <c r="S61" s="167"/>
+      <c r="T61" s="167"/>
+      <c r="U61" s="167"/>
+      <c r="V61" s="165"/>
+      <c r="W61" s="170"/>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="164"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="165"/>
+      <c r="F62" s="165"/>
+      <c r="G62" s="166"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="164"/>
+      <c r="J62" s="165"/>
+      <c r="K62" s="164"/>
+      <c r="L62" s="164"/>
+      <c r="M62" s="164"/>
+      <c r="N62" s="164"/>
+      <c r="O62" s="165"/>
+      <c r="P62" s="167"/>
+      <c r="Q62" s="167"/>
+      <c r="R62" s="167"/>
+      <c r="S62" s="167"/>
+      <c r="T62" s="167"/>
+      <c r="U62" s="167"/>
+      <c r="V62" s="165"/>
+      <c r="W62" s="170"/>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="164"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="165"/>
+      <c r="G63" s="166"/>
+      <c r="H63" s="165"/>
+      <c r="I63" s="164"/>
+      <c r="J63" s="165"/>
+      <c r="K63" s="164"/>
+      <c r="L63" s="164"/>
+      <c r="M63" s="164"/>
+      <c r="N63" s="164"/>
+      <c r="O63" s="165"/>
+      <c r="P63" s="167"/>
+      <c r="Q63" s="167"/>
+      <c r="R63" s="167"/>
+      <c r="S63" s="167"/>
+      <c r="T63" s="167"/>
+      <c r="U63" s="167"/>
+      <c r="V63" s="165"/>
+      <c r="W63" s="170"/>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="164"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
+      <c r="E64" s="165"/>
+      <c r="F64" s="165"/>
+      <c r="G64" s="166"/>
+      <c r="H64" s="165"/>
+      <c r="I64" s="164"/>
+      <c r="J64" s="165"/>
+      <c r="K64" s="164"/>
+      <c r="L64" s="164"/>
+      <c r="M64" s="164"/>
+      <c r="N64" s="164"/>
+      <c r="O64" s="165"/>
+      <c r="P64" s="167"/>
+      <c r="Q64" s="167"/>
+      <c r="R64" s="167"/>
+      <c r="S64" s="167"/>
+      <c r="T64" s="167"/>
+      <c r="U64" s="167"/>
+      <c r="V64" s="165"/>
+      <c r="W64" s="170"/>
+    </row>
+    <row r="65" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="164"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="165"/>
+      <c r="G65" s="166"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="164"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="164"/>
+      <c r="L65" s="164"/>
+      <c r="M65" s="164"/>
+      <c r="N65" s="164"/>
+      <c r="O65" s="165"/>
+      <c r="P65" s="167"/>
+      <c r="Q65" s="167"/>
+      <c r="R65" s="167"/>
+      <c r="S65" s="167"/>
+      <c r="T65" s="167"/>
+      <c r="U65" s="167"/>
+      <c r="V65" s="165"/>
+      <c r="W65" s="170"/>
+    </row>
+    <row r="66" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="164"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="165"/>
+      <c r="F66" s="165"/>
+      <c r="G66" s="166"/>
+      <c r="H66" s="165"/>
+      <c r="I66" s="164"/>
+      <c r="J66" s="165"/>
+      <c r="K66" s="164"/>
+      <c r="L66" s="164"/>
+      <c r="M66" s="164"/>
+      <c r="N66" s="164"/>
+      <c r="O66" s="165"/>
+      <c r="P66" s="167"/>
+      <c r="Q66" s="167"/>
+      <c r="R66" s="167"/>
+      <c r="S66" s="167"/>
+      <c r="T66" s="167"/>
+      <c r="U66" s="167"/>
+      <c r="V66" s="165"/>
+      <c r="W66" s="170"/>
+    </row>
+    <row r="67" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="164"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="165"/>
+      <c r="F67" s="165"/>
+      <c r="G67" s="166"/>
+      <c r="H67" s="165"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="165"/>
+      <c r="K67" s="164"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="164"/>
+      <c r="N67" s="164"/>
+      <c r="O67" s="165"/>
+      <c r="P67" s="167"/>
+      <c r="Q67" s="167"/>
+      <c r="R67" s="167"/>
+      <c r="S67" s="167"/>
+      <c r="T67" s="167"/>
+      <c r="U67" s="167"/>
+      <c r="V67" s="165"/>
+      <c r="W67" s="170"/>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="166"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="164"/>
+      <c r="L68" s="164"/>
+      <c r="M68" s="164"/>
+      <c r="N68" s="164"/>
+      <c r="O68" s="165"/>
+      <c r="P68" s="167"/>
+      <c r="Q68" s="167"/>
+      <c r="R68" s="167"/>
+      <c r="S68" s="167"/>
+      <c r="T68" s="167"/>
+      <c r="U68" s="167"/>
+      <c r="V68" s="165"/>
+      <c r="W68" s="170"/>
+    </row>
+    <row r="69" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="165"/>
+      <c r="G69" s="166"/>
+      <c r="H69" s="165"/>
+      <c r="I69" s="164"/>
+      <c r="J69" s="165"/>
+      <c r="K69" s="164"/>
+      <c r="L69" s="164"/>
+      <c r="M69" s="164"/>
+      <c r="N69" s="164"/>
+      <c r="O69" s="165"/>
+      <c r="P69" s="167"/>
+      <c r="Q69" s="167"/>
+      <c r="R69" s="167"/>
+      <c r="S69" s="167"/>
+      <c r="T69" s="167"/>
+      <c r="U69" s="167"/>
+      <c r="V69" s="165"/>
+      <c r="W69" s="170"/>
+    </row>
+    <row r="70" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="164"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="165"/>
+      <c r="G70" s="166"/>
+      <c r="H70" s="165"/>
+      <c r="I70" s="164"/>
+      <c r="J70" s="165"/>
+      <c r="K70" s="164"/>
+      <c r="L70" s="164"/>
+      <c r="M70" s="164"/>
+      <c r="N70" s="164"/>
+      <c r="O70" s="165"/>
+      <c r="P70" s="167"/>
+      <c r="Q70" s="167"/>
+      <c r="R70" s="167"/>
+      <c r="S70" s="167"/>
+      <c r="T70" s="167"/>
+      <c r="U70" s="167"/>
+      <c r="V70" s="165"/>
+      <c r="W70" s="170"/>
+    </row>
+    <row r="71" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="164"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="165"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="166"/>
+      <c r="H71" s="165"/>
+      <c r="I71" s="164"/>
+      <c r="J71" s="165"/>
+      <c r="K71" s="164"/>
+      <c r="L71" s="164"/>
+      <c r="M71" s="164"/>
+      <c r="N71" s="164"/>
+      <c r="O71" s="165"/>
+      <c r="P71" s="167"/>
+      <c r="Q71" s="167"/>
+      <c r="R71" s="167"/>
+      <c r="S71" s="167"/>
+      <c r="T71" s="167"/>
+      <c r="U71" s="167"/>
+      <c r="V71" s="165"/>
+      <c r="W71" s="170"/>
+    </row>
+    <row r="72" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="164"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="165"/>
+      <c r="F72" s="165"/>
+      <c r="G72" s="166"/>
+      <c r="H72" s="165"/>
+      <c r="I72" s="164"/>
+      <c r="J72" s="165"/>
+      <c r="K72" s="164"/>
+      <c r="L72" s="164"/>
+      <c r="M72" s="164"/>
+      <c r="N72" s="164"/>
+      <c r="O72" s="165"/>
+      <c r="P72" s="167"/>
+      <c r="Q72" s="167"/>
+      <c r="R72" s="167"/>
+      <c r="S72" s="167"/>
+      <c r="T72" s="167"/>
+      <c r="U72" s="167"/>
+      <c r="V72" s="165"/>
+      <c r="W72" s="170"/>
+    </row>
+    <row r="73" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="164"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="165"/>
+      <c r="F73" s="165"/>
+      <c r="G73" s="166"/>
+      <c r="H73" s="165"/>
+      <c r="I73" s="164"/>
+      <c r="J73" s="165"/>
+      <c r="K73" s="164"/>
+      <c r="L73" s="164"/>
+      <c r="M73" s="164"/>
+      <c r="N73" s="164"/>
+      <c r="O73" s="165"/>
+      <c r="P73" s="167"/>
+      <c r="Q73" s="167"/>
+      <c r="R73" s="167"/>
+      <c r="S73" s="167"/>
+      <c r="T73" s="167"/>
+      <c r="U73" s="167"/>
+      <c r="V73" s="165"/>
+      <c r="W73" s="170"/>
+    </row>
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4929,187 +5175,187 @@
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
+      <c r="A116" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5278,12 +5524,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5298,6 +5538,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="254">
   <si>
     <t>Asignatura</t>
   </si>
@@ -906,6 +906,24 @@
   <si>
     <t>Proyecto para aplicar los distintos tipos de razonamiento</t>
   </si>
+  <si>
+    <t>Josué</t>
+  </si>
+  <si>
+    <t>Andrea Sabogal</t>
+  </si>
+  <si>
+    <t>Andrea Santos</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Encargado</t>
+  </si>
 </sst>
 </file>
 
@@ -963,7 +981,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1051,6 +1069,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1333,81 +1357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1819,6 +1768,85 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2127,9 +2155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,232 +2182,239 @@
     <col min="19" max="19" width="19.85546875" style="26" customWidth="1"/>
     <col min="20" max="20" width="43.28515625" style="26" customWidth="1"/>
     <col min="21" max="21" width="17" style="26" customWidth="1"/>
-    <col min="22" max="16384" width="10.85546875" style="4"/>
+    <col min="22" max="22" width="28.42578125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="180" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="194"/>
+      <c r="O1" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="182" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="203" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="3"/>
+      <c r="V1" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="189"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="38"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200"/>
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="172" t="s">
+      <c r="D3" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="173" t="s">
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="172">
+      <c r="H3" s="147">
         <v>1</v>
       </c>
-      <c r="I3" s="172" t="s">
+      <c r="I3" s="147" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="172" t="s">
+      <c r="K3" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="172" t="s">
+      <c r="L3" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="172" t="s">
+      <c r="M3" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="172"/>
+      <c r="N3" s="147"/>
       <c r="O3" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="174" t="s">
+      <c r="P3" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="175">
+      <c r="Q3" s="150">
         <v>6</v>
       </c>
-      <c r="R3" s="175" t="s">
+      <c r="R3" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="S3" s="175" t="s">
+      <c r="S3" s="150" t="s">
         <v>191</v>
       </c>
-      <c r="T3" s="176" t="s">
+      <c r="T3" s="151" t="s">
         <v>192</v>
       </c>
-      <c r="U3" s="177" t="s">
+      <c r="U3" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="V3" s="10"/>
+      <c r="V3" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="172" t="s">
+      <c r="D4" s="147" t="s">
         <v>125</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="180" t="s">
+      <c r="G4" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="181">
+      <c r="H4" s="156">
         <v>2</v>
       </c>
-      <c r="I4" s="182" t="s">
+      <c r="I4" s="157" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="182" t="s">
+      <c r="K4" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="182" t="s">
+      <c r="L4" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="182"/>
-      <c r="N4" s="182" t="s">
+      <c r="M4" s="157"/>
+      <c r="N4" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="183" t="s">
+      <c r="O4" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="181" t="s">
+      <c r="P4" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="184">
+      <c r="Q4" s="159">
         <v>6</v>
       </c>
-      <c r="R4" s="184" t="s">
+      <c r="R4" s="159" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="184" t="s">
+      <c r="S4" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="T4" s="185" t="s">
+      <c r="T4" s="160" t="s">
         <v>196</v>
       </c>
-      <c r="U4" s="186" t="s">
+      <c r="U4" s="161" t="s">
         <v>197</v>
       </c>
-      <c r="V4" s="10"/>
+      <c r="V4" s="10" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="196" t="s">
+      <c r="D5" s="171" t="s">
         <v>125</v>
       </c>
       <c r="E5" s="28"/>
@@ -2387,110 +2422,112 @@
       <c r="G5" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="154">
+      <c r="H5" s="129">
         <v>3</v>
       </c>
-      <c r="I5" s="154" t="s">
+      <c r="I5" s="129" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="154" t="s">
+      <c r="K5" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="154" t="s">
+      <c r="L5" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="154" t="s">
+      <c r="M5" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="154"/>
+      <c r="N5" s="129"/>
       <c r="O5" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="155" t="s">
+      <c r="P5" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="156">
+      <c r="Q5" s="131">
         <v>6</v>
       </c>
-      <c r="R5" s="156" t="s">
+      <c r="R5" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="S5" s="156" t="s">
+      <c r="S5" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="T5" s="197" t="s">
+      <c r="T5" s="172" t="s">
         <v>198</v>
       </c>
-      <c r="U5" s="198" t="s">
+      <c r="U5" s="173" t="s">
         <v>193</v>
       </c>
-      <c r="V5" s="10"/>
+      <c r="V5" s="205"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="147" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="189" t="s">
+      <c r="G6" s="164" t="s">
         <v>238</v>
       </c>
-      <c r="H6" s="190">
+      <c r="H6" s="165">
         <v>4</v>
       </c>
-      <c r="I6" s="191" t="s">
+      <c r="I6" s="166" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="191" t="s">
+      <c r="K6" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="191" t="s">
+      <c r="L6" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="191"/>
-      <c r="N6" s="191" t="s">
+      <c r="M6" s="166"/>
+      <c r="N6" s="166" t="s">
         <v>121</v>
       </c>
       <c r="O6" s="16"/>
-      <c r="P6" s="190" t="s">
+      <c r="P6" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="192">
+      <c r="Q6" s="167">
         <v>6</v>
       </c>
-      <c r="R6" s="192" t="s">
+      <c r="R6" s="167" t="s">
         <v>194</v>
       </c>
-      <c r="S6" s="192" t="s">
+      <c r="S6" s="167" t="s">
         <v>195</v>
       </c>
-      <c r="T6" s="193" t="s">
+      <c r="T6" s="168" t="s">
         <v>199</v>
       </c>
-      <c r="U6" s="194" t="s">
+      <c r="U6" s="169" t="s">
         <v>197</v>
       </c>
-      <c r="V6" s="10"/>
+      <c r="V6" s="10" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="54" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2502,9 +2539,9 @@
       <c r="D7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81" t="s">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56" t="s">
         <v>132</v>
       </c>
       <c r="H7" s="6">
@@ -2513,7 +2550,7 @@
       <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="82" t="s">
+      <c r="J7" s="57" t="s">
         <v>239</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -2526,31 +2563,31 @@
         <v>57</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="83" t="s">
+      <c r="O7" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="P7" s="84" t="s">
+      <c r="P7" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="60">
         <v>6</v>
       </c>
-      <c r="R7" s="85" t="s">
+      <c r="R7" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="S7" s="85" t="s">
+      <c r="S7" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="T7" s="86" t="s">
+      <c r="T7" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="U7" s="87" t="s">
+      <c r="U7" s="62" t="s">
         <v>193</v>
       </c>
       <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="63" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2564,62 +2601,64 @@
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="89" t="s">
+      <c r="G8" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="65">
         <v>6</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="66" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="91" t="s">
+      <c r="K8" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="91" t="s">
+      <c r="L8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91" t="s">
+      <c r="M8" s="66"/>
+      <c r="N8" s="66" t="s">
         <v>40</v>
       </c>
       <c r="O8" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="90" t="s">
+      <c r="P8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="92">
+      <c r="Q8" s="67">
         <v>6</v>
       </c>
-      <c r="R8" s="92" t="s">
+      <c r="R8" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="S8" s="92" t="s">
+      <c r="S8" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="T8" s="93" t="s">
+      <c r="T8" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="U8" s="94" t="s">
+      <c r="U8" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="10"/>
+      <c r="V8" s="10" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="196" t="s">
+      <c r="D9" s="171" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="28"/>
@@ -2627,59 +2666,61 @@
       <c r="G9" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="H9" s="154">
+      <c r="H9" s="129">
         <v>7</v>
       </c>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="129" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="K9" s="154" t="s">
+      <c r="K9" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="154" t="s">
+      <c r="L9" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154" t="s">
+      <c r="M9" s="129"/>
+      <c r="N9" s="129" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="155" t="s">
+      <c r="P9" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="156">
+      <c r="Q9" s="131">
         <v>6</v>
       </c>
-      <c r="R9" s="156" t="s">
+      <c r="R9" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="S9" s="156" t="s">
+      <c r="S9" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="T9" s="197" t="s">
+      <c r="T9" s="172" t="s">
         <v>202</v>
       </c>
-      <c r="U9" s="198" t="s">
+      <c r="U9" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="V9" s="10"/>
+      <c r="V9" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="196" t="s">
+      <c r="D10" s="171" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="28"/>
@@ -2687,50 +2728,52 @@
       <c r="G10" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="H10" s="155">
+      <c r="H10" s="130">
         <v>8</v>
       </c>
-      <c r="I10" s="154" t="s">
+      <c r="I10" s="129" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="K10" s="154" t="s">
+      <c r="K10" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="154" t="s">
+      <c r="L10" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154" t="s">
+      <c r="M10" s="129"/>
+      <c r="N10" s="129" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="155" t="s">
+      <c r="P10" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="156">
+      <c r="Q10" s="131">
         <v>6</v>
       </c>
-      <c r="R10" s="156" t="s">
+      <c r="R10" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="S10" s="156" t="s">
+      <c r="S10" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="T10" s="197" t="s">
+      <c r="T10" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="U10" s="198" t="s">
+      <c r="U10" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="V10" s="10"/>
+      <c r="V10" s="10" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="63" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2744,53 +2787,55 @@
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="89" t="s">
+      <c r="G11" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="66">
         <v>9</v>
       </c>
-      <c r="I11" s="91" t="s">
+      <c r="I11" s="66" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="91" t="s">
+      <c r="L11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91" t="s">
+      <c r="M11" s="66"/>
+      <c r="N11" s="66" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="90" t="s">
+      <c r="P11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="92">
+      <c r="Q11" s="67">
         <v>6</v>
       </c>
-      <c r="R11" s="92" t="s">
+      <c r="R11" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="S11" s="92" t="s">
+      <c r="S11" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="T11" s="93" t="s">
+      <c r="T11" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="U11" s="94" t="s">
+      <c r="U11" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="V11" s="10"/>
+      <c r="V11" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="70" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -2802,94 +2847,96 @@
       <c r="D12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="97" t="s">
+      <c r="F12" s="71"/>
+      <c r="G12" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="73">
         <v>10</v>
       </c>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="96" t="s">
+      <c r="J12" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="99" t="s">
+      <c r="K12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="99" t="s">
+      <c r="L12" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99" t="s">
+      <c r="M12" s="74"/>
+      <c r="N12" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="96"/>
-      <c r="P12" s="98" t="s">
+      <c r="O12" s="71"/>
+      <c r="P12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="100">
+      <c r="Q12" s="75">
         <v>6</v>
       </c>
-      <c r="R12" s="100" t="s">
+      <c r="R12" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="S12" s="100" t="s">
+      <c r="S12" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="T12" s="101" t="s">
+      <c r="T12" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="U12" s="102" t="s">
+      <c r="U12" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="V12" s="10"/>
+      <c r="V12" s="10" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="36">
         <v>11</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="61" t="s">
+      <c r="M13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62" t="s">
+      <c r="N13" s="36"/>
+      <c r="O13" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="P13" s="64" t="s">
+      <c r="P13" s="39" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="8">
@@ -2901,52 +2948,52 @@
       <c r="S13" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="T13" s="65" t="s">
+      <c r="T13" s="40" t="s">
         <v>206</v>
       </c>
       <c r="U13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="V13" s="10"/>
+      <c r="V13" s="205"/>
     </row>
     <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="45">
         <v>12</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="K14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="70" t="s">
+      <c r="L14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70" t="s">
+      <c r="M14" s="45"/>
+      <c r="N14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="68" t="s">
+      <c r="O14" s="43" t="s">
         <v>146</v>
       </c>
       <c r="P14" s="30" t="s">
@@ -2961,52 +3008,54 @@
       <c r="S14" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="T14" s="71" t="s">
+      <c r="T14" s="46" t="s">
         <v>207</v>
       </c>
       <c r="U14" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="V14" s="10"/>
+      <c r="V14" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69" t="s">
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44" t="s">
         <v>141</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="70" t="s">
+      <c r="L15" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70" t="s">
+      <c r="M15" s="45"/>
+      <c r="N15" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="68" t="s">
+      <c r="O15" s="43" t="s">
         <v>143</v>
       </c>
       <c r="P15" s="30" t="s">
@@ -3021,25 +3070,27 @@
       <c r="S15" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="T15" s="71" t="s">
+      <c r="T15" s="46" t="s">
         <v>208</v>
       </c>
       <c r="U15" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="V15" s="10"/>
+      <c r="V15" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="196" t="s">
+      <c r="D16" s="171" t="s">
         <v>234</v>
       </c>
       <c r="E16" s="28"/>
@@ -3047,91 +3098,93 @@
       <c r="G16" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="154">
+      <c r="H16" s="129">
         <v>14</v>
       </c>
-      <c r="I16" s="154" t="s">
+      <c r="I16" s="129" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="154" t="s">
+      <c r="K16" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="154" t="s">
+      <c r="L16" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154" t="s">
+      <c r="M16" s="129"/>
+      <c r="N16" s="129" t="s">
         <v>120</v>
       </c>
       <c r="O16" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="155" t="s">
+      <c r="P16" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="156">
+      <c r="Q16" s="131">
         <v>6</v>
       </c>
-      <c r="R16" s="156" t="s">
+      <c r="R16" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="S16" s="156" t="s">
+      <c r="S16" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="T16" s="197" t="s">
+      <c r="T16" s="172" t="s">
         <v>210</v>
       </c>
-      <c r="U16" s="198" t="s">
+      <c r="U16" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="V16" s="10"/>
+      <c r="V16" s="10" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75" t="s">
+      <c r="F17" s="49"/>
+      <c r="G17" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="H17" s="76">
+      <c r="H17" s="51">
         <v>15</v>
       </c>
-      <c r="I17" s="77" t="s">
+      <c r="I17" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="74" t="s">
+      <c r="J17" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="K17" s="77" t="s">
+      <c r="K17" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77" t="s">
+      <c r="M17" s="52"/>
+      <c r="N17" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="74" t="s">
+      <c r="O17" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="P17" s="76" t="s">
+      <c r="P17" s="51" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="17">
@@ -3143,81 +3196,85 @@
       <c r="S17" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="T17" s="78" t="s">
+      <c r="T17" s="53" t="s">
         <v>209</v>
       </c>
       <c r="U17" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="V17" s="10"/>
+      <c r="V17" s="10" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="18" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="204" t="s">
+      <c r="A18" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="196" t="s">
+      <c r="B18" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="196" t="s">
+      <c r="C18" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="196" t="s">
+      <c r="D18" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="203" t="s">
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="196">
+      <c r="H18" s="171">
         <v>16</v>
       </c>
-      <c r="I18" s="196" t="s">
+      <c r="I18" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="199" t="s">
+      <c r="J18" s="174" t="s">
         <v>232</v>
       </c>
-      <c r="K18" s="196" t="s">
+      <c r="K18" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="196" t="s">
+      <c r="L18" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="196"/>
-      <c r="N18" s="196"/>
-      <c r="O18" s="199"/>
-      <c r="P18" s="200" t="s">
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="201">
+      <c r="Q18" s="176">
         <v>8</v>
       </c>
-      <c r="R18" s="201" t="s">
+      <c r="R18" s="176" t="s">
         <v>219</v>
       </c>
-      <c r="S18" s="201" t="s">
+      <c r="S18" s="176" t="s">
         <v>220</v>
       </c>
-      <c r="T18" s="201" t="s">
+      <c r="T18" s="176" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="202" t="s">
+      <c r="U18" s="177" t="s">
         <v>221</v>
       </c>
-      <c r="V18" s="19"/>
+      <c r="V18" s="19" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="19" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="195" t="s">
+      <c r="A19" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="157" t="s">
+      <c r="B19" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="157" t="s">
+      <c r="D19" s="132" t="s">
         <v>187</v>
       </c>
       <c r="E19" s="28"/>
@@ -3225,175 +3282,179 @@
       <c r="G19" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="H19" s="155">
+      <c r="H19" s="130">
         <v>17</v>
       </c>
-      <c r="I19" s="154" t="s">
+      <c r="I19" s="129" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="154" t="s">
+      <c r="K19" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="154" t="s">
+      <c r="L19" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="155" t="s">
+      <c r="P19" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="156">
+      <c r="Q19" s="131">
         <v>8</v>
       </c>
-      <c r="R19" s="156" t="s">
+      <c r="R19" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="S19" s="156" t="s">
+      <c r="S19" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="T19" s="156" t="s">
+      <c r="T19" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="198" t="s">
+      <c r="U19" s="173" t="s">
         <v>221</v>
       </c>
-      <c r="V19" s="19"/>
+      <c r="V19" s="19" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="132" t="s">
+      <c r="A20" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="133" t="s">
+      <c r="D20" s="108" t="s">
         <v>187</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="134" t="s">
+      <c r="G20" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="135">
+      <c r="H20" s="110">
         <v>18</v>
       </c>
-      <c r="I20" s="135" t="s">
+      <c r="I20" s="110" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="K20" s="135" t="s">
+      <c r="K20" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="135" t="s">
+      <c r="L20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="135" t="s">
+      <c r="M20" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="135"/>
+      <c r="N20" s="110"/>
       <c r="O20" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="136" t="s">
+      <c r="P20" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="137">
+      <c r="Q20" s="112">
         <v>6</v>
       </c>
-      <c r="R20" s="137" t="s">
+      <c r="R20" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="S20" s="137" t="s">
+      <c r="S20" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="T20" s="138" t="s">
+      <c r="T20" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="U20" s="139" t="s">
+      <c r="U20" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="V20" s="10"/>
+      <c r="V20" s="205"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="108" t="s">
         <v>187</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="134" t="s">
+      <c r="G21" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="136">
+      <c r="H21" s="111">
         <v>19</v>
       </c>
-      <c r="I21" s="135" t="s">
+      <c r="I21" s="110" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="K21" s="135" t="s">
+      <c r="K21" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="135" t="s">
+      <c r="L21" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135" t="s">
+      <c r="M21" s="110"/>
+      <c r="N21" s="110" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="136" t="s">
+      <c r="P21" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="137">
+      <c r="Q21" s="112">
         <v>6</v>
       </c>
-      <c r="R21" s="137" t="s">
+      <c r="R21" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="S21" s="137" t="s">
+      <c r="S21" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="T21" s="138" t="s">
+      <c r="T21" s="113" t="s">
         <v>212</v>
       </c>
-      <c r="U21" s="139" t="s">
+      <c r="U21" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="V21" s="10"/>
+      <c r="V21" s="10" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D22" s="108" t="s">
         <v>187</v>
       </c>
       <c r="E22" s="21"/>
@@ -3401,403 +3462,415 @@
       <c r="G22" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="154">
+      <c r="H22" s="129">
         <v>20</v>
       </c>
-      <c r="I22" s="154" t="s">
+      <c r="I22" s="129" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="154" t="s">
+      <c r="K22" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="154" t="s">
+      <c r="L22" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154" t="s">
+      <c r="M22" s="129"/>
+      <c r="N22" s="129" t="s">
         <v>120</v>
       </c>
       <c r="O22" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="155" t="s">
+      <c r="P22" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="156">
+      <c r="Q22" s="131">
         <v>6</v>
       </c>
-      <c r="R22" s="156" t="s">
+      <c r="R22" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="S22" s="156" t="s">
+      <c r="S22" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="T22" s="197" t="s">
+      <c r="T22" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="U22" s="198" t="s">
+      <c r="U22" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="V22" s="10"/>
+      <c r="V22" s="205"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="132" t="s">
+      <c r="A23" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="133" t="s">
+      <c r="D23" s="108" t="s">
         <v>187</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="134" t="s">
+      <c r="G23" s="109" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="136">
+      <c r="H23" s="111">
         <v>21</v>
       </c>
-      <c r="I23" s="135" t="s">
+      <c r="I23" s="110" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="135" t="s">
+      <c r="K23" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="135" t="s">
+      <c r="L23" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135" t="s">
+      <c r="M23" s="110"/>
+      <c r="N23" s="110" t="s">
         <v>24</v>
       </c>
       <c r="O23" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="136" t="s">
+      <c r="P23" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="137">
+      <c r="Q23" s="112">
         <v>6</v>
       </c>
-      <c r="R23" s="137" t="s">
+      <c r="R23" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="S23" s="137" t="s">
+      <c r="S23" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="T23" s="138" t="s">
+      <c r="T23" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="U23" s="139" t="s">
+      <c r="U23" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="V23" s="10"/>
+      <c r="V23" s="10" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="116" t="s">
         <v>187</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>122</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="142" t="s">
+      <c r="G24" s="117" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="143">
+      <c r="H24" s="118">
         <v>22</v>
       </c>
-      <c r="I24" s="144" t="s">
+      <c r="I24" s="119" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="144" t="s">
+      <c r="K24" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="144" t="s">
+      <c r="L24" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144" t="s">
+      <c r="M24" s="119"/>
+      <c r="N24" s="119" t="s">
         <v>121</v>
       </c>
       <c r="O24" s="22"/>
-      <c r="P24" s="143" t="s">
+      <c r="P24" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="145">
+      <c r="Q24" s="120">
         <v>6</v>
       </c>
-      <c r="R24" s="145" t="s">
+      <c r="R24" s="120" t="s">
         <v>194</v>
       </c>
-      <c r="S24" s="145" t="s">
+      <c r="S24" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="T24" s="146" t="s">
+      <c r="T24" s="121" t="s">
         <v>215</v>
       </c>
-      <c r="U24" s="147" t="s">
+      <c r="U24" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="V24" s="10"/>
+      <c r="V24" s="10" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="25" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="86" t="s">
         <v>188</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="112" t="s">
+      <c r="G25" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="111">
+      <c r="H25" s="86">
         <v>23</v>
       </c>
-      <c r="I25" s="111" t="s">
+      <c r="I25" s="86" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="111" t="s">
+      <c r="K25" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="111" t="s">
+      <c r="L25" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
       <c r="O25" s="23"/>
-      <c r="P25" s="113" t="s">
+      <c r="P25" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="114">
+      <c r="Q25" s="89">
         <v>8</v>
       </c>
-      <c r="R25" s="114" t="s">
+      <c r="R25" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="S25" s="114" t="s">
+      <c r="S25" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="T25" s="114" t="s">
+      <c r="T25" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="115" t="s">
+      <c r="U25" s="90" t="s">
         <v>221</v>
       </c>
-      <c r="V25" s="19"/>
+      <c r="V25" s="19" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="26" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
+      <c r="A26" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="92" t="s">
         <v>188</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="118" t="s">
+      <c r="G26" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="120">
+      <c r="H26" s="95">
         <v>24</v>
       </c>
-      <c r="I26" s="119" t="s">
+      <c r="I26" s="94" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="119" t="s">
+      <c r="K26" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="119" t="s">
+      <c r="L26" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
       <c r="O26" s="24"/>
-      <c r="P26" s="120" t="s">
+      <c r="P26" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="121">
+      <c r="Q26" s="96">
         <v>8</v>
       </c>
-      <c r="R26" s="121" t="s">
+      <c r="R26" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="S26" s="121" t="s">
+      <c r="S26" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="T26" s="121" t="s">
+      <c r="T26" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="123" t="s">
+      <c r="U26" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="V26" s="19"/>
+      <c r="V26" s="19" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="27" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="92" t="s">
         <v>188</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="118" t="s">
+      <c r="G27" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="120">
+      <c r="H27" s="95">
         <v>25</v>
       </c>
-      <c r="I27" s="119" t="s">
+      <c r="I27" s="94" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="K27" s="119" t="s">
+      <c r="K27" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="119" t="s">
+      <c r="L27" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
       <c r="O27" s="24"/>
-      <c r="P27" s="120" t="s">
+      <c r="P27" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="121">
+      <c r="Q27" s="96">
         <v>8</v>
       </c>
-      <c r="R27" s="121" t="s">
+      <c r="R27" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="S27" s="121" t="s">
+      <c r="S27" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="T27" s="121" t="s">
+      <c r="T27" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="U27" s="123" t="s">
+      <c r="U27" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="V27" s="19"/>
+      <c r="V27" s="19" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="28" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="92" t="s">
         <v>188</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="118" t="s">
+      <c r="G28" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="119">
+      <c r="H28" s="94">
         <v>26</v>
       </c>
-      <c r="I28" s="119" t="s">
+      <c r="I28" s="94" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="K28" s="119" t="s">
+      <c r="K28" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="119" t="s">
+      <c r="L28" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
       <c r="O28" s="24"/>
-      <c r="P28" s="120" t="s">
+      <c r="P28" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="121">
+      <c r="Q28" s="96">
         <v>8</v>
       </c>
-      <c r="R28" s="121" t="s">
+      <c r="R28" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="S28" s="121" t="s">
+      <c r="S28" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="T28" s="121" t="s">
+      <c r="T28" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="U28" s="123" t="s">
+      <c r="U28" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="V28" s="19"/>
+      <c r="V28" s="19" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="29" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="157" t="s">
+      <c r="B29" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="157" t="s">
+      <c r="C29" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="157" t="s">
+      <c r="D29" s="132" t="s">
         <v>188</v>
       </c>
       <c r="E29" s="28"/>
@@ -3805,351 +3878,357 @@
       <c r="G29" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="155">
+      <c r="H29" s="130">
         <v>27</v>
       </c>
-      <c r="I29" s="154" t="s">
+      <c r="I29" s="129" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="154" t="s">
+      <c r="K29" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="154" t="s">
+      <c r="L29" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
       <c r="O29" s="28"/>
-      <c r="P29" s="155" t="s">
+      <c r="P29" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="156">
+      <c r="Q29" s="131">
         <v>8</v>
       </c>
-      <c r="R29" s="156" t="s">
+      <c r="R29" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="S29" s="156" t="s">
+      <c r="S29" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="T29" s="156" t="s">
+      <c r="T29" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="U29" s="198" t="s">
+      <c r="U29" s="173" t="s">
         <v>221</v>
       </c>
-      <c r="V29" s="19"/>
+      <c r="V29" s="19" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="117" t="s">
+      <c r="C30" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="92" t="s">
         <v>188</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
-      <c r="G30" s="118" t="s">
+      <c r="G30" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="120">
+      <c r="H30" s="95">
         <v>28</v>
       </c>
-      <c r="I30" s="119" t="s">
+      <c r="I30" s="94" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="119" t="s">
+      <c r="K30" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="119" t="s">
+      <c r="L30" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="119" t="s">
+      <c r="M30" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="119"/>
+      <c r="N30" s="94"/>
       <c r="O30" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="P30" s="120" t="s">
+      <c r="P30" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="121">
+      <c r="Q30" s="96">
         <v>6</v>
       </c>
-      <c r="R30" s="121" t="s">
+      <c r="R30" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="S30" s="121" t="s">
+      <c r="S30" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="T30" s="122" t="s">
+      <c r="T30" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="U30" s="123" t="s">
+      <c r="U30" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="V30" s="25"/>
+      <c r="V30" s="206"/>
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
       <c r="Y30" s="26"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="124" t="s">
+      <c r="A31" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="125" t="s">
+      <c r="B31" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="125" t="s">
+      <c r="C31" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="125" t="s">
+      <c r="D31" s="100" t="s">
         <v>188</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="126" t="s">
+      <c r="G31" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="H31" s="128">
+      <c r="H31" s="103">
         <v>29</v>
       </c>
-      <c r="I31" s="128" t="s">
+      <c r="I31" s="103" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="K31" s="128" t="s">
+      <c r="K31" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="128" t="s">
+      <c r="L31" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128" t="s">
+      <c r="M31" s="103"/>
+      <c r="N31" s="103" t="s">
         <v>121</v>
       </c>
       <c r="O31" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="P31" s="127" t="s">
+      <c r="P31" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="129">
+      <c r="Q31" s="104">
         <v>6</v>
       </c>
-      <c r="R31" s="129" t="s">
+      <c r="R31" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="S31" s="129" t="s">
+      <c r="S31" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="T31" s="130" t="s">
+      <c r="T31" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="U31" s="131" t="s">
+      <c r="U31" s="106" t="s">
         <v>197</v>
       </c>
-      <c r="V31" s="25"/>
+      <c r="V31" s="25" t="s">
+        <v>250</v>
+      </c>
       <c r="W31" s="26"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="103" t="s">
+      <c r="A32" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="149" t="s">
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="150">
+      <c r="H32" s="125">
         <v>30</v>
       </c>
-      <c r="I32" s="103" t="s">
+      <c r="I32" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="148" t="s">
+      <c r="J32" s="123" t="s">
         <v>247</v>
       </c>
-      <c r="K32" s="103" t="s">
+      <c r="K32" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="103" t="s">
+      <c r="L32" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103" t="s">
+      <c r="M32" s="78"/>
+      <c r="N32" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="151" t="s">
+      <c r="O32" s="126" t="s">
         <v>178</v>
       </c>
-      <c r="P32" s="150" t="s">
+      <c r="P32" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="152">
+      <c r="Q32" s="127">
         <v>6</v>
       </c>
-      <c r="R32" s="152" t="s">
+      <c r="R32" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="S32" s="152" t="s">
+      <c r="S32" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="T32" s="153" t="s">
+      <c r="T32" s="128" t="s">
         <v>216</v>
       </c>
-      <c r="U32" s="152" t="s">
+      <c r="U32" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="V32" s="25"/>
+      <c r="V32" s="206"/>
       <c r="W32" s="26"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="103" t="s">
+      <c r="D33" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="105" t="s">
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="107">
+      <c r="H33" s="82">
         <v>31</v>
       </c>
-      <c r="I33" s="106" t="s">
+      <c r="I33" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="104" t="s">
+      <c r="J33" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="K33" s="106" t="s">
+      <c r="K33" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="106" t="s">
+      <c r="L33" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="107" t="s">
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="108"/>
-      <c r="S33" s="108"/>
-      <c r="T33" s="108"/>
-      <c r="U33" s="108"/>
-      <c r="V33" s="26"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="83"/>
+      <c r="V33" s="26" t="s">
+        <v>248</v>
+      </c>
       <c r="W33" s="26"/>
       <c r="X33" s="26"/>
       <c r="Y33" s="26"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="103" t="s">
+      <c r="D34" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="105" t="s">
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="106">
+      <c r="H34" s="81">
         <v>32</v>
       </c>
-      <c r="I34" s="106" t="s">
+      <c r="I34" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="104" t="s">
+      <c r="J34" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="K34" s="106" t="s">
+      <c r="K34" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="106" t="s">
+      <c r="L34" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106" t="s">
+      <c r="M34" s="81"/>
+      <c r="N34" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="104"/>
-      <c r="P34" s="107" t="s">
+      <c r="O34" s="79"/>
+      <c r="P34" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="108">
+      <c r="Q34" s="83">
         <v>6</v>
       </c>
-      <c r="R34" s="108" t="s">
+      <c r="R34" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="S34" s="108" t="s">
+      <c r="S34" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="T34" s="109" t="s">
+      <c r="T34" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="U34" s="108" t="s">
+      <c r="U34" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="V34" s="25"/>
+      <c r="V34" s="206"/>
       <c r="W34" s="26"/>
       <c r="X34" s="26"/>
       <c r="Y34" s="26"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="157" t="s">
+      <c r="A35" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="157" t="s">
+      <c r="B35" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="157" t="s">
+      <c r="C35" s="132" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="28" t="s">
@@ -4160,1006 +4239,1008 @@
       <c r="G35" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="155">
+      <c r="H35" s="130">
         <v>33</v>
       </c>
-      <c r="I35" s="154" t="s">
+      <c r="I35" s="129" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="K35" s="154" t="s">
+      <c r="K35" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="154" t="s">
+      <c r="L35" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="154"/>
-      <c r="N35" s="154" t="s">
+      <c r="M35" s="129"/>
+      <c r="N35" s="129" t="s">
         <v>52</v>
       </c>
       <c r="O35" s="28"/>
-      <c r="P35" s="155" t="s">
+      <c r="P35" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="156">
+      <c r="Q35" s="131">
         <v>6</v>
       </c>
-      <c r="R35" s="156" t="s">
+      <c r="R35" s="131" t="s">
         <v>194</v>
       </c>
-      <c r="S35" s="156" t="s">
+      <c r="S35" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="T35" s="197" t="s">
+      <c r="T35" s="172" t="s">
         <v>218</v>
       </c>
-      <c r="U35" s="156" t="s">
+      <c r="U35" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="V35" s="25"/>
+      <c r="V35" s="25" t="s">
+        <v>250</v>
+      </c>
       <c r="W35" s="26"/>
       <c r="X35" s="26"/>
       <c r="Y35" s="26"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="158"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="159"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="159"/>
-      <c r="P36" s="161"/>
-      <c r="Q36" s="162"/>
-      <c r="R36" s="162"/>
-      <c r="S36" s="162"/>
-      <c r="T36" s="162"/>
-      <c r="U36" s="162"/>
-      <c r="V36" s="163"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="133"/>
+      <c r="O36" s="134"/>
+      <c r="P36" s="136"/>
+      <c r="Q36" s="137"/>
+      <c r="R36" s="137"/>
+      <c r="S36" s="137"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="137"/>
+      <c r="V36" s="138"/>
       <c r="W36" s="26"/>
       <c r="X36" s="26"/>
       <c r="Y36" s="26"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="164"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="165"/>
-      <c r="F37" s="165"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="165"/>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="168"/>
-      <c r="R37" s="168"/>
-      <c r="S37" s="168"/>
-      <c r="T37" s="168"/>
-      <c r="U37" s="168"/>
-      <c r="V37" s="167"/>
-      <c r="W37" s="169"/>
+      <c r="A37" s="139"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="139"/>
+      <c r="N37" s="139"/>
+      <c r="O37" s="140"/>
+      <c r="P37" s="142"/>
+      <c r="Q37" s="143"/>
+      <c r="R37" s="143"/>
+      <c r="S37" s="143"/>
+      <c r="T37" s="143"/>
+      <c r="U37" s="143"/>
+      <c r="V37" s="142"/>
+      <c r="W37" s="144"/>
       <c r="X37" s="26"/>
       <c r="Y37" s="26"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="164"/>
-      <c r="B38" s="165"/>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="165"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="165"/>
-      <c r="P38" s="167"/>
-      <c r="Q38" s="167"/>
-      <c r="R38" s="167"/>
-      <c r="S38" s="167"/>
-      <c r="T38" s="167"/>
-      <c r="U38" s="167"/>
-      <c r="V38" s="167"/>
-      <c r="W38" s="169"/>
+      <c r="A38" s="139"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="140"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="139"/>
+      <c r="M38" s="139"/>
+      <c r="N38" s="139"/>
+      <c r="O38" s="140"/>
+      <c r="P38" s="142"/>
+      <c r="Q38" s="142"/>
+      <c r="R38" s="142"/>
+      <c r="S38" s="142"/>
+      <c r="T38" s="142"/>
+      <c r="U38" s="142"/>
+      <c r="V38" s="142"/>
+      <c r="W38" s="144"/>
       <c r="X38" s="26"/>
       <c r="Y38" s="26"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="164"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
-      <c r="K39" s="164"/>
-      <c r="L39" s="164"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="165"/>
-      <c r="P39" s="167"/>
-      <c r="Q39" s="167"/>
-      <c r="R39" s="167"/>
-      <c r="S39" s="167"/>
-      <c r="T39" s="167"/>
-      <c r="U39" s="167"/>
-      <c r="V39" s="167"/>
-      <c r="W39" s="169"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="140"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
+      <c r="O39" s="140"/>
+      <c r="P39" s="142"/>
+      <c r="Q39" s="142"/>
+      <c r="R39" s="142"/>
+      <c r="S39" s="142"/>
+      <c r="T39" s="142"/>
+      <c r="U39" s="142"/>
+      <c r="V39" s="142"/>
+      <c r="W39" s="144"/>
       <c r="X39" s="26"/>
       <c r="Y39" s="26"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="164"/>
-      <c r="B40" s="165"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="165"/>
-      <c r="F40" s="165"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="165"/>
-      <c r="K40" s="164"/>
-      <c r="L40" s="164"/>
-      <c r="M40" s="164"/>
-      <c r="N40" s="164"/>
-      <c r="O40" s="165"/>
-      <c r="P40" s="167"/>
-      <c r="Q40" s="167"/>
-      <c r="R40" s="167"/>
-      <c r="S40" s="167"/>
-      <c r="T40" s="167"/>
-      <c r="U40" s="167"/>
-      <c r="V40" s="165"/>
-      <c r="W40" s="170"/>
+      <c r="A40" s="139"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="139"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="142"/>
+      <c r="Q40" s="142"/>
+      <c r="R40" s="142"/>
+      <c r="S40" s="142"/>
+      <c r="T40" s="142"/>
+      <c r="U40" s="142"/>
+      <c r="V40" s="140"/>
+      <c r="W40" s="145"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="164"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="165"/>
-      <c r="K41" s="164"/>
-      <c r="L41" s="164"/>
-      <c r="M41" s="164"/>
-      <c r="N41" s="164"/>
-      <c r="O41" s="165"/>
-      <c r="P41" s="167"/>
-      <c r="Q41" s="167"/>
-      <c r="R41" s="167"/>
-      <c r="S41" s="167"/>
-      <c r="T41" s="167"/>
-      <c r="U41" s="167"/>
-      <c r="V41" s="165"/>
-      <c r="W41" s="170"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="139"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="139"/>
+      <c r="L41" s="139"/>
+      <c r="M41" s="139"/>
+      <c r="N41" s="139"/>
+      <c r="O41" s="140"/>
+      <c r="P41" s="142"/>
+      <c r="Q41" s="142"/>
+      <c r="R41" s="142"/>
+      <c r="S41" s="142"/>
+      <c r="T41" s="142"/>
+      <c r="U41" s="142"/>
+      <c r="V41" s="140"/>
+      <c r="W41" s="145"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="164"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="165"/>
-      <c r="F42" s="165"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="165"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="165"/>
-      <c r="K42" s="164"/>
-      <c r="L42" s="164"/>
-      <c r="M42" s="164"/>
-      <c r="N42" s="164"/>
-      <c r="O42" s="165"/>
-      <c r="P42" s="167"/>
-      <c r="Q42" s="167"/>
-      <c r="R42" s="167"/>
-      <c r="S42" s="167"/>
-      <c r="T42" s="167"/>
-      <c r="U42" s="167"/>
-      <c r="V42" s="165"/>
-      <c r="W42" s="170"/>
+      <c r="A42" s="139"/>
+      <c r="B42" s="140"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="139"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="140"/>
+      <c r="P42" s="142"/>
+      <c r="Q42" s="142"/>
+      <c r="R42" s="142"/>
+      <c r="S42" s="142"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="140"/>
+      <c r="W42" s="145"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="164"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="164"/>
-      <c r="L43" s="164"/>
-      <c r="M43" s="164"/>
-      <c r="N43" s="164"/>
-      <c r="O43" s="165"/>
-      <c r="P43" s="167"/>
-      <c r="Q43" s="167"/>
-      <c r="R43" s="167"/>
-      <c r="S43" s="167"/>
-      <c r="T43" s="167"/>
-      <c r="U43" s="167"/>
-      <c r="V43" s="165"/>
-      <c r="W43" s="170"/>
+      <c r="A43" s="139"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="139"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="139"/>
+      <c r="O43" s="140"/>
+      <c r="P43" s="142"/>
+      <c r="Q43" s="142"/>
+      <c r="R43" s="142"/>
+      <c r="S43" s="142"/>
+      <c r="T43" s="142"/>
+      <c r="U43" s="142"/>
+      <c r="V43" s="140"/>
+      <c r="W43" s="145"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="164"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="165"/>
-      <c r="P44" s="167"/>
-      <c r="Q44" s="167"/>
-      <c r="R44" s="167"/>
-      <c r="S44" s="167"/>
-      <c r="T44" s="167"/>
-      <c r="U44" s="167"/>
-      <c r="V44" s="165"/>
-      <c r="W44" s="170"/>
+      <c r="A44" s="139"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="139"/>
+      <c r="N44" s="139"/>
+      <c r="O44" s="140"/>
+      <c r="P44" s="142"/>
+      <c r="Q44" s="142"/>
+      <c r="R44" s="142"/>
+      <c r="S44" s="142"/>
+      <c r="T44" s="142"/>
+      <c r="U44" s="142"/>
+      <c r="V44" s="140"/>
+      <c r="W44" s="145"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="164"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="165"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="165"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="164"/>
-      <c r="M45" s="164"/>
-      <c r="N45" s="164"/>
-      <c r="O45" s="165"/>
-      <c r="P45" s="167"/>
-      <c r="Q45" s="167"/>
-      <c r="R45" s="167"/>
-      <c r="S45" s="167"/>
-      <c r="T45" s="167"/>
-      <c r="U45" s="167"/>
-      <c r="V45" s="165"/>
-      <c r="W45" s="170"/>
+      <c r="A45" s="139"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="139"/>
+      <c r="N45" s="139"/>
+      <c r="O45" s="140"/>
+      <c r="P45" s="142"/>
+      <c r="Q45" s="142"/>
+      <c r="R45" s="142"/>
+      <c r="S45" s="142"/>
+      <c r="T45" s="142"/>
+      <c r="U45" s="142"/>
+      <c r="V45" s="140"/>
+      <c r="W45" s="145"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="164"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
-      <c r="E46" s="165"/>
-      <c r="F46" s="165"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="165"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="165"/>
-      <c r="K46" s="164"/>
-      <c r="L46" s="164"/>
-      <c r="M46" s="164"/>
-      <c r="N46" s="164"/>
-      <c r="O46" s="165"/>
-      <c r="P46" s="167"/>
-      <c r="Q46" s="167"/>
-      <c r="R46" s="167"/>
-      <c r="S46" s="167"/>
-      <c r="T46" s="167"/>
-      <c r="U46" s="167"/>
-      <c r="V46" s="165"/>
-      <c r="W46" s="170"/>
+      <c r="A46" s="139"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="140"/>
+      <c r="P46" s="142"/>
+      <c r="Q46" s="142"/>
+      <c r="R46" s="142"/>
+      <c r="S46" s="142"/>
+      <c r="T46" s="142"/>
+      <c r="U46" s="142"/>
+      <c r="V46" s="140"/>
+      <c r="W46" s="145"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="164"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="165"/>
-      <c r="F47" s="165"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="165"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="165"/>
-      <c r="K47" s="164"/>
-      <c r="L47" s="164"/>
-      <c r="M47" s="164"/>
-      <c r="N47" s="164"/>
-      <c r="O47" s="165"/>
-      <c r="P47" s="167"/>
-      <c r="Q47" s="167"/>
-      <c r="R47" s="167"/>
-      <c r="S47" s="167"/>
-      <c r="T47" s="167"/>
-      <c r="U47" s="167"/>
-      <c r="V47" s="165"/>
-      <c r="W47" s="170"/>
+      <c r="A47" s="139"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="139"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="140"/>
+      <c r="P47" s="142"/>
+      <c r="Q47" s="142"/>
+      <c r="R47" s="142"/>
+      <c r="S47" s="142"/>
+      <c r="T47" s="142"/>
+      <c r="U47" s="142"/>
+      <c r="V47" s="140"/>
+      <c r="W47" s="145"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="164"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
-      <c r="E48" s="165"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="166"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="165"/>
-      <c r="K48" s="164"/>
-      <c r="L48" s="164"/>
-      <c r="M48" s="164"/>
-      <c r="N48" s="164"/>
-      <c r="O48" s="165"/>
-      <c r="P48" s="167"/>
-      <c r="Q48" s="167"/>
-      <c r="R48" s="167"/>
-      <c r="S48" s="167"/>
-      <c r="T48" s="167"/>
-      <c r="U48" s="167"/>
-      <c r="V48" s="165"/>
-      <c r="W48" s="170"/>
+      <c r="A48" s="139"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="139"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="139"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="139"/>
+      <c r="N48" s="139"/>
+      <c r="O48" s="140"/>
+      <c r="P48" s="142"/>
+      <c r="Q48" s="142"/>
+      <c r="R48" s="142"/>
+      <c r="S48" s="142"/>
+      <c r="T48" s="142"/>
+      <c r="U48" s="142"/>
+      <c r="V48" s="140"/>
+      <c r="W48" s="145"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="164"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
-      <c r="E49" s="165"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="165"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="165"/>
-      <c r="K49" s="164"/>
-      <c r="L49" s="164"/>
-      <c r="M49" s="164"/>
-      <c r="N49" s="164"/>
-      <c r="O49" s="165"/>
-      <c r="P49" s="167"/>
-      <c r="Q49" s="167"/>
-      <c r="R49" s="167"/>
-      <c r="S49" s="167"/>
-      <c r="T49" s="167"/>
-      <c r="U49" s="167"/>
-      <c r="V49" s="165"/>
-      <c r="W49" s="170"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="140"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="140"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="140"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="139"/>
+      <c r="M49" s="139"/>
+      <c r="N49" s="139"/>
+      <c r="O49" s="140"/>
+      <c r="P49" s="142"/>
+      <c r="Q49" s="142"/>
+      <c r="R49" s="142"/>
+      <c r="S49" s="142"/>
+      <c r="T49" s="142"/>
+      <c r="U49" s="142"/>
+      <c r="V49" s="140"/>
+      <c r="W49" s="145"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="164"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="166"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="165"/>
-      <c r="K50" s="164"/>
-      <c r="L50" s="164"/>
-      <c r="M50" s="164"/>
-      <c r="N50" s="164"/>
-      <c r="O50" s="165"/>
-      <c r="P50" s="167"/>
-      <c r="Q50" s="167"/>
-      <c r="R50" s="167"/>
-      <c r="S50" s="167"/>
-      <c r="T50" s="167"/>
-      <c r="U50" s="167"/>
-      <c r="V50" s="165"/>
-      <c r="W50" s="170"/>
+      <c r="A50" s="139"/>
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="139"/>
+      <c r="O50" s="140"/>
+      <c r="P50" s="142"/>
+      <c r="Q50" s="142"/>
+      <c r="R50" s="142"/>
+      <c r="S50" s="142"/>
+      <c r="T50" s="142"/>
+      <c r="U50" s="142"/>
+      <c r="V50" s="140"/>
+      <c r="W50" s="145"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="164"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="164"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="164"/>
-      <c r="M51" s="164"/>
-      <c r="N51" s="164"/>
-      <c r="O51" s="165"/>
-      <c r="P51" s="167"/>
-      <c r="Q51" s="167"/>
-      <c r="R51" s="167"/>
-      <c r="S51" s="167"/>
-      <c r="T51" s="167"/>
-      <c r="U51" s="167"/>
-      <c r="V51" s="165"/>
-      <c r="W51" s="170"/>
+      <c r="A51" s="139"/>
+      <c r="B51" s="140"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="139"/>
+      <c r="J51" s="140"/>
+      <c r="K51" s="139"/>
+      <c r="L51" s="139"/>
+      <c r="M51" s="139"/>
+      <c r="N51" s="139"/>
+      <c r="O51" s="140"/>
+      <c r="P51" s="142"/>
+      <c r="Q51" s="142"/>
+      <c r="R51" s="142"/>
+      <c r="S51" s="142"/>
+      <c r="T51" s="142"/>
+      <c r="U51" s="142"/>
+      <c r="V51" s="140"/>
+      <c r="W51" s="145"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="164"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="165"/>
-      <c r="G52" s="166"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="165"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="164"/>
-      <c r="M52" s="164"/>
-      <c r="N52" s="164"/>
-      <c r="O52" s="165"/>
-      <c r="P52" s="167"/>
-      <c r="Q52" s="167"/>
-      <c r="R52" s="167"/>
-      <c r="S52" s="167"/>
-      <c r="T52" s="167"/>
-      <c r="U52" s="167"/>
-      <c r="V52" s="165"/>
-      <c r="W52" s="170"/>
+      <c r="A52" s="139"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="139"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="139"/>
+      <c r="L52" s="139"/>
+      <c r="M52" s="139"/>
+      <c r="N52" s="139"/>
+      <c r="O52" s="140"/>
+      <c r="P52" s="142"/>
+      <c r="Q52" s="142"/>
+      <c r="R52" s="142"/>
+      <c r="S52" s="142"/>
+      <c r="T52" s="142"/>
+      <c r="U52" s="142"/>
+      <c r="V52" s="140"/>
+      <c r="W52" s="145"/>
     </row>
     <row r="53" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="164"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="166"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="165"/>
-      <c r="K53" s="164"/>
-      <c r="L53" s="164"/>
-      <c r="M53" s="164"/>
-      <c r="N53" s="164"/>
-      <c r="O53" s="165"/>
-      <c r="P53" s="167"/>
-      <c r="Q53" s="167"/>
-      <c r="R53" s="167"/>
-      <c r="S53" s="167"/>
-      <c r="T53" s="167"/>
-      <c r="U53" s="167"/>
-      <c r="V53" s="165"/>
-      <c r="W53" s="170"/>
+      <c r="A53" s="139"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="141"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="139"/>
+      <c r="M53" s="139"/>
+      <c r="N53" s="139"/>
+      <c r="O53" s="140"/>
+      <c r="P53" s="142"/>
+      <c r="Q53" s="142"/>
+      <c r="R53" s="142"/>
+      <c r="S53" s="142"/>
+      <c r="T53" s="142"/>
+      <c r="U53" s="142"/>
+      <c r="V53" s="140"/>
+      <c r="W53" s="145"/>
     </row>
     <row r="54" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="164"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="166"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="164"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="164"/>
-      <c r="L54" s="164"/>
-      <c r="M54" s="164"/>
-      <c r="N54" s="164"/>
-      <c r="O54" s="165"/>
-      <c r="P54" s="167"/>
-      <c r="Q54" s="167"/>
-      <c r="R54" s="167"/>
-      <c r="S54" s="167"/>
-      <c r="T54" s="167"/>
-      <c r="U54" s="167"/>
-      <c r="V54" s="165"/>
-      <c r="W54" s="170"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="139"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="139"/>
+      <c r="N54" s="139"/>
+      <c r="O54" s="140"/>
+      <c r="P54" s="142"/>
+      <c r="Q54" s="142"/>
+      <c r="R54" s="142"/>
+      <c r="S54" s="142"/>
+      <c r="T54" s="142"/>
+      <c r="U54" s="142"/>
+      <c r="V54" s="140"/>
+      <c r="W54" s="145"/>
     </row>
     <row r="55" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="164"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="166"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="164"/>
-      <c r="L55" s="164"/>
-      <c r="M55" s="164"/>
-      <c r="N55" s="164"/>
-      <c r="O55" s="165"/>
-      <c r="P55" s="167"/>
-      <c r="Q55" s="167"/>
-      <c r="R55" s="167"/>
-      <c r="S55" s="167"/>
-      <c r="T55" s="167"/>
-      <c r="U55" s="167"/>
-      <c r="V55" s="165"/>
-      <c r="W55" s="170"/>
+      <c r="A55" s="139"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="139"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="139"/>
+      <c r="L55" s="139"/>
+      <c r="M55" s="139"/>
+      <c r="N55" s="139"/>
+      <c r="O55" s="140"/>
+      <c r="P55" s="142"/>
+      <c r="Q55" s="142"/>
+      <c r="R55" s="142"/>
+      <c r="S55" s="142"/>
+      <c r="T55" s="142"/>
+      <c r="U55" s="142"/>
+      <c r="V55" s="140"/>
+      <c r="W55" s="145"/>
     </row>
     <row r="56" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="164"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="166"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="164"/>
-      <c r="L56" s="164"/>
-      <c r="M56" s="164"/>
-      <c r="N56" s="164"/>
-      <c r="O56" s="165"/>
-      <c r="P56" s="167"/>
-      <c r="Q56" s="167"/>
-      <c r="R56" s="167"/>
-      <c r="S56" s="167"/>
-      <c r="T56" s="167"/>
-      <c r="U56" s="167"/>
-      <c r="V56" s="165"/>
-      <c r="W56" s="170"/>
+      <c r="A56" s="139"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="139"/>
+      <c r="N56" s="139"/>
+      <c r="O56" s="140"/>
+      <c r="P56" s="142"/>
+      <c r="Q56" s="142"/>
+      <c r="R56" s="142"/>
+      <c r="S56" s="142"/>
+      <c r="T56" s="142"/>
+      <c r="U56" s="142"/>
+      <c r="V56" s="140"/>
+      <c r="W56" s="145"/>
     </row>
     <row r="57" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="164"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="166"/>
-      <c r="H57" s="165"/>
-      <c r="I57" s="164"/>
-      <c r="J57" s="165"/>
-      <c r="K57" s="164"/>
-      <c r="L57" s="164"/>
-      <c r="M57" s="164"/>
-      <c r="N57" s="164"/>
-      <c r="O57" s="165"/>
-      <c r="P57" s="167"/>
-      <c r="Q57" s="167"/>
-      <c r="R57" s="167"/>
-      <c r="S57" s="167"/>
-      <c r="T57" s="167"/>
-      <c r="U57" s="167"/>
-      <c r="V57" s="165"/>
-      <c r="W57" s="170"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="139"/>
+      <c r="J57" s="140"/>
+      <c r="K57" s="139"/>
+      <c r="L57" s="139"/>
+      <c r="M57" s="139"/>
+      <c r="N57" s="139"/>
+      <c r="O57" s="140"/>
+      <c r="P57" s="142"/>
+      <c r="Q57" s="142"/>
+      <c r="R57" s="142"/>
+      <c r="S57" s="142"/>
+      <c r="T57" s="142"/>
+      <c r="U57" s="142"/>
+      <c r="V57" s="140"/>
+      <c r="W57" s="145"/>
     </row>
     <row r="58" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="164"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="165"/>
-      <c r="F58" s="165"/>
-      <c r="G58" s="166"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="165"/>
-      <c r="K58" s="164"/>
-      <c r="L58" s="164"/>
-      <c r="M58" s="164"/>
-      <c r="N58" s="164"/>
-      <c r="O58" s="165"/>
-      <c r="P58" s="167"/>
-      <c r="Q58" s="167"/>
-      <c r="R58" s="167"/>
-      <c r="S58" s="167"/>
-      <c r="T58" s="167"/>
-      <c r="U58" s="167"/>
-      <c r="V58" s="165"/>
-      <c r="W58" s="170"/>
+      <c r="A58" s="139"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="141"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
+      <c r="M58" s="139"/>
+      <c r="N58" s="139"/>
+      <c r="O58" s="140"/>
+      <c r="P58" s="142"/>
+      <c r="Q58" s="142"/>
+      <c r="R58" s="142"/>
+      <c r="S58" s="142"/>
+      <c r="T58" s="142"/>
+      <c r="U58" s="142"/>
+      <c r="V58" s="140"/>
+      <c r="W58" s="145"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="164"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="164"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="164"/>
-      <c r="L59" s="164"/>
-      <c r="M59" s="164"/>
-      <c r="N59" s="164"/>
-      <c r="O59" s="165"/>
-      <c r="P59" s="167"/>
-      <c r="Q59" s="167"/>
-      <c r="R59" s="167"/>
-      <c r="S59" s="167"/>
-      <c r="T59" s="167"/>
-      <c r="U59" s="167"/>
-      <c r="V59" s="165"/>
-      <c r="W59" s="170"/>
+      <c r="A59" s="139"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="141"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="139"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="139"/>
+      <c r="L59" s="139"/>
+      <c r="M59" s="139"/>
+      <c r="N59" s="139"/>
+      <c r="O59" s="140"/>
+      <c r="P59" s="142"/>
+      <c r="Q59" s="142"/>
+      <c r="R59" s="142"/>
+      <c r="S59" s="142"/>
+      <c r="T59" s="142"/>
+      <c r="U59" s="142"/>
+      <c r="V59" s="140"/>
+      <c r="W59" s="145"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="164"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="166"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="164"/>
-      <c r="L60" s="164"/>
-      <c r="M60" s="164"/>
-      <c r="N60" s="164"/>
-      <c r="O60" s="165"/>
-      <c r="P60" s="167"/>
-      <c r="Q60" s="167"/>
-      <c r="R60" s="167"/>
-      <c r="S60" s="167"/>
-      <c r="T60" s="167"/>
-      <c r="U60" s="167"/>
-      <c r="V60" s="165"/>
-      <c r="W60" s="170"/>
+      <c r="A60" s="139"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="141"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="139"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="139"/>
+      <c r="N60" s="139"/>
+      <c r="O60" s="140"/>
+      <c r="P60" s="142"/>
+      <c r="Q60" s="142"/>
+      <c r="R60" s="142"/>
+      <c r="S60" s="142"/>
+      <c r="T60" s="142"/>
+      <c r="U60" s="142"/>
+      <c r="V60" s="140"/>
+      <c r="W60" s="145"/>
     </row>
     <row r="61" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="164"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="166"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="164"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="164"/>
-      <c r="L61" s="164"/>
-      <c r="M61" s="164"/>
-      <c r="N61" s="164"/>
-      <c r="O61" s="165"/>
-      <c r="P61" s="167"/>
-      <c r="Q61" s="167"/>
-      <c r="R61" s="167"/>
-      <c r="S61" s="167"/>
-      <c r="T61" s="167"/>
-      <c r="U61" s="167"/>
-      <c r="V61" s="165"/>
-      <c r="W61" s="170"/>
+      <c r="A61" s="139"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="141"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="139"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="139"/>
+      <c r="L61" s="139"/>
+      <c r="M61" s="139"/>
+      <c r="N61" s="139"/>
+      <c r="O61" s="140"/>
+      <c r="P61" s="142"/>
+      <c r="Q61" s="142"/>
+      <c r="R61" s="142"/>
+      <c r="S61" s="142"/>
+      <c r="T61" s="142"/>
+      <c r="U61" s="142"/>
+      <c r="V61" s="140"/>
+      <c r="W61" s="145"/>
     </row>
     <row r="62" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="164"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="166"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="164"/>
-      <c r="J62" s="165"/>
-      <c r="K62" s="164"/>
-      <c r="L62" s="164"/>
-      <c r="M62" s="164"/>
-      <c r="N62" s="164"/>
-      <c r="O62" s="165"/>
-      <c r="P62" s="167"/>
-      <c r="Q62" s="167"/>
-      <c r="R62" s="167"/>
-      <c r="S62" s="167"/>
-      <c r="T62" s="167"/>
-      <c r="U62" s="167"/>
-      <c r="V62" s="165"/>
-      <c r="W62" s="170"/>
+      <c r="A62" s="139"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="139"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="139"/>
+      <c r="L62" s="139"/>
+      <c r="M62" s="139"/>
+      <c r="N62" s="139"/>
+      <c r="O62" s="140"/>
+      <c r="P62" s="142"/>
+      <c r="Q62" s="142"/>
+      <c r="R62" s="142"/>
+      <c r="S62" s="142"/>
+      <c r="T62" s="142"/>
+      <c r="U62" s="142"/>
+      <c r="V62" s="140"/>
+      <c r="W62" s="145"/>
     </row>
     <row r="63" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="164"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="166"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="164"/>
-      <c r="J63" s="165"/>
-      <c r="K63" s="164"/>
-      <c r="L63" s="164"/>
-      <c r="M63" s="164"/>
-      <c r="N63" s="164"/>
-      <c r="O63" s="165"/>
-      <c r="P63" s="167"/>
-      <c r="Q63" s="167"/>
-      <c r="R63" s="167"/>
-      <c r="S63" s="167"/>
-      <c r="T63" s="167"/>
-      <c r="U63" s="167"/>
-      <c r="V63" s="165"/>
-      <c r="W63" s="170"/>
+      <c r="A63" s="139"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="141"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="139"/>
+      <c r="J63" s="140"/>
+      <c r="K63" s="139"/>
+      <c r="L63" s="139"/>
+      <c r="M63" s="139"/>
+      <c r="N63" s="139"/>
+      <c r="O63" s="140"/>
+      <c r="P63" s="142"/>
+      <c r="Q63" s="142"/>
+      <c r="R63" s="142"/>
+      <c r="S63" s="142"/>
+      <c r="T63" s="142"/>
+      <c r="U63" s="142"/>
+      <c r="V63" s="140"/>
+      <c r="W63" s="145"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="164"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="165"/>
-      <c r="F64" s="165"/>
-      <c r="G64" s="166"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="164"/>
-      <c r="J64" s="165"/>
-      <c r="K64" s="164"/>
-      <c r="L64" s="164"/>
-      <c r="M64" s="164"/>
-      <c r="N64" s="164"/>
-      <c r="O64" s="165"/>
-      <c r="P64" s="167"/>
-      <c r="Q64" s="167"/>
-      <c r="R64" s="167"/>
-      <c r="S64" s="167"/>
-      <c r="T64" s="167"/>
-      <c r="U64" s="167"/>
-      <c r="V64" s="165"/>
-      <c r="W64" s="170"/>
+      <c r="A64" s="139"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140"/>
+      <c r="E64" s="140"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="141"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="139"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="139"/>
+      <c r="L64" s="139"/>
+      <c r="M64" s="139"/>
+      <c r="N64" s="139"/>
+      <c r="O64" s="140"/>
+      <c r="P64" s="142"/>
+      <c r="Q64" s="142"/>
+      <c r="R64" s="142"/>
+      <c r="S64" s="142"/>
+      <c r="T64" s="142"/>
+      <c r="U64" s="142"/>
+      <c r="V64" s="140"/>
+      <c r="W64" s="145"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="164"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
-      <c r="G65" s="166"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="164"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="164"/>
-      <c r="L65" s="164"/>
-      <c r="M65" s="164"/>
-      <c r="N65" s="164"/>
-      <c r="O65" s="165"/>
-      <c r="P65" s="167"/>
-      <c r="Q65" s="167"/>
-      <c r="R65" s="167"/>
-      <c r="S65" s="167"/>
-      <c r="T65" s="167"/>
-      <c r="U65" s="167"/>
-      <c r="V65" s="165"/>
-      <c r="W65" s="170"/>
+      <c r="A65" s="139"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="141"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="139"/>
+      <c r="J65" s="140"/>
+      <c r="K65" s="139"/>
+      <c r="L65" s="139"/>
+      <c r="M65" s="139"/>
+      <c r="N65" s="139"/>
+      <c r="O65" s="140"/>
+      <c r="P65" s="142"/>
+      <c r="Q65" s="142"/>
+      <c r="R65" s="142"/>
+      <c r="S65" s="142"/>
+      <c r="T65" s="142"/>
+      <c r="U65" s="142"/>
+      <c r="V65" s="140"/>
+      <c r="W65" s="145"/>
     </row>
     <row r="66" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="164"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="165"/>
-      <c r="F66" s="165"/>
-      <c r="G66" s="166"/>
-      <c r="H66" s="165"/>
-      <c r="I66" s="164"/>
-      <c r="J66" s="165"/>
-      <c r="K66" s="164"/>
-      <c r="L66" s="164"/>
-      <c r="M66" s="164"/>
-      <c r="N66" s="164"/>
-      <c r="O66" s="165"/>
-      <c r="P66" s="167"/>
-      <c r="Q66" s="167"/>
-      <c r="R66" s="167"/>
-      <c r="S66" s="167"/>
-      <c r="T66" s="167"/>
-      <c r="U66" s="167"/>
-      <c r="V66" s="165"/>
-      <c r="W66" s="170"/>
+      <c r="A66" s="139"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="141"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="139"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="139"/>
+      <c r="L66" s="139"/>
+      <c r="M66" s="139"/>
+      <c r="N66" s="139"/>
+      <c r="O66" s="140"/>
+      <c r="P66" s="142"/>
+      <c r="Q66" s="142"/>
+      <c r="R66" s="142"/>
+      <c r="S66" s="142"/>
+      <c r="T66" s="142"/>
+      <c r="U66" s="142"/>
+      <c r="V66" s="140"/>
+      <c r="W66" s="145"/>
     </row>
     <row r="67" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="164"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="165"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="166"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="164"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="164"/>
-      <c r="L67" s="164"/>
-      <c r="M67" s="164"/>
-      <c r="N67" s="164"/>
-      <c r="O67" s="165"/>
-      <c r="P67" s="167"/>
-      <c r="Q67" s="167"/>
-      <c r="R67" s="167"/>
-      <c r="S67" s="167"/>
-      <c r="T67" s="167"/>
-      <c r="U67" s="167"/>
-      <c r="V67" s="165"/>
-      <c r="W67" s="170"/>
+      <c r="A67" s="139"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="140"/>
+      <c r="E67" s="140"/>
+      <c r="F67" s="140"/>
+      <c r="G67" s="141"/>
+      <c r="H67" s="140"/>
+      <c r="I67" s="139"/>
+      <c r="J67" s="140"/>
+      <c r="K67" s="139"/>
+      <c r="L67" s="139"/>
+      <c r="M67" s="139"/>
+      <c r="N67" s="139"/>
+      <c r="O67" s="140"/>
+      <c r="P67" s="142"/>
+      <c r="Q67" s="142"/>
+      <c r="R67" s="142"/>
+      <c r="S67" s="142"/>
+      <c r="T67" s="142"/>
+      <c r="U67" s="142"/>
+      <c r="V67" s="140"/>
+      <c r="W67" s="145"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="164"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="166"/>
-      <c r="H68" s="165"/>
-      <c r="I68" s="164"/>
-      <c r="J68" s="165"/>
-      <c r="K68" s="164"/>
-      <c r="L68" s="164"/>
-      <c r="M68" s="164"/>
-      <c r="N68" s="164"/>
-      <c r="O68" s="165"/>
-      <c r="P68" s="167"/>
-      <c r="Q68" s="167"/>
-      <c r="R68" s="167"/>
-      <c r="S68" s="167"/>
-      <c r="T68" s="167"/>
-      <c r="U68" s="167"/>
-      <c r="V68" s="165"/>
-      <c r="W68" s="170"/>
+      <c r="A68" s="139"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="140"/>
+      <c r="G68" s="141"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="139"/>
+      <c r="J68" s="140"/>
+      <c r="K68" s="139"/>
+      <c r="L68" s="139"/>
+      <c r="M68" s="139"/>
+      <c r="N68" s="139"/>
+      <c r="O68" s="140"/>
+      <c r="P68" s="142"/>
+      <c r="Q68" s="142"/>
+      <c r="R68" s="142"/>
+      <c r="S68" s="142"/>
+      <c r="T68" s="142"/>
+      <c r="U68" s="142"/>
+      <c r="V68" s="140"/>
+      <c r="W68" s="145"/>
     </row>
     <row r="69" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="164"/>
-      <c r="B69" s="165"/>
-      <c r="C69" s="165"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="165"/>
-      <c r="F69" s="165"/>
-      <c r="G69" s="166"/>
-      <c r="H69" s="165"/>
-      <c r="I69" s="164"/>
-      <c r="J69" s="165"/>
-      <c r="K69" s="164"/>
-      <c r="L69" s="164"/>
-      <c r="M69" s="164"/>
-      <c r="N69" s="164"/>
-      <c r="O69" s="165"/>
-      <c r="P69" s="167"/>
-      <c r="Q69" s="167"/>
-      <c r="R69" s="167"/>
-      <c r="S69" s="167"/>
-      <c r="T69" s="167"/>
-      <c r="U69" s="167"/>
-      <c r="V69" s="165"/>
-      <c r="W69" s="170"/>
+      <c r="A69" s="139"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="141"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="139"/>
+      <c r="J69" s="140"/>
+      <c r="K69" s="139"/>
+      <c r="L69" s="139"/>
+      <c r="M69" s="139"/>
+      <c r="N69" s="139"/>
+      <c r="O69" s="140"/>
+      <c r="P69" s="142"/>
+      <c r="Q69" s="142"/>
+      <c r="R69" s="142"/>
+      <c r="S69" s="142"/>
+      <c r="T69" s="142"/>
+      <c r="U69" s="142"/>
+      <c r="V69" s="140"/>
+      <c r="W69" s="145"/>
     </row>
     <row r="70" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="164"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="165"/>
-      <c r="F70" s="165"/>
-      <c r="G70" s="166"/>
-      <c r="H70" s="165"/>
-      <c r="I70" s="164"/>
-      <c r="J70" s="165"/>
-      <c r="K70" s="164"/>
-      <c r="L70" s="164"/>
-      <c r="M70" s="164"/>
-      <c r="N70" s="164"/>
-      <c r="O70" s="165"/>
-      <c r="P70" s="167"/>
-      <c r="Q70" s="167"/>
-      <c r="R70" s="167"/>
-      <c r="S70" s="167"/>
-      <c r="T70" s="167"/>
-      <c r="U70" s="167"/>
-      <c r="V70" s="165"/>
-      <c r="W70" s="170"/>
+      <c r="A70" s="139"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="141"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="139"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="139"/>
+      <c r="L70" s="139"/>
+      <c r="M70" s="139"/>
+      <c r="N70" s="139"/>
+      <c r="O70" s="140"/>
+      <c r="P70" s="142"/>
+      <c r="Q70" s="142"/>
+      <c r="R70" s="142"/>
+      <c r="S70" s="142"/>
+      <c r="T70" s="142"/>
+      <c r="U70" s="142"/>
+      <c r="V70" s="140"/>
+      <c r="W70" s="145"/>
     </row>
     <row r="71" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="164"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="166"/>
-      <c r="H71" s="165"/>
-      <c r="I71" s="164"/>
-      <c r="J71" s="165"/>
-      <c r="K71" s="164"/>
-      <c r="L71" s="164"/>
-      <c r="M71" s="164"/>
-      <c r="N71" s="164"/>
-      <c r="O71" s="165"/>
-      <c r="P71" s="167"/>
-      <c r="Q71" s="167"/>
-      <c r="R71" s="167"/>
-      <c r="S71" s="167"/>
-      <c r="T71" s="167"/>
-      <c r="U71" s="167"/>
-      <c r="V71" s="165"/>
-      <c r="W71" s="170"/>
+      <c r="A71" s="139"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="140"/>
+      <c r="F71" s="140"/>
+      <c r="G71" s="141"/>
+      <c r="H71" s="140"/>
+      <c r="I71" s="139"/>
+      <c r="J71" s="140"/>
+      <c r="K71" s="139"/>
+      <c r="L71" s="139"/>
+      <c r="M71" s="139"/>
+      <c r="N71" s="139"/>
+      <c r="O71" s="140"/>
+      <c r="P71" s="142"/>
+      <c r="Q71" s="142"/>
+      <c r="R71" s="142"/>
+      <c r="S71" s="142"/>
+      <c r="T71" s="142"/>
+      <c r="U71" s="142"/>
+      <c r="V71" s="140"/>
+      <c r="W71" s="145"/>
     </row>
     <row r="72" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="164"/>
-      <c r="B72" s="165"/>
-      <c r="C72" s="165"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="165"/>
-      <c r="F72" s="165"/>
-      <c r="G72" s="166"/>
-      <c r="H72" s="165"/>
-      <c r="I72" s="164"/>
-      <c r="J72" s="165"/>
-      <c r="K72" s="164"/>
-      <c r="L72" s="164"/>
-      <c r="M72" s="164"/>
-      <c r="N72" s="164"/>
-      <c r="O72" s="165"/>
-      <c r="P72" s="167"/>
-      <c r="Q72" s="167"/>
-      <c r="R72" s="167"/>
-      <c r="S72" s="167"/>
-      <c r="T72" s="167"/>
-      <c r="U72" s="167"/>
-      <c r="V72" s="165"/>
-      <c r="W72" s="170"/>
+      <c r="A72" s="139"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="141"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="139"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="139"/>
+      <c r="L72" s="139"/>
+      <c r="M72" s="139"/>
+      <c r="N72" s="139"/>
+      <c r="O72" s="140"/>
+      <c r="P72" s="142"/>
+      <c r="Q72" s="142"/>
+      <c r="R72" s="142"/>
+      <c r="S72" s="142"/>
+      <c r="T72" s="142"/>
+      <c r="U72" s="142"/>
+      <c r="V72" s="140"/>
+      <c r="W72" s="145"/>
     </row>
     <row r="73" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="164"/>
-      <c r="B73" s="165"/>
-      <c r="C73" s="165"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="165"/>
-      <c r="F73" s="165"/>
-      <c r="G73" s="166"/>
-      <c r="H73" s="165"/>
-      <c r="I73" s="164"/>
-      <c r="J73" s="165"/>
-      <c r="K73" s="164"/>
-      <c r="L73" s="164"/>
-      <c r="M73" s="164"/>
-      <c r="N73" s="164"/>
-      <c r="O73" s="165"/>
-      <c r="P73" s="167"/>
-      <c r="Q73" s="167"/>
-      <c r="R73" s="167"/>
-      <c r="S73" s="167"/>
-      <c r="T73" s="167"/>
-      <c r="U73" s="167"/>
-      <c r="V73" s="165"/>
-      <c r="W73" s="170"/>
+      <c r="A73" s="139"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="141"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="139"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="139"/>
+      <c r="L73" s="139"/>
+      <c r="M73" s="139"/>
+      <c r="N73" s="139"/>
+      <c r="O73" s="140"/>
+      <c r="P73" s="142"/>
+      <c r="Q73" s="142"/>
+      <c r="R73" s="142"/>
+      <c r="S73" s="142"/>
+      <c r="T73" s="142"/>
+      <c r="U73" s="142"/>
+      <c r="V73" s="140"/>
+      <c r="W73" s="145"/>
     </row>
     <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5524,6 +5605,12 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5538,12 +5625,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="260">
   <si>
     <t>Asignatura</t>
   </si>
@@ -924,6 +924,24 @@
   <si>
     <t>Encargado</t>
   </si>
+  <si>
+    <t>Johanna Vera</t>
+  </si>
+  <si>
+    <t>Clara Melo</t>
+  </si>
+  <si>
+    <t>Cristhian Fuentes</t>
+  </si>
+  <si>
+    <t>Edición</t>
+  </si>
+  <si>
+    <t>Corrección de estilo</t>
+  </si>
+  <si>
+    <t>Solicitud gráfica</t>
+  </si>
 </sst>
 </file>
 
@@ -981,7 +999,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,12 +1092,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1110,19 +1140,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1281,65 +1298,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,23 +1393,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1389,51 +1425,51 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,29 +1487,29 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1495,25 +1531,25 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1534,34 +1570,34 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1582,31 +1618,31 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1637,20 +1673,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,28 +1706,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,101 +1751,119 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,35 +1872,32 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2155,9 +2206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V34" sqref="V34"/>
+      <selection pane="bottomLeft" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,367 +2218,396 @@
     <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="91.5703125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="11" style="20" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="91.5703125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="11" style="18" customWidth="1"/>
     <col min="10" max="10" width="125.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="4" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="35" style="20" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="31" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="26" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="26" customWidth="1"/>
-    <col min="20" max="20" width="43.28515625" style="26" customWidth="1"/>
-    <col min="21" max="21" width="17" style="26" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="10.85546875" style="4"/>
+    <col min="15" max="15" width="35" style="18" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="28" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="28" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="43.28515625" style="23" customWidth="1"/>
+    <col min="21" max="21" width="17" style="23" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="197" t="s">
+      <c r="C1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="D1" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="184" t="s">
+      <c r="E1" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="180" t="s">
+      <c r="F1" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="195" t="s">
+      <c r="G1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="180" t="s">
+      <c r="H1" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="180" t="s">
+      <c r="I1" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="192" t="s">
+      <c r="J1" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="190" t="s">
+      <c r="K1" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="188" t="s">
+      <c r="L1" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="194" t="s">
+      <c r="M1" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="194"/>
-      <c r="O1" s="182" t="s">
+      <c r="N1" s="197"/>
+      <c r="O1" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="182" t="s">
+      <c r="P1" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="199" t="s">
+      <c r="Q1" s="179" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="203" t="s">
+      <c r="R1" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="199" t="s">
+      <c r="S1" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="201" t="s">
+      <c r="T1" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="199" t="s">
+      <c r="U1" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="203" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="187"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="189"/>
+      <c r="W1" s="209" t="s">
+        <v>257</v>
+      </c>
+      <c r="X1" s="210" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y1" s="211" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="190"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="192"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="146" t="s">
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="148" t="s">
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="147">
+      <c r="H3" s="144">
         <v>1</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="144" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="147"/>
+      <c r="N3" s="144"/>
       <c r="O3" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="149" t="s">
+      <c r="P3" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="150">
+      <c r="Q3" s="147">
         <v>6</v>
       </c>
-      <c r="R3" s="150" t="s">
+      <c r="R3" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="S3" s="150" t="s">
+      <c r="S3" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="T3" s="151" t="s">
+      <c r="T3" s="148" t="s">
         <v>192</v>
       </c>
-      <c r="U3" s="152" t="s">
+      <c r="U3" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="204" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="153" t="s">
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="155" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="156">
+      <c r="H4" s="153">
         <v>2</v>
       </c>
-      <c r="I4" s="157" t="s">
+      <c r="I4" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="157" t="s">
+      <c r="K4" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="157" t="s">
+      <c r="L4" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157" t="s">
+      <c r="M4" s="154"/>
+      <c r="N4" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="158" t="s">
+      <c r="O4" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="156" t="s">
+      <c r="P4" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="159">
+      <c r="Q4" s="156">
         <v>6</v>
       </c>
-      <c r="R4" s="159" t="s">
+      <c r="R4" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="159" t="s">
+      <c r="S4" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="T4" s="160" t="s">
+      <c r="T4" s="157" t="s">
         <v>196</v>
       </c>
-      <c r="U4" s="161" t="s">
+      <c r="U4" s="158" t="s">
         <v>197</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="204" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="170" t="s">
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="171" t="s">
+      <c r="D5" s="168" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="129">
+      <c r="H5" s="126">
         <v>3</v>
       </c>
-      <c r="I5" s="129" t="s">
+      <c r="I5" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="129" t="s">
+      <c r="K5" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="129" t="s">
+      <c r="L5" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="129" t="s">
+      <c r="M5" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="129"/>
-      <c r="O5" s="28" t="s">
+      <c r="N5" s="126"/>
+      <c r="O5" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="130" t="s">
+      <c r="P5" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="131">
+      <c r="Q5" s="128">
         <v>6</v>
       </c>
-      <c r="R5" s="131" t="s">
+      <c r="R5" s="128" t="s">
         <v>190</v>
       </c>
-      <c r="S5" s="131" t="s">
+      <c r="S5" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="T5" s="172" t="s">
+      <c r="T5" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="U5" s="173" t="s">
+      <c r="U5" s="170" t="s">
         <v>193</v>
       </c>
-      <c r="V5" s="205"/>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="162" t="s">
+      <c r="V5" s="205" t="s">
+        <v>255</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="164" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="H6" s="165">
+      <c r="H6" s="162">
         <v>4</v>
       </c>
-      <c r="I6" s="166" t="s">
+      <c r="I6" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="166" t="s">
+      <c r="K6" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="166" t="s">
+      <c r="L6" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166" t="s">
+      <c r="M6" s="163"/>
+      <c r="N6" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="165" t="s">
+      <c r="O6" s="15"/>
+      <c r="P6" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="167">
+      <c r="Q6" s="164">
         <v>6</v>
       </c>
-      <c r="R6" s="167" t="s">
+      <c r="R6" s="164" t="s">
         <v>194</v>
       </c>
-      <c r="S6" s="167" t="s">
+      <c r="S6" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="T6" s="168" t="s">
+      <c r="T6" s="165" t="s">
         <v>199</v>
       </c>
-      <c r="U6" s="169" t="s">
+      <c r="U6" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="204" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2539,9 +2619,9 @@
       <c r="D7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56" t="s">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53" t="s">
         <v>132</v>
       </c>
       <c r="H7" s="6">
@@ -2550,7 +2630,7 @@
       <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="54" t="s">
         <v>239</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -2563,380 +2643,400 @@
         <v>57</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="P7" s="59" t="s">
+      <c r="P7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="60">
+      <c r="Q7" s="57">
         <v>6</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="R7" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="S7" s="60" t="s">
+      <c r="S7" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="T7" s="61" t="s">
+      <c r="T7" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="U7" s="62" t="s">
+      <c r="U7" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="V7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="V7" s="204" t="s">
+        <v>254</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="64" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="62">
         <v>6</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66" t="s">
+      <c r="M8" s="63"/>
+      <c r="N8" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="65" t="s">
+      <c r="P8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="67">
+      <c r="Q8" s="64">
         <v>6</v>
       </c>
-      <c r="R8" s="67" t="s">
+      <c r="R8" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="S8" s="67" t="s">
+      <c r="S8" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="T8" s="68" t="s">
+      <c r="T8" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="U8" s="69" t="s">
+      <c r="U8" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="V8" s="204" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="170" t="s">
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="171" t="s">
+      <c r="D9" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="33" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="H9" s="129">
+      <c r="H9" s="126">
         <v>7</v>
       </c>
-      <c r="I9" s="129" t="s">
+      <c r="I9" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="K9" s="129" t="s">
+      <c r="K9" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="129" t="s">
+      <c r="L9" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129" t="s">
+      <c r="M9" s="126"/>
+      <c r="N9" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="28" t="s">
+      <c r="O9" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="130" t="s">
+      <c r="P9" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="131">
+      <c r="Q9" s="128">
         <v>6</v>
       </c>
-      <c r="R9" s="131" t="s">
+      <c r="R9" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="S9" s="131" t="s">
+      <c r="S9" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="T9" s="172" t="s">
+      <c r="T9" s="169" t="s">
         <v>202</v>
       </c>
-      <c r="U9" s="173" t="s">
+      <c r="U9" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="V9" s="204" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="170" t="s">
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="171" t="s">
+      <c r="D10" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="33" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="H10" s="130">
+      <c r="H10" s="127">
         <v>8</v>
       </c>
-      <c r="I10" s="129" t="s">
+      <c r="I10" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="K10" s="129" t="s">
+      <c r="K10" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="129" t="s">
+      <c r="L10" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129" t="s">
+      <c r="M10" s="126"/>
+      <c r="N10" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="28" t="s">
+      <c r="O10" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="130" t="s">
+      <c r="P10" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="131">
+      <c r="Q10" s="128">
         <v>6</v>
       </c>
-      <c r="R10" s="131" t="s">
+      <c r="R10" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="S10" s="131" t="s">
+      <c r="S10" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="T10" s="172" t="s">
+      <c r="T10" s="169" t="s">
         <v>203</v>
       </c>
-      <c r="U10" s="173" t="s">
+      <c r="U10" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="V10" s="204" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="64" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="63">
         <v>9</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="L11" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66" t="s">
+      <c r="M11" s="63"/>
+      <c r="N11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="O11" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="67">
+      <c r="Q11" s="64">
         <v>6</v>
       </c>
-      <c r="R11" s="67" t="s">
+      <c r="R11" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="S11" s="67" t="s">
+      <c r="S11" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="T11" s="68" t="s">
+      <c r="T11" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="U11" s="69" t="s">
+      <c r="U11" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="V11" s="204" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72" t="s">
+      <c r="F12" s="68"/>
+      <c r="G12" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="70">
         <v>10</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="74" t="s">
+      <c r="L12" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74" t="s">
+      <c r="M12" s="71"/>
+      <c r="N12" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="71"/>
-      <c r="P12" s="73" t="s">
+      <c r="O12" s="68"/>
+      <c r="P12" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="75">
+      <c r="Q12" s="72">
         <v>6</v>
       </c>
-      <c r="R12" s="75" t="s">
+      <c r="R12" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="S12" s="75" t="s">
+      <c r="S12" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="T12" s="76" t="s">
+      <c r="T12" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="V12" s="204" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="33">
         <v>11</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37" t="s">
+      <c r="N13" s="33"/>
+      <c r="O13" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="8">
@@ -2948,2299 +3048,2362 @@
       <c r="S13" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="T13" s="40" t="s">
+      <c r="T13" s="37" t="s">
         <v>206</v>
       </c>
       <c r="U13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="V13" s="205"/>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="V13" s="205" t="s">
+        <v>254</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="42">
         <v>12</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="45" t="s">
+      <c r="L14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45" t="s">
+      <c r="M14" s="42"/>
+      <c r="N14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="43" t="s">
+      <c r="O14" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="30" t="s">
+      <c r="P14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <v>6</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="S14" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="T14" s="46" t="s">
+      <c r="T14" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="U14" s="13" t="s">
+      <c r="U14" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="V14" s="204" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="27">
         <v>13</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="45" t="s">
+      <c r="L15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45" t="s">
+      <c r="M15" s="42"/>
+      <c r="N15" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="43" t="s">
+      <c r="O15" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <v>6</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="S15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="T15" s="46" t="s">
+      <c r="T15" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="U15" s="13" t="s">
+      <c r="U15" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="V15" s="204" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="170" t="s">
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="171" t="s">
+      <c r="D16" s="168" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="33" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="129">
+      <c r="H16" s="126">
         <v>14</v>
       </c>
-      <c r="I16" s="129" t="s">
+      <c r="I16" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="129" t="s">
+      <c r="K16" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="129" t="s">
+      <c r="L16" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129" t="s">
+      <c r="M16" s="126"/>
+      <c r="N16" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="28" t="s">
+      <c r="O16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="130" t="s">
+      <c r="P16" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="131">
+      <c r="Q16" s="128">
         <v>6</v>
       </c>
-      <c r="R16" s="131" t="s">
+      <c r="R16" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="S16" s="131" t="s">
+      <c r="S16" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="T16" s="172" t="s">
+      <c r="T16" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="U16" s="173" t="s">
+      <c r="U16" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="V16" s="204" t="s">
         <v>251</v>
       </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50" t="s">
+      <c r="F17" s="46"/>
+      <c r="G17" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="48">
         <v>15</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="K17" s="52" t="s">
+      <c r="K17" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="52" t="s">
+      <c r="L17" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52" t="s">
+      <c r="M17" s="49"/>
+      <c r="N17" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="49" t="s">
+      <c r="O17" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="P17" s="51" t="s">
+      <c r="P17" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="16">
         <v>6</v>
       </c>
-      <c r="R17" s="17" t="s">
+      <c r="R17" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="S17" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="T17" s="53" t="s">
+      <c r="T17" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="U17" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="V17" s="10" t="s">
+      <c r="V17" s="204" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="179" t="s">
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="178" t="s">
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="175" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="171">
+      <c r="H18" s="168">
         <v>16</v>
       </c>
-      <c r="I18" s="171" t="s">
+      <c r="I18" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="174" t="s">
+      <c r="J18" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="K18" s="171" t="s">
+      <c r="K18" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="171" t="s">
+      <c r="L18" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="171"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="175" t="s">
+      <c r="M18" s="168"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="176">
+      <c r="Q18" s="173">
         <v>8</v>
       </c>
-      <c r="R18" s="176" t="s">
+      <c r="R18" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="S18" s="176" t="s">
+      <c r="S18" s="173" t="s">
         <v>220</v>
       </c>
-      <c r="T18" s="176" t="s">
+      <c r="T18" s="173" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="177" t="s">
+      <c r="U18" s="174" t="s">
         <v>221</v>
       </c>
-      <c r="V18" s="19" t="s">
+      <c r="V18" s="206" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+    </row>
+    <row r="19" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="132" t="s">
+      <c r="D19" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="33" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="H19" s="130">
+      <c r="H19" s="127">
         <v>17</v>
       </c>
-      <c r="I19" s="129" t="s">
+      <c r="I19" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="129" t="s">
+      <c r="K19" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="129" t="s">
+      <c r="L19" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="130" t="s">
+      <c r="M19" s="126"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="131">
+      <c r="Q19" s="128">
         <v>8</v>
       </c>
-      <c r="R19" s="131" t="s">
+      <c r="R19" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="S19" s="131" t="s">
+      <c r="S19" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="T19" s="131" t="s">
+      <c r="T19" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="173" t="s">
+      <c r="U19" s="170" t="s">
         <v>221</v>
       </c>
-      <c r="V19" s="19" t="s">
+      <c r="V19" s="206" t="s">
         <v>248</v>
       </c>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="109" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="106" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="110">
+      <c r="H20" s="107">
         <v>18</v>
       </c>
-      <c r="I20" s="110" t="s">
+      <c r="I20" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="K20" s="110" t="s">
+      <c r="K20" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="110" t="s">
+      <c r="L20" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="110" t="s">
+      <c r="M20" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="110"/>
-      <c r="O20" s="21" t="s">
+      <c r="N20" s="107"/>
+      <c r="O20" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="111" t="s">
+      <c r="P20" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="112">
+      <c r="Q20" s="109">
         <v>6</v>
       </c>
-      <c r="R20" s="112" t="s">
+      <c r="R20" s="109" t="s">
         <v>190</v>
       </c>
-      <c r="S20" s="112" t="s">
+      <c r="S20" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="T20" s="113" t="s">
+      <c r="T20" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="U20" s="114" t="s">
+      <c r="U20" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="V20" s="205"/>
+      <c r="V20" s="205" t="s">
+        <v>256</v>
+      </c>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="109" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="111">
+      <c r="H21" s="108">
         <v>19</v>
       </c>
-      <c r="I21" s="110" t="s">
+      <c r="I21" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="110" t="s">
+      <c r="L21" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110" t="s">
+      <c r="M21" s="107"/>
+      <c r="N21" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="O21" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="111" t="s">
+      <c r="P21" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="112">
+      <c r="Q21" s="109">
         <v>6</v>
       </c>
-      <c r="R21" s="112" t="s">
+      <c r="R21" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="S21" s="112" t="s">
+      <c r="S21" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="T21" s="113" t="s">
+      <c r="T21" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="U21" s="114" t="s">
+      <c r="U21" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="V21" s="10" t="s">
+      <c r="V21" s="205" t="s">
         <v>249</v>
       </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="33" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="129">
+      <c r="H22" s="126">
         <v>20</v>
       </c>
-      <c r="I22" s="129" t="s">
+      <c r="I22" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="129" t="s">
+      <c r="K22" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="129" t="s">
+      <c r="L22" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129" t="s">
+      <c r="M22" s="126"/>
+      <c r="N22" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="O22" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="130" t="s">
+      <c r="P22" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="131">
+      <c r="Q22" s="128">
         <v>6</v>
       </c>
-      <c r="R22" s="131" t="s">
+      <c r="R22" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="S22" s="131" t="s">
+      <c r="S22" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="T22" s="172" t="s">
+      <c r="T22" s="169" t="s">
         <v>213</v>
       </c>
-      <c r="U22" s="173" t="s">
+      <c r="U22" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="V22" s="205"/>
+      <c r="V22" s="205" t="s">
+        <v>256</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="109" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="111">
+      <c r="H23" s="108">
         <v>21</v>
       </c>
-      <c r="I23" s="110" t="s">
+      <c r="I23" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="110" t="s">
+      <c r="K23" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="110" t="s">
+      <c r="L23" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110" t="s">
+      <c r="M23" s="107"/>
+      <c r="N23" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="21" t="s">
+      <c r="O23" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="111" t="s">
+      <c r="P23" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="112">
+      <c r="Q23" s="109">
         <v>6</v>
       </c>
-      <c r="R23" s="112" t="s">
+      <c r="R23" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="S23" s="112" t="s">
+      <c r="S23" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="T23" s="113" t="s">
+      <c r="T23" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="U23" s="114" t="s">
+      <c r="U23" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="V23" s="10" t="s">
+      <c r="V23" s="204" t="s">
         <v>252</v>
       </c>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="117" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="118">
+      <c r="H24" s="115">
         <v>22</v>
       </c>
-      <c r="I24" s="119" t="s">
+      <c r="I24" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="119" t="s">
+      <c r="K24" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="119" t="s">
+      <c r="L24" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119" t="s">
+      <c r="M24" s="116"/>
+      <c r="N24" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="118" t="s">
+      <c r="O24" s="20"/>
+      <c r="P24" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="120">
+      <c r="Q24" s="117">
         <v>6</v>
       </c>
-      <c r="R24" s="120" t="s">
+      <c r="R24" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="S24" s="120" t="s">
+      <c r="S24" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="T24" s="121" t="s">
+      <c r="T24" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="U24" s="122" t="s">
+      <c r="U24" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="V24" s="10" t="s">
+      <c r="V24" s="204" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="87" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="86">
+      <c r="H25" s="83">
         <v>23</v>
       </c>
-      <c r="I25" s="86" t="s">
+      <c r="I25" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="86" t="s">
+      <c r="K25" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="86" t="s">
+      <c r="L25" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="88" t="s">
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="89">
+      <c r="Q25" s="86">
         <v>8</v>
       </c>
-      <c r="R25" s="89" t="s">
+      <c r="R25" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="S25" s="89" t="s">
+      <c r="S25" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="T25" s="89" t="s">
+      <c r="T25" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="90" t="s">
+      <c r="U25" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="V25" s="19" t="s">
+      <c r="V25" s="206" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+    </row>
+    <row r="26" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="93" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="92">
         <v>24</v>
       </c>
-      <c r="I26" s="94" t="s">
+      <c r="I26" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="94" t="s">
+      <c r="K26" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="94" t="s">
+      <c r="L26" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="95" t="s">
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="96">
+      <c r="Q26" s="93">
         <v>8</v>
       </c>
-      <c r="R26" s="96" t="s">
+      <c r="R26" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="S26" s="96" t="s">
+      <c r="S26" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="T26" s="96" t="s">
+      <c r="T26" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="98" t="s">
+      <c r="U26" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="V26" s="19" t="s">
+      <c r="V26" s="206" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+    </row>
+    <row r="27" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="93" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="95">
+      <c r="H27" s="92">
         <v>25</v>
       </c>
-      <c r="I27" s="94" t="s">
+      <c r="I27" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="K27" s="94" t="s">
+      <c r="K27" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="94" t="s">
+      <c r="L27" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="95" t="s">
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="96">
+      <c r="Q27" s="93">
         <v>8</v>
       </c>
-      <c r="R27" s="96" t="s">
+      <c r="R27" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="S27" s="96" t="s">
+      <c r="S27" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="T27" s="96" t="s">
+      <c r="T27" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="U27" s="98" t="s">
+      <c r="U27" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="V27" s="19" t="s">
+      <c r="V27" s="206" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+    </row>
+    <row r="28" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="93" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="94">
+      <c r="H28" s="91">
         <v>26</v>
       </c>
-      <c r="I28" s="94" t="s">
+      <c r="I28" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="K28" s="94" t="s">
+      <c r="K28" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="94" t="s">
+      <c r="L28" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="95" t="s">
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="96">
+      <c r="Q28" s="93">
         <v>8</v>
       </c>
-      <c r="R28" s="96" t="s">
+      <c r="R28" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="S28" s="96" t="s">
+      <c r="S28" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="T28" s="96" t="s">
+      <c r="T28" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="U28" s="98" t="s">
+      <c r="U28" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="V28" s="19" t="s">
+      <c r="V28" s="206" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="170" t="s">
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+    </row>
+    <row r="29" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="132" t="s">
+      <c r="C29" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="132" t="s">
+      <c r="D29" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="33" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="130">
+      <c r="H29" s="127">
         <v>27</v>
       </c>
-      <c r="I29" s="129" t="s">
+      <c r="I29" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="129" t="s">
+      <c r="K29" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="129" t="s">
+      <c r="L29" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="130" t="s">
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="131">
+      <c r="Q29" s="128">
         <v>8</v>
       </c>
-      <c r="R29" s="131" t="s">
+      <c r="R29" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="S29" s="131" t="s">
+      <c r="S29" s="128" t="s">
         <v>220</v>
       </c>
-      <c r="T29" s="131" t="s">
+      <c r="T29" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="U29" s="173" t="s">
+      <c r="U29" s="170" t="s">
         <v>221</v>
       </c>
-      <c r="V29" s="19" t="s">
+      <c r="V29" s="206" t="s">
         <v>248</v>
       </c>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="93" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="95">
+      <c r="H30" s="92">
         <v>28</v>
       </c>
-      <c r="I30" s="94" t="s">
+      <c r="I30" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="94" t="s">
+      <c r="K30" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="94" t="s">
+      <c r="L30" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="94" t="s">
+      <c r="M30" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="94"/>
-      <c r="O30" s="24" t="s">
+      <c r="N30" s="91"/>
+      <c r="O30" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="P30" s="95" t="s">
+      <c r="P30" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="96">
+      <c r="Q30" s="93">
         <v>6</v>
       </c>
-      <c r="R30" s="96" t="s">
+      <c r="R30" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="S30" s="96" t="s">
+      <c r="S30" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="T30" s="97" t="s">
+      <c r="T30" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="U30" s="98" t="s">
+      <c r="U30" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="V30" s="206"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
+      <c r="V30" s="207" t="s">
+        <v>250</v>
+      </c>
+      <c r="W30" s="212"/>
+      <c r="X30" s="212"/>
+      <c r="Y30" s="212"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="101" t="s">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="H31" s="103">
+      <c r="H31" s="100">
         <v>29</v>
       </c>
-      <c r="I31" s="103" t="s">
+      <c r="I31" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="K31" s="103" t="s">
+      <c r="K31" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="103" t="s">
+      <c r="L31" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103" t="s">
+      <c r="M31" s="100"/>
+      <c r="N31" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="27" t="s">
+      <c r="O31" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="P31" s="102" t="s">
+      <c r="P31" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="104">
+      <c r="Q31" s="101">
         <v>6</v>
       </c>
-      <c r="R31" s="104" t="s">
+      <c r="R31" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="S31" s="104" t="s">
+      <c r="S31" s="101" t="s">
         <v>195</v>
       </c>
-      <c r="T31" s="105" t="s">
+      <c r="T31" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="U31" s="106" t="s">
+      <c r="U31" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="V31" s="25" t="s">
+      <c r="V31" s="208" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
+      <c r="W31" s="212"/>
+      <c r="X31" s="212"/>
+      <c r="Y31" s="212"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="124" t="s">
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="125">
+      <c r="H32" s="122">
         <v>30</v>
       </c>
-      <c r="I32" s="78" t="s">
+      <c r="I32" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="123" t="s">
+      <c r="J32" s="120" t="s">
         <v>247</v>
       </c>
-      <c r="K32" s="78" t="s">
+      <c r="K32" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="78" t="s">
+      <c r="L32" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78" t="s">
+      <c r="M32" s="75"/>
+      <c r="N32" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="126" t="s">
+      <c r="O32" s="123" t="s">
         <v>178</v>
       </c>
-      <c r="P32" s="125" t="s">
+      <c r="P32" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="127">
+      <c r="Q32" s="124">
         <v>6</v>
       </c>
-      <c r="R32" s="127" t="s">
+      <c r="R32" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="S32" s="127" t="s">
+      <c r="S32" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="T32" s="128" t="s">
+      <c r="T32" s="125" t="s">
         <v>216</v>
       </c>
-      <c r="U32" s="127" t="s">
+      <c r="U32" s="124" t="s">
         <v>197</v>
       </c>
-      <c r="V32" s="206"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
+      <c r="V32" s="207" t="s">
+        <v>256</v>
+      </c>
+      <c r="W32" s="212"/>
+      <c r="X32" s="212"/>
+      <c r="Y32" s="212"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="80" t="s">
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="82">
+      <c r="H33" s="79">
         <v>31</v>
       </c>
-      <c r="I33" s="81" t="s">
+      <c r="I33" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="79" t="s">
+      <c r="J33" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="K33" s="81" t="s">
+      <c r="K33" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="81" t="s">
+      <c r="L33" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="82" t="s">
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="83"/>
-      <c r="V33" s="26" t="s">
+      <c r="Q33" s="80"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="202" t="s">
         <v>248</v>
       </c>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
+      <c r="W33" s="212"/>
+      <c r="X33" s="212"/>
+      <c r="Y33" s="212"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80" t="s">
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="81">
+      <c r="H34" s="78">
         <v>32</v>
       </c>
-      <c r="I34" s="81" t="s">
+      <c r="I34" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="79" t="s">
+      <c r="J34" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="K34" s="81" t="s">
+      <c r="K34" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="81" t="s">
+      <c r="L34" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81" t="s">
+      <c r="M34" s="78"/>
+      <c r="N34" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="79"/>
-      <c r="P34" s="82" t="s">
+      <c r="O34" s="76"/>
+      <c r="P34" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="83">
+      <c r="Q34" s="80">
         <v>6</v>
       </c>
-      <c r="R34" s="83" t="s">
+      <c r="R34" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="S34" s="83" t="s">
+      <c r="S34" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="T34" s="84" t="s">
+      <c r="T34" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="U34" s="83" t="s">
+      <c r="U34" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="V34" s="206"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
+      <c r="V34" s="207" t="s">
+        <v>249</v>
+      </c>
+      <c r="W34" s="212"/>
+      <c r="X34" s="212"/>
+      <c r="Y34" s="212"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="132" t="s">
+      <c r="A35" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="132" t="s">
+      <c r="C35" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="33" t="s">
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="H35" s="130">
+      <c r="H35" s="127">
         <v>33</v>
       </c>
-      <c r="I35" s="129" t="s">
+      <c r="I35" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="28" t="s">
+      <c r="J35" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="K35" s="129" t="s">
+      <c r="K35" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="129" t="s">
+      <c r="L35" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="129"/>
-      <c r="N35" s="129" t="s">
+      <c r="M35" s="126"/>
+      <c r="N35" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="28"/>
-      <c r="P35" s="130" t="s">
+      <c r="O35" s="25"/>
+      <c r="P35" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="131">
+      <c r="Q35" s="128">
         <v>6</v>
       </c>
-      <c r="R35" s="131" t="s">
+      <c r="R35" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="S35" s="131" t="s">
+      <c r="S35" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="T35" s="172" t="s">
+      <c r="T35" s="169" t="s">
         <v>218</v>
       </c>
-      <c r="U35" s="131" t="s">
+      <c r="U35" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="V35" s="25" t="s">
+      <c r="V35" s="208" t="s">
         <v>250</v>
       </c>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
+      <c r="W35" s="212"/>
+      <c r="X35" s="212"/>
+      <c r="Y35" s="212"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="133"/>
-      <c r="O36" s="134"/>
-      <c r="P36" s="136"/>
-      <c r="Q36" s="137"/>
-      <c r="R36" s="137"/>
-      <c r="S36" s="137"/>
-      <c r="T36" s="137"/>
-      <c r="U36" s="137"/>
-      <c r="V36" s="138"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="131"/>
+      <c r="P36" s="133"/>
+      <c r="Q36" s="134"/>
+      <c r="R36" s="134"/>
+      <c r="S36" s="134"/>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="135"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="139"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="139"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="142"/>
-      <c r="Q37" s="143"/>
-      <c r="R37" s="143"/>
-      <c r="S37" s="143"/>
-      <c r="T37" s="143"/>
-      <c r="U37" s="143"/>
-      <c r="V37" s="142"/>
-      <c r="W37" s="144"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
+      <c r="A37" s="136"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="137"/>
+      <c r="P37" s="139"/>
+      <c r="Q37" s="140"/>
+      <c r="R37" s="140"/>
+      <c r="S37" s="140"/>
+      <c r="T37" s="140"/>
+      <c r="U37" s="140"/>
+      <c r="V37" s="139"/>
+      <c r="W37" s="141"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="139"/>
-      <c r="B38" s="140"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="140"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="139"/>
-      <c r="N38" s="139"/>
-      <c r="O38" s="140"/>
-      <c r="P38" s="142"/>
-      <c r="Q38" s="142"/>
-      <c r="R38" s="142"/>
-      <c r="S38" s="142"/>
-      <c r="T38" s="142"/>
-      <c r="U38" s="142"/>
-      <c r="V38" s="142"/>
-      <c r="W38" s="144"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="136"/>
+      <c r="N38" s="136"/>
+      <c r="O38" s="137"/>
+      <c r="P38" s="139"/>
+      <c r="Q38" s="139"/>
+      <c r="R38" s="139"/>
+      <c r="S38" s="139"/>
+      <c r="T38" s="139"/>
+      <c r="U38" s="139"/>
+      <c r="V38" s="139"/>
+      <c r="W38" s="141"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="139"/>
-      <c r="N39" s="139"/>
-      <c r="O39" s="140"/>
-      <c r="P39" s="142"/>
-      <c r="Q39" s="142"/>
-      <c r="R39" s="142"/>
-      <c r="S39" s="142"/>
-      <c r="T39" s="142"/>
-      <c r="U39" s="142"/>
-      <c r="V39" s="142"/>
-      <c r="W39" s="144"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
+      <c r="A39" s="136"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="136"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="139"/>
+      <c r="R39" s="139"/>
+      <c r="S39" s="139"/>
+      <c r="T39" s="139"/>
+      <c r="U39" s="139"/>
+      <c r="V39" s="139"/>
+      <c r="W39" s="141"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="139"/>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="139"/>
-      <c r="N40" s="139"/>
-      <c r="O40" s="140"/>
-      <c r="P40" s="142"/>
-      <c r="Q40" s="142"/>
-      <c r="R40" s="142"/>
-      <c r="S40" s="142"/>
-      <c r="T40" s="142"/>
-      <c r="U40" s="142"/>
-      <c r="V40" s="140"/>
-      <c r="W40" s="145"/>
+      <c r="A40" s="136"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="136"/>
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
+      <c r="O40" s="137"/>
+      <c r="P40" s="139"/>
+      <c r="Q40" s="139"/>
+      <c r="R40" s="139"/>
+      <c r="S40" s="139"/>
+      <c r="T40" s="139"/>
+      <c r="U40" s="139"/>
+      <c r="V40" s="137"/>
+      <c r="W40" s="142"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="139"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="139"/>
-      <c r="M41" s="139"/>
-      <c r="N41" s="139"/>
-      <c r="O41" s="140"/>
-      <c r="P41" s="142"/>
-      <c r="Q41" s="142"/>
-      <c r="R41" s="142"/>
-      <c r="S41" s="142"/>
-      <c r="T41" s="142"/>
-      <c r="U41" s="142"/>
-      <c r="V41" s="140"/>
-      <c r="W41" s="145"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="136"/>
+      <c r="O41" s="137"/>
+      <c r="P41" s="139"/>
+      <c r="Q41" s="139"/>
+      <c r="R41" s="139"/>
+      <c r="S41" s="139"/>
+      <c r="T41" s="139"/>
+      <c r="U41" s="139"/>
+      <c r="V41" s="137"/>
+      <c r="W41" s="142"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="139"/>
-      <c r="B42" s="140"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="139"/>
-      <c r="M42" s="139"/>
-      <c r="N42" s="139"/>
-      <c r="O42" s="140"/>
-      <c r="P42" s="142"/>
-      <c r="Q42" s="142"/>
-      <c r="R42" s="142"/>
-      <c r="S42" s="142"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="142"/>
-      <c r="V42" s="140"/>
-      <c r="W42" s="145"/>
+      <c r="A42" s="136"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
+      <c r="N42" s="136"/>
+      <c r="O42" s="137"/>
+      <c r="P42" s="139"/>
+      <c r="Q42" s="139"/>
+      <c r="R42" s="139"/>
+      <c r="S42" s="139"/>
+      <c r="T42" s="139"/>
+      <c r="U42" s="139"/>
+      <c r="V42" s="137"/>
+      <c r="W42" s="142"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="139"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="139"/>
-      <c r="N43" s="139"/>
-      <c r="O43" s="140"/>
-      <c r="P43" s="142"/>
-      <c r="Q43" s="142"/>
-      <c r="R43" s="142"/>
-      <c r="S43" s="142"/>
-      <c r="T43" s="142"/>
-      <c r="U43" s="142"/>
-      <c r="V43" s="140"/>
-      <c r="W43" s="145"/>
+      <c r="A43" s="136"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
+      <c r="M43" s="136"/>
+      <c r="N43" s="136"/>
+      <c r="O43" s="137"/>
+      <c r="P43" s="139"/>
+      <c r="Q43" s="139"/>
+      <c r="R43" s="139"/>
+      <c r="S43" s="139"/>
+      <c r="T43" s="139"/>
+      <c r="U43" s="139"/>
+      <c r="V43" s="137"/>
+      <c r="W43" s="142"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="139"/>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="139"/>
-      <c r="N44" s="139"/>
-      <c r="O44" s="140"/>
-      <c r="P44" s="142"/>
-      <c r="Q44" s="142"/>
-      <c r="R44" s="142"/>
-      <c r="S44" s="142"/>
-      <c r="T44" s="142"/>
-      <c r="U44" s="142"/>
-      <c r="V44" s="140"/>
-      <c r="W44" s="145"/>
+      <c r="A44" s="136"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="136"/>
+      <c r="N44" s="136"/>
+      <c r="O44" s="137"/>
+      <c r="P44" s="139"/>
+      <c r="Q44" s="139"/>
+      <c r="R44" s="139"/>
+      <c r="S44" s="139"/>
+      <c r="T44" s="139"/>
+      <c r="U44" s="139"/>
+      <c r="V44" s="137"/>
+      <c r="W44" s="142"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="139"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="140"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="139"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="139"/>
-      <c r="O45" s="140"/>
-      <c r="P45" s="142"/>
-      <c r="Q45" s="142"/>
-      <c r="R45" s="142"/>
-      <c r="S45" s="142"/>
-      <c r="T45" s="142"/>
-      <c r="U45" s="142"/>
-      <c r="V45" s="140"/>
-      <c r="W45" s="145"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="139"/>
+      <c r="Q45" s="139"/>
+      <c r="R45" s="139"/>
+      <c r="S45" s="139"/>
+      <c r="T45" s="139"/>
+      <c r="U45" s="139"/>
+      <c r="V45" s="137"/>
+      <c r="W45" s="142"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="139"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="139"/>
-      <c r="N46" s="139"/>
-      <c r="O46" s="140"/>
-      <c r="P46" s="142"/>
-      <c r="Q46" s="142"/>
-      <c r="R46" s="142"/>
-      <c r="S46" s="142"/>
-      <c r="T46" s="142"/>
-      <c r="U46" s="142"/>
-      <c r="V46" s="140"/>
-      <c r="W46" s="145"/>
+      <c r="A46" s="136"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="136"/>
+      <c r="O46" s="137"/>
+      <c r="P46" s="139"/>
+      <c r="Q46" s="139"/>
+      <c r="R46" s="139"/>
+      <c r="S46" s="139"/>
+      <c r="T46" s="139"/>
+      <c r="U46" s="139"/>
+      <c r="V46" s="137"/>
+      <c r="W46" s="142"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="139"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="139"/>
-      <c r="O47" s="140"/>
-      <c r="P47" s="142"/>
-      <c r="Q47" s="142"/>
-      <c r="R47" s="142"/>
-      <c r="S47" s="142"/>
-      <c r="T47" s="142"/>
-      <c r="U47" s="142"/>
-      <c r="V47" s="140"/>
-      <c r="W47" s="145"/>
+      <c r="A47" s="136"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="136"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="136"/>
+      <c r="O47" s="137"/>
+      <c r="P47" s="139"/>
+      <c r="Q47" s="139"/>
+      <c r="R47" s="139"/>
+      <c r="S47" s="139"/>
+      <c r="T47" s="139"/>
+      <c r="U47" s="139"/>
+      <c r="V47" s="137"/>
+      <c r="W47" s="142"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="139"/>
-      <c r="B48" s="140"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="140"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="140"/>
-      <c r="K48" s="139"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="139"/>
-      <c r="N48" s="139"/>
-      <c r="O48" s="140"/>
-      <c r="P48" s="142"/>
-      <c r="Q48" s="142"/>
-      <c r="R48" s="142"/>
-      <c r="S48" s="142"/>
-      <c r="T48" s="142"/>
-      <c r="U48" s="142"/>
-      <c r="V48" s="140"/>
-      <c r="W48" s="145"/>
+      <c r="A48" s="136"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="137"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="136"/>
+      <c r="L48" s="136"/>
+      <c r="M48" s="136"/>
+      <c r="N48" s="136"/>
+      <c r="O48" s="137"/>
+      <c r="P48" s="139"/>
+      <c r="Q48" s="139"/>
+      <c r="R48" s="139"/>
+      <c r="S48" s="139"/>
+      <c r="T48" s="139"/>
+      <c r="U48" s="139"/>
+      <c r="V48" s="137"/>
+      <c r="W48" s="142"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="139"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="139"/>
-      <c r="L49" s="139"/>
-      <c r="M49" s="139"/>
-      <c r="N49" s="139"/>
-      <c r="O49" s="140"/>
-      <c r="P49" s="142"/>
-      <c r="Q49" s="142"/>
-      <c r="R49" s="142"/>
-      <c r="S49" s="142"/>
-      <c r="T49" s="142"/>
-      <c r="U49" s="142"/>
-      <c r="V49" s="140"/>
-      <c r="W49" s="145"/>
+      <c r="A49" s="136"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="136"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="136"/>
+      <c r="O49" s="137"/>
+      <c r="P49" s="139"/>
+      <c r="Q49" s="139"/>
+      <c r="R49" s="139"/>
+      <c r="S49" s="139"/>
+      <c r="T49" s="139"/>
+      <c r="U49" s="139"/>
+      <c r="V49" s="137"/>
+      <c r="W49" s="142"/>
     </row>
     <row r="50" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="139"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="140"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="139"/>
-      <c r="O50" s="140"/>
-      <c r="P50" s="142"/>
-      <c r="Q50" s="142"/>
-      <c r="R50" s="142"/>
-      <c r="S50" s="142"/>
-      <c r="T50" s="142"/>
-      <c r="U50" s="142"/>
-      <c r="V50" s="140"/>
-      <c r="W50" s="145"/>
+      <c r="A50" s="136"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="136"/>
+      <c r="L50" s="136"/>
+      <c r="M50" s="136"/>
+      <c r="N50" s="136"/>
+      <c r="O50" s="137"/>
+      <c r="P50" s="139"/>
+      <c r="Q50" s="139"/>
+      <c r="R50" s="139"/>
+      <c r="S50" s="139"/>
+      <c r="T50" s="139"/>
+      <c r="U50" s="139"/>
+      <c r="V50" s="137"/>
+      <c r="W50" s="142"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="139"/>
-      <c r="B51" s="140"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="139"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="139"/>
-      <c r="L51" s="139"/>
-      <c r="M51" s="139"/>
-      <c r="N51" s="139"/>
-      <c r="O51" s="140"/>
-      <c r="P51" s="142"/>
-      <c r="Q51" s="142"/>
-      <c r="R51" s="142"/>
-      <c r="S51" s="142"/>
-      <c r="T51" s="142"/>
-      <c r="U51" s="142"/>
-      <c r="V51" s="140"/>
-      <c r="W51" s="145"/>
+      <c r="A51" s="136"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
+      <c r="O51" s="137"/>
+      <c r="P51" s="139"/>
+      <c r="Q51" s="139"/>
+      <c r="R51" s="139"/>
+      <c r="S51" s="139"/>
+      <c r="T51" s="139"/>
+      <c r="U51" s="139"/>
+      <c r="V51" s="137"/>
+      <c r="W51" s="142"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="139"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="140"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="139"/>
-      <c r="N52" s="139"/>
-      <c r="O52" s="140"/>
-      <c r="P52" s="142"/>
-      <c r="Q52" s="142"/>
-      <c r="R52" s="142"/>
-      <c r="S52" s="142"/>
-      <c r="T52" s="142"/>
-      <c r="U52" s="142"/>
-      <c r="V52" s="140"/>
-      <c r="W52" s="145"/>
+      <c r="A52" s="136"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="136"/>
+      <c r="L52" s="136"/>
+      <c r="M52" s="136"/>
+      <c r="N52" s="136"/>
+      <c r="O52" s="137"/>
+      <c r="P52" s="139"/>
+      <c r="Q52" s="139"/>
+      <c r="R52" s="139"/>
+      <c r="S52" s="139"/>
+      <c r="T52" s="139"/>
+      <c r="U52" s="139"/>
+      <c r="V52" s="137"/>
+      <c r="W52" s="142"/>
     </row>
     <row r="53" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="139"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="140"/>
-      <c r="K53" s="139"/>
-      <c r="L53" s="139"/>
-      <c r="M53" s="139"/>
-      <c r="N53" s="139"/>
-      <c r="O53" s="140"/>
-      <c r="P53" s="142"/>
-      <c r="Q53" s="142"/>
-      <c r="R53" s="142"/>
-      <c r="S53" s="142"/>
-      <c r="T53" s="142"/>
-      <c r="U53" s="142"/>
-      <c r="V53" s="140"/>
-      <c r="W53" s="145"/>
+      <c r="A53" s="136"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="136"/>
+      <c r="L53" s="136"/>
+      <c r="M53" s="136"/>
+      <c r="N53" s="136"/>
+      <c r="O53" s="137"/>
+      <c r="P53" s="139"/>
+      <c r="Q53" s="139"/>
+      <c r="R53" s="139"/>
+      <c r="S53" s="139"/>
+      <c r="T53" s="139"/>
+      <c r="U53" s="139"/>
+      <c r="V53" s="137"/>
+      <c r="W53" s="142"/>
     </row>
     <row r="54" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="139"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="139"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="139"/>
-      <c r="L54" s="139"/>
-      <c r="M54" s="139"/>
-      <c r="N54" s="139"/>
-      <c r="O54" s="140"/>
-      <c r="P54" s="142"/>
-      <c r="Q54" s="142"/>
-      <c r="R54" s="142"/>
-      <c r="S54" s="142"/>
-      <c r="T54" s="142"/>
-      <c r="U54" s="142"/>
-      <c r="V54" s="140"/>
-      <c r="W54" s="145"/>
+      <c r="A54" s="136"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="136"/>
+      <c r="L54" s="136"/>
+      <c r="M54" s="136"/>
+      <c r="N54" s="136"/>
+      <c r="O54" s="137"/>
+      <c r="P54" s="139"/>
+      <c r="Q54" s="139"/>
+      <c r="R54" s="139"/>
+      <c r="S54" s="139"/>
+      <c r="T54" s="139"/>
+      <c r="U54" s="139"/>
+      <c r="V54" s="137"/>
+      <c r="W54" s="142"/>
     </row>
     <row r="55" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="139"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="139"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="139"/>
-      <c r="L55" s="139"/>
-      <c r="M55" s="139"/>
-      <c r="N55" s="139"/>
-      <c r="O55" s="140"/>
-      <c r="P55" s="142"/>
-      <c r="Q55" s="142"/>
-      <c r="R55" s="142"/>
-      <c r="S55" s="142"/>
-      <c r="T55" s="142"/>
-      <c r="U55" s="142"/>
-      <c r="V55" s="140"/>
-      <c r="W55" s="145"/>
+      <c r="A55" s="136"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="136"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="136"/>
+      <c r="N55" s="136"/>
+      <c r="O55" s="137"/>
+      <c r="P55" s="139"/>
+      <c r="Q55" s="139"/>
+      <c r="R55" s="139"/>
+      <c r="S55" s="139"/>
+      <c r="T55" s="139"/>
+      <c r="U55" s="139"/>
+      <c r="V55" s="137"/>
+      <c r="W55" s="142"/>
     </row>
     <row r="56" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="139"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="139"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="139"/>
-      <c r="L56" s="139"/>
-      <c r="M56" s="139"/>
-      <c r="N56" s="139"/>
-      <c r="O56" s="140"/>
-      <c r="P56" s="142"/>
-      <c r="Q56" s="142"/>
-      <c r="R56" s="142"/>
-      <c r="S56" s="142"/>
-      <c r="T56" s="142"/>
-      <c r="U56" s="142"/>
-      <c r="V56" s="140"/>
-      <c r="W56" s="145"/>
+      <c r="A56" s="136"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="138"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="136"/>
+      <c r="L56" s="136"/>
+      <c r="M56" s="136"/>
+      <c r="N56" s="136"/>
+      <c r="O56" s="137"/>
+      <c r="P56" s="139"/>
+      <c r="Q56" s="139"/>
+      <c r="R56" s="139"/>
+      <c r="S56" s="139"/>
+      <c r="T56" s="139"/>
+      <c r="U56" s="139"/>
+      <c r="V56" s="137"/>
+      <c r="W56" s="142"/>
     </row>
     <row r="57" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="139"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="139"/>
-      <c r="J57" s="140"/>
-      <c r="K57" s="139"/>
-      <c r="L57" s="139"/>
-      <c r="M57" s="139"/>
-      <c r="N57" s="139"/>
-      <c r="O57" s="140"/>
-      <c r="P57" s="142"/>
-      <c r="Q57" s="142"/>
-      <c r="R57" s="142"/>
-      <c r="S57" s="142"/>
-      <c r="T57" s="142"/>
-      <c r="U57" s="142"/>
-      <c r="V57" s="140"/>
-      <c r="W57" s="145"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="136"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="136"/>
+      <c r="O57" s="137"/>
+      <c r="P57" s="139"/>
+      <c r="Q57" s="139"/>
+      <c r="R57" s="139"/>
+      <c r="S57" s="139"/>
+      <c r="T57" s="139"/>
+      <c r="U57" s="139"/>
+      <c r="V57" s="137"/>
+      <c r="W57" s="142"/>
     </row>
     <row r="58" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="139"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="141"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="139"/>
-      <c r="L58" s="139"/>
-      <c r="M58" s="139"/>
-      <c r="N58" s="139"/>
-      <c r="O58" s="140"/>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="142"/>
-      <c r="R58" s="142"/>
-      <c r="S58" s="142"/>
-      <c r="T58" s="142"/>
-      <c r="U58" s="142"/>
-      <c r="V58" s="140"/>
-      <c r="W58" s="145"/>
+      <c r="A58" s="136"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="136"/>
+      <c r="L58" s="136"/>
+      <c r="M58" s="136"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="137"/>
+      <c r="P58" s="139"/>
+      <c r="Q58" s="139"/>
+      <c r="R58" s="139"/>
+      <c r="S58" s="139"/>
+      <c r="T58" s="139"/>
+      <c r="U58" s="139"/>
+      <c r="V58" s="137"/>
+      <c r="W58" s="142"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="139"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="139"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="139"/>
-      <c r="L59" s="139"/>
-      <c r="M59" s="139"/>
-      <c r="N59" s="139"/>
-      <c r="O59" s="140"/>
-      <c r="P59" s="142"/>
-      <c r="Q59" s="142"/>
-      <c r="R59" s="142"/>
-      <c r="S59" s="142"/>
-      <c r="T59" s="142"/>
-      <c r="U59" s="142"/>
-      <c r="V59" s="140"/>
-      <c r="W59" s="145"/>
+      <c r="A59" s="136"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="136"/>
+      <c r="L59" s="136"/>
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="137"/>
+      <c r="P59" s="139"/>
+      <c r="Q59" s="139"/>
+      <c r="R59" s="139"/>
+      <c r="S59" s="139"/>
+      <c r="T59" s="139"/>
+      <c r="U59" s="139"/>
+      <c r="V59" s="137"/>
+      <c r="W59" s="142"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="139"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="141"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="139"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="139"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="139"/>
-      <c r="N60" s="139"/>
-      <c r="O60" s="140"/>
-      <c r="P60" s="142"/>
-      <c r="Q60" s="142"/>
-      <c r="R60" s="142"/>
-      <c r="S60" s="142"/>
-      <c r="T60" s="142"/>
-      <c r="U60" s="142"/>
-      <c r="V60" s="140"/>
-      <c r="W60" s="145"/>
+      <c r="A60" s="136"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="136"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="136"/>
+      <c r="L60" s="136"/>
+      <c r="M60" s="136"/>
+      <c r="N60" s="136"/>
+      <c r="O60" s="137"/>
+      <c r="P60" s="139"/>
+      <c r="Q60" s="139"/>
+      <c r="R60" s="139"/>
+      <c r="S60" s="139"/>
+      <c r="T60" s="139"/>
+      <c r="U60" s="139"/>
+      <c r="V60" s="137"/>
+      <c r="W60" s="142"/>
     </row>
     <row r="61" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="139"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="141"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="139"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="139"/>
-      <c r="L61" s="139"/>
-      <c r="M61" s="139"/>
-      <c r="N61" s="139"/>
-      <c r="O61" s="140"/>
-      <c r="P61" s="142"/>
-      <c r="Q61" s="142"/>
-      <c r="R61" s="142"/>
-      <c r="S61" s="142"/>
-      <c r="T61" s="142"/>
-      <c r="U61" s="142"/>
-      <c r="V61" s="140"/>
-      <c r="W61" s="145"/>
+      <c r="A61" s="136"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="138"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="136"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="136"/>
+      <c r="L61" s="136"/>
+      <c r="M61" s="136"/>
+      <c r="N61" s="136"/>
+      <c r="O61" s="137"/>
+      <c r="P61" s="139"/>
+      <c r="Q61" s="139"/>
+      <c r="R61" s="139"/>
+      <c r="S61" s="139"/>
+      <c r="T61" s="139"/>
+      <c r="U61" s="139"/>
+      <c r="V61" s="137"/>
+      <c r="W61" s="142"/>
     </row>
     <row r="62" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="139"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="139"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="139"/>
-      <c r="L62" s="139"/>
-      <c r="M62" s="139"/>
-      <c r="N62" s="139"/>
-      <c r="O62" s="140"/>
-      <c r="P62" s="142"/>
-      <c r="Q62" s="142"/>
-      <c r="R62" s="142"/>
-      <c r="S62" s="142"/>
-      <c r="T62" s="142"/>
-      <c r="U62" s="142"/>
-      <c r="V62" s="140"/>
-      <c r="W62" s="145"/>
+      <c r="A62" s="136"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="136"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="136"/>
+      <c r="L62" s="136"/>
+      <c r="M62" s="136"/>
+      <c r="N62" s="136"/>
+      <c r="O62" s="137"/>
+      <c r="P62" s="139"/>
+      <c r="Q62" s="139"/>
+      <c r="R62" s="139"/>
+      <c r="S62" s="139"/>
+      <c r="T62" s="139"/>
+      <c r="U62" s="139"/>
+      <c r="V62" s="137"/>
+      <c r="W62" s="142"/>
     </row>
     <row r="63" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="139"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="141"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="139"/>
-      <c r="J63" s="140"/>
-      <c r="K63" s="139"/>
-      <c r="L63" s="139"/>
-      <c r="M63" s="139"/>
-      <c r="N63" s="139"/>
-      <c r="O63" s="140"/>
-      <c r="P63" s="142"/>
-      <c r="Q63" s="142"/>
-      <c r="R63" s="142"/>
-      <c r="S63" s="142"/>
-      <c r="T63" s="142"/>
-      <c r="U63" s="142"/>
-      <c r="V63" s="140"/>
-      <c r="W63" s="145"/>
+      <c r="A63" s="136"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="138"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="137"/>
+      <c r="K63" s="136"/>
+      <c r="L63" s="136"/>
+      <c r="M63" s="136"/>
+      <c r="N63" s="136"/>
+      <c r="O63" s="137"/>
+      <c r="P63" s="139"/>
+      <c r="Q63" s="139"/>
+      <c r="R63" s="139"/>
+      <c r="S63" s="139"/>
+      <c r="T63" s="139"/>
+      <c r="U63" s="139"/>
+      <c r="V63" s="137"/>
+      <c r="W63" s="142"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="139"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="139"/>
-      <c r="L64" s="139"/>
-      <c r="M64" s="139"/>
-      <c r="N64" s="139"/>
-      <c r="O64" s="140"/>
-      <c r="P64" s="142"/>
-      <c r="Q64" s="142"/>
-      <c r="R64" s="142"/>
-      <c r="S64" s="142"/>
-      <c r="T64" s="142"/>
-      <c r="U64" s="142"/>
-      <c r="V64" s="140"/>
-      <c r="W64" s="145"/>
+      <c r="A64" s="136"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="138"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="136"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="136"/>
+      <c r="L64" s="136"/>
+      <c r="M64" s="136"/>
+      <c r="N64" s="136"/>
+      <c r="O64" s="137"/>
+      <c r="P64" s="139"/>
+      <c r="Q64" s="139"/>
+      <c r="R64" s="139"/>
+      <c r="S64" s="139"/>
+      <c r="T64" s="139"/>
+      <c r="U64" s="139"/>
+      <c r="V64" s="137"/>
+      <c r="W64" s="142"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="139"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="141"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="139"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="139"/>
-      <c r="L65" s="139"/>
-      <c r="M65" s="139"/>
-      <c r="N65" s="139"/>
-      <c r="O65" s="140"/>
-      <c r="P65" s="142"/>
-      <c r="Q65" s="142"/>
-      <c r="R65" s="142"/>
-      <c r="S65" s="142"/>
-      <c r="T65" s="142"/>
-      <c r="U65" s="142"/>
-      <c r="V65" s="140"/>
-      <c r="W65" s="145"/>
+      <c r="A65" s="136"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="136"/>
+      <c r="J65" s="137"/>
+      <c r="K65" s="136"/>
+      <c r="L65" s="136"/>
+      <c r="M65" s="136"/>
+      <c r="N65" s="136"/>
+      <c r="O65" s="137"/>
+      <c r="P65" s="139"/>
+      <c r="Q65" s="139"/>
+      <c r="R65" s="139"/>
+      <c r="S65" s="139"/>
+      <c r="T65" s="139"/>
+      <c r="U65" s="139"/>
+      <c r="V65" s="137"/>
+      <c r="W65" s="142"/>
     </row>
     <row r="66" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="139"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="140"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="139"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="139"/>
-      <c r="L66" s="139"/>
-      <c r="M66" s="139"/>
-      <c r="N66" s="139"/>
-      <c r="O66" s="140"/>
-      <c r="P66" s="142"/>
-      <c r="Q66" s="142"/>
-      <c r="R66" s="142"/>
-      <c r="S66" s="142"/>
-      <c r="T66" s="142"/>
-      <c r="U66" s="142"/>
-      <c r="V66" s="140"/>
-      <c r="W66" s="145"/>
+      <c r="A66" s="136"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="138"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="136"/>
+      <c r="L66" s="136"/>
+      <c r="M66" s="136"/>
+      <c r="N66" s="136"/>
+      <c r="O66" s="137"/>
+      <c r="P66" s="139"/>
+      <c r="Q66" s="139"/>
+      <c r="R66" s="139"/>
+      <c r="S66" s="139"/>
+      <c r="T66" s="139"/>
+      <c r="U66" s="139"/>
+      <c r="V66" s="137"/>
+      <c r="W66" s="142"/>
     </row>
     <row r="67" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="139"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
-      <c r="E67" s="140"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="139"/>
-      <c r="J67" s="140"/>
-      <c r="K67" s="139"/>
-      <c r="L67" s="139"/>
-      <c r="M67" s="139"/>
-      <c r="N67" s="139"/>
-      <c r="O67" s="140"/>
-      <c r="P67" s="142"/>
-      <c r="Q67" s="142"/>
-      <c r="R67" s="142"/>
-      <c r="S67" s="142"/>
-      <c r="T67" s="142"/>
-      <c r="U67" s="142"/>
-      <c r="V67" s="140"/>
-      <c r="W67" s="145"/>
+      <c r="A67" s="136"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="138"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="136"/>
+      <c r="J67" s="137"/>
+      <c r="K67" s="136"/>
+      <c r="L67" s="136"/>
+      <c r="M67" s="136"/>
+      <c r="N67" s="136"/>
+      <c r="O67" s="137"/>
+      <c r="P67" s="139"/>
+      <c r="Q67" s="139"/>
+      <c r="R67" s="139"/>
+      <c r="S67" s="139"/>
+      <c r="T67" s="139"/>
+      <c r="U67" s="139"/>
+      <c r="V67" s="137"/>
+      <c r="W67" s="142"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="139"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="140"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="141"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="139"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="139"/>
-      <c r="L68" s="139"/>
-      <c r="M68" s="139"/>
-      <c r="N68" s="139"/>
-      <c r="O68" s="140"/>
-      <c r="P68" s="142"/>
-      <c r="Q68" s="142"/>
-      <c r="R68" s="142"/>
-      <c r="S68" s="142"/>
-      <c r="T68" s="142"/>
-      <c r="U68" s="142"/>
-      <c r="V68" s="140"/>
-      <c r="W68" s="145"/>
+      <c r="A68" s="136"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="137"/>
+      <c r="E68" s="137"/>
+      <c r="F68" s="137"/>
+      <c r="G68" s="138"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="136"/>
+      <c r="J68" s="137"/>
+      <c r="K68" s="136"/>
+      <c r="L68" s="136"/>
+      <c r="M68" s="136"/>
+      <c r="N68" s="136"/>
+      <c r="O68" s="137"/>
+      <c r="P68" s="139"/>
+      <c r="Q68" s="139"/>
+      <c r="R68" s="139"/>
+      <c r="S68" s="139"/>
+      <c r="T68" s="139"/>
+      <c r="U68" s="139"/>
+      <c r="V68" s="137"/>
+      <c r="W68" s="142"/>
     </row>
     <row r="69" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="139"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="139"/>
-      <c r="J69" s="140"/>
-      <c r="K69" s="139"/>
-      <c r="L69" s="139"/>
-      <c r="M69" s="139"/>
-      <c r="N69" s="139"/>
-      <c r="O69" s="140"/>
-      <c r="P69" s="142"/>
-      <c r="Q69" s="142"/>
-      <c r="R69" s="142"/>
-      <c r="S69" s="142"/>
-      <c r="T69" s="142"/>
-      <c r="U69" s="142"/>
-      <c r="V69" s="140"/>
-      <c r="W69" s="145"/>
+      <c r="A69" s="136"/>
+      <c r="B69" s="137"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="138"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="136"/>
+      <c r="J69" s="137"/>
+      <c r="K69" s="136"/>
+      <c r="L69" s="136"/>
+      <c r="M69" s="136"/>
+      <c r="N69" s="136"/>
+      <c r="O69" s="137"/>
+      <c r="P69" s="139"/>
+      <c r="Q69" s="139"/>
+      <c r="R69" s="139"/>
+      <c r="S69" s="139"/>
+      <c r="T69" s="139"/>
+      <c r="U69" s="139"/>
+      <c r="V69" s="137"/>
+      <c r="W69" s="142"/>
     </row>
     <row r="70" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="139"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="141"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="139"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="139"/>
-      <c r="L70" s="139"/>
-      <c r="M70" s="139"/>
-      <c r="N70" s="139"/>
-      <c r="O70" s="140"/>
-      <c r="P70" s="142"/>
-      <c r="Q70" s="142"/>
-      <c r="R70" s="142"/>
-      <c r="S70" s="142"/>
-      <c r="T70" s="142"/>
-      <c r="U70" s="142"/>
-      <c r="V70" s="140"/>
-      <c r="W70" s="145"/>
+      <c r="A70" s="136"/>
+      <c r="B70" s="137"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="138"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="136"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="136"/>
+      <c r="L70" s="136"/>
+      <c r="M70" s="136"/>
+      <c r="N70" s="136"/>
+      <c r="O70" s="137"/>
+      <c r="P70" s="139"/>
+      <c r="Q70" s="139"/>
+      <c r="R70" s="139"/>
+      <c r="S70" s="139"/>
+      <c r="T70" s="139"/>
+      <c r="U70" s="139"/>
+      <c r="V70" s="137"/>
+      <c r="W70" s="142"/>
     </row>
     <row r="71" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="139"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="140"/>
-      <c r="D71" s="140"/>
-      <c r="E71" s="140"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="141"/>
-      <c r="H71" s="140"/>
-      <c r="I71" s="139"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="139"/>
-      <c r="L71" s="139"/>
-      <c r="M71" s="139"/>
-      <c r="N71" s="139"/>
-      <c r="O71" s="140"/>
-      <c r="P71" s="142"/>
-      <c r="Q71" s="142"/>
-      <c r="R71" s="142"/>
-      <c r="S71" s="142"/>
-      <c r="T71" s="142"/>
-      <c r="U71" s="142"/>
-      <c r="V71" s="140"/>
-      <c r="W71" s="145"/>
+      <c r="A71" s="136"/>
+      <c r="B71" s="137"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="137"/>
+      <c r="E71" s="137"/>
+      <c r="F71" s="137"/>
+      <c r="G71" s="138"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="136"/>
+      <c r="J71" s="137"/>
+      <c r="K71" s="136"/>
+      <c r="L71" s="136"/>
+      <c r="M71" s="136"/>
+      <c r="N71" s="136"/>
+      <c r="O71" s="137"/>
+      <c r="P71" s="139"/>
+      <c r="Q71" s="139"/>
+      <c r="R71" s="139"/>
+      <c r="S71" s="139"/>
+      <c r="T71" s="139"/>
+      <c r="U71" s="139"/>
+      <c r="V71" s="137"/>
+      <c r="W71" s="142"/>
     </row>
     <row r="72" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="139"/>
-      <c r="B72" s="140"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="139"/>
-      <c r="L72" s="139"/>
-      <c r="M72" s="139"/>
-      <c r="N72" s="139"/>
-      <c r="O72" s="140"/>
-      <c r="P72" s="142"/>
-      <c r="Q72" s="142"/>
-      <c r="R72" s="142"/>
-      <c r="S72" s="142"/>
-      <c r="T72" s="142"/>
-      <c r="U72" s="142"/>
-      <c r="V72" s="140"/>
-      <c r="W72" s="145"/>
+      <c r="A72" s="136"/>
+      <c r="B72" s="137"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="137"/>
+      <c r="F72" s="137"/>
+      <c r="G72" s="138"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="136"/>
+      <c r="J72" s="137"/>
+      <c r="K72" s="136"/>
+      <c r="L72" s="136"/>
+      <c r="M72" s="136"/>
+      <c r="N72" s="136"/>
+      <c r="O72" s="137"/>
+      <c r="P72" s="139"/>
+      <c r="Q72" s="139"/>
+      <c r="R72" s="139"/>
+      <c r="S72" s="139"/>
+      <c r="T72" s="139"/>
+      <c r="U72" s="139"/>
+      <c r="V72" s="137"/>
+      <c r="W72" s="142"/>
     </row>
     <row r="73" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="139"/>
-      <c r="B73" s="140"/>
-      <c r="C73" s="140"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="140"/>
-      <c r="I73" s="139"/>
-      <c r="J73" s="140"/>
-      <c r="K73" s="139"/>
-      <c r="L73" s="139"/>
-      <c r="M73" s="139"/>
-      <c r="N73" s="139"/>
-      <c r="O73" s="140"/>
-      <c r="P73" s="142"/>
-      <c r="Q73" s="142"/>
-      <c r="R73" s="142"/>
-      <c r="S73" s="142"/>
-      <c r="T73" s="142"/>
-      <c r="U73" s="142"/>
-      <c r="V73" s="140"/>
-      <c r="W73" s="145"/>
+      <c r="A73" s="136"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="138"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="136"/>
+      <c r="J73" s="137"/>
+      <c r="K73" s="136"/>
+      <c r="L73" s="136"/>
+      <c r="M73" s="136"/>
+      <c r="N73" s="136"/>
+      <c r="O73" s="137"/>
+      <c r="P73" s="139"/>
+      <c r="Q73" s="139"/>
+      <c r="R73" s="139"/>
+      <c r="S73" s="139"/>
+      <c r="T73" s="139"/>
+      <c r="U73" s="139"/>
+      <c r="V73" s="137"/>
+      <c r="W73" s="142"/>
     </row>
     <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5605,12 +5768,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5625,6 +5782,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="261">
   <si>
     <t>Asignatura</t>
   </si>
@@ -942,6 +942,9 @@
   <si>
     <t>Solicitud gráfica</t>
   </si>
+  <si>
+    <t>No se necesita</t>
+  </si>
 </sst>
 </file>
 
@@ -999,7 +1002,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,6 +1108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,7 +1335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1791,95 +1800,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1899,6 +1821,115 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2206,9 +2237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y12" sqref="Y12"/>
+      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,107 +2272,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="200" t="s">
+      <c r="C1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="189" t="s">
+      <c r="D1" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="187" t="s">
+      <c r="E1" s="188" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="F1" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="198" t="s">
+      <c r="G1" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="185" t="s">
+      <c r="H1" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="195" t="s">
+      <c r="J1" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="193" t="s">
+      <c r="K1" s="194" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="191" t="s">
+      <c r="L1" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="197" t="s">
+      <c r="M1" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="197"/>
-      <c r="O1" s="177" t="s">
+      <c r="N1" s="198"/>
+      <c r="O1" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="177" t="s">
+      <c r="P1" s="186" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="179" t="s">
+      <c r="Q1" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="183" t="s">
+      <c r="R1" s="207" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="179" t="s">
+      <c r="S1" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="181" t="s">
+      <c r="T1" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="179" t="s">
+      <c r="U1" s="203" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="203" t="s">
+      <c r="V1" s="174" t="s">
         <v>253</v>
       </c>
-      <c r="W1" s="209" t="s">
+      <c r="W1" s="180" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="210" t="s">
+      <c r="X1" s="181" t="s">
         <v>258</v>
       </c>
-      <c r="Y1" s="211" t="s">
+      <c r="Y1" s="182" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="192"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="193"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="180"/>
-      <c r="V2" s="203"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="174"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -2404,7 +2435,7 @@
       <c r="U3" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="V3" s="204" t="s">
+      <c r="V3" s="175" t="s">
         <v>252</v>
       </c>
       <c r="W3" s="3"/>
@@ -2469,7 +2500,7 @@
       <c r="U4" s="158" t="s">
         <v>197</v>
       </c>
-      <c r="V4" s="204" t="s">
+      <c r="V4" s="175" t="s">
         <v>249</v>
       </c>
       <c r="W4" s="3"/>
@@ -2534,7 +2565,7 @@
       <c r="U5" s="170" t="s">
         <v>193</v>
       </c>
-      <c r="V5" s="205" t="s">
+      <c r="V5" s="176" t="s">
         <v>255</v>
       </c>
       <c r="W5" s="3"/>
@@ -2599,7 +2630,7 @@
       <c r="U6" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="V6" s="204" t="s">
+      <c r="V6" s="175" t="s">
         <v>250</v>
       </c>
       <c r="W6" s="3"/>
@@ -2664,7 +2695,7 @@
       <c r="U7" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="V7" s="204" t="s">
+      <c r="V7" s="175" t="s">
         <v>254</v>
       </c>
       <c r="W7" s="3"/>
@@ -2729,7 +2760,7 @@
       <c r="U8" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="V8" s="204" t="s">
+      <c r="V8" s="175" t="s">
         <v>249</v>
       </c>
       <c r="W8" s="3"/>
@@ -2794,7 +2825,7 @@
       <c r="U9" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="V9" s="204" t="s">
+      <c r="V9" s="175" t="s">
         <v>252</v>
       </c>
       <c r="W9" s="3"/>
@@ -2859,7 +2890,7 @@
       <c r="U10" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="V10" s="204" t="s">
+      <c r="V10" s="175" t="s">
         <v>249</v>
       </c>
       <c r="W10" s="3"/>
@@ -2924,7 +2955,7 @@
       <c r="U11" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="V11" s="204" t="s">
+      <c r="V11" s="175" t="s">
         <v>252</v>
       </c>
       <c r="W11" s="3"/>
@@ -2989,7 +3020,7 @@
       <c r="U12" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="V12" s="204" t="s">
+      <c r="V12" s="175" t="s">
         <v>250</v>
       </c>
       <c r="W12" s="3"/>
@@ -3054,7 +3085,7 @@
       <c r="U13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="V13" s="205" t="s">
+      <c r="V13" s="176" t="s">
         <v>254</v>
       </c>
       <c r="W13" s="3"/>
@@ -3119,7 +3150,7 @@
       <c r="U14" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="V14" s="204" t="s">
+      <c r="V14" s="175" t="s">
         <v>252</v>
       </c>
       <c r="W14" s="3"/>
@@ -3184,7 +3215,7 @@
       <c r="U15" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="V15" s="204" t="s">
+      <c r="V15" s="175" t="s">
         <v>252</v>
       </c>
       <c r="W15" s="3"/>
@@ -3249,7 +3280,7 @@
       <c r="U16" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="V16" s="204" t="s">
+      <c r="V16" s="175" t="s">
         <v>251</v>
       </c>
       <c r="W16" s="3"/>
@@ -3316,7 +3347,7 @@
       <c r="U17" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="V17" s="204" t="s">
+      <c r="V17" s="175" t="s">
         <v>250</v>
       </c>
       <c r="W17" s="3"/>
@@ -3324,7 +3355,7 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="176" t="s">
+      <c r="A18" s="172" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="168" t="s">
@@ -3338,51 +3369,55 @@
       </c>
       <c r="E18" s="171"/>
       <c r="F18" s="171"/>
-      <c r="G18" s="175" t="s">
+      <c r="G18" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="168">
+      <c r="H18" s="213">
         <v>16</v>
       </c>
-      <c r="I18" s="168" t="s">
+      <c r="I18" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="171" t="s">
+      <c r="J18" s="214" t="s">
         <v>232</v>
       </c>
-      <c r="K18" s="168" t="s">
+      <c r="K18" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="168" t="s">
+      <c r="L18" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="168"/>
-      <c r="N18" s="168"/>
-      <c r="O18" s="171"/>
-      <c r="P18" s="172" t="s">
+      <c r="M18" s="213"/>
+      <c r="N18" s="213"/>
+      <c r="O18" s="214"/>
+      <c r="P18" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="173">
+      <c r="Q18" s="216">
         <v>8</v>
       </c>
-      <c r="R18" s="173" t="s">
+      <c r="R18" s="216" t="s">
         <v>219</v>
       </c>
-      <c r="S18" s="173" t="s">
+      <c r="S18" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="T18" s="173" t="s">
+      <c r="T18" s="216" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="174" t="s">
+      <c r="U18" s="217" t="s">
         <v>221</v>
       </c>
-      <c r="V18" s="206" t="s">
+      <c r="V18" s="177" t="s">
         <v>248</v>
       </c>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
+      <c r="W18" s="209"/>
+      <c r="X18" s="211">
+        <v>42403</v>
+      </c>
+      <c r="Y18" s="210" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="19" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="167" t="s">
@@ -3399,51 +3434,55 @@
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="218" t="s">
         <v>226</v>
       </c>
-      <c r="H19" s="127">
+      <c r="H19" s="219">
         <v>17</v>
       </c>
-      <c r="I19" s="126" t="s">
+      <c r="I19" s="220" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="181" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="126" t="s">
+      <c r="K19" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="126" t="s">
+      <c r="L19" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="127" t="s">
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="128">
+      <c r="Q19" s="221">
         <v>8</v>
       </c>
-      <c r="R19" s="128" t="s">
+      <c r="R19" s="221" t="s">
         <v>219</v>
       </c>
-      <c r="S19" s="128" t="s">
+      <c r="S19" s="221" t="s">
         <v>220</v>
       </c>
-      <c r="T19" s="128" t="s">
+      <c r="T19" s="221" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="170" t="s">
+      <c r="U19" s="222" t="s">
         <v>221</v>
       </c>
-      <c r="V19" s="206" t="s">
+      <c r="V19" s="177" t="s">
         <v>248</v>
       </c>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
+      <c r="W19" s="209"/>
+      <c r="X19" s="211">
+        <v>42403</v>
+      </c>
+      <c r="Y19" s="25" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
@@ -3503,7 +3542,7 @@
       <c r="U20" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="V20" s="205" t="s">
+      <c r="V20" s="176" t="s">
         <v>256</v>
       </c>
       <c r="W20" s="3"/>
@@ -3568,7 +3607,7 @@
       <c r="U21" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="V21" s="205" t="s">
+      <c r="V21" s="176" t="s">
         <v>249</v>
       </c>
       <c r="W21" s="3"/>
@@ -3633,7 +3672,7 @@
       <c r="U22" s="170" t="s">
         <v>197</v>
       </c>
-      <c r="V22" s="205" t="s">
+      <c r="V22" s="176" t="s">
         <v>256</v>
       </c>
       <c r="W22" s="3"/>
@@ -3698,7 +3737,7 @@
       <c r="U23" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="V23" s="204" t="s">
+      <c r="V23" s="175" t="s">
         <v>252</v>
       </c>
       <c r="W23" s="3"/>
@@ -3763,7 +3802,7 @@
       <c r="U24" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="V24" s="204" t="s">
+      <c r="V24" s="175" t="s">
         <v>249</v>
       </c>
       <c r="W24" s="3"/>
@@ -3824,7 +3863,7 @@
       <c r="U25" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="V25" s="206" t="s">
+      <c r="V25" s="177" t="s">
         <v>248</v>
       </c>
       <c r="W25" s="25"/>
@@ -3885,7 +3924,7 @@
       <c r="U26" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="V26" s="206" t="s">
+      <c r="V26" s="177" t="s">
         <v>248</v>
       </c>
       <c r="W26" s="25"/>
@@ -3946,7 +3985,7 @@
       <c r="U27" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="V27" s="206" t="s">
+      <c r="V27" s="177" t="s">
         <v>248</v>
       </c>
       <c r="W27" s="25"/>
@@ -4007,7 +4046,7 @@
       <c r="U28" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="V28" s="206" t="s">
+      <c r="V28" s="177" t="s">
         <v>248</v>
       </c>
       <c r="W28" s="25"/>
@@ -4068,7 +4107,7 @@
       <c r="U29" s="170" t="s">
         <v>221</v>
       </c>
-      <c r="V29" s="206" t="s">
+      <c r="V29" s="177" t="s">
         <v>248</v>
       </c>
       <c r="W29" s="25"/>
@@ -4133,12 +4172,12 @@
       <c r="U30" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="V30" s="207" t="s">
+      <c r="V30" s="178" t="s">
         <v>250</v>
       </c>
-      <c r="W30" s="212"/>
-      <c r="X30" s="212"/>
-      <c r="Y30" s="212"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
+      <c r="Y30" s="183"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="96" t="s">
@@ -4198,12 +4237,12 @@
       <c r="U31" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="V31" s="208" t="s">
+      <c r="V31" s="179" t="s">
         <v>250</v>
       </c>
-      <c r="W31" s="212"/>
-      <c r="X31" s="212"/>
-      <c r="Y31" s="212"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="183"/>
+      <c r="Y31" s="183"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="75" t="s">
@@ -4263,12 +4302,12 @@
       <c r="U32" s="124" t="s">
         <v>197</v>
       </c>
-      <c r="V32" s="207" t="s">
+      <c r="V32" s="178" t="s">
         <v>256</v>
       </c>
-      <c r="W32" s="212"/>
-      <c r="X32" s="212"/>
-      <c r="Y32" s="212"/>
+      <c r="W32" s="183"/>
+      <c r="X32" s="183"/>
+      <c r="Y32" s="183"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="75" t="s">
@@ -4314,12 +4353,12 @@
       <c r="S33" s="80"/>
       <c r="T33" s="80"/>
       <c r="U33" s="80"/>
-      <c r="V33" s="202" t="s">
+      <c r="V33" s="173" t="s">
         <v>248</v>
       </c>
-      <c r="W33" s="212"/>
-      <c r="X33" s="212"/>
-      <c r="Y33" s="212"/>
+      <c r="W33" s="183"/>
+      <c r="X33" s="183"/>
+      <c r="Y33" s="183"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="75" t="s">
@@ -4377,12 +4416,12 @@
       <c r="U34" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="V34" s="207" t="s">
+      <c r="V34" s="178" t="s">
         <v>249</v>
       </c>
-      <c r="W34" s="212"/>
-      <c r="X34" s="212"/>
-      <c r="Y34" s="212"/>
+      <c r="W34" s="183"/>
+      <c r="X34" s="183"/>
+      <c r="Y34" s="183"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="129" t="s">
@@ -4440,12 +4479,12 @@
       <c r="U35" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="V35" s="208" t="s">
+      <c r="V35" s="179" t="s">
         <v>250</v>
       </c>
-      <c r="W35" s="212"/>
-      <c r="X35" s="212"/>
-      <c r="Y35" s="212"/>
+      <c r="W35" s="183"/>
+      <c r="X35" s="183"/>
+      <c r="Y35" s="183"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="130"/>
@@ -5768,6 +5807,12 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5782,12 +5827,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="263">
   <si>
     <t>Asignatura</t>
   </si>
@@ -538,12 +538,6 @@
   </si>
   <si>
     <t>Deduce la medida de ángulos en poligonos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para rrelacionar la suma de los ángulos interiores con la cantidad de lados de un polígono </t>
-  </si>
-  <si>
-    <t>Actividad para identificar las diferentes relaciones entre ángulos y la circunferencia</t>
   </si>
   <si>
     <t>Dibuja las mediatrices y las bisectrices</t>
@@ -934,9 +928,6 @@
     <t>Cristhian Fuentes</t>
   </si>
   <si>
-    <t>Edición</t>
-  </si>
-  <si>
     <t>Corrección de estilo</t>
   </si>
   <si>
@@ -944,6 +935,21 @@
   </si>
   <si>
     <t>No se necesita</t>
+  </si>
+  <si>
+    <t>Calcula la suma de los ángulos interiores de un polígono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para identificar las diferentes relaciones entre el ángulo y la circunferencia </t>
+  </si>
+  <si>
+    <t>no se necesita</t>
+  </si>
+  <si>
+    <t>Actividad para deducir el valor de ángulos en polígonos y circunferencias</t>
+  </si>
+  <si>
+    <t>Se deben arreglar las fichas de docente y estudiante</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1546,18 +1552,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1711,10 +1705,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1801,15 +1791,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1821,81 +1807,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1931,6 +1842,117 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2239,7 +2261,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
+      <selection pane="bottomLeft" activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,259 +2287,252 @@
     <col min="20" max="20" width="43.28515625" style="23" customWidth="1"/>
     <col min="21" max="21" width="17" style="23" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="10.85546875" style="4"/>
+    <col min="23" max="23" width="14.5703125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+    <row r="1" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="201" t="s">
+      <c r="C1" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="188" t="s">
+      <c r="E1" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="184" t="s">
+      <c r="F1" s="198" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="199" t="s">
+      <c r="G1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="184" t="s">
+      <c r="H1" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="184" t="s">
+      <c r="I1" s="198" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="196" t="s">
+      <c r="J1" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="194" t="s">
+      <c r="K1" s="206" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="192" t="s">
+      <c r="L1" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="198" t="s">
+      <c r="M1" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="198"/>
-      <c r="O1" s="186" t="s">
+      <c r="N1" s="210"/>
+      <c r="O1" s="190" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="186" t="s">
+      <c r="P1" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="203" t="s">
+      <c r="Q1" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="207" t="s">
+      <c r="R1" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="203" t="s">
+      <c r="S1" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="205" t="s">
+      <c r="T1" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="203" t="s">
+      <c r="U1" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="174" t="s">
-        <v>253</v>
-      </c>
-      <c r="W1" s="180" t="s">
-        <v>257</v>
-      </c>
-      <c r="X1" s="181" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y1" s="182" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="191"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="193"/>
+      <c r="V1" s="227" t="s">
+        <v>251</v>
+      </c>
+      <c r="W1" s="173" t="s">
+        <v>255</v>
+      </c>
+      <c r="X1" s="174" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="203"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="205"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="204"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="174"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="167"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-    </row>
-    <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="143" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="145" t="s">
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="144">
+      <c r="H3" s="138">
         <v>1</v>
       </c>
-      <c r="I3" s="144" t="s">
+      <c r="I3" s="138" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" s="144" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="144" t="s">
+      <c r="L3" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="144" t="s">
+      <c r="M3" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="144"/>
+      <c r="N3" s="138"/>
       <c r="O3" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P3" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="P3" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="147">
+      <c r="Q3" s="141">
         <v>6</v>
       </c>
-      <c r="R3" s="147" t="s">
+      <c r="R3" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="S3" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="T3" s="142" t="s">
         <v>190</v>
       </c>
-      <c r="S3" s="147" t="s">
+      <c r="U3" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="T3" s="148" t="s">
-        <v>192</v>
-      </c>
-      <c r="U3" s="149" t="s">
-        <v>193</v>
-      </c>
-      <c r="V3" s="175" t="s">
-        <v>252</v>
+      <c r="V3" s="168" t="s">
+        <v>250</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="150" t="s">
+    </row>
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="138" t="s">
         <v>125</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="153">
+      <c r="H4" s="147">
         <v>2</v>
       </c>
-      <c r="I4" s="154" t="s">
+      <c r="I4" s="148" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="154" t="s">
+      <c r="K4" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="154" t="s">
+      <c r="L4" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154" t="s">
+      <c r="M4" s="148"/>
+      <c r="N4" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="155" t="s">
+      <c r="O4" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="153" t="s">
+      <c r="P4" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="156">
+      <c r="Q4" s="150">
         <v>6</v>
       </c>
-      <c r="R4" s="156" t="s">
+      <c r="R4" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="S4" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="T4" s="151" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="156" t="s">
+      <c r="U4" s="152" t="s">
         <v>195</v>
       </c>
-      <c r="T4" s="157" t="s">
-        <v>196</v>
-      </c>
-      <c r="U4" s="158" t="s">
-        <v>197</v>
-      </c>
-      <c r="V4" s="175" t="s">
-        <v>249</v>
+      <c r="V4" s="168" t="s">
+        <v>247</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167" t="s">
+    </row>
+    <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="162" t="s">
         <v>125</v>
       </c>
       <c r="E5" s="25"/>
@@ -2525,119 +2540,117 @@
       <c r="G5" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="126">
+      <c r="H5" s="122">
         <v>3</v>
       </c>
-      <c r="I5" s="126" t="s">
+      <c r="I5" s="122" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="K5" s="126" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="126" t="s">
+      <c r="L5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="126" t="s">
+      <c r="M5" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="126"/>
+      <c r="N5" s="122"/>
       <c r="O5" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="127" t="s">
+      <c r="P5" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="128">
+      <c r="Q5" s="124">
         <v>6</v>
       </c>
-      <c r="R5" s="128" t="s">
-        <v>190</v>
-      </c>
-      <c r="S5" s="128" t="s">
+      <c r="R5" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="S5" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="T5" s="163" t="s">
+        <v>196</v>
+      </c>
+      <c r="U5" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="T5" s="169" t="s">
-        <v>198</v>
-      </c>
-      <c r="U5" s="170" t="s">
-        <v>193</v>
-      </c>
-      <c r="V5" s="176" t="s">
-        <v>255</v>
+      <c r="V5" s="169" t="s">
+        <v>253</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="159" t="s">
+    </row>
+    <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="138" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="161" t="s">
-        <v>238</v>
-      </c>
-      <c r="H6" s="162">
+      <c r="G6" s="155" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="156">
         <v>4</v>
       </c>
-      <c r="I6" s="163" t="s">
+      <c r="I6" s="157" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="163" t="s">
+      <c r="K6" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="163" t="s">
+      <c r="L6" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163" t="s">
+      <c r="M6" s="157"/>
+      <c r="N6" s="157" t="s">
         <v>121</v>
       </c>
       <c r="O6" s="15"/>
-      <c r="P6" s="162" t="s">
+      <c r="P6" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="164">
+      <c r="Q6" s="158">
         <v>6</v>
       </c>
-      <c r="R6" s="164" t="s">
-        <v>194</v>
-      </c>
-      <c r="S6" s="164" t="s">
+      <c r="R6" s="158" t="s">
+        <v>192</v>
+      </c>
+      <c r="S6" s="158" t="s">
+        <v>193</v>
+      </c>
+      <c r="T6" s="159" t="s">
+        <v>197</v>
+      </c>
+      <c r="U6" s="160" t="s">
         <v>195</v>
       </c>
-      <c r="T6" s="165" t="s">
-        <v>199</v>
-      </c>
-      <c r="U6" s="166" t="s">
-        <v>197</v>
-      </c>
-      <c r="V6" s="175" t="s">
-        <v>250</v>
+      <c r="V6" s="168" t="s">
+        <v>248</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>15</v>
       </c>
@@ -2662,7 +2675,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>20</v>
@@ -2675,7 +2688,7 @@
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P7" s="56" t="s">
         <v>19</v>
@@ -2684,25 +2697,24 @@
         <v>6</v>
       </c>
       <c r="R7" s="57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S7" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="T7" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="U7" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="T7" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="U7" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="V7" s="175" t="s">
-        <v>254</v>
+      <c r="V7" s="168" t="s">
+        <v>252</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>15</v>
       </c>
@@ -2749,155 +2761,152 @@
         <v>6</v>
       </c>
       <c r="R8" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S8" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="T8" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="U8" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="T8" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="U8" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V8" s="175" t="s">
-        <v>249</v>
+      <c r="V8" s="168" t="s">
+        <v>247</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167" t="s">
+    </row>
+    <row r="9" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="162" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="H9" s="126">
+        <v>223</v>
+      </c>
+      <c r="H9" s="122">
         <v>7</v>
       </c>
-      <c r="I9" s="126" t="s">
+      <c r="I9" s="122" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="K9" s="126" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="126" t="s">
+      <c r="L9" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126" t="s">
+      <c r="M9" s="122"/>
+      <c r="N9" s="122" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="127" t="s">
+      <c r="P9" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="128">
+      <c r="Q9" s="124">
         <v>6</v>
       </c>
-      <c r="R9" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="S9" s="128" t="s">
+      <c r="R9" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="S9" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="T9" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="U9" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="T9" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="U9" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="V9" s="175" t="s">
-        <v>252</v>
+      <c r="V9" s="168" t="s">
+        <v>250</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="167" t="s">
+    </row>
+    <row r="10" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="168" t="s">
+      <c r="D10" s="162" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="127">
+        <v>222</v>
+      </c>
+      <c r="H10" s="123">
         <v>8</v>
       </c>
-      <c r="I10" s="126" t="s">
+      <c r="I10" s="122" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="K10" s="126" t="s">
+        <v>228</v>
+      </c>
+      <c r="K10" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="126" t="s">
+      <c r="L10" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126" t="s">
+      <c r="M10" s="122"/>
+      <c r="N10" s="122" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="127" t="s">
+      <c r="P10" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="128">
+      <c r="Q10" s="124">
         <v>6</v>
       </c>
-      <c r="R10" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="S10" s="128" t="s">
+      <c r="R10" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="S10" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" s="163" t="s">
+        <v>201</v>
+      </c>
+      <c r="U10" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="T10" s="169" t="s">
-        <v>203</v>
-      </c>
-      <c r="U10" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="V10" s="175" t="s">
-        <v>249</v>
+      <c r="V10" s="168" t="s">
+        <v>247</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>15</v>
       </c>
@@ -2944,25 +2953,24 @@
         <v>6</v>
       </c>
       <c r="R11" s="64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S11" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="T11" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="U11" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="T11" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="U11" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="V11" s="175" t="s">
-        <v>252</v>
+      <c r="V11" s="168" t="s">
+        <v>250</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>15</v>
       </c>
@@ -2980,7 +2988,7 @@
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H12" s="70">
         <v>10</v>
@@ -3009,25 +3017,24 @@
         <v>6</v>
       </c>
       <c r="R12" s="72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S12" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="T12" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="U12" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="T12" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="U12" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="V12" s="175" t="s">
-        <v>250</v>
+      <c r="V12" s="168" t="s">
+        <v>248</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>15</v>
       </c>
@@ -3038,12 +3045,12 @@
         <v>123</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H13" s="33">
         <v>11</v>
@@ -3052,7 +3059,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K13" s="33" t="s">
         <v>20</v>
@@ -3065,7 +3072,7 @@
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P13" s="36" t="s">
         <v>19</v>
@@ -3074,25 +3081,24 @@
         <v>6</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S13" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="T13" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="U13" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="T13" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="V13" s="176" t="s">
-        <v>254</v>
+      <c r="V13" s="169" t="s">
+        <v>252</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>15</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>123</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -3139,25 +3145,24 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S14" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="T14" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="U14" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="T14" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="V14" s="175" t="s">
-        <v>252</v>
+      <c r="V14" s="168" t="s">
+        <v>250</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>15</v>
       </c>
@@ -3168,7 +3173,7 @@
         <v>123</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
@@ -3182,7 +3187,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K15" s="42" t="s">
         <v>20</v>
@@ -3204,88 +3209,86 @@
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S15" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="T15" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="T15" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="V15" s="175" t="s">
-        <v>252</v>
+      <c r="V15" s="168" t="s">
+        <v>250</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="167" t="s">
+    </row>
+    <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="168" t="s">
-        <v>234</v>
+      <c r="D16" s="162" t="s">
+        <v>232</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="126">
+      <c r="H16" s="122">
         <v>14</v>
       </c>
-      <c r="I16" s="126" t="s">
+      <c r="I16" s="122" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="126" t="s">
+      <c r="K16" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="126" t="s">
+      <c r="L16" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126" t="s">
+      <c r="M16" s="122"/>
+      <c r="N16" s="122" t="s">
         <v>120</v>
       </c>
       <c r="O16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="127" t="s">
+      <c r="P16" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="128">
+      <c r="Q16" s="124">
         <v>6</v>
       </c>
-      <c r="R16" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="S16" s="128" t="s">
+      <c r="R16" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="S16" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="T16" s="163" t="s">
+        <v>208</v>
+      </c>
+      <c r="U16" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="T16" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="U16" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="V16" s="175" t="s">
-        <v>251</v>
+      <c r="V16" s="168" t="s">
+        <v>249</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
@@ -3298,14 +3301,14 @@
         <v>123</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="47" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H17" s="48">
         <v>15</v>
@@ -3314,7 +3317,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K17" s="49" t="s">
         <v>20</v>
@@ -3327,7 +3330,7 @@
         <v>121</v>
       </c>
       <c r="O17" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P17" s="48" t="s">
         <v>19</v>
@@ -3336,478 +3339,470 @@
         <v>6</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S17" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="T17" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="U17" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="T17" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="V17" s="175" t="s">
-        <v>250</v>
+      <c r="V17" s="168" t="s">
+        <v>248</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="172" t="s">
+      <c r="A18" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="168" t="s">
+      <c r="C18" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="168" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="212" t="s">
+      <c r="D18" s="162" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="179" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="213">
+      <c r="H18" s="180">
         <v>16</v>
       </c>
-      <c r="I18" s="213" t="s">
+      <c r="I18" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="214" t="s">
-        <v>232</v>
-      </c>
-      <c r="K18" s="213" t="s">
+      <c r="J18" s="181" t="s">
+        <v>230</v>
+      </c>
+      <c r="K18" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="213" t="s">
+      <c r="L18" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="213"/>
-      <c r="N18" s="213"/>
-      <c r="O18" s="214"/>
-      <c r="P18" s="215" t="s">
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="216">
+      <c r="Q18" s="183">
         <v>8</v>
       </c>
-      <c r="R18" s="216" t="s">
+      <c r="R18" s="183" t="s">
+        <v>217</v>
+      </c>
+      <c r="S18" s="183" t="s">
+        <v>218</v>
+      </c>
+      <c r="T18" s="183" t="s">
+        <v>150</v>
+      </c>
+      <c r="U18" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="S18" s="216" t="s">
-        <v>220</v>
-      </c>
-      <c r="T18" s="216" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="217" t="s">
-        <v>221</v>
-      </c>
-      <c r="V18" s="177" t="s">
-        <v>248</v>
-      </c>
-      <c r="W18" s="209"/>
-      <c r="X18" s="211">
+      <c r="V18" s="215" t="s">
+        <v>246</v>
+      </c>
+      <c r="W18" s="178">
         <v>42403</v>
       </c>
-      <c r="Y18" s="210" t="s">
-        <v>260</v>
+      <c r="X18" s="177" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="167" t="s">
+      <c r="A19" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="129" t="s">
-        <v>187</v>
+      <c r="D19" s="125" t="s">
+        <v>185</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="218" t="s">
-        <v>226</v>
-      </c>
-      <c r="H19" s="219">
+      <c r="G19" s="185" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="186">
         <v>17</v>
       </c>
-      <c r="I19" s="220" t="s">
+      <c r="I19" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="181" t="s">
+      <c r="J19" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="220" t="s">
+      <c r="K19" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="220" t="s">
+      <c r="L19" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="220"/>
-      <c r="N19" s="220"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="219" t="s">
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="173"/>
+      <c r="P19" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="221">
+      <c r="Q19" s="188">
         <v>8</v>
       </c>
-      <c r="R19" s="221" t="s">
+      <c r="R19" s="188" t="s">
+        <v>217</v>
+      </c>
+      <c r="S19" s="188" t="s">
+        <v>218</v>
+      </c>
+      <c r="T19" s="188" t="s">
+        <v>151</v>
+      </c>
+      <c r="U19" s="189" t="s">
         <v>219</v>
       </c>
-      <c r="S19" s="221" t="s">
-        <v>220</v>
-      </c>
-      <c r="T19" s="221" t="s">
-        <v>151</v>
-      </c>
-      <c r="U19" s="222" t="s">
-        <v>221</v>
-      </c>
-      <c r="V19" s="177" t="s">
-        <v>248</v>
-      </c>
-      <c r="W19" s="209"/>
-      <c r="X19" s="211">
+      <c r="V19" s="215" t="s">
+        <v>246</v>
+      </c>
+      <c r="W19" s="178">
         <v>42403</v>
       </c>
-      <c r="Y19" s="25" t="s">
-        <v>260</v>
+      <c r="X19" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="105" t="s">
-        <v>187</v>
+      <c r="D20" s="101" t="s">
+        <v>185</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="106" t="s">
-        <v>243</v>
-      </c>
-      <c r="H20" s="107">
+      <c r="G20" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" s="103">
         <v>18</v>
       </c>
-      <c r="I20" s="107" t="s">
+      <c r="I20" s="103" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="K20" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="107" t="s">
+      <c r="L20" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="107" t="s">
+      <c r="M20" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="107"/>
+      <c r="N20" s="103"/>
       <c r="O20" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="108" t="s">
+      <c r="P20" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="109">
+      <c r="Q20" s="105">
         <v>6</v>
       </c>
-      <c r="R20" s="109" t="s">
-        <v>190</v>
-      </c>
-      <c r="S20" s="109" t="s">
+      <c r="R20" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="S20" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="T20" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="U20" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="T20" s="110" t="s">
-        <v>211</v>
-      </c>
-      <c r="U20" s="111" t="s">
-        <v>193</v>
-      </c>
-      <c r="V20" s="176" t="s">
-        <v>256</v>
+      <c r="V20" s="169" t="s">
+        <v>254</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="105" t="s">
-        <v>187</v>
+      <c r="D21" s="101" t="s">
+        <v>185</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="106" t="s">
+      <c r="G21" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="108">
+      <c r="H21" s="104">
         <v>19</v>
       </c>
-      <c r="I21" s="107" t="s">
+      <c r="I21" s="103" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="K21" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="K21" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="107" t="s">
+      <c r="L21" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107" t="s">
+      <c r="M21" s="103"/>
+      <c r="N21" s="103" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="108" t="s">
+      <c r="P21" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="109">
+      <c r="Q21" s="105">
         <v>6</v>
       </c>
-      <c r="R21" s="109" t="s">
-        <v>194</v>
-      </c>
-      <c r="S21" s="109" t="s">
+      <c r="R21" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="S21" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="T21" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="U21" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="T21" s="110" t="s">
-        <v>212</v>
-      </c>
-      <c r="U21" s="111" t="s">
-        <v>197</v>
-      </c>
-      <c r="V21" s="176" t="s">
-        <v>249</v>
+      <c r="V21" s="169" t="s">
+        <v>247</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="105" t="s">
-        <v>187</v>
+      <c r="D22" s="101" t="s">
+        <v>185</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="126">
+      <c r="H22" s="122">
         <v>20</v>
       </c>
-      <c r="I22" s="126" t="s">
+      <c r="I22" s="122" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="126" t="s">
+      <c r="K22" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="126" t="s">
+      <c r="L22" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126" t="s">
+      <c r="M22" s="122"/>
+      <c r="N22" s="122" t="s">
         <v>120</v>
       </c>
       <c r="O22" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="127" t="s">
+      <c r="P22" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="128">
+      <c r="Q22" s="124">
         <v>6</v>
       </c>
-      <c r="R22" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="S22" s="128" t="s">
+      <c r="R22" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="S22" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="T22" s="163" t="s">
+        <v>211</v>
+      </c>
+      <c r="U22" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="T22" s="169" t="s">
-        <v>213</v>
-      </c>
-      <c r="U22" s="170" t="s">
-        <v>197</v>
-      </c>
-      <c r="V22" s="176" t="s">
-        <v>256</v>
+      <c r="V22" s="169" t="s">
+        <v>254</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="105" t="s">
-        <v>187</v>
+      <c r="D23" s="101" t="s">
+        <v>185</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="106" t="s">
+      <c r="G23" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="108">
+      <c r="H23" s="104">
         <v>21</v>
       </c>
-      <c r="I23" s="107" t="s">
+      <c r="I23" s="103" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="107" t="s">
+      <c r="K23" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="107" t="s">
+      <c r="L23" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107" t="s">
+      <c r="M23" s="103"/>
+      <c r="N23" s="103" t="s">
         <v>24</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="108" t="s">
+      <c r="P23" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="109">
+      <c r="Q23" s="105">
         <v>6</v>
       </c>
-      <c r="R23" s="109" t="s">
-        <v>194</v>
-      </c>
-      <c r="S23" s="109" t="s">
+      <c r="R23" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="S23" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="T23" s="106" t="s">
+        <v>212</v>
+      </c>
+      <c r="U23" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="T23" s="110" t="s">
-        <v>214</v>
-      </c>
-      <c r="U23" s="111" t="s">
-        <v>197</v>
-      </c>
-      <c r="V23" s="175" t="s">
-        <v>252</v>
+      <c r="V23" s="168" t="s">
+        <v>250</v>
       </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="C24" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="113" t="s">
-        <v>187</v>
+      <c r="D24" s="109" t="s">
+        <v>185</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>122</v>
       </c>
       <c r="F24" s="20"/>
-      <c r="G24" s="114" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" s="115">
+      <c r="G24" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="111">
         <v>22</v>
       </c>
-      <c r="I24" s="116" t="s">
+      <c r="I24" s="112" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="116" t="s">
+      <c r="K24" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="116" t="s">
+      <c r="L24" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116" t="s">
+      <c r="M24" s="112"/>
+      <c r="N24" s="112" t="s">
         <v>121</v>
       </c>
       <c r="O24" s="20"/>
-      <c r="P24" s="115" t="s">
+      <c r="P24" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="117">
+      <c r="Q24" s="113">
         <v>6</v>
       </c>
-      <c r="R24" s="117" t="s">
-        <v>194</v>
-      </c>
-      <c r="S24" s="117" t="s">
+      <c r="R24" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="S24" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="T24" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="U24" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="T24" s="118" t="s">
-        <v>215</v>
-      </c>
-      <c r="U24" s="119" t="s">
-        <v>197</v>
-      </c>
-      <c r="V24" s="175" t="s">
-        <v>249</v>
+      <c r="V24" s="168" t="s">
+        <v>247</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
@@ -3820,429 +3815,441 @@
         <v>123</v>
       </c>
       <c r="D25" s="83" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="84" t="s">
+      <c r="G25" s="179" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="180">
+        <v>23</v>
+      </c>
+      <c r="I25" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="180" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="180" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="182" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="183">
+        <v>8</v>
+      </c>
+      <c r="R25" s="183" t="s">
+        <v>217</v>
+      </c>
+      <c r="S25" s="183" t="s">
+        <v>218</v>
+      </c>
+      <c r="T25" s="183" t="s">
         <v>163</v>
       </c>
-      <c r="H25" s="83">
-        <v>23</v>
-      </c>
-      <c r="I25" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="86">
-        <v>8</v>
-      </c>
-      <c r="R25" s="86" t="s">
+      <c r="U25" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="S25" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="T25" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="U25" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="V25" s="177" t="s">
-        <v>248</v>
-      </c>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
+      <c r="V25" s="215" t="s">
+        <v>246</v>
+      </c>
+      <c r="W25" s="178">
+        <v>42404</v>
+      </c>
+      <c r="X25" s="25" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="26" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="89" t="s">
-        <v>188</v>
+      <c r="D26" s="85" t="s">
+        <v>186</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="90" t="s">
+      <c r="G26" s="185" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="92">
+      <c r="H26" s="186">
         <v>24</v>
       </c>
-      <c r="I26" s="91" t="s">
+      <c r="I26" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="91" t="s">
+      <c r="K26" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="91" t="s">
+      <c r="L26" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="92" t="s">
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="173"/>
+      <c r="P26" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="93">
+      <c r="Q26" s="188">
         <v>8</v>
       </c>
-      <c r="R26" s="93" t="s">
+      <c r="R26" s="188" t="s">
+        <v>217</v>
+      </c>
+      <c r="S26" s="188" t="s">
+        <v>218</v>
+      </c>
+      <c r="T26" s="188" t="s">
+        <v>165</v>
+      </c>
+      <c r="U26" s="189" t="s">
         <v>219</v>
       </c>
-      <c r="S26" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="T26" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="U26" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="V26" s="177" t="s">
-        <v>248</v>
-      </c>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
+      <c r="V26" s="215" t="s">
+        <v>246</v>
+      </c>
+      <c r="W26" s="178">
+        <v>42404</v>
+      </c>
+      <c r="X26" s="25" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="27" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="89" t="s">
-        <v>188</v>
+      <c r="D27" s="85" t="s">
+        <v>186</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="221" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H27" s="222">
         <v>25</v>
       </c>
-      <c r="I27" s="91" t="s">
+      <c r="I27" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="K27" s="91" t="s">
+      <c r="J27" s="176" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="91" t="s">
+      <c r="L27" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="92" t="s">
+      <c r="M27" s="223"/>
+      <c r="N27" s="223"/>
+      <c r="O27" s="176"/>
+      <c r="P27" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="93">
+      <c r="Q27" s="224">
         <v>8</v>
       </c>
-      <c r="R27" s="93" t="s">
+      <c r="R27" s="224" t="s">
+        <v>217</v>
+      </c>
+      <c r="S27" s="224" t="s">
+        <v>218</v>
+      </c>
+      <c r="T27" s="224" t="s">
+        <v>220</v>
+      </c>
+      <c r="U27" s="225" t="s">
         <v>219</v>
       </c>
-      <c r="S27" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="T27" s="93" t="s">
-        <v>222</v>
-      </c>
-      <c r="U27" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="V27" s="177" t="s">
-        <v>248</v>
-      </c>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
+      <c r="V27" s="215" t="s">
+        <v>246</v>
+      </c>
+      <c r="W27" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" s="25" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="28" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="89" t="s">
-        <v>188</v>
+      <c r="D28" s="85" t="s">
+        <v>186</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="90" t="s">
+      <c r="G28" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="91">
+      <c r="H28" s="187">
         <v>26</v>
       </c>
-      <c r="I28" s="91" t="s">
+      <c r="I28" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="K28" s="91" t="s">
+      <c r="J28" s="173" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="91" t="s">
+      <c r="L28" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="92" t="s">
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="93">
+      <c r="Q28" s="188">
         <v>8</v>
       </c>
-      <c r="R28" s="93" t="s">
+      <c r="R28" s="188" t="s">
+        <v>217</v>
+      </c>
+      <c r="S28" s="188" t="s">
+        <v>218</v>
+      </c>
+      <c r="T28" s="188" t="s">
+        <v>221</v>
+      </c>
+      <c r="U28" s="189" t="s">
         <v>219</v>
       </c>
-      <c r="S28" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="T28" s="93" t="s">
-        <v>223</v>
-      </c>
-      <c r="U28" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="V28" s="177" t="s">
-        <v>248</v>
-      </c>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
+      <c r="V28" s="215" t="s">
+        <v>246</v>
+      </c>
+      <c r="W28" s="177">
+        <v>42404</v>
+      </c>
+      <c r="X28" s="25" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="29" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="167" t="s">
+      <c r="A29" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="129" t="s">
+      <c r="B29" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="129" t="s">
+      <c r="C29" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="129" t="s">
-        <v>188</v>
+      <c r="D29" s="125" t="s">
+        <v>186</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="127">
+      <c r="G29" s="216" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="217">
         <v>27</v>
       </c>
-      <c r="I29" s="126" t="s">
+      <c r="I29" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="K29" s="126" t="s">
+      <c r="J29" s="172" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="126" t="s">
+      <c r="L29" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="127" t="s">
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="128">
+      <c r="Q29" s="219">
         <v>8</v>
       </c>
-      <c r="R29" s="128" t="s">
+      <c r="R29" s="219" t="s">
+        <v>217</v>
+      </c>
+      <c r="S29" s="219" t="s">
+        <v>218</v>
+      </c>
+      <c r="T29" s="219" t="s">
+        <v>169</v>
+      </c>
+      <c r="U29" s="220" t="s">
         <v>219</v>
       </c>
-      <c r="S29" s="128" t="s">
-        <v>220</v>
-      </c>
-      <c r="T29" s="128" t="s">
-        <v>171</v>
-      </c>
-      <c r="U29" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="V29" s="177" t="s">
-        <v>248</v>
+      <c r="V29" s="228" t="s">
+        <v>246</v>
       </c>
       <c r="W29" s="25"/>
       <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
+      <c r="Y29" s="18" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="89" t="s">
-        <v>188</v>
+      <c r="D30" s="85" t="s">
+        <v>186</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="90" t="s">
+      <c r="G30" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="88">
+        <v>28</v>
+      </c>
+      <c r="I30" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="87"/>
+      <c r="O30" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="92">
-        <v>28</v>
-      </c>
-      <c r="I30" s="91" t="s">
+      <c r="P30" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="K30" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="N30" s="91"/>
-      <c r="O30" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="P30" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="93">
+      <c r="Q30" s="89">
         <v>6</v>
       </c>
-      <c r="R30" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="S30" s="93" t="s">
+      <c r="R30" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="S30" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="T30" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="U30" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="T30" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="U30" s="95" t="s">
-        <v>193</v>
-      </c>
-      <c r="V30" s="178" t="s">
-        <v>250</v>
-      </c>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
+      <c r="V30" s="170" t="s">
+        <v>248</v>
+      </c>
+      <c r="W30" s="175"/>
+      <c r="X30" s="175"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="97" t="s">
-        <v>188</v>
+      <c r="D31" s="93" t="s">
+        <v>186</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="98" t="s">
-        <v>245</v>
-      </c>
-      <c r="H31" s="100">
+      <c r="G31" s="94" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="96">
         <v>29</v>
       </c>
-      <c r="I31" s="100" t="s">
+      <c r="I31" s="96" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="K31" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="100" t="s">
+      <c r="L31" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100" t="s">
+      <c r="M31" s="96"/>
+      <c r="N31" s="96" t="s">
         <v>121</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="P31" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="P31" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="101">
+      <c r="Q31" s="97">
         <v>6</v>
       </c>
-      <c r="R31" s="101" t="s">
-        <v>194</v>
-      </c>
-      <c r="S31" s="101" t="s">
+      <c r="R31" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="S31" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="T31" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="U31" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="T31" s="102" t="s">
-        <v>215</v>
-      </c>
-      <c r="U31" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="V31" s="179" t="s">
-        <v>250</v>
-      </c>
-      <c r="W31" s="183"/>
-      <c r="X31" s="183"/>
-      <c r="Y31" s="183"/>
+      <c r="V31" s="171" t="s">
+        <v>248</v>
+      </c>
+      <c r="W31" s="175"/>
+      <c r="X31" s="175"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="75" t="s">
@@ -4255,21 +4262,21 @@
         <v>123</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="121" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="122">
+        <v>184</v>
+      </c>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" s="118">
         <v>30</v>
       </c>
       <c r="I32" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="120" t="s">
-        <v>247</v>
+      <c r="J32" s="116" t="s">
+        <v>245</v>
       </c>
       <c r="K32" s="75" t="s">
         <v>20</v>
@@ -4281,35 +4288,34 @@
       <c r="N32" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="123" t="s">
-        <v>178</v>
-      </c>
-      <c r="P32" s="122" t="s">
+      <c r="O32" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="P32" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="124">
+      <c r="Q32" s="120">
         <v>6</v>
       </c>
-      <c r="R32" s="124" t="s">
-        <v>194</v>
-      </c>
-      <c r="S32" s="124" t="s">
+      <c r="R32" s="120" t="s">
+        <v>192</v>
+      </c>
+      <c r="S32" s="120" t="s">
+        <v>193</v>
+      </c>
+      <c r="T32" s="121" t="s">
+        <v>214</v>
+      </c>
+      <c r="U32" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="T32" s="125" t="s">
-        <v>216</v>
-      </c>
-      <c r="U32" s="124" t="s">
-        <v>197</v>
-      </c>
-      <c r="V32" s="178" t="s">
-        <v>256</v>
-      </c>
-      <c r="W32" s="183"/>
-      <c r="X32" s="183"/>
-      <c r="Y32" s="183"/>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V32" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="W32" s="175"/>
+      <c r="X32" s="175"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="75" t="s">
         <v>15</v>
       </c>
@@ -4320,47 +4326,46 @@
         <v>123</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E33" s="76"/>
       <c r="F33" s="76"/>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="79">
+      <c r="H33" s="222">
         <v>31</v>
       </c>
-      <c r="I33" s="78" t="s">
+      <c r="I33" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="K33" s="78" t="s">
+      <c r="J33" s="176" t="s">
+        <v>179</v>
+      </c>
+      <c r="K33" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="78" t="s">
+      <c r="L33" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="79" t="s">
+      <c r="M33" s="223"/>
+      <c r="N33" s="223"/>
+      <c r="O33" s="176"/>
+      <c r="P33" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="173" t="s">
-        <v>248</v>
-      </c>
-      <c r="W33" s="183"/>
-      <c r="X33" s="183"/>
-      <c r="Y33" s="183"/>
-    </row>
-    <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q33" s="224"/>
+      <c r="R33" s="224"/>
+      <c r="S33" s="224"/>
+      <c r="T33" s="224"/>
+      <c r="U33" s="224"/>
+      <c r="V33" s="226" t="s">
+        <v>246</v>
+      </c>
+      <c r="W33" s="222"/>
+      <c r="X33" s="175"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="75" t="s">
         <v>15</v>
       </c>
@@ -4371,12 +4376,12 @@
         <v>123</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E34" s="76"/>
       <c r="F34" s="76"/>
       <c r="G34" s="77" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H34" s="78">
         <v>32</v>
@@ -4385,7 +4390,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K34" s="78" t="s">
         <v>20</v>
@@ -4405,1051 +4410,1011 @@
         <v>6</v>
       </c>
       <c r="R34" s="80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S34" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="T34" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="U34" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="T34" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="U34" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="V34" s="178" t="s">
-        <v>249</v>
-      </c>
-      <c r="W34" s="183"/>
-      <c r="X34" s="183"/>
-      <c r="Y34" s="183"/>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="129" t="s">
+      <c r="V34" s="170" t="s">
+        <v>247</v>
+      </c>
+      <c r="W34" s="175"/>
+      <c r="X34" s="175"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="129" t="s">
+      <c r="B35" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="129" t="s">
+      <c r="C35" s="125" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" s="127">
+        <v>178</v>
+      </c>
+      <c r="H35" s="123">
         <v>33</v>
       </c>
-      <c r="I35" s="126" t="s">
+      <c r="I35" s="122" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="K35" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="K35" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="126" t="s">
+      <c r="L35" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126" t="s">
+      <c r="M35" s="122"/>
+      <c r="N35" s="122" t="s">
         <v>52</v>
       </c>
       <c r="O35" s="25"/>
-      <c r="P35" s="127" t="s">
+      <c r="P35" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="128">
+      <c r="Q35" s="124">
         <v>6</v>
       </c>
-      <c r="R35" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="S35" s="128" t="s">
+      <c r="R35" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="S35" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="T35" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="U35" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="T35" s="169" t="s">
-        <v>218</v>
-      </c>
-      <c r="U35" s="128" t="s">
-        <v>197</v>
-      </c>
-      <c r="V35" s="179" t="s">
-        <v>250</v>
-      </c>
-      <c r="W35" s="183"/>
-      <c r="X35" s="183"/>
-      <c r="Y35" s="183"/>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="130"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="131"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="131"/>
-      <c r="P36" s="133"/>
-      <c r="Q36" s="134"/>
-      <c r="R36" s="134"/>
-      <c r="S36" s="134"/>
-      <c r="T36" s="134"/>
-      <c r="U36" s="134"/>
-      <c r="V36" s="135"/>
+      <c r="V35" s="171" t="s">
+        <v>248</v>
+      </c>
+      <c r="W35" s="175"/>
+      <c r="X35" s="175"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="126"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="130"/>
+      <c r="T36" s="130"/>
+      <c r="U36" s="130"/>
+      <c r="V36" s="131"/>
       <c r="W36" s="23"/>
       <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="136"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="137"/>
-      <c r="P37" s="139"/>
-      <c r="Q37" s="140"/>
-      <c r="R37" s="140"/>
-      <c r="S37" s="140"/>
-      <c r="T37" s="140"/>
-      <c r="U37" s="140"/>
-      <c r="V37" s="139"/>
-      <c r="W37" s="141"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="132"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="136"/>
+      <c r="R37" s="136"/>
+      <c r="S37" s="136"/>
+      <c r="T37" s="136"/>
+      <c r="U37" s="136"/>
+      <c r="V37" s="135"/>
+      <c r="W37" s="23"/>
       <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="136"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="136"/>
-      <c r="L38" s="136"/>
-      <c r="M38" s="136"/>
-      <c r="N38" s="136"/>
-      <c r="O38" s="137"/>
-      <c r="P38" s="139"/>
-      <c r="Q38" s="139"/>
-      <c r="R38" s="139"/>
-      <c r="S38" s="139"/>
-      <c r="T38" s="139"/>
-      <c r="U38" s="139"/>
-      <c r="V38" s="139"/>
-      <c r="W38" s="141"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="132"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="133"/>
+      <c r="P38" s="135"/>
+      <c r="Q38" s="135"/>
+      <c r="R38" s="135"/>
+      <c r="S38" s="135"/>
+      <c r="T38" s="135"/>
+      <c r="U38" s="135"/>
+      <c r="V38" s="135"/>
+      <c r="W38" s="23"/>
       <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="136"/>
-      <c r="O39" s="137"/>
-      <c r="P39" s="139"/>
-      <c r="Q39" s="139"/>
-      <c r="R39" s="139"/>
-      <c r="S39" s="139"/>
-      <c r="T39" s="139"/>
-      <c r="U39" s="139"/>
-      <c r="V39" s="139"/>
-      <c r="W39" s="141"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="132"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="135"/>
+      <c r="Q39" s="135"/>
+      <c r="R39" s="135"/>
+      <c r="S39" s="135"/>
+      <c r="T39" s="135"/>
+      <c r="U39" s="135"/>
+      <c r="V39" s="135"/>
+      <c r="W39" s="23"/>
       <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="136"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
-      <c r="O40" s="137"/>
-      <c r="P40" s="139"/>
-      <c r="Q40" s="139"/>
-      <c r="R40" s="139"/>
-      <c r="S40" s="139"/>
-      <c r="T40" s="139"/>
-      <c r="U40" s="139"/>
-      <c r="V40" s="137"/>
-      <c r="W40" s="142"/>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="136"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="136"/>
-      <c r="N41" s="136"/>
-      <c r="O41" s="137"/>
-      <c r="P41" s="139"/>
-      <c r="Q41" s="139"/>
-      <c r="R41" s="139"/>
-      <c r="S41" s="139"/>
-      <c r="T41" s="139"/>
-      <c r="U41" s="139"/>
-      <c r="V41" s="137"/>
-      <c r="W41" s="142"/>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="137"/>
-      <c r="P42" s="139"/>
-      <c r="Q42" s="139"/>
-      <c r="R42" s="139"/>
-      <c r="S42" s="139"/>
-      <c r="T42" s="139"/>
-      <c r="U42" s="139"/>
-      <c r="V42" s="137"/>
-      <c r="W42" s="142"/>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="136"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="136"/>
-      <c r="M43" s="136"/>
-      <c r="N43" s="136"/>
-      <c r="O43" s="137"/>
-      <c r="P43" s="139"/>
-      <c r="Q43" s="139"/>
-      <c r="R43" s="139"/>
-      <c r="S43" s="139"/>
-      <c r="T43" s="139"/>
-      <c r="U43" s="139"/>
-      <c r="V43" s="137"/>
-      <c r="W43" s="142"/>
-    </row>
-    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="136"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="136"/>
-      <c r="L44" s="136"/>
-      <c r="M44" s="136"/>
-      <c r="N44" s="136"/>
-      <c r="O44" s="137"/>
-      <c r="P44" s="139"/>
-      <c r="Q44" s="139"/>
-      <c r="R44" s="139"/>
-      <c r="S44" s="139"/>
-      <c r="T44" s="139"/>
-      <c r="U44" s="139"/>
-      <c r="V44" s="137"/>
-      <c r="W44" s="142"/>
-    </row>
-    <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="136"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="137"/>
-      <c r="P45" s="139"/>
-      <c r="Q45" s="139"/>
-      <c r="R45" s="139"/>
-      <c r="S45" s="139"/>
-      <c r="T45" s="139"/>
-      <c r="U45" s="139"/>
-      <c r="V45" s="137"/>
-      <c r="W45" s="142"/>
-    </row>
-    <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="136"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="136"/>
-      <c r="L46" s="136"/>
-      <c r="M46" s="136"/>
-      <c r="N46" s="136"/>
-      <c r="O46" s="137"/>
-      <c r="P46" s="139"/>
-      <c r="Q46" s="139"/>
-      <c r="R46" s="139"/>
-      <c r="S46" s="139"/>
-      <c r="T46" s="139"/>
-      <c r="U46" s="139"/>
-      <c r="V46" s="137"/>
-      <c r="W46" s="142"/>
-    </row>
-    <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="136"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="136"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="136"/>
-      <c r="L47" s="136"/>
-      <c r="M47" s="136"/>
-      <c r="N47" s="136"/>
-      <c r="O47" s="137"/>
-      <c r="P47" s="139"/>
-      <c r="Q47" s="139"/>
-      <c r="R47" s="139"/>
-      <c r="S47" s="139"/>
-      <c r="T47" s="139"/>
-      <c r="U47" s="139"/>
-      <c r="V47" s="137"/>
-      <c r="W47" s="142"/>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="136"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="137"/>
-      <c r="K48" s="136"/>
-      <c r="L48" s="136"/>
-      <c r="M48" s="136"/>
-      <c r="N48" s="136"/>
-      <c r="O48" s="137"/>
-      <c r="P48" s="139"/>
-      <c r="Q48" s="139"/>
-      <c r="R48" s="139"/>
-      <c r="S48" s="139"/>
-      <c r="T48" s="139"/>
-      <c r="U48" s="139"/>
-      <c r="V48" s="137"/>
-      <c r="W48" s="142"/>
-    </row>
-    <row r="49" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="136"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="136"/>
-      <c r="L49" s="136"/>
-      <c r="M49" s="136"/>
-      <c r="N49" s="136"/>
-      <c r="O49" s="137"/>
-      <c r="P49" s="139"/>
-      <c r="Q49" s="139"/>
-      <c r="R49" s="139"/>
-      <c r="S49" s="139"/>
-      <c r="T49" s="139"/>
-      <c r="U49" s="139"/>
-      <c r="V49" s="137"/>
-      <c r="W49" s="142"/>
-    </row>
-    <row r="50" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="136"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="136"/>
-      <c r="L50" s="136"/>
-      <c r="M50" s="136"/>
-      <c r="N50" s="136"/>
-      <c r="O50" s="137"/>
-      <c r="P50" s="139"/>
-      <c r="Q50" s="139"/>
-      <c r="R50" s="139"/>
-      <c r="S50" s="139"/>
-      <c r="T50" s="139"/>
-      <c r="U50" s="139"/>
-      <c r="V50" s="137"/>
-      <c r="W50" s="142"/>
-    </row>
-    <row r="51" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="136"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="137"/>
-      <c r="K51" s="136"/>
-      <c r="L51" s="136"/>
-      <c r="M51" s="136"/>
-      <c r="N51" s="136"/>
-      <c r="O51" s="137"/>
-      <c r="P51" s="139"/>
-      <c r="Q51" s="139"/>
-      <c r="R51" s="139"/>
-      <c r="S51" s="139"/>
-      <c r="T51" s="139"/>
-      <c r="U51" s="139"/>
-      <c r="V51" s="137"/>
-      <c r="W51" s="142"/>
-    </row>
-    <row r="52" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="136"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="136"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="136"/>
-      <c r="L52" s="136"/>
-      <c r="M52" s="136"/>
-      <c r="N52" s="136"/>
-      <c r="O52" s="137"/>
-      <c r="P52" s="139"/>
-      <c r="Q52" s="139"/>
-      <c r="R52" s="139"/>
-      <c r="S52" s="139"/>
-      <c r="T52" s="139"/>
-      <c r="U52" s="139"/>
-      <c r="V52" s="137"/>
-      <c r="W52" s="142"/>
-    </row>
-    <row r="53" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="136"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="136"/>
-      <c r="J53" s="137"/>
-      <c r="K53" s="136"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="136"/>
-      <c r="N53" s="136"/>
-      <c r="O53" s="137"/>
-      <c r="P53" s="139"/>
-      <c r="Q53" s="139"/>
-      <c r="R53" s="139"/>
-      <c r="S53" s="139"/>
-      <c r="T53" s="139"/>
-      <c r="U53" s="139"/>
-      <c r="V53" s="137"/>
-      <c r="W53" s="142"/>
-    </row>
-    <row r="54" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="136"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="136"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="136"/>
-      <c r="L54" s="136"/>
-      <c r="M54" s="136"/>
-      <c r="N54" s="136"/>
-      <c r="O54" s="137"/>
-      <c r="P54" s="139"/>
-      <c r="Q54" s="139"/>
-      <c r="R54" s="139"/>
-      <c r="S54" s="139"/>
-      <c r="T54" s="139"/>
-      <c r="U54" s="139"/>
-      <c r="V54" s="137"/>
-      <c r="W54" s="142"/>
-    </row>
-    <row r="55" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="136"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="137"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="136"/>
-      <c r="N55" s="136"/>
-      <c r="O55" s="137"/>
-      <c r="P55" s="139"/>
-      <c r="Q55" s="139"/>
-      <c r="R55" s="139"/>
-      <c r="S55" s="139"/>
-      <c r="T55" s="139"/>
-      <c r="U55" s="139"/>
-      <c r="V55" s="137"/>
-      <c r="W55" s="142"/>
-    </row>
-    <row r="56" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="136"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="137"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="136"/>
-      <c r="M56" s="136"/>
-      <c r="N56" s="136"/>
-      <c r="O56" s="137"/>
-      <c r="P56" s="139"/>
-      <c r="Q56" s="139"/>
-      <c r="R56" s="139"/>
-      <c r="S56" s="139"/>
-      <c r="T56" s="139"/>
-      <c r="U56" s="139"/>
-      <c r="V56" s="137"/>
-      <c r="W56" s="142"/>
-    </row>
-    <row r="57" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="136"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="138"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="136"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="136"/>
-      <c r="L57" s="136"/>
-      <c r="M57" s="136"/>
-      <c r="N57" s="136"/>
-      <c r="O57" s="137"/>
-      <c r="P57" s="139"/>
-      <c r="Q57" s="139"/>
-      <c r="R57" s="139"/>
-      <c r="S57" s="139"/>
-      <c r="T57" s="139"/>
-      <c r="U57" s="139"/>
-      <c r="V57" s="137"/>
-      <c r="W57" s="142"/>
-    </row>
-    <row r="58" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="136"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="138"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="136"/>
-      <c r="J58" s="137"/>
-      <c r="K58" s="136"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="136"/>
-      <c r="N58" s="136"/>
-      <c r="O58" s="137"/>
-      <c r="P58" s="139"/>
-      <c r="Q58" s="139"/>
-      <c r="R58" s="139"/>
-      <c r="S58" s="139"/>
-      <c r="T58" s="139"/>
-      <c r="U58" s="139"/>
-      <c r="V58" s="137"/>
-      <c r="W58" s="142"/>
-    </row>
-    <row r="59" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="136"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="138"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="136"/>
-      <c r="J59" s="137"/>
-      <c r="K59" s="136"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="136"/>
-      <c r="N59" s="136"/>
-      <c r="O59" s="137"/>
-      <c r="P59" s="139"/>
-      <c r="Q59" s="139"/>
-      <c r="R59" s="139"/>
-      <c r="S59" s="139"/>
-      <c r="T59" s="139"/>
-      <c r="U59" s="139"/>
-      <c r="V59" s="137"/>
-      <c r="W59" s="142"/>
-    </row>
-    <row r="60" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="136"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="138"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="136"/>
-      <c r="J60" s="137"/>
-      <c r="K60" s="136"/>
-      <c r="L60" s="136"/>
-      <c r="M60" s="136"/>
-      <c r="N60" s="136"/>
-      <c r="O60" s="137"/>
-      <c r="P60" s="139"/>
-      <c r="Q60" s="139"/>
-      <c r="R60" s="139"/>
-      <c r="S60" s="139"/>
-      <c r="T60" s="139"/>
-      <c r="U60" s="139"/>
-      <c r="V60" s="137"/>
-      <c r="W60" s="142"/>
-    </row>
-    <row r="61" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="136"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="138"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="136"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="136"/>
-      <c r="L61" s="136"/>
-      <c r="M61" s="136"/>
-      <c r="N61" s="136"/>
-      <c r="O61" s="137"/>
-      <c r="P61" s="139"/>
-      <c r="Q61" s="139"/>
-      <c r="R61" s="139"/>
-      <c r="S61" s="139"/>
-      <c r="T61" s="139"/>
-      <c r="U61" s="139"/>
-      <c r="V61" s="137"/>
-      <c r="W61" s="142"/>
-    </row>
-    <row r="62" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="136"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="138"/>
-      <c r="H62" s="137"/>
-      <c r="I62" s="136"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="136"/>
-      <c r="L62" s="136"/>
-      <c r="M62" s="136"/>
-      <c r="N62" s="136"/>
-      <c r="O62" s="137"/>
-      <c r="P62" s="139"/>
-      <c r="Q62" s="139"/>
-      <c r="R62" s="139"/>
-      <c r="S62" s="139"/>
-      <c r="T62" s="139"/>
-      <c r="U62" s="139"/>
-      <c r="V62" s="137"/>
-      <c r="W62" s="142"/>
-    </row>
-    <row r="63" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="136"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="138"/>
-      <c r="H63" s="137"/>
-      <c r="I63" s="136"/>
-      <c r="J63" s="137"/>
-      <c r="K63" s="136"/>
-      <c r="L63" s="136"/>
-      <c r="M63" s="136"/>
-      <c r="N63" s="136"/>
-      <c r="O63" s="137"/>
-      <c r="P63" s="139"/>
-      <c r="Q63" s="139"/>
-      <c r="R63" s="139"/>
-      <c r="S63" s="139"/>
-      <c r="T63" s="139"/>
-      <c r="U63" s="139"/>
-      <c r="V63" s="137"/>
-      <c r="W63" s="142"/>
-    </row>
-    <row r="64" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="136"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="137"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="138"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="136"/>
-      <c r="J64" s="137"/>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
-      <c r="N64" s="136"/>
-      <c r="O64" s="137"/>
-      <c r="P64" s="139"/>
-      <c r="Q64" s="139"/>
-      <c r="R64" s="139"/>
-      <c r="S64" s="139"/>
-      <c r="T64" s="139"/>
-      <c r="U64" s="139"/>
-      <c r="V64" s="137"/>
-      <c r="W64" s="142"/>
-    </row>
-    <row r="65" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="136"/>
-      <c r="B65" s="137"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="137"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="137"/>
-      <c r="I65" s="136"/>
-      <c r="J65" s="137"/>
-      <c r="K65" s="136"/>
-      <c r="L65" s="136"/>
-      <c r="M65" s="136"/>
-      <c r="N65" s="136"/>
-      <c r="O65" s="137"/>
-      <c r="P65" s="139"/>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="139"/>
-      <c r="S65" s="139"/>
-      <c r="T65" s="139"/>
-      <c r="U65" s="139"/>
-      <c r="V65" s="137"/>
-      <c r="W65" s="142"/>
-    </row>
-    <row r="66" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="136"/>
-      <c r="B66" s="137"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="137"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="137"/>
-      <c r="G66" s="138"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="136"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="136"/>
-      <c r="L66" s="136"/>
-      <c r="M66" s="136"/>
-      <c r="N66" s="136"/>
-      <c r="O66" s="137"/>
-      <c r="P66" s="139"/>
-      <c r="Q66" s="139"/>
-      <c r="R66" s="139"/>
-      <c r="S66" s="139"/>
-      <c r="T66" s="139"/>
-      <c r="U66" s="139"/>
-      <c r="V66" s="137"/>
-      <c r="W66" s="142"/>
-    </row>
-    <row r="67" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="136"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="138"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="136"/>
-      <c r="J67" s="137"/>
-      <c r="K67" s="136"/>
-      <c r="L67" s="136"/>
-      <c r="M67" s="136"/>
-      <c r="N67" s="136"/>
-      <c r="O67" s="137"/>
-      <c r="P67" s="139"/>
-      <c r="Q67" s="139"/>
-      <c r="R67" s="139"/>
-      <c r="S67" s="139"/>
-      <c r="T67" s="139"/>
-      <c r="U67" s="139"/>
-      <c r="V67" s="137"/>
-      <c r="W67" s="142"/>
-    </row>
-    <row r="68" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="136"/>
-      <c r="B68" s="137"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="137"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="137"/>
-      <c r="G68" s="138"/>
-      <c r="H68" s="137"/>
-      <c r="I68" s="136"/>
-      <c r="J68" s="137"/>
-      <c r="K68" s="136"/>
-      <c r="L68" s="136"/>
-      <c r="M68" s="136"/>
-      <c r="N68" s="136"/>
-      <c r="O68" s="137"/>
-      <c r="P68" s="139"/>
-      <c r="Q68" s="139"/>
-      <c r="R68" s="139"/>
-      <c r="S68" s="139"/>
-      <c r="T68" s="139"/>
-      <c r="U68" s="139"/>
-      <c r="V68" s="137"/>
-      <c r="W68" s="142"/>
-    </row>
-    <row r="69" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="136"/>
-      <c r="B69" s="137"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="137"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="138"/>
-      <c r="H69" s="137"/>
-      <c r="I69" s="136"/>
-      <c r="J69" s="137"/>
-      <c r="K69" s="136"/>
-      <c r="L69" s="136"/>
-      <c r="M69" s="136"/>
-      <c r="N69" s="136"/>
-      <c r="O69" s="137"/>
-      <c r="P69" s="139"/>
-      <c r="Q69" s="139"/>
-      <c r="R69" s="139"/>
-      <c r="S69" s="139"/>
-      <c r="T69" s="139"/>
-      <c r="U69" s="139"/>
-      <c r="V69" s="137"/>
-      <c r="W69" s="142"/>
-    </row>
-    <row r="70" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="136"/>
-      <c r="B70" s="137"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="137"/>
-      <c r="E70" s="137"/>
-      <c r="F70" s="137"/>
-      <c r="G70" s="138"/>
-      <c r="H70" s="137"/>
-      <c r="I70" s="136"/>
-      <c r="J70" s="137"/>
-      <c r="K70" s="136"/>
-      <c r="L70" s="136"/>
-      <c r="M70" s="136"/>
-      <c r="N70" s="136"/>
-      <c r="O70" s="137"/>
-      <c r="P70" s="139"/>
-      <c r="Q70" s="139"/>
-      <c r="R70" s="139"/>
-      <c r="S70" s="139"/>
-      <c r="T70" s="139"/>
-      <c r="U70" s="139"/>
-      <c r="V70" s="137"/>
-      <c r="W70" s="142"/>
-    </row>
-    <row r="71" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="136"/>
-      <c r="B71" s="137"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="137"/>
-      <c r="E71" s="137"/>
-      <c r="F71" s="137"/>
-      <c r="G71" s="138"/>
-      <c r="H71" s="137"/>
-      <c r="I71" s="136"/>
-      <c r="J71" s="137"/>
-      <c r="K71" s="136"/>
-      <c r="L71" s="136"/>
-      <c r="M71" s="136"/>
-      <c r="N71" s="136"/>
-      <c r="O71" s="137"/>
-      <c r="P71" s="139"/>
-      <c r="Q71" s="139"/>
-      <c r="R71" s="139"/>
-      <c r="S71" s="139"/>
-      <c r="T71" s="139"/>
-      <c r="U71" s="139"/>
-      <c r="V71" s="137"/>
-      <c r="W71" s="142"/>
-    </row>
-    <row r="72" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="136"/>
-      <c r="B72" s="137"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="137"/>
-      <c r="G72" s="138"/>
-      <c r="H72" s="137"/>
-      <c r="I72" s="136"/>
-      <c r="J72" s="137"/>
-      <c r="K72" s="136"/>
-      <c r="L72" s="136"/>
-      <c r="M72" s="136"/>
-      <c r="N72" s="136"/>
-      <c r="O72" s="137"/>
-      <c r="P72" s="139"/>
-      <c r="Q72" s="139"/>
-      <c r="R72" s="139"/>
-      <c r="S72" s="139"/>
-      <c r="T72" s="139"/>
-      <c r="U72" s="139"/>
-      <c r="V72" s="137"/>
-      <c r="W72" s="142"/>
-    </row>
-    <row r="73" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="136"/>
-      <c r="B73" s="137"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="137"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="138"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="136"/>
-      <c r="J73" s="137"/>
-      <c r="K73" s="136"/>
-      <c r="L73" s="136"/>
-      <c r="M73" s="136"/>
-      <c r="N73" s="136"/>
-      <c r="O73" s="137"/>
-      <c r="P73" s="139"/>
-      <c r="Q73" s="139"/>
-      <c r="R73" s="139"/>
-      <c r="S73" s="139"/>
-      <c r="T73" s="139"/>
-      <c r="U73" s="139"/>
-      <c r="V73" s="137"/>
-      <c r="W73" s="142"/>
-    </row>
-    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="132"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="133"/>
+      <c r="P40" s="135"/>
+      <c r="Q40" s="135"/>
+      <c r="R40" s="135"/>
+      <c r="S40" s="135"/>
+      <c r="T40" s="135"/>
+      <c r="U40" s="135"/>
+      <c r="V40" s="133"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="132"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="133"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="135"/>
+      <c r="S41" s="135"/>
+      <c r="T41" s="135"/>
+      <c r="U41" s="135"/>
+      <c r="V41" s="133"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="132"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="133"/>
+      <c r="P42" s="135"/>
+      <c r="Q42" s="135"/>
+      <c r="R42" s="135"/>
+      <c r="S42" s="135"/>
+      <c r="T42" s="135"/>
+      <c r="U42" s="135"/>
+      <c r="V42" s="133"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="132"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="133"/>
+      <c r="P43" s="135"/>
+      <c r="Q43" s="135"/>
+      <c r="R43" s="135"/>
+      <c r="S43" s="135"/>
+      <c r="T43" s="135"/>
+      <c r="U43" s="135"/>
+      <c r="V43" s="133"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="132"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="133"/>
+      <c r="P44" s="135"/>
+      <c r="Q44" s="135"/>
+      <c r="R44" s="135"/>
+      <c r="S44" s="135"/>
+      <c r="T44" s="135"/>
+      <c r="U44" s="135"/>
+      <c r="V44" s="133"/>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="132"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="133"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="135"/>
+      <c r="S45" s="135"/>
+      <c r="T45" s="135"/>
+      <c r="U45" s="135"/>
+      <c r="V45" s="133"/>
+    </row>
+    <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="132"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="133"/>
+      <c r="P46" s="135"/>
+      <c r="Q46" s="135"/>
+      <c r="R46" s="135"/>
+      <c r="S46" s="135"/>
+      <c r="T46" s="135"/>
+      <c r="U46" s="135"/>
+      <c r="V46" s="133"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="132"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="133"/>
+      <c r="P47" s="135"/>
+      <c r="Q47" s="135"/>
+      <c r="R47" s="135"/>
+      <c r="S47" s="135"/>
+      <c r="T47" s="135"/>
+      <c r="U47" s="135"/>
+      <c r="V47" s="133"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="132"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="133"/>
+      <c r="P48" s="135"/>
+      <c r="Q48" s="135"/>
+      <c r="R48" s="135"/>
+      <c r="S48" s="135"/>
+      <c r="T48" s="135"/>
+      <c r="U48" s="135"/>
+      <c r="V48" s="133"/>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="132"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="132"/>
+      <c r="M49" s="132"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="133"/>
+      <c r="P49" s="135"/>
+      <c r="Q49" s="135"/>
+      <c r="R49" s="135"/>
+      <c r="S49" s="135"/>
+      <c r="T49" s="135"/>
+      <c r="U49" s="135"/>
+      <c r="V49" s="133"/>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="132"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="132"/>
+      <c r="L50" s="132"/>
+      <c r="M50" s="132"/>
+      <c r="N50" s="132"/>
+      <c r="O50" s="133"/>
+      <c r="P50" s="135"/>
+      <c r="Q50" s="135"/>
+      <c r="R50" s="135"/>
+      <c r="S50" s="135"/>
+      <c r="T50" s="135"/>
+      <c r="U50" s="135"/>
+      <c r="V50" s="133"/>
+    </row>
+    <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="132"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="132"/>
+      <c r="L51" s="132"/>
+      <c r="M51" s="132"/>
+      <c r="N51" s="132"/>
+      <c r="O51" s="133"/>
+      <c r="P51" s="135"/>
+      <c r="Q51" s="135"/>
+      <c r="R51" s="135"/>
+      <c r="S51" s="135"/>
+      <c r="T51" s="135"/>
+      <c r="U51" s="135"/>
+      <c r="V51" s="133"/>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="132"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="132"/>
+      <c r="L52" s="132"/>
+      <c r="M52" s="132"/>
+      <c r="N52" s="132"/>
+      <c r="O52" s="133"/>
+      <c r="P52" s="135"/>
+      <c r="Q52" s="135"/>
+      <c r="R52" s="135"/>
+      <c r="S52" s="135"/>
+      <c r="T52" s="135"/>
+      <c r="U52" s="135"/>
+      <c r="V52" s="133"/>
+    </row>
+    <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="132"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="132"/>
+      <c r="L53" s="132"/>
+      <c r="M53" s="132"/>
+      <c r="N53" s="132"/>
+      <c r="O53" s="133"/>
+      <c r="P53" s="135"/>
+      <c r="Q53" s="135"/>
+      <c r="R53" s="135"/>
+      <c r="S53" s="135"/>
+      <c r="T53" s="135"/>
+      <c r="U53" s="135"/>
+      <c r="V53" s="133"/>
+    </row>
+    <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="132"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="132"/>
+      <c r="M54" s="132"/>
+      <c r="N54" s="132"/>
+      <c r="O54" s="133"/>
+      <c r="P54" s="135"/>
+      <c r="Q54" s="135"/>
+      <c r="R54" s="135"/>
+      <c r="S54" s="135"/>
+      <c r="T54" s="135"/>
+      <c r="U54" s="135"/>
+      <c r="V54" s="133"/>
+    </row>
+    <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="132"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="133"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="132"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="133"/>
+      <c r="P55" s="135"/>
+      <c r="Q55" s="135"/>
+      <c r="R55" s="135"/>
+      <c r="S55" s="135"/>
+      <c r="T55" s="135"/>
+      <c r="U55" s="135"/>
+      <c r="V55" s="133"/>
+    </row>
+    <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="132"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="135"/>
+      <c r="R56" s="135"/>
+      <c r="S56" s="135"/>
+      <c r="T56" s="135"/>
+      <c r="U56" s="135"/>
+      <c r="V56" s="133"/>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="132"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="133"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="133"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="132"/>
+      <c r="N57" s="132"/>
+      <c r="O57" s="133"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="135"/>
+      <c r="R57" s="135"/>
+      <c r="S57" s="135"/>
+      <c r="T57" s="135"/>
+      <c r="U57" s="135"/>
+      <c r="V57" s="133"/>
+    </row>
+    <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="132"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="132"/>
+      <c r="O58" s="133"/>
+      <c r="P58" s="135"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="135"/>
+      <c r="S58" s="135"/>
+      <c r="T58" s="135"/>
+      <c r="U58" s="135"/>
+      <c r="V58" s="133"/>
+    </row>
+    <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="132"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="133"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="133"/>
+      <c r="K59" s="132"/>
+      <c r="L59" s="132"/>
+      <c r="M59" s="132"/>
+      <c r="N59" s="132"/>
+      <c r="O59" s="133"/>
+      <c r="P59" s="135"/>
+      <c r="Q59" s="135"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="135"/>
+      <c r="T59" s="135"/>
+      <c r="U59" s="135"/>
+      <c r="V59" s="133"/>
+    </row>
+    <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="132"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="134"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="132"/>
+      <c r="J60" s="133"/>
+      <c r="K60" s="132"/>
+      <c r="L60" s="132"/>
+      <c r="M60" s="132"/>
+      <c r="N60" s="132"/>
+      <c r="O60" s="133"/>
+      <c r="P60" s="135"/>
+      <c r="Q60" s="135"/>
+      <c r="R60" s="135"/>
+      <c r="S60" s="135"/>
+      <c r="T60" s="135"/>
+      <c r="U60" s="135"/>
+      <c r="V60" s="133"/>
+    </row>
+    <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="132"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="133"/>
+      <c r="F61" s="133"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="133"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="132"/>
+      <c r="N61" s="132"/>
+      <c r="O61" s="133"/>
+      <c r="P61" s="135"/>
+      <c r="Q61" s="135"/>
+      <c r="R61" s="135"/>
+      <c r="S61" s="135"/>
+      <c r="T61" s="135"/>
+      <c r="U61" s="135"/>
+      <c r="V61" s="133"/>
+    </row>
+    <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="132"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="132"/>
+      <c r="L62" s="132"/>
+      <c r="M62" s="132"/>
+      <c r="N62" s="132"/>
+      <c r="O62" s="133"/>
+      <c r="P62" s="135"/>
+      <c r="Q62" s="135"/>
+      <c r="R62" s="135"/>
+      <c r="S62" s="135"/>
+      <c r="T62" s="135"/>
+      <c r="U62" s="135"/>
+      <c r="V62" s="133"/>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="132"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="133"/>
+      <c r="D63" s="133"/>
+      <c r="E63" s="133"/>
+      <c r="F63" s="133"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="133"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="132"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="132"/>
+      <c r="N63" s="132"/>
+      <c r="O63" s="133"/>
+      <c r="P63" s="135"/>
+      <c r="Q63" s="135"/>
+      <c r="R63" s="135"/>
+      <c r="S63" s="135"/>
+      <c r="T63" s="135"/>
+      <c r="U63" s="135"/>
+      <c r="V63" s="133"/>
+    </row>
+    <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="132"/>
+      <c r="B64" s="133"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="133"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="133"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="133"/>
+      <c r="K64" s="132"/>
+      <c r="L64" s="132"/>
+      <c r="M64" s="132"/>
+      <c r="N64" s="132"/>
+      <c r="O64" s="133"/>
+      <c r="P64" s="135"/>
+      <c r="Q64" s="135"/>
+      <c r="R64" s="135"/>
+      <c r="S64" s="135"/>
+      <c r="T64" s="135"/>
+      <c r="U64" s="135"/>
+      <c r="V64" s="133"/>
+    </row>
+    <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="132"/>
+      <c r="B65" s="133"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="133"/>
+      <c r="E65" s="133"/>
+      <c r="F65" s="133"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="132"/>
+      <c r="J65" s="133"/>
+      <c r="K65" s="132"/>
+      <c r="L65" s="132"/>
+      <c r="M65" s="132"/>
+      <c r="N65" s="132"/>
+      <c r="O65" s="133"/>
+      <c r="P65" s="135"/>
+      <c r="Q65" s="135"/>
+      <c r="R65" s="135"/>
+      <c r="S65" s="135"/>
+      <c r="T65" s="135"/>
+      <c r="U65" s="135"/>
+      <c r="V65" s="133"/>
+    </row>
+    <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="132"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="133"/>
+      <c r="E66" s="133"/>
+      <c r="F66" s="133"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="132"/>
+      <c r="J66" s="133"/>
+      <c r="K66" s="132"/>
+      <c r="L66" s="132"/>
+      <c r="M66" s="132"/>
+      <c r="N66" s="132"/>
+      <c r="O66" s="133"/>
+      <c r="P66" s="135"/>
+      <c r="Q66" s="135"/>
+      <c r="R66" s="135"/>
+      <c r="S66" s="135"/>
+      <c r="T66" s="135"/>
+      <c r="U66" s="135"/>
+      <c r="V66" s="133"/>
+    </row>
+    <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="132"/>
+      <c r="B67" s="133"/>
+      <c r="C67" s="133"/>
+      <c r="D67" s="133"/>
+      <c r="E67" s="133"/>
+      <c r="F67" s="133"/>
+      <c r="G67" s="134"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="132"/>
+      <c r="L67" s="132"/>
+      <c r="M67" s="132"/>
+      <c r="N67" s="132"/>
+      <c r="O67" s="133"/>
+      <c r="P67" s="135"/>
+      <c r="Q67" s="135"/>
+      <c r="R67" s="135"/>
+      <c r="S67" s="135"/>
+      <c r="T67" s="135"/>
+      <c r="U67" s="135"/>
+      <c r="V67" s="133"/>
+    </row>
+    <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="132"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="133"/>
+      <c r="D68" s="133"/>
+      <c r="E68" s="133"/>
+      <c r="F68" s="133"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="132"/>
+      <c r="M68" s="132"/>
+      <c r="N68" s="132"/>
+      <c r="O68" s="133"/>
+      <c r="P68" s="135"/>
+      <c r="Q68" s="135"/>
+      <c r="R68" s="135"/>
+      <c r="S68" s="135"/>
+      <c r="T68" s="135"/>
+      <c r="U68" s="135"/>
+      <c r="V68" s="133"/>
+    </row>
+    <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="132"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="133"/>
+      <c r="D69" s="133"/>
+      <c r="E69" s="133"/>
+      <c r="F69" s="133"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="133"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="132"/>
+      <c r="M69" s="132"/>
+      <c r="N69" s="132"/>
+      <c r="O69" s="133"/>
+      <c r="P69" s="135"/>
+      <c r="Q69" s="135"/>
+      <c r="R69" s="135"/>
+      <c r="S69" s="135"/>
+      <c r="T69" s="135"/>
+      <c r="U69" s="135"/>
+      <c r="V69" s="133"/>
+    </row>
+    <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="132"/>
+      <c r="B70" s="133"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="133"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="133"/>
+      <c r="G70" s="134"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="132"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="132"/>
+      <c r="L70" s="132"/>
+      <c r="M70" s="132"/>
+      <c r="N70" s="132"/>
+      <c r="O70" s="133"/>
+      <c r="P70" s="135"/>
+      <c r="Q70" s="135"/>
+      <c r="R70" s="135"/>
+      <c r="S70" s="135"/>
+      <c r="T70" s="135"/>
+      <c r="U70" s="135"/>
+      <c r="V70" s="133"/>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="132"/>
+      <c r="B71" s="133"/>
+      <c r="C71" s="133"/>
+      <c r="D71" s="133"/>
+      <c r="E71" s="133"/>
+      <c r="F71" s="133"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="133"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="132"/>
+      <c r="M71" s="132"/>
+      <c r="N71" s="132"/>
+      <c r="O71" s="133"/>
+      <c r="P71" s="135"/>
+      <c r="Q71" s="135"/>
+      <c r="R71" s="135"/>
+      <c r="S71" s="135"/>
+      <c r="T71" s="135"/>
+      <c r="U71" s="135"/>
+      <c r="V71" s="133"/>
+    </row>
+    <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="132"/>
+      <c r="B72" s="133"/>
+      <c r="C72" s="133"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="133"/>
+      <c r="G72" s="134"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="132"/>
+      <c r="J72" s="133"/>
+      <c r="K72" s="132"/>
+      <c r="L72" s="132"/>
+      <c r="M72" s="132"/>
+      <c r="N72" s="132"/>
+      <c r="O72" s="133"/>
+      <c r="P72" s="135"/>
+      <c r="Q72" s="135"/>
+      <c r="R72" s="135"/>
+      <c r="S72" s="135"/>
+      <c r="T72" s="135"/>
+      <c r="U72" s="135"/>
+      <c r="V72" s="133"/>
+    </row>
+    <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="132"/>
+      <c r="B73" s="133"/>
+      <c r="C73" s="133"/>
+      <c r="D73" s="133"/>
+      <c r="E73" s="133"/>
+      <c r="F73" s="133"/>
+      <c r="G73" s="134"/>
+      <c r="H73" s="133"/>
+      <c r="I73" s="132"/>
+      <c r="J73" s="133"/>
+      <c r="K73" s="132"/>
+      <c r="L73" s="132"/>
+      <c r="M73" s="132"/>
+      <c r="N73" s="132"/>
+      <c r="O73" s="133"/>
+      <c r="P73" s="135"/>
+      <c r="Q73" s="135"/>
+      <c r="R73" s="135"/>
+      <c r="S73" s="135"/>
+      <c r="T73" s="135"/>
+      <c r="U73" s="135"/>
+      <c r="V73" s="133"/>
+    </row>
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5807,12 +5772,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5827,6 +5786,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="263">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1341,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1842,81 +1842,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1953,6 +1878,85 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2259,9 +2263,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y29" sqref="Y29"/>
+      <selection pane="bottomLeft" activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,68 +2297,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="213" t="s">
+      <c r="C1" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="202" t="s">
+      <c r="D1" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="200" t="s">
+      <c r="E1" s="208" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="211" t="s">
+      <c r="G1" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="198" t="s">
+      <c r="H1" s="204" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="198" t="s">
+      <c r="I1" s="204" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="208" t="s">
+      <c r="J1" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="206" t="s">
+      <c r="K1" s="214" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="204" t="s">
+      <c r="L1" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="210" t="s">
+      <c r="M1" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="210"/>
-      <c r="O1" s="190" t="s">
+      <c r="N1" s="218"/>
+      <c r="O1" s="206" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="190" t="s">
+      <c r="P1" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="192" t="s">
+      <c r="Q1" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="196" t="s">
+      <c r="R1" s="227" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="192" t="s">
+      <c r="S1" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="194" t="s">
+      <c r="T1" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="192" t="s">
+      <c r="U1" s="223" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="227" t="s">
+      <c r="V1" s="202" t="s">
         <v>251</v>
       </c>
       <c r="W1" s="173" t="s">
@@ -2365,31 +2369,31 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="203"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="205"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="213"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="193"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="224"/>
+      <c r="R2" s="228"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="224"/>
       <c r="V2" s="167"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -2793,54 +2797,58 @@
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="185" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="122">
+      <c r="H9" s="187">
         <v>7</v>
       </c>
-      <c r="I9" s="122" t="s">
+      <c r="I9" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="173" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="122" t="s">
+      <c r="K9" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="122" t="s">
+      <c r="L9" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122" t="s">
+      <c r="M9" s="187"/>
+      <c r="N9" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="123" t="s">
+      <c r="P9" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="124">
+      <c r="Q9" s="188">
         <v>6</v>
       </c>
-      <c r="R9" s="124" t="s">
+      <c r="R9" s="188" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="124" t="s">
+      <c r="S9" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="163" t="s">
+      <c r="T9" s="229" t="s">
         <v>200</v>
       </c>
-      <c r="U9" s="164" t="s">
+      <c r="U9" s="189" t="s">
         <v>195</v>
       </c>
-      <c r="V9" s="168" t="s">
+      <c r="V9" s="190" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="W9" s="178">
+        <v>42408</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="161" t="s">
@@ -2921,54 +2929,58 @@
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="185" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="187">
         <v>9</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="K11" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63" t="s">
+      <c r="M11" s="187"/>
+      <c r="N11" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="O11" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="62" t="s">
+      <c r="P11" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="64">
+      <c r="Q11" s="188">
         <v>6</v>
       </c>
-      <c r="R11" s="64" t="s">
+      <c r="R11" s="188" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="64" t="s">
+      <c r="S11" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="T11" s="65" t="s">
+      <c r="T11" s="229" t="s">
         <v>202</v>
       </c>
-      <c r="U11" s="66" t="s">
+      <c r="U11" s="189" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="168" t="s">
+      <c r="V11" s="190" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="W11" s="178">
+        <v>42408</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
@@ -3410,10 +3422,10 @@
       <c r="U18" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="V18" s="215" t="s">
+      <c r="V18" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="178">
+      <c r="W18" s="230">
         <v>42403</v>
       </c>
       <c r="X18" s="177" t="s">
@@ -3474,10 +3486,10 @@
       <c r="U19" s="189" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="215" t="s">
+      <c r="V19" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="178">
+      <c r="W19" s="230">
         <v>42403</v>
       </c>
       <c r="X19" s="25" t="s">
@@ -3691,53 +3703,55 @@
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="102" t="s">
+      <c r="G23" s="185" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="104">
+      <c r="H23" s="186">
         <v>21</v>
       </c>
-      <c r="I23" s="103" t="s">
+      <c r="I23" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="173" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="103" t="s">
+      <c r="K23" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="103" t="s">
+      <c r="L23" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103" t="s">
+      <c r="M23" s="187"/>
+      <c r="N23" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="104" t="s">
+      <c r="P23" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="105">
+      <c r="Q23" s="188">
         <v>6</v>
       </c>
-      <c r="R23" s="105" t="s">
+      <c r="R23" s="188" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="105" t="s">
+      <c r="S23" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="106" t="s">
+      <c r="T23" s="229" t="s">
         <v>212</v>
       </c>
-      <c r="U23" s="107" t="s">
+      <c r="U23" s="189" t="s">
         <v>195</v>
       </c>
-      <c r="V23" s="168" t="s">
+      <c r="V23" s="190" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="3"/>
+      <c r="W23" s="178">
+        <v>42408</v>
+      </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3858,10 +3872,10 @@
       <c r="U25" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="V25" s="215" t="s">
+      <c r="V25" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="W25" s="178">
+      <c r="W25" s="230">
         <v>42404</v>
       </c>
       <c r="X25" s="25" t="s">
@@ -3922,10 +3936,10 @@
       <c r="U26" s="189" t="s">
         <v>219</v>
       </c>
-      <c r="V26" s="215" t="s">
+      <c r="V26" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="W26" s="178">
+      <c r="W26" s="230">
         <v>42404</v>
       </c>
       <c r="X26" s="25" t="s">
@@ -3947,46 +3961,46 @@
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="221" t="s">
+      <c r="G27" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="222">
+      <c r="H27" s="197">
         <v>25</v>
       </c>
-      <c r="I27" s="223" t="s">
+      <c r="I27" s="198" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="176" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="223" t="s">
+      <c r="K27" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="223" t="s">
+      <c r="L27" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="223"/>
-      <c r="N27" s="223"/>
+      <c r="M27" s="198"/>
+      <c r="N27" s="198"/>
       <c r="O27" s="176"/>
-      <c r="P27" s="222" t="s">
+      <c r="P27" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="224">
+      <c r="Q27" s="199">
         <v>8</v>
       </c>
-      <c r="R27" s="224" t="s">
+      <c r="R27" s="199" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="224" t="s">
+      <c r="S27" s="199" t="s">
         <v>218</v>
       </c>
-      <c r="T27" s="224" t="s">
+      <c r="T27" s="199" t="s">
         <v>220</v>
       </c>
-      <c r="U27" s="225" t="s">
+      <c r="U27" s="200" t="s">
         <v>219</v>
       </c>
-      <c r="V27" s="215" t="s">
+      <c r="V27" s="190" t="s">
         <v>246</v>
       </c>
       <c r="W27" s="25" t="s">
@@ -4050,10 +4064,10 @@
       <c r="U28" s="189" t="s">
         <v>219</v>
       </c>
-      <c r="V28" s="215" t="s">
+      <c r="V28" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="177">
+      <c r="W28" s="230">
         <v>42404</v>
       </c>
       <c r="X28" s="25" t="s">
@@ -4075,46 +4089,46 @@
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="216" t="s">
+      <c r="G29" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="217">
+      <c r="H29" s="192">
         <v>27</v>
       </c>
-      <c r="I29" s="218" t="s">
+      <c r="I29" s="193" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="172" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="218" t="s">
+      <c r="K29" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="218" t="s">
+      <c r="L29" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
+      <c r="M29" s="193"/>
+      <c r="N29" s="193"/>
       <c r="O29" s="172"/>
-      <c r="P29" s="217" t="s">
+      <c r="P29" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="219">
+      <c r="Q29" s="194">
         <v>8</v>
       </c>
-      <c r="R29" s="219" t="s">
+      <c r="R29" s="194" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="219" t="s">
+      <c r="S29" s="194" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="219" t="s">
+      <c r="T29" s="194" t="s">
         <v>169</v>
       </c>
-      <c r="U29" s="220" t="s">
+      <c r="U29" s="195" t="s">
         <v>219</v>
       </c>
-      <c r="V29" s="228" t="s">
+      <c r="V29" s="203" t="s">
         <v>246</v>
       </c>
       <c r="W29" s="25"/>
@@ -4330,39 +4344,39 @@
       </c>
       <c r="E33" s="76"/>
       <c r="F33" s="76"/>
-      <c r="G33" s="221" t="s">
+      <c r="G33" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="222">
+      <c r="H33" s="197">
         <v>31</v>
       </c>
-      <c r="I33" s="223" t="s">
+      <c r="I33" s="198" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="176" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="223" t="s">
+      <c r="K33" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="223" t="s">
+      <c r="L33" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="223"/>
-      <c r="N33" s="223"/>
+      <c r="M33" s="198"/>
+      <c r="N33" s="198"/>
       <c r="O33" s="176"/>
-      <c r="P33" s="222" t="s">
+      <c r="P33" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="224"/>
-      <c r="R33" s="224"/>
-      <c r="S33" s="224"/>
-      <c r="T33" s="224"/>
-      <c r="U33" s="224"/>
-      <c r="V33" s="226" t="s">
+      <c r="Q33" s="199"/>
+      <c r="R33" s="199"/>
+      <c r="S33" s="199"/>
+      <c r="T33" s="199"/>
+      <c r="U33" s="199"/>
+      <c r="V33" s="201" t="s">
         <v>246</v>
       </c>
-      <c r="W33" s="222"/>
+      <c r="W33" s="197"/>
       <c r="X33" s="175"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -5772,6 +5786,12 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5786,12 +5806,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1341,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1878,16 +1878,38 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1935,28 +1957,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2263,9 +2266,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W39" sqref="W39"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,65 +2300,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="221" t="s">
+      <c r="C1" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="210" t="s">
+      <c r="D1" s="218" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="208" t="s">
+      <c r="E1" s="216" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="204" t="s">
+      <c r="F1" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="219" t="s">
+      <c r="G1" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="204" t="s">
+      <c r="H1" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="204" t="s">
+      <c r="I1" s="214" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="216" t="s">
+      <c r="J1" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="214" t="s">
+      <c r="K1" s="222" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="212" t="s">
+      <c r="L1" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="218" t="s">
+      <c r="M1" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="218"/>
+      <c r="N1" s="226"/>
       <c r="O1" s="206" t="s">
         <v>109</v>
       </c>
       <c r="P1" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="223" t="s">
+      <c r="Q1" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="227" t="s">
+      <c r="R1" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="223" t="s">
+      <c r="S1" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="225" t="s">
+      <c r="T1" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="223" t="s">
+      <c r="U1" s="208" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="202" t="s">
@@ -2369,18 +2372,18 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="211"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="213"/>
+      <c r="A2" s="219"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="221"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
@@ -2389,11 +2392,11 @@
       </c>
       <c r="O2" s="207"/>
       <c r="P2" s="207"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="228"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="224"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="209"/>
       <c r="V2" s="167"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -2526,7 +2529,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="161" t="s">
         <v>15</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>53</v>
       </c>
       <c r="N5" s="122"/>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="231" t="s">
         <v>129</v>
       </c>
       <c r="P5" s="123" t="s">
@@ -2834,7 +2837,7 @@
       <c r="S9" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="229" t="s">
+      <c r="T9" s="204" t="s">
         <v>200</v>
       </c>
       <c r="U9" s="189" t="s">
@@ -2966,7 +2969,7 @@
       <c r="S11" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="T11" s="229" t="s">
+      <c r="T11" s="204" t="s">
         <v>202</v>
       </c>
       <c r="U11" s="189" t="s">
@@ -3425,7 +3428,7 @@
       <c r="V18" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="230">
+      <c r="W18" s="205">
         <v>42403</v>
       </c>
       <c r="X18" s="177" t="s">
@@ -3489,7 +3492,7 @@
       <c r="V19" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="230">
+      <c r="W19" s="205">
         <v>42403</v>
       </c>
       <c r="X19" s="25" t="s">
@@ -3740,7 +3743,7 @@
       <c r="S23" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="229" t="s">
+      <c r="T23" s="204" t="s">
         <v>212</v>
       </c>
       <c r="U23" s="189" t="s">
@@ -3875,7 +3878,7 @@
       <c r="V25" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="W25" s="230">
+      <c r="W25" s="205">
         <v>42404</v>
       </c>
       <c r="X25" s="25" t="s">
@@ -3939,7 +3942,7 @@
       <c r="V26" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="W26" s="230">
+      <c r="W26" s="205">
         <v>42404</v>
       </c>
       <c r="X26" s="25" t="s">
@@ -4067,7 +4070,7 @@
       <c r="V28" s="190" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="230">
+      <c r="W28" s="205">
         <v>42404</v>
       </c>
       <c r="X28" s="25" t="s">
@@ -5786,12 +5789,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5806,6 +5803,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="264">
   <si>
     <t>Asignatura</t>
   </si>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>Se deben arreglar las fichas de docente y estudiante</t>
+  </si>
+  <si>
+    <t>Corrección de estilo y edición con imágenes, esta en carpeta</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1882,34 +1885,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1957,8 +1945,42 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2268,7 +2290,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,66 +2321,66 @@
     <col min="25" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="218" t="s">
+    <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="229" t="s">
+      <c r="C1" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="218" t="s">
+      <c r="D1" s="213" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="216" t="s">
+      <c r="E1" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="207" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="227" t="s">
+      <c r="G1" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="214" t="s">
+      <c r="H1" s="207" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="214" t="s">
+      <c r="I1" s="207" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="224" t="s">
+      <c r="J1" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="222" t="s">
+      <c r="K1" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="220" t="s">
+      <c r="L1" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="226" t="s">
+      <c r="M1" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="226"/>
-      <c r="O1" s="206" t="s">
+      <c r="N1" s="221"/>
+      <c r="O1" s="209" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="206" t="s">
+      <c r="P1" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="208" t="s">
+      <c r="Q1" s="226" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="212" t="s">
+      <c r="R1" s="230" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="208" t="s">
+      <c r="S1" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="210" t="s">
+      <c r="T1" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="208" t="s">
+      <c r="U1" s="226" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="202" t="s">
@@ -2371,37 +2393,37 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="219"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="225"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="221"/>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="214"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="216"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="209"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="231"/>
+      <c r="S2" s="227"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="227"/>
       <c r="V2" s="167"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="137" t="s">
         <v>15</v>
       </c>
@@ -2465,7 +2487,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="144" t="s">
         <v>15</v>
       </c>
@@ -2529,7 +2551,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="161" t="s">
         <v>15</v>
       </c>
@@ -2566,7 +2588,7 @@
         <v>53</v>
       </c>
       <c r="N5" s="122"/>
-      <c r="O5" s="231" t="s">
+      <c r="O5" s="206" t="s">
         <v>129</v>
       </c>
       <c r="P5" s="123" t="s">
@@ -2593,7 +2615,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="153" t="s">
         <v>15</v>
       </c>
@@ -2657,7 +2679,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>15</v>
       </c>
@@ -2721,7 +2743,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
         <v>15</v>
       </c>
@@ -2785,7 +2807,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="161" t="s">
         <v>15</v>
       </c>
@@ -2853,7 +2875,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="161" t="s">
         <v>15</v>
       </c>
@@ -2917,7 +2939,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>15</v>
       </c>
@@ -2985,7 +3007,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
         <v>15</v>
       </c>
@@ -3049,7 +3071,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>15</v>
       </c>
@@ -3113,7 +3135,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>15</v>
       </c>
@@ -3177,7 +3199,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>15</v>
       </c>
@@ -3241,7 +3263,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="161" t="s">
         <v>15</v>
       </c>
@@ -3256,54 +3278,59 @@
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="233" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="122">
+      <c r="H16" s="234">
         <v>14</v>
       </c>
-      <c r="I16" s="122" t="s">
+      <c r="I16" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="174" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="122" t="s">
+      <c r="K16" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="122" t="s">
+      <c r="L16" s="234" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122" t="s">
+      <c r="M16" s="234"/>
+      <c r="N16" s="234" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="174" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="123" t="s">
+      <c r="P16" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="124">
+      <c r="Q16" s="236">
         <v>6</v>
       </c>
-      <c r="R16" s="124" t="s">
+      <c r="R16" s="236" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="124" t="s">
+      <c r="S16" s="236" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="163" t="s">
+      <c r="T16" s="237" t="s">
         <v>208</v>
       </c>
-      <c r="U16" s="164" t="s">
+      <c r="U16" s="238" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="168" t="s">
+      <c r="V16" s="190" t="s">
         <v>249</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="X16" s="232">
+        <v>42410</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
@@ -5789,6 +5816,12 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5803,12 +5836,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="265">
   <si>
     <t>Asignatura</t>
   </si>
@@ -953,6 +953,9 @@
   </si>
   <si>
     <t>Corrección de estilo y edición con imágenes, esta en carpeta</t>
+  </si>
+  <si>
+    <t>Pedir recurso motor M para agregar al interior</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1356,9 +1359,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1714,21 +1714,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1888,81 +1873,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1982,6 +1892,103 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2290,7 +2297,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="V3" sqref="G3:V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,21 +2307,21 @@
     <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="91.5703125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11" style="18" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="91.5703125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11" style="17" customWidth="1"/>
     <col min="10" max="10" width="125.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="4" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="35" style="18" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="28" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="28" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="23" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="23" customWidth="1"/>
-    <col min="20" max="20" width="43.28515625" style="23" customWidth="1"/>
-    <col min="21" max="21" width="17" style="23" customWidth="1"/>
+    <col min="15" max="15" width="35" style="17" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="27" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="22" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="22" customWidth="1"/>
+    <col min="20" max="20" width="43.28515625" style="22" customWidth="1"/>
+    <col min="21" max="21" width="17" style="22" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
     <col min="23" max="23" width="14.5703125" style="4" customWidth="1"/>
     <col min="24" max="24" width="17.42578125" style="4" customWidth="1"/>
@@ -2322,365 +2329,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="224" t="s">
+      <c r="C1" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="213" t="s">
+      <c r="D1" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="218" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="222" t="s">
+      <c r="G1" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="207" t="s">
+      <c r="H1" s="216" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="207" t="s">
+      <c r="I1" s="216" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="219" t="s">
+      <c r="J1" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="217" t="s">
+      <c r="K1" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="215" t="s">
+      <c r="L1" s="222" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="221" t="s">
+      <c r="M1" s="228" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="221"/>
-      <c r="O1" s="209" t="s">
+      <c r="N1" s="228"/>
+      <c r="O1" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="209" t="s">
+      <c r="P1" s="208" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="226" t="s">
+      <c r="Q1" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="230" t="s">
+      <c r="R1" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="226" t="s">
+      <c r="S1" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="228" t="s">
+      <c r="T1" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="226" t="s">
+      <c r="U1" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="202" t="s">
+      <c r="V1" s="196" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="173" t="s">
+      <c r="W1" s="167" t="s">
         <v>255</v>
       </c>
-      <c r="X1" s="174" t="s">
+      <c r="X1" s="168" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="214"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="216"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="223"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="227"/>
-      <c r="T2" s="229"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="167"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="161"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139" t="s">
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="233" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="138">
+      <c r="H3" s="234">
         <v>1</v>
       </c>
-      <c r="I3" s="138" t="s">
+      <c r="I3" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="235" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="138" t="s">
+      <c r="K3" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="138" t="s">
+      <c r="L3" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="138" t="s">
+      <c r="M3" s="234" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="234"/>
+      <c r="O3" s="235" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="140" t="s">
+      <c r="P3" s="236" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="141">
+      <c r="Q3" s="237">
         <v>6</v>
       </c>
-      <c r="R3" s="141" t="s">
+      <c r="R3" s="237" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="141" t="s">
+      <c r="S3" s="237" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="142" t="s">
+      <c r="T3" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="143" t="s">
+      <c r="U3" s="239" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="168" t="s">
+      <c r="V3" s="240" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="X3" s="201">
+        <v>42411</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="146" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="147">
+      <c r="H4" s="141">
         <v>2</v>
       </c>
-      <c r="I4" s="148" t="s">
+      <c r="I4" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="148" t="s">
+      <c r="K4" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="148" t="s">
+      <c r="L4" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148" t="s">
+      <c r="M4" s="142"/>
+      <c r="N4" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="149" t="s">
+      <c r="O4" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="147" t="s">
+      <c r="P4" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="150">
+      <c r="Q4" s="144">
         <v>6</v>
       </c>
-      <c r="R4" s="150" t="s">
+      <c r="R4" s="144" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="150" t="s">
+      <c r="S4" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="151" t="s">
+      <c r="T4" s="145" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="152" t="s">
+      <c r="U4" s="146" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="168" t="s">
+      <c r="V4" s="162" t="s">
         <v>247</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="162" t="s">
+      <c r="D5" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="30" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="122">
+      <c r="H5" s="121">
         <v>3</v>
       </c>
-      <c r="I5" s="122" t="s">
+      <c r="I5" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="122" t="s">
+      <c r="K5" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="122" t="s">
+      <c r="L5" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="122" t="s">
+      <c r="M5" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="122"/>
-      <c r="O5" s="206" t="s">
+      <c r="N5" s="121"/>
+      <c r="O5" s="200" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="123" t="s">
+      <c r="P5" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="124">
+      <c r="Q5" s="123">
         <v>6</v>
       </c>
-      <c r="R5" s="124" t="s">
+      <c r="R5" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="S5" s="124" t="s">
+      <c r="S5" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="163" t="s">
+      <c r="T5" s="157" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="164" t="s">
+      <c r="U5" s="158" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="169" t="s">
+      <c r="V5" s="163" t="s">
         <v>253</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="153" t="s">
+      <c r="A6" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="155" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="149" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="156">
+      <c r="H6" s="150">
         <v>4</v>
       </c>
-      <c r="I6" s="157" t="s">
+      <c r="I6" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="157" t="s">
+      <c r="K6" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="157" t="s">
+      <c r="L6" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157" t="s">
+      <c r="M6" s="151"/>
+      <c r="N6" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="156" t="s">
+      <c r="O6" s="14"/>
+      <c r="P6" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="158">
+      <c r="Q6" s="152">
         <v>6</v>
       </c>
-      <c r="R6" s="158" t="s">
+      <c r="R6" s="152" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="158" t="s">
+      <c r="S6" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="159" t="s">
+      <c r="T6" s="153" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="160" t="s">
+      <c r="U6" s="154" t="s">
         <v>195</v>
       </c>
-      <c r="V6" s="168" t="s">
+      <c r="V6" s="162" t="s">
         <v>248</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2692,9 +2704,9 @@
       <c r="D7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52" t="s">
         <v>132</v>
       </c>
       <c r="H7" s="6">
@@ -2703,7 +2715,7 @@
       <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="53" t="s">
         <v>237</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -2716,159 +2728,159 @@
         <v>57</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="55" t="s">
+      <c r="O7" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="56" t="s">
+      <c r="P7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="57">
+      <c r="Q7" s="56">
         <v>6</v>
       </c>
-      <c r="R7" s="57" t="s">
+      <c r="R7" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="57" t="s">
+      <c r="S7" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="58" t="s">
+      <c r="T7" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="59" t="s">
+      <c r="U7" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="168" t="s">
+      <c r="V7" s="162" t="s">
         <v>252</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="61" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="61">
         <v>6</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="K8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="63" t="s">
+      <c r="L8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63" t="s">
+      <c r="M8" s="62"/>
+      <c r="N8" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="62" t="s">
+      <c r="P8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="64">
+      <c r="Q8" s="63">
         <v>6</v>
       </c>
-      <c r="R8" s="64" t="s">
+      <c r="R8" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="64" t="s">
+      <c r="S8" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="65" t="s">
+      <c r="T8" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="66" t="s">
+      <c r="U8" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="168" t="s">
+      <c r="V8" s="162" t="s">
         <v>247</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="125" t="s">
+      <c r="C9" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="162" t="s">
+      <c r="D9" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="185" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="179" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="187">
+      <c r="H9" s="181">
         <v>7</v>
       </c>
-      <c r="I9" s="187" t="s">
+      <c r="I9" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="173" t="s">
+      <c r="J9" s="167" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="187" t="s">
+      <c r="K9" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="187" t="s">
+      <c r="L9" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187" t="s">
+      <c r="M9" s="181"/>
+      <c r="N9" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="173" t="s">
+      <c r="O9" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="186" t="s">
+      <c r="P9" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="188">
+      <c r="Q9" s="182">
         <v>6</v>
       </c>
-      <c r="R9" s="188" t="s">
+      <c r="R9" s="182" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="188" t="s">
+      <c r="S9" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="204" t="s">
+      <c r="T9" s="198" t="s">
         <v>200</v>
       </c>
-      <c r="U9" s="189" t="s">
+      <c r="U9" s="183" t="s">
         <v>195</v>
       </c>
-      <c r="V9" s="190" t="s">
+      <c r="V9" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="178">
+      <c r="W9" s="172">
         <v>42408</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -2876,131 +2888,131 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="30" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="123">
+      <c r="H10" s="122">
         <v>8</v>
       </c>
-      <c r="I10" s="122" t="s">
+      <c r="I10" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="122" t="s">
+      <c r="K10" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="122" t="s">
+      <c r="L10" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122" t="s">
+      <c r="M10" s="121"/>
+      <c r="N10" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="123" t="s">
+      <c r="P10" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="124">
+      <c r="Q10" s="123">
         <v>6</v>
       </c>
-      <c r="R10" s="124" t="s">
+      <c r="R10" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="S10" s="124" t="s">
+      <c r="S10" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="T10" s="163" t="s">
+      <c r="T10" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="164" t="s">
+      <c r="U10" s="158" t="s">
         <v>195</v>
       </c>
-      <c r="V10" s="168" t="s">
+      <c r="V10" s="162" t="s">
         <v>247</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="185" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="179" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="187">
+      <c r="H11" s="181">
         <v>9</v>
       </c>
-      <c r="I11" s="187" t="s">
+      <c r="I11" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="173" t="s">
+      <c r="J11" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="187" t="s">
+      <c r="K11" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="187" t="s">
+      <c r="L11" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187" t="s">
+      <c r="M11" s="181"/>
+      <c r="N11" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="173" t="s">
+      <c r="O11" s="167" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="186" t="s">
+      <c r="P11" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="188">
+      <c r="Q11" s="182">
         <v>6</v>
       </c>
-      <c r="R11" s="188" t="s">
+      <c r="R11" s="182" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="188" t="s">
+      <c r="S11" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="T11" s="204" t="s">
+      <c r="T11" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="U11" s="189" t="s">
+      <c r="U11" s="183" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="190" t="s">
+      <c r="V11" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="178">
+      <c r="W11" s="172">
         <v>42408</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -3008,324 +3020,324 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69" t="s">
+      <c r="F12" s="67"/>
+      <c r="G12" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="69">
         <v>10</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71" t="s">
+      <c r="M12" s="70"/>
+      <c r="N12" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="70" t="s">
+      <c r="O12" s="67"/>
+      <c r="P12" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="72">
+      <c r="Q12" s="71">
         <v>6</v>
       </c>
-      <c r="R12" s="72" t="s">
+      <c r="R12" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="S12" s="72" t="s">
+      <c r="S12" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="T12" s="73" t="s">
+      <c r="T12" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="V12" s="168" t="s">
+      <c r="V12" s="162" t="s">
         <v>248</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <v>11</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34" t="s">
+      <c r="N13" s="32"/>
+      <c r="O13" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="P13" s="36" t="s">
+      <c r="P13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <v>6</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="T13" s="37" t="s">
+      <c r="T13" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="U13" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="V13" s="169" t="s">
+      <c r="V13" s="163" t="s">
         <v>252</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="41">
         <v>12</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="42" t="s">
+      <c r="L14" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42" t="s">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="40" t="s">
+      <c r="O14" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="P14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="10">
         <v>6</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="T14" s="43" t="s">
+      <c r="T14" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="U14" s="12" t="s">
+      <c r="U14" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="V14" s="168" t="s">
+      <c r="V14" s="162" t="s">
         <v>250</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="26">
         <v>13</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="42" t="s">
+      <c r="L15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42" t="s">
+      <c r="M15" s="41"/>
+      <c r="N15" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <v>6</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="S15" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="43" t="s">
+      <c r="T15" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="U15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="V15" s="168" t="s">
+      <c r="V15" s="162" t="s">
         <v>250</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="156" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="233" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="202" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="234">
+      <c r="H16" s="203">
         <v>14</v>
       </c>
-      <c r="I16" s="234" t="s">
+      <c r="I16" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="174" t="s">
+      <c r="J16" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="234" t="s">
+      <c r="K16" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="234" t="s">
+      <c r="L16" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234" t="s">
+      <c r="M16" s="203"/>
+      <c r="N16" s="203" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="174" t="s">
+      <c r="O16" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="235" t="s">
+      <c r="P16" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="236">
+      <c r="Q16" s="205">
         <v>6</v>
       </c>
-      <c r="R16" s="236" t="s">
+      <c r="R16" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="236" t="s">
+      <c r="S16" s="205" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="237" t="s">
+      <c r="T16" s="206" t="s">
         <v>208</v>
       </c>
-      <c r="U16" s="238" t="s">
+      <c r="U16" s="207" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="190" t="s">
+      <c r="V16" s="184" t="s">
         <v>249</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="232">
+      <c r="X16" s="201">
         <v>42410</v>
       </c>
       <c r="Y16" s="4" t="s">
@@ -3333,2125 +3345,2125 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="47">
         <v>15</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="49" t="s">
+      <c r="L17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49" t="s">
+      <c r="M17" s="48"/>
+      <c r="N17" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="46" t="s">
+      <c r="O17" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="P17" s="48" t="s">
+      <c r="P17" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="15">
         <v>6</v>
       </c>
-      <c r="R17" s="16" t="s">
+      <c r="R17" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="S17" s="16" t="s">
+      <c r="S17" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="T17" s="50" t="s">
+      <c r="T17" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="U17" s="17" t="s">
+      <c r="U17" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="V17" s="168" t="s">
+      <c r="V17" s="162" t="s">
         <v>248</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="166" t="s">
+    <row r="18" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="156" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="162" t="s">
+      <c r="C18" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="162" t="s">
+      <c r="D18" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="179" t="s">
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="173" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="180">
+      <c r="H18" s="174">
         <v>16</v>
       </c>
-      <c r="I18" s="180" t="s">
+      <c r="I18" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="181" t="s">
+      <c r="J18" s="175" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="180" t="s">
+      <c r="K18" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="180" t="s">
+      <c r="L18" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="182" t="s">
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="183">
+      <c r="Q18" s="177">
         <v>8</v>
       </c>
-      <c r="R18" s="183" t="s">
+      <c r="R18" s="177" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="183" t="s">
+      <c r="S18" s="177" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="183" t="s">
+      <c r="T18" s="177" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="184" t="s">
+      <c r="U18" s="178" t="s">
         <v>219</v>
       </c>
-      <c r="V18" s="190" t="s">
+      <c r="V18" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="205">
+      <c r="W18" s="199">
         <v>42403</v>
       </c>
-      <c r="X18" s="177" t="s">
+      <c r="X18" s="171" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="161" t="s">
+    <row r="19" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="185" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="179" t="s">
         <v>224</v>
       </c>
-      <c r="H19" s="186">
+      <c r="H19" s="180">
         <v>17</v>
       </c>
-      <c r="I19" s="187" t="s">
+      <c r="I19" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="173" t="s">
+      <c r="J19" s="167" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="187" t="s">
+      <c r="K19" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="187" t="s">
+      <c r="L19" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="186" t="s">
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="188">
+      <c r="Q19" s="182">
         <v>8</v>
       </c>
-      <c r="R19" s="188" t="s">
+      <c r="R19" s="182" t="s">
         <v>217</v>
       </c>
-      <c r="S19" s="188" t="s">
+      <c r="S19" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="T19" s="188" t="s">
+      <c r="T19" s="182" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="189" t="s">
+      <c r="U19" s="183" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="190" t="s">
+      <c r="V19" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="205">
+      <c r="W19" s="199">
         <v>42403</v>
       </c>
-      <c r="X19" s="25" t="s">
+      <c r="X19" s="24" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="102" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="103">
+      <c r="H20" s="102">
         <v>18</v>
       </c>
-      <c r="I20" s="103" t="s">
+      <c r="I20" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="103" t="s">
+      <c r="K20" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="103" t="s">
+      <c r="L20" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="103" t="s">
+      <c r="M20" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="103"/>
-      <c r="O20" s="19" t="s">
+      <c r="N20" s="102"/>
+      <c r="O20" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="104" t="s">
+      <c r="P20" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="105">
+      <c r="Q20" s="104">
         <v>6</v>
       </c>
-      <c r="R20" s="105" t="s">
+      <c r="R20" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="105" t="s">
+      <c r="S20" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="106" t="s">
+      <c r="T20" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="107" t="s">
+      <c r="U20" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="169" t="s">
+      <c r="V20" s="163" t="s">
         <v>254</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="102" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="103">
         <v>19</v>
       </c>
-      <c r="I21" s="103" t="s">
+      <c r="I21" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="103" t="s">
+      <c r="K21" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="103" t="s">
+      <c r="L21" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103" t="s">
+      <c r="M21" s="102"/>
+      <c r="N21" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="104" t="s">
+      <c r="P21" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="105">
+      <c r="Q21" s="104">
         <v>6</v>
       </c>
-      <c r="R21" s="105" t="s">
+      <c r="R21" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="S21" s="105" t="s">
+      <c r="S21" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="T21" s="106" t="s">
+      <c r="T21" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="U21" s="107" t="s">
+      <c r="U21" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="V21" s="169" t="s">
+      <c r="V21" s="163" t="s">
         <v>247</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="30" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="122">
+      <c r="H22" s="121">
         <v>20</v>
       </c>
-      <c r="I22" s="122" t="s">
+      <c r="I22" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="122" t="s">
+      <c r="K22" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="122" t="s">
+      <c r="L22" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122" t="s">
+      <c r="M22" s="121"/>
+      <c r="N22" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="123" t="s">
+      <c r="P22" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="124">
+      <c r="Q22" s="123">
         <v>6</v>
       </c>
-      <c r="R22" s="124" t="s">
+      <c r="R22" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="S22" s="124" t="s">
+      <c r="S22" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="T22" s="163" t="s">
+      <c r="T22" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="U22" s="164" t="s">
+      <c r="U22" s="158" t="s">
         <v>195</v>
       </c>
-      <c r="V22" s="169" t="s">
+      <c r="V22" s="163" t="s">
         <v>254</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="185" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="179" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="186">
+      <c r="H23" s="180">
         <v>21</v>
       </c>
-      <c r="I23" s="187" t="s">
+      <c r="I23" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="173" t="s">
+      <c r="J23" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="187" t="s">
+      <c r="K23" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="187" t="s">
+      <c r="L23" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="187"/>
-      <c r="N23" s="187" t="s">
+      <c r="M23" s="181"/>
+      <c r="N23" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="173" t="s">
+      <c r="O23" s="167" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="186" t="s">
+      <c r="P23" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="188">
+      <c r="Q23" s="182">
         <v>6</v>
       </c>
-      <c r="R23" s="188" t="s">
+      <c r="R23" s="182" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="188" t="s">
+      <c r="S23" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="204" t="s">
+      <c r="T23" s="198" t="s">
         <v>212</v>
       </c>
-      <c r="U23" s="189" t="s">
+      <c r="U23" s="183" t="s">
         <v>195</v>
       </c>
-      <c r="V23" s="190" t="s">
+      <c r="V23" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="178">
+      <c r="W23" s="172">
         <v>42408</v>
       </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="109" t="s">
+      <c r="D24" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="110" t="s">
+      <c r="F24" s="19"/>
+      <c r="G24" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="111">
+      <c r="H24" s="110">
         <v>22</v>
       </c>
-      <c r="I24" s="112" t="s">
+      <c r="I24" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="112" t="s">
+      <c r="K24" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="112" t="s">
+      <c r="L24" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112" t="s">
+      <c r="M24" s="111"/>
+      <c r="N24" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="20"/>
-      <c r="P24" s="111" t="s">
+      <c r="O24" s="19"/>
+      <c r="P24" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="113">
+      <c r="Q24" s="112">
         <v>6</v>
       </c>
-      <c r="R24" s="113" t="s">
+      <c r="R24" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="113" t="s">
+      <c r="S24" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="T24" s="114" t="s">
+      <c r="T24" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="U24" s="115" t="s">
+      <c r="U24" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="168" t="s">
+      <c r="V24" s="162" t="s">
         <v>247</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+    <row r="25" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="179" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="173" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="180">
+      <c r="H25" s="174">
         <v>23</v>
       </c>
-      <c r="I25" s="180" t="s">
+      <c r="I25" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="181" t="s">
+      <c r="J25" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="180" t="s">
+      <c r="K25" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="180" t="s">
+      <c r="L25" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="181"/>
-      <c r="P25" s="182" t="s">
+      <c r="M25" s="174"/>
+      <c r="N25" s="174"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="183">
+      <c r="Q25" s="177">
         <v>8</v>
       </c>
-      <c r="R25" s="183" t="s">
+      <c r="R25" s="177" t="s">
         <v>217</v>
       </c>
-      <c r="S25" s="183" t="s">
+      <c r="S25" s="177" t="s">
         <v>218</v>
       </c>
-      <c r="T25" s="183" t="s">
+      <c r="T25" s="177" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="184" t="s">
+      <c r="U25" s="178" t="s">
         <v>219</v>
       </c>
-      <c r="V25" s="190" t="s">
+      <c r="V25" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="W25" s="205">
+      <c r="W25" s="199">
         <v>42404</v>
       </c>
-      <c r="X25" s="25" t="s">
+      <c r="X25" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+    <row r="26" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="185" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="186">
+      <c r="H26" s="180">
         <v>24</v>
       </c>
-      <c r="I26" s="187" t="s">
+      <c r="I26" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="173" t="s">
+      <c r="J26" s="167" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="187" t="s">
+      <c r="K26" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="187" t="s">
+      <c r="L26" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="186" t="s">
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="188">
+      <c r="Q26" s="182">
         <v>8</v>
       </c>
-      <c r="R26" s="188" t="s">
+      <c r="R26" s="182" t="s">
         <v>217</v>
       </c>
-      <c r="S26" s="188" t="s">
+      <c r="S26" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="T26" s="188" t="s">
+      <c r="T26" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="189" t="s">
+      <c r="U26" s="183" t="s">
         <v>219</v>
       </c>
-      <c r="V26" s="190" t="s">
+      <c r="V26" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="W26" s="205">
+      <c r="W26" s="199">
         <v>42404</v>
       </c>
-      <c r="X26" s="25" t="s">
+      <c r="X26" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
+    <row r="27" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="196" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="197">
+      <c r="H27" s="191">
         <v>25</v>
       </c>
-      <c r="I27" s="198" t="s">
+      <c r="I27" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="176" t="s">
+      <c r="J27" s="170" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="198" t="s">
+      <c r="K27" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="198" t="s">
+      <c r="L27" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="198"/>
-      <c r="N27" s="198"/>
-      <c r="O27" s="176"/>
-      <c r="P27" s="197" t="s">
+      <c r="M27" s="192"/>
+      <c r="N27" s="192"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="199">
+      <c r="Q27" s="193">
         <v>8</v>
       </c>
-      <c r="R27" s="199" t="s">
+      <c r="R27" s="193" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="199" t="s">
+      <c r="S27" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="T27" s="199" t="s">
+      <c r="T27" s="193" t="s">
         <v>220</v>
       </c>
-      <c r="U27" s="200" t="s">
+      <c r="U27" s="194" t="s">
         <v>219</v>
       </c>
-      <c r="V27" s="190" t="s">
+      <c r="V27" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="W27" s="25" t="s">
+      <c r="W27" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="X27" s="25" t="s">
+      <c r="X27" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="84" t="s">
+    <row r="28" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="185" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="179" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="187">
+      <c r="H28" s="181">
         <v>26</v>
       </c>
-      <c r="I28" s="187" t="s">
+      <c r="I28" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="173" t="s">
+      <c r="J28" s="167" t="s">
         <v>261</v>
       </c>
-      <c r="K28" s="187" t="s">
+      <c r="K28" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="187" t="s">
+      <c r="L28" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="187"/>
-      <c r="N28" s="187"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="186" t="s">
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="188">
+      <c r="Q28" s="182">
         <v>8</v>
       </c>
-      <c r="R28" s="188" t="s">
+      <c r="R28" s="182" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="188" t="s">
+      <c r="S28" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="T28" s="188" t="s">
+      <c r="T28" s="182" t="s">
         <v>221</v>
       </c>
-      <c r="U28" s="189" t="s">
+      <c r="U28" s="183" t="s">
         <v>219</v>
       </c>
-      <c r="V28" s="190" t="s">
+      <c r="V28" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="205">
+      <c r="W28" s="199">
         <v>42404</v>
       </c>
-      <c r="X28" s="25" t="s">
+      <c r="X28" s="24" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="161" t="s">
+    <row r="29" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="191" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="185" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="192">
+      <c r="H29" s="186">
         <v>27</v>
       </c>
-      <c r="I29" s="193" t="s">
+      <c r="I29" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="172" t="s">
+      <c r="J29" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="193" t="s">
+      <c r="K29" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="193" t="s">
+      <c r="L29" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="193"/>
-      <c r="N29" s="193"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="192" t="s">
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="194">
+      <c r="Q29" s="188">
         <v>8</v>
       </c>
-      <c r="R29" s="194" t="s">
+      <c r="R29" s="188" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="194" t="s">
+      <c r="S29" s="188" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="194" t="s">
+      <c r="T29" s="188" t="s">
         <v>169</v>
       </c>
-      <c r="U29" s="195" t="s">
+      <c r="U29" s="189" t="s">
         <v>219</v>
       </c>
-      <c r="V29" s="203" t="s">
+      <c r="V29" s="197" t="s">
         <v>246</v>
       </c>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="18" t="s">
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="17" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="86" t="s">
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="88">
+      <c r="H30" s="87">
         <v>28</v>
       </c>
-      <c r="I30" s="87" t="s">
+      <c r="I30" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="87" t="s">
+      <c r="K30" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="87" t="s">
+      <c r="L30" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="87" t="s">
+      <c r="M30" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="87"/>
-      <c r="O30" s="22" t="s">
+      <c r="N30" s="86"/>
+      <c r="O30" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="P30" s="88" t="s">
+      <c r="P30" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="89">
+      <c r="Q30" s="88">
         <v>6</v>
       </c>
-      <c r="R30" s="89" t="s">
+      <c r="R30" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="S30" s="89" t="s">
+      <c r="S30" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="T30" s="90" t="s">
+      <c r="T30" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="U30" s="91" t="s">
+      <c r="U30" s="90" t="s">
         <v>191</v>
       </c>
-      <c r="V30" s="170" t="s">
+      <c r="V30" s="164" t="s">
         <v>248</v>
       </c>
-      <c r="W30" s="175"/>
-      <c r="X30" s="175"/>
+      <c r="W30" s="169"/>
+      <c r="X30" s="169"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="94" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="96">
+      <c r="H31" s="95">
         <v>29</v>
       </c>
-      <c r="I31" s="96" t="s">
+      <c r="I31" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="K31" s="96" t="s">
+      <c r="K31" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="96" t="s">
+      <c r="L31" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96" t="s">
+      <c r="M31" s="95"/>
+      <c r="N31" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="24" t="s">
+      <c r="O31" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="P31" s="95" t="s">
+      <c r="P31" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="97">
+      <c r="Q31" s="96">
         <v>6</v>
       </c>
-      <c r="R31" s="97" t="s">
+      <c r="R31" s="96" t="s">
         <v>192</v>
       </c>
-      <c r="S31" s="97" t="s">
+      <c r="S31" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="T31" s="98" t="s">
+      <c r="T31" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="U31" s="99" t="s">
+      <c r="U31" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="V31" s="171" t="s">
+      <c r="V31" s="165" t="s">
         <v>248</v>
       </c>
-      <c r="W31" s="175"/>
-      <c r="X31" s="175"/>
+      <c r="W31" s="169"/>
+      <c r="X31" s="169"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="117" t="s">
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="118">
+      <c r="H32" s="117">
         <v>30</v>
       </c>
-      <c r="I32" s="75" t="s">
+      <c r="I32" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="116" t="s">
+      <c r="J32" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="75" t="s">
+      <c r="K32" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="75" t="s">
+      <c r="L32" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75" t="s">
+      <c r="M32" s="74"/>
+      <c r="N32" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="119" t="s">
+      <c r="O32" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="118" t="s">
+      <c r="P32" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="120">
+      <c r="Q32" s="119">
         <v>6</v>
       </c>
-      <c r="R32" s="120" t="s">
+      <c r="R32" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="120" t="s">
+      <c r="S32" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="T32" s="121" t="s">
+      <c r="T32" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="U32" s="120" t="s">
+      <c r="U32" s="119" t="s">
         <v>195</v>
       </c>
-      <c r="V32" s="170" t="s">
+      <c r="V32" s="164" t="s">
         <v>254</v>
       </c>
-      <c r="W32" s="175"/>
-      <c r="X32" s="175"/>
+      <c r="W32" s="169"/>
+      <c r="X32" s="169"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="196" t="s">
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="197">
+      <c r="H33" s="191">
         <v>31</v>
       </c>
-      <c r="I33" s="198" t="s">
+      <c r="I33" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="176" t="s">
+      <c r="J33" s="170" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="198" t="s">
+      <c r="K33" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="198" t="s">
+      <c r="L33" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="198"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="176"/>
-      <c r="P33" s="197" t="s">
+      <c r="M33" s="192"/>
+      <c r="N33" s="192"/>
+      <c r="O33" s="170"/>
+      <c r="P33" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="199"/>
-      <c r="R33" s="199"/>
-      <c r="S33" s="199"/>
-      <c r="T33" s="199"/>
-      <c r="U33" s="199"/>
-      <c r="V33" s="201" t="s">
+      <c r="Q33" s="193"/>
+      <c r="R33" s="193"/>
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="193"/>
+      <c r="V33" s="195" t="s">
         <v>246</v>
       </c>
-      <c r="W33" s="197"/>
-      <c r="X33" s="175"/>
+      <c r="W33" s="191"/>
+      <c r="X33" s="169"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77" t="s">
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="78">
+      <c r="H34" s="77">
         <v>32</v>
       </c>
-      <c r="I34" s="78" t="s">
+      <c r="I34" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="76" t="s">
+      <c r="J34" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="78" t="s">
+      <c r="K34" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="78" t="s">
+      <c r="L34" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78" t="s">
+      <c r="M34" s="77"/>
+      <c r="N34" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="76"/>
-      <c r="P34" s="79" t="s">
+      <c r="O34" s="75"/>
+      <c r="P34" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="80">
+      <c r="Q34" s="79">
         <v>6</v>
       </c>
-      <c r="R34" s="80" t="s">
+      <c r="R34" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="S34" s="80" t="s">
+      <c r="S34" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="T34" s="81" t="s">
+      <c r="T34" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="80" t="s">
+      <c r="U34" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="V34" s="170" t="s">
+      <c r="V34" s="164" t="s">
         <v>247</v>
       </c>
-      <c r="W34" s="175"/>
-      <c r="X34" s="175"/>
+      <c r="W34" s="169"/>
+      <c r="X34" s="169"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="125" t="s">
+      <c r="C35" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="30" t="s">
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="123">
+      <c r="H35" s="122">
         <v>33</v>
       </c>
-      <c r="I35" s="122" t="s">
+      <c r="I35" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="122" t="s">
+      <c r="K35" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="122" t="s">
+      <c r="L35" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122" t="s">
+      <c r="M35" s="121"/>
+      <c r="N35" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="25"/>
-      <c r="P35" s="123" t="s">
+      <c r="O35" s="24"/>
+      <c r="P35" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="124">
+      <c r="Q35" s="123">
         <v>6</v>
       </c>
-      <c r="R35" s="124" t="s">
+      <c r="R35" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="S35" s="124" t="s">
+      <c r="S35" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="T35" s="163" t="s">
+      <c r="T35" s="157" t="s">
         <v>216</v>
       </c>
-      <c r="U35" s="124" t="s">
+      <c r="U35" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="V35" s="171" t="s">
+      <c r="V35" s="165" t="s">
         <v>248</v>
       </c>
-      <c r="W35" s="175"/>
-      <c r="X35" s="175"/>
+      <c r="W35" s="169"/>
+      <c r="X35" s="169"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="126"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="129"/>
-      <c r="Q36" s="130"/>
-      <c r="R36" s="130"/>
-      <c r="S36" s="130"/>
-      <c r="T36" s="130"/>
-      <c r="U36" s="130"/>
-      <c r="V36" s="131"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="125"/>
+      <c r="N36" s="125"/>
+      <c r="O36" s="126"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="129"/>
+      <c r="V36" s="130"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="132"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="133"/>
-      <c r="P37" s="135"/>
-      <c r="Q37" s="136"/>
-      <c r="R37" s="136"/>
-      <c r="S37" s="136"/>
-      <c r="T37" s="136"/>
-      <c r="U37" s="136"/>
-      <c r="V37" s="135"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="135"/>
+      <c r="R37" s="135"/>
+      <c r="S37" s="135"/>
+      <c r="T37" s="135"/>
+      <c r="U37" s="135"/>
+      <c r="V37" s="134"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="132"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="133"/>
-      <c r="P38" s="135"/>
-      <c r="Q38" s="135"/>
-      <c r="R38" s="135"/>
-      <c r="S38" s="135"/>
-      <c r="T38" s="135"/>
-      <c r="U38" s="135"/>
-      <c r="V38" s="135"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
+      <c r="A38" s="131"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="131"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="131"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="134"/>
+      <c r="U38" s="134"/>
+      <c r="V38" s="134"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="132"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="132"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="135"/>
-      <c r="Q39" s="135"/>
-      <c r="R39" s="135"/>
-      <c r="S39" s="135"/>
-      <c r="T39" s="135"/>
-      <c r="U39" s="135"/>
-      <c r="V39" s="135"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="132"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="134"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="132"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="133"/>
-      <c r="P40" s="135"/>
-      <c r="Q40" s="135"/>
-      <c r="R40" s="135"/>
-      <c r="S40" s="135"/>
-      <c r="T40" s="135"/>
-      <c r="U40" s="135"/>
-      <c r="V40" s="133"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="132"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="134"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="134"/>
+      <c r="S40" s="134"/>
+      <c r="T40" s="134"/>
+      <c r="U40" s="134"/>
+      <c r="V40" s="132"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="132"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="133"/>
-      <c r="P41" s="135"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="135"/>
-      <c r="S41" s="135"/>
-      <c r="T41" s="135"/>
-      <c r="U41" s="135"/>
-      <c r="V41" s="133"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="131"/>
+      <c r="O41" s="132"/>
+      <c r="P41" s="134"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="134"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="134"/>
+      <c r="U41" s="134"/>
+      <c r="V41" s="132"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="132"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="133"/>
-      <c r="P42" s="135"/>
-      <c r="Q42" s="135"/>
-      <c r="R42" s="135"/>
-      <c r="S42" s="135"/>
-      <c r="T42" s="135"/>
-      <c r="U42" s="135"/>
-      <c r="V42" s="133"/>
+      <c r="A42" s="131"/>
+      <c r="B42" s="132"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="132"/>
+      <c r="P42" s="134"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="134"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="134"/>
+      <c r="U42" s="134"/>
+      <c r="V42" s="132"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="132"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="133"/>
-      <c r="P43" s="135"/>
-      <c r="Q43" s="135"/>
-      <c r="R43" s="135"/>
-      <c r="S43" s="135"/>
-      <c r="T43" s="135"/>
-      <c r="U43" s="135"/>
-      <c r="V43" s="133"/>
+      <c r="A43" s="131"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="131"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="131"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="134"/>
+      <c r="Q43" s="134"/>
+      <c r="R43" s="134"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="134"/>
+      <c r="U43" s="134"/>
+      <c r="V43" s="132"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="132"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
-      <c r="N44" s="132"/>
-      <c r="O44" s="133"/>
-      <c r="P44" s="135"/>
-      <c r="Q44" s="135"/>
-      <c r="R44" s="135"/>
-      <c r="S44" s="135"/>
-      <c r="T44" s="135"/>
-      <c r="U44" s="135"/>
-      <c r="V44" s="133"/>
+      <c r="A44" s="131"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="131"/>
+      <c r="L44" s="131"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="131"/>
+      <c r="O44" s="132"/>
+      <c r="P44" s="134"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="132"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
-      <c r="N45" s="132"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="135"/>
-      <c r="Q45" s="135"/>
-      <c r="R45" s="135"/>
-      <c r="S45" s="135"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="135"/>
-      <c r="V45" s="133"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="131"/>
+      <c r="L45" s="131"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="131"/>
+      <c r="O45" s="132"/>
+      <c r="P45" s="134"/>
+      <c r="Q45" s="134"/>
+      <c r="R45" s="134"/>
+      <c r="S45" s="134"/>
+      <c r="T45" s="134"/>
+      <c r="U45" s="134"/>
+      <c r="V45" s="132"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="132"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="133"/>
-      <c r="P46" s="135"/>
-      <c r="Q46" s="135"/>
-      <c r="R46" s="135"/>
-      <c r="S46" s="135"/>
-      <c r="T46" s="135"/>
-      <c r="U46" s="135"/>
-      <c r="V46" s="133"/>
+      <c r="A46" s="131"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="131"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="131"/>
+      <c r="L46" s="131"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="131"/>
+      <c r="O46" s="132"/>
+      <c r="P46" s="134"/>
+      <c r="Q46" s="134"/>
+      <c r="R46" s="134"/>
+      <c r="S46" s="134"/>
+      <c r="T46" s="134"/>
+      <c r="U46" s="134"/>
+      <c r="V46" s="132"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="132"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="133"/>
-      <c r="P47" s="135"/>
-      <c r="Q47" s="135"/>
-      <c r="R47" s="135"/>
-      <c r="S47" s="135"/>
-      <c r="T47" s="135"/>
-      <c r="U47" s="135"/>
-      <c r="V47" s="133"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="131"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="131"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="134"/>
+      <c r="Q47" s="134"/>
+      <c r="R47" s="134"/>
+      <c r="S47" s="134"/>
+      <c r="T47" s="134"/>
+      <c r="U47" s="134"/>
+      <c r="V47" s="132"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="132"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="133"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="133"/>
-      <c r="P48" s="135"/>
-      <c r="Q48" s="135"/>
-      <c r="R48" s="135"/>
-      <c r="S48" s="135"/>
-      <c r="T48" s="135"/>
-      <c r="U48" s="135"/>
-      <c r="V48" s="133"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="132"/>
+      <c r="P48" s="134"/>
+      <c r="Q48" s="134"/>
+      <c r="R48" s="134"/>
+      <c r="S48" s="134"/>
+      <c r="T48" s="134"/>
+      <c r="U48" s="134"/>
+      <c r="V48" s="132"/>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="132"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="132"/>
-      <c r="L49" s="132"/>
-      <c r="M49" s="132"/>
-      <c r="N49" s="132"/>
-      <c r="O49" s="133"/>
-      <c r="P49" s="135"/>
-      <c r="Q49" s="135"/>
-      <c r="R49" s="135"/>
-      <c r="S49" s="135"/>
-      <c r="T49" s="135"/>
-      <c r="U49" s="135"/>
-      <c r="V49" s="133"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="131"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="134"/>
+      <c r="Q49" s="134"/>
+      <c r="R49" s="134"/>
+      <c r="S49" s="134"/>
+      <c r="T49" s="134"/>
+      <c r="U49" s="134"/>
+      <c r="V49" s="132"/>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="132"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="132"/>
-      <c r="M50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="133"/>
-      <c r="P50" s="135"/>
-      <c r="Q50" s="135"/>
-      <c r="R50" s="135"/>
-      <c r="S50" s="135"/>
-      <c r="T50" s="135"/>
-      <c r="U50" s="135"/>
-      <c r="V50" s="133"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="131"/>
+      <c r="L50" s="131"/>
+      <c r="M50" s="131"/>
+      <c r="N50" s="131"/>
+      <c r="O50" s="132"/>
+      <c r="P50" s="134"/>
+      <c r="Q50" s="134"/>
+      <c r="R50" s="134"/>
+      <c r="S50" s="134"/>
+      <c r="T50" s="134"/>
+      <c r="U50" s="134"/>
+      <c r="V50" s="132"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="132"/>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="132"/>
-      <c r="L51" s="132"/>
-      <c r="M51" s="132"/>
-      <c r="N51" s="132"/>
-      <c r="O51" s="133"/>
-      <c r="P51" s="135"/>
-      <c r="Q51" s="135"/>
-      <c r="R51" s="135"/>
-      <c r="S51" s="135"/>
-      <c r="T51" s="135"/>
-      <c r="U51" s="135"/>
-      <c r="V51" s="133"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="132"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="131"/>
+      <c r="L51" s="131"/>
+      <c r="M51" s="131"/>
+      <c r="N51" s="131"/>
+      <c r="O51" s="132"/>
+      <c r="P51" s="134"/>
+      <c r="Q51" s="134"/>
+      <c r="R51" s="134"/>
+      <c r="S51" s="134"/>
+      <c r="T51" s="134"/>
+      <c r="U51" s="134"/>
+      <c r="V51" s="132"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="132"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="132"/>
-      <c r="L52" s="132"/>
-      <c r="M52" s="132"/>
-      <c r="N52" s="132"/>
-      <c r="O52" s="133"/>
-      <c r="P52" s="135"/>
-      <c r="Q52" s="135"/>
-      <c r="R52" s="135"/>
-      <c r="S52" s="135"/>
-      <c r="T52" s="135"/>
-      <c r="U52" s="135"/>
-      <c r="V52" s="133"/>
+      <c r="A52" s="131"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="131"/>
+      <c r="M52" s="131"/>
+      <c r="N52" s="131"/>
+      <c r="O52" s="132"/>
+      <c r="P52" s="134"/>
+      <c r="Q52" s="134"/>
+      <c r="R52" s="134"/>
+      <c r="S52" s="134"/>
+      <c r="T52" s="134"/>
+      <c r="U52" s="134"/>
+      <c r="V52" s="132"/>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="132"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="132"/>
-      <c r="L53" s="132"/>
-      <c r="M53" s="132"/>
-      <c r="N53" s="132"/>
-      <c r="O53" s="133"/>
-      <c r="P53" s="135"/>
-      <c r="Q53" s="135"/>
-      <c r="R53" s="135"/>
-      <c r="S53" s="135"/>
-      <c r="T53" s="135"/>
-      <c r="U53" s="135"/>
-      <c r="V53" s="133"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="132"/>
+      <c r="C53" s="132"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="131"/>
+      <c r="M53" s="131"/>
+      <c r="N53" s="131"/>
+      <c r="O53" s="132"/>
+      <c r="P53" s="134"/>
+      <c r="Q53" s="134"/>
+      <c r="R53" s="134"/>
+      <c r="S53" s="134"/>
+      <c r="T53" s="134"/>
+      <c r="U53" s="134"/>
+      <c r="V53" s="132"/>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="132"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="132"/>
-      <c r="M54" s="132"/>
-      <c r="N54" s="132"/>
-      <c r="O54" s="133"/>
-      <c r="P54" s="135"/>
-      <c r="Q54" s="135"/>
-      <c r="R54" s="135"/>
-      <c r="S54" s="135"/>
-      <c r="T54" s="135"/>
-      <c r="U54" s="135"/>
-      <c r="V54" s="133"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="132"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="131"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="131"/>
+      <c r="O54" s="132"/>
+      <c r="P54" s="134"/>
+      <c r="Q54" s="134"/>
+      <c r="R54" s="134"/>
+      <c r="S54" s="134"/>
+      <c r="T54" s="134"/>
+      <c r="U54" s="134"/>
+      <c r="V54" s="132"/>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="132"/>
-      <c r="B55" s="133"/>
-      <c r="C55" s="133"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="133"/>
-      <c r="F55" s="133"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="132"/>
-      <c r="L55" s="132"/>
-      <c r="M55" s="132"/>
-      <c r="N55" s="132"/>
-      <c r="O55" s="133"/>
-      <c r="P55" s="135"/>
-      <c r="Q55" s="135"/>
-      <c r="R55" s="135"/>
-      <c r="S55" s="135"/>
-      <c r="T55" s="135"/>
-      <c r="U55" s="135"/>
-      <c r="V55" s="133"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="131"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="134"/>
+      <c r="Q55" s="134"/>
+      <c r="R55" s="134"/>
+      <c r="S55" s="134"/>
+      <c r="T55" s="134"/>
+      <c r="U55" s="134"/>
+      <c r="V55" s="132"/>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="132"/>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="132"/>
-      <c r="L56" s="132"/>
-      <c r="M56" s="132"/>
-      <c r="N56" s="132"/>
-      <c r="O56" s="133"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="135"/>
-      <c r="R56" s="135"/>
-      <c r="S56" s="135"/>
-      <c r="T56" s="135"/>
-      <c r="U56" s="135"/>
-      <c r="V56" s="133"/>
+      <c r="A56" s="131"/>
+      <c r="B56" s="132"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="131"/>
+      <c r="L56" s="131"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
+      <c r="O56" s="132"/>
+      <c r="P56" s="134"/>
+      <c r="Q56" s="134"/>
+      <c r="R56" s="134"/>
+      <c r="S56" s="134"/>
+      <c r="T56" s="134"/>
+      <c r="U56" s="134"/>
+      <c r="V56" s="132"/>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="132"/>
-      <c r="B57" s="133"/>
-      <c r="C57" s="133"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="132"/>
-      <c r="N57" s="132"/>
-      <c r="O57" s="133"/>
-      <c r="P57" s="135"/>
-      <c r="Q57" s="135"/>
-      <c r="R57" s="135"/>
-      <c r="S57" s="135"/>
-      <c r="T57" s="135"/>
-      <c r="U57" s="135"/>
-      <c r="V57" s="133"/>
+      <c r="A57" s="131"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="131"/>
+      <c r="L57" s="131"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="131"/>
+      <c r="O57" s="132"/>
+      <c r="P57" s="134"/>
+      <c r="Q57" s="134"/>
+      <c r="R57" s="134"/>
+      <c r="S57" s="134"/>
+      <c r="T57" s="134"/>
+      <c r="U57" s="134"/>
+      <c r="V57" s="132"/>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="132"/>
-      <c r="B58" s="133"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="133"/>
-      <c r="F58" s="133"/>
-      <c r="G58" s="134"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="132"/>
-      <c r="M58" s="132"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="133"/>
-      <c r="P58" s="135"/>
-      <c r="Q58" s="135"/>
-      <c r="R58" s="135"/>
-      <c r="S58" s="135"/>
-      <c r="T58" s="135"/>
-      <c r="U58" s="135"/>
-      <c r="V58" s="133"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="132"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="131"/>
+      <c r="L58" s="131"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="132"/>
+      <c r="P58" s="134"/>
+      <c r="Q58" s="134"/>
+      <c r="R58" s="134"/>
+      <c r="S58" s="134"/>
+      <c r="T58" s="134"/>
+      <c r="U58" s="134"/>
+      <c r="V58" s="132"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="132"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="133"/>
-      <c r="E59" s="133"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="132"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="132"/>
-      <c r="L59" s="132"/>
-      <c r="M59" s="132"/>
-      <c r="N59" s="132"/>
-      <c r="O59" s="133"/>
-      <c r="P59" s="135"/>
-      <c r="Q59" s="135"/>
-      <c r="R59" s="135"/>
-      <c r="S59" s="135"/>
-      <c r="T59" s="135"/>
-      <c r="U59" s="135"/>
-      <c r="V59" s="133"/>
+      <c r="A59" s="131"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="132"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="132"/>
+      <c r="K59" s="131"/>
+      <c r="L59" s="131"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
+      <c r="O59" s="132"/>
+      <c r="P59" s="134"/>
+      <c r="Q59" s="134"/>
+      <c r="R59" s="134"/>
+      <c r="S59" s="134"/>
+      <c r="T59" s="134"/>
+      <c r="U59" s="134"/>
+      <c r="V59" s="132"/>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="132"/>
-      <c r="B60" s="133"/>
-      <c r="C60" s="133"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="133"/>
-      <c r="F60" s="133"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="132"/>
-      <c r="L60" s="132"/>
-      <c r="M60" s="132"/>
-      <c r="N60" s="132"/>
-      <c r="O60" s="133"/>
-      <c r="P60" s="135"/>
-      <c r="Q60" s="135"/>
-      <c r="R60" s="135"/>
-      <c r="S60" s="135"/>
-      <c r="T60" s="135"/>
-      <c r="U60" s="135"/>
-      <c r="V60" s="133"/>
+      <c r="A60" s="131"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="132"/>
+      <c r="K60" s="131"/>
+      <c r="L60" s="131"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="131"/>
+      <c r="O60" s="132"/>
+      <c r="P60" s="134"/>
+      <c r="Q60" s="134"/>
+      <c r="R60" s="134"/>
+      <c r="S60" s="134"/>
+      <c r="T60" s="134"/>
+      <c r="U60" s="134"/>
+      <c r="V60" s="132"/>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="132"/>
-      <c r="B61" s="133"/>
-      <c r="C61" s="133"/>
-      <c r="D61" s="133"/>
-      <c r="E61" s="133"/>
-      <c r="F61" s="133"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="132"/>
-      <c r="L61" s="132"/>
-      <c r="M61" s="132"/>
-      <c r="N61" s="132"/>
-      <c r="O61" s="133"/>
-      <c r="P61" s="135"/>
-      <c r="Q61" s="135"/>
-      <c r="R61" s="135"/>
-      <c r="S61" s="135"/>
-      <c r="T61" s="135"/>
-      <c r="U61" s="135"/>
-      <c r="V61" s="133"/>
+      <c r="A61" s="131"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="131"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="131"/>
+      <c r="L61" s="131"/>
+      <c r="M61" s="131"/>
+      <c r="N61" s="131"/>
+      <c r="O61" s="132"/>
+      <c r="P61" s="134"/>
+      <c r="Q61" s="134"/>
+      <c r="R61" s="134"/>
+      <c r="S61" s="134"/>
+      <c r="T61" s="134"/>
+      <c r="U61" s="134"/>
+      <c r="V61" s="132"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="132"/>
-      <c r="B62" s="133"/>
-      <c r="C62" s="133"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="134"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="132"/>
-      <c r="M62" s="132"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="133"/>
-      <c r="P62" s="135"/>
-      <c r="Q62" s="135"/>
-      <c r="R62" s="135"/>
-      <c r="S62" s="135"/>
-      <c r="T62" s="135"/>
-      <c r="U62" s="135"/>
-      <c r="V62" s="133"/>
+      <c r="A62" s="131"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="131"/>
+      <c r="J62" s="132"/>
+      <c r="K62" s="131"/>
+      <c r="L62" s="131"/>
+      <c r="M62" s="131"/>
+      <c r="N62" s="131"/>
+      <c r="O62" s="132"/>
+      <c r="P62" s="134"/>
+      <c r="Q62" s="134"/>
+      <c r="R62" s="134"/>
+      <c r="S62" s="134"/>
+      <c r="T62" s="134"/>
+      <c r="U62" s="134"/>
+      <c r="V62" s="132"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="132"/>
-      <c r="B63" s="133"/>
-      <c r="C63" s="133"/>
-      <c r="D63" s="133"/>
-      <c r="E63" s="133"/>
-      <c r="F63" s="133"/>
-      <c r="G63" s="134"/>
-      <c r="H63" s="133"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="132"/>
-      <c r="L63" s="132"/>
-      <c r="M63" s="132"/>
-      <c r="N63" s="132"/>
-      <c r="O63" s="133"/>
-      <c r="P63" s="135"/>
-      <c r="Q63" s="135"/>
-      <c r="R63" s="135"/>
-      <c r="S63" s="135"/>
-      <c r="T63" s="135"/>
-      <c r="U63" s="135"/>
-      <c r="V63" s="133"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="132"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="132"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="132"/>
+      <c r="G63" s="133"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="131"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="131"/>
+      <c r="L63" s="131"/>
+      <c r="M63" s="131"/>
+      <c r="N63" s="131"/>
+      <c r="O63" s="132"/>
+      <c r="P63" s="134"/>
+      <c r="Q63" s="134"/>
+      <c r="R63" s="134"/>
+      <c r="S63" s="134"/>
+      <c r="T63" s="134"/>
+      <c r="U63" s="134"/>
+      <c r="V63" s="132"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="132"/>
-      <c r="B64" s="133"/>
-      <c r="C64" s="133"/>
-      <c r="D64" s="133"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="133"/>
-      <c r="G64" s="134"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="133"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="132"/>
-      <c r="O64" s="133"/>
-      <c r="P64" s="135"/>
-      <c r="Q64" s="135"/>
-      <c r="R64" s="135"/>
-      <c r="S64" s="135"/>
-      <c r="T64" s="135"/>
-      <c r="U64" s="135"/>
-      <c r="V64" s="133"/>
+      <c r="A64" s="131"/>
+      <c r="B64" s="132"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="131"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="131"/>
+      <c r="M64" s="131"/>
+      <c r="N64" s="131"/>
+      <c r="O64" s="132"/>
+      <c r="P64" s="134"/>
+      <c r="Q64" s="134"/>
+      <c r="R64" s="134"/>
+      <c r="S64" s="134"/>
+      <c r="T64" s="134"/>
+      <c r="U64" s="134"/>
+      <c r="V64" s="132"/>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="132"/>
-      <c r="B65" s="133"/>
-      <c r="C65" s="133"/>
-      <c r="D65" s="133"/>
-      <c r="E65" s="133"/>
-      <c r="F65" s="133"/>
-      <c r="G65" s="134"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="132"/>
-      <c r="L65" s="132"/>
-      <c r="M65" s="132"/>
-      <c r="N65" s="132"/>
-      <c r="O65" s="133"/>
-      <c r="P65" s="135"/>
-      <c r="Q65" s="135"/>
-      <c r="R65" s="135"/>
-      <c r="S65" s="135"/>
-      <c r="T65" s="135"/>
-      <c r="U65" s="135"/>
-      <c r="V65" s="133"/>
+      <c r="A65" s="131"/>
+      <c r="B65" s="132"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="132"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="132"/>
+      <c r="G65" s="133"/>
+      <c r="H65" s="132"/>
+      <c r="I65" s="131"/>
+      <c r="J65" s="132"/>
+      <c r="K65" s="131"/>
+      <c r="L65" s="131"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="131"/>
+      <c r="O65" s="132"/>
+      <c r="P65" s="134"/>
+      <c r="Q65" s="134"/>
+      <c r="R65" s="134"/>
+      <c r="S65" s="134"/>
+      <c r="T65" s="134"/>
+      <c r="U65" s="134"/>
+      <c r="V65" s="132"/>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="132"/>
-      <c r="B66" s="133"/>
-      <c r="C66" s="133"/>
-      <c r="D66" s="133"/>
-      <c r="E66" s="133"/>
-      <c r="F66" s="133"/>
-      <c r="G66" s="134"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="133"/>
-      <c r="P66" s="135"/>
-      <c r="Q66" s="135"/>
-      <c r="R66" s="135"/>
-      <c r="S66" s="135"/>
-      <c r="T66" s="135"/>
-      <c r="U66" s="135"/>
-      <c r="V66" s="133"/>
+      <c r="A66" s="131"/>
+      <c r="B66" s="132"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="132"/>
+      <c r="E66" s="132"/>
+      <c r="F66" s="132"/>
+      <c r="G66" s="133"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="131"/>
+      <c r="J66" s="132"/>
+      <c r="K66" s="131"/>
+      <c r="L66" s="131"/>
+      <c r="M66" s="131"/>
+      <c r="N66" s="131"/>
+      <c r="O66" s="132"/>
+      <c r="P66" s="134"/>
+      <c r="Q66" s="134"/>
+      <c r="R66" s="134"/>
+      <c r="S66" s="134"/>
+      <c r="T66" s="134"/>
+      <c r="U66" s="134"/>
+      <c r="V66" s="132"/>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="132"/>
-      <c r="B67" s="133"/>
-      <c r="C67" s="133"/>
-      <c r="D67" s="133"/>
-      <c r="E67" s="133"/>
-      <c r="F67" s="133"/>
-      <c r="G67" s="134"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="132"/>
-      <c r="L67" s="132"/>
-      <c r="M67" s="132"/>
-      <c r="N67" s="132"/>
-      <c r="O67" s="133"/>
-      <c r="P67" s="135"/>
-      <c r="Q67" s="135"/>
-      <c r="R67" s="135"/>
-      <c r="S67" s="135"/>
-      <c r="T67" s="135"/>
-      <c r="U67" s="135"/>
-      <c r="V67" s="133"/>
+      <c r="A67" s="131"/>
+      <c r="B67" s="132"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="132"/>
+      <c r="F67" s="132"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="131"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="131"/>
+      <c r="L67" s="131"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="131"/>
+      <c r="O67" s="132"/>
+      <c r="P67" s="134"/>
+      <c r="Q67" s="134"/>
+      <c r="R67" s="134"/>
+      <c r="S67" s="134"/>
+      <c r="T67" s="134"/>
+      <c r="U67" s="134"/>
+      <c r="V67" s="132"/>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="132"/>
-      <c r="B68" s="133"/>
-      <c r="C68" s="133"/>
-      <c r="D68" s="133"/>
-      <c r="E68" s="133"/>
-      <c r="F68" s="133"/>
-      <c r="G68" s="134"/>
-      <c r="H68" s="133"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="132"/>
-      <c r="M68" s="132"/>
-      <c r="N68" s="132"/>
-      <c r="O68" s="133"/>
-      <c r="P68" s="135"/>
-      <c r="Q68" s="135"/>
-      <c r="R68" s="135"/>
-      <c r="S68" s="135"/>
-      <c r="T68" s="135"/>
-      <c r="U68" s="135"/>
-      <c r="V68" s="133"/>
+      <c r="A68" s="131"/>
+      <c r="B68" s="132"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="131"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="131"/>
+      <c r="L68" s="131"/>
+      <c r="M68" s="131"/>
+      <c r="N68" s="131"/>
+      <c r="O68" s="132"/>
+      <c r="P68" s="134"/>
+      <c r="Q68" s="134"/>
+      <c r="R68" s="134"/>
+      <c r="S68" s="134"/>
+      <c r="T68" s="134"/>
+      <c r="U68" s="134"/>
+      <c r="V68" s="132"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="132"/>
-      <c r="B69" s="133"/>
-      <c r="C69" s="133"/>
-      <c r="D69" s="133"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="133"/>
-      <c r="G69" s="134"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="132"/>
-      <c r="M69" s="132"/>
-      <c r="N69" s="132"/>
-      <c r="O69" s="133"/>
-      <c r="P69" s="135"/>
-      <c r="Q69" s="135"/>
-      <c r="R69" s="135"/>
-      <c r="S69" s="135"/>
-      <c r="T69" s="135"/>
-      <c r="U69" s="135"/>
-      <c r="V69" s="133"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="132"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="132"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="132"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="131"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="131"/>
+      <c r="L69" s="131"/>
+      <c r="M69" s="131"/>
+      <c r="N69" s="131"/>
+      <c r="O69" s="132"/>
+      <c r="P69" s="134"/>
+      <c r="Q69" s="134"/>
+      <c r="R69" s="134"/>
+      <c r="S69" s="134"/>
+      <c r="T69" s="134"/>
+      <c r="U69" s="134"/>
+      <c r="V69" s="132"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="132"/>
-      <c r="B70" s="133"/>
-      <c r="C70" s="133"/>
-      <c r="D70" s="133"/>
-      <c r="E70" s="133"/>
-      <c r="F70" s="133"/>
-      <c r="G70" s="134"/>
-      <c r="H70" s="133"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="133"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="132"/>
-      <c r="M70" s="132"/>
-      <c r="N70" s="132"/>
-      <c r="O70" s="133"/>
-      <c r="P70" s="135"/>
-      <c r="Q70" s="135"/>
-      <c r="R70" s="135"/>
-      <c r="S70" s="135"/>
-      <c r="T70" s="135"/>
-      <c r="U70" s="135"/>
-      <c r="V70" s="133"/>
+      <c r="A70" s="131"/>
+      <c r="B70" s="132"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="132"/>
+      <c r="F70" s="132"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="131"/>
+      <c r="J70" s="132"/>
+      <c r="K70" s="131"/>
+      <c r="L70" s="131"/>
+      <c r="M70" s="131"/>
+      <c r="N70" s="131"/>
+      <c r="O70" s="132"/>
+      <c r="P70" s="134"/>
+      <c r="Q70" s="134"/>
+      <c r="R70" s="134"/>
+      <c r="S70" s="134"/>
+      <c r="T70" s="134"/>
+      <c r="U70" s="134"/>
+      <c r="V70" s="132"/>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="132"/>
-      <c r="B71" s="133"/>
-      <c r="C71" s="133"/>
-      <c r="D71" s="133"/>
-      <c r="E71" s="133"/>
-      <c r="F71" s="133"/>
-      <c r="G71" s="134"/>
-      <c r="H71" s="133"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="133"/>
-      <c r="K71" s="132"/>
-      <c r="L71" s="132"/>
-      <c r="M71" s="132"/>
-      <c r="N71" s="132"/>
-      <c r="O71" s="133"/>
-      <c r="P71" s="135"/>
-      <c r="Q71" s="135"/>
-      <c r="R71" s="135"/>
-      <c r="S71" s="135"/>
-      <c r="T71" s="135"/>
-      <c r="U71" s="135"/>
-      <c r="V71" s="133"/>
+      <c r="A71" s="131"/>
+      <c r="B71" s="132"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="132"/>
+      <c r="F71" s="132"/>
+      <c r="G71" s="133"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="131"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="131"/>
+      <c r="L71" s="131"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="131"/>
+      <c r="O71" s="132"/>
+      <c r="P71" s="134"/>
+      <c r="Q71" s="134"/>
+      <c r="R71" s="134"/>
+      <c r="S71" s="134"/>
+      <c r="T71" s="134"/>
+      <c r="U71" s="134"/>
+      <c r="V71" s="132"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="132"/>
-      <c r="B72" s="133"/>
-      <c r="C72" s="133"/>
-      <c r="D72" s="133"/>
-      <c r="E72" s="133"/>
-      <c r="F72" s="133"/>
-      <c r="G72" s="134"/>
-      <c r="H72" s="133"/>
-      <c r="I72" s="132"/>
-      <c r="J72" s="133"/>
-      <c r="K72" s="132"/>
-      <c r="L72" s="132"/>
-      <c r="M72" s="132"/>
-      <c r="N72" s="132"/>
-      <c r="O72" s="133"/>
-      <c r="P72" s="135"/>
-      <c r="Q72" s="135"/>
-      <c r="R72" s="135"/>
-      <c r="S72" s="135"/>
-      <c r="T72" s="135"/>
-      <c r="U72" s="135"/>
-      <c r="V72" s="133"/>
+      <c r="A72" s="131"/>
+      <c r="B72" s="132"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="132"/>
+      <c r="E72" s="132"/>
+      <c r="F72" s="132"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="132"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="132"/>
+      <c r="K72" s="131"/>
+      <c r="L72" s="131"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="131"/>
+      <c r="O72" s="132"/>
+      <c r="P72" s="134"/>
+      <c r="Q72" s="134"/>
+      <c r="R72" s="134"/>
+      <c r="S72" s="134"/>
+      <c r="T72" s="134"/>
+      <c r="U72" s="134"/>
+      <c r="V72" s="132"/>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="132"/>
-      <c r="B73" s="133"/>
-      <c r="C73" s="133"/>
-      <c r="D73" s="133"/>
-      <c r="E73" s="133"/>
-      <c r="F73" s="133"/>
-      <c r="G73" s="134"/>
-      <c r="H73" s="133"/>
-      <c r="I73" s="132"/>
-      <c r="J73" s="133"/>
-      <c r="K73" s="132"/>
-      <c r="L73" s="132"/>
-      <c r="M73" s="132"/>
-      <c r="N73" s="132"/>
-      <c r="O73" s="133"/>
-      <c r="P73" s="135"/>
-      <c r="Q73" s="135"/>
-      <c r="R73" s="135"/>
-      <c r="S73" s="135"/>
-      <c r="T73" s="135"/>
-      <c r="U73" s="135"/>
-      <c r="V73" s="133"/>
+      <c r="A73" s="131"/>
+      <c r="B73" s="132"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="132"/>
+      <c r="F73" s="132"/>
+      <c r="G73" s="133"/>
+      <c r="H73" s="132"/>
+      <c r="I73" s="131"/>
+      <c r="J73" s="132"/>
+      <c r="K73" s="131"/>
+      <c r="L73" s="131"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="131"/>
+      <c r="O73" s="132"/>
+      <c r="P73" s="134"/>
+      <c r="Q73" s="134"/>
+      <c r="R73" s="134"/>
+      <c r="S73" s="134"/>
+      <c r="T73" s="134"/>
+      <c r="U73" s="134"/>
+      <c r="V73" s="132"/>
     </row>
     <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5816,12 +5828,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5836,6 +5842,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="266">
   <si>
     <t>Asignatura</t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>Pedir recurso motor M para agregar al interior</t>
+  </si>
+  <si>
+    <t>Solicitud gráfica en escritorio, revisar recurso</t>
   </si>
 </sst>
 </file>
@@ -1892,34 +1895,38 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1967,28 +1974,24 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2295,9 +2298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V3" sqref="G3:V3"/>
+      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,25 +2332,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="231" t="s">
+      <c r="C1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="220" t="s">
+      <c r="D1" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="218" t="s">
+      <c r="E1" s="220" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="229" t="s">
+      <c r="G1" s="231" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="216" t="s">
@@ -2356,38 +2359,38 @@
       <c r="I1" s="216" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="226" t="s">
+      <c r="J1" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="224" t="s">
+      <c r="K1" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="222" t="s">
+      <c r="L1" s="224" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="228" t="s">
+      <c r="M1" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="228"/>
-      <c r="O1" s="208" t="s">
+      <c r="N1" s="230"/>
+      <c r="O1" s="218" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="208" t="s">
+      <c r="P1" s="218" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="210" t="s">
+      <c r="Q1" s="235" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="214" t="s">
+      <c r="R1" s="239" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="210" t="s">
+      <c r="S1" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="212" t="s">
+      <c r="T1" s="237" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="210" t="s">
+      <c r="U1" s="235" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="196" t="s">
@@ -2401,31 +2404,31 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="221"/>
-      <c r="B2" s="219"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="219"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="221"/>
       <c r="F2" s="217"/>
-      <c r="G2" s="230"/>
+      <c r="G2" s="232"/>
       <c r="H2" s="217"/>
       <c r="I2" s="217"/>
-      <c r="J2" s="227"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="223"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="225"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="211"/>
+      <c r="O2" s="219"/>
+      <c r="P2" s="219"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="236"/>
       <c r="V2" s="161"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -2445,50 +2448,50 @@
       </c>
       <c r="E3" s="137"/>
       <c r="F3" s="137"/>
-      <c r="G3" s="233" t="s">
+      <c r="G3" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="234">
+      <c r="H3" s="209">
         <v>1</v>
       </c>
-      <c r="I3" s="234" t="s">
+      <c r="I3" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="235" t="s">
+      <c r="J3" s="210" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="234" t="s">
+      <c r="K3" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="234" t="s">
+      <c r="L3" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="234" t="s">
+      <c r="M3" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="234"/>
-      <c r="O3" s="235" t="s">
+      <c r="N3" s="209"/>
+      <c r="O3" s="210" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="236" t="s">
+      <c r="P3" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="237">
+      <c r="Q3" s="212">
         <v>6</v>
       </c>
-      <c r="R3" s="237" t="s">
+      <c r="R3" s="212" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="237" t="s">
+      <c r="S3" s="212" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="238" t="s">
+      <c r="T3" s="213" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="239" t="s">
+      <c r="U3" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="240" t="s">
+      <c r="V3" s="215" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
@@ -2626,6 +2629,9 @@
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
+      <c r="Y5" s="132" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="147" t="s">
@@ -5828,6 +5834,12 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5842,12 +5854,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -958,7 +958,7 @@
     <t>Pedir recurso motor M para agregar al interior</t>
   </si>
   <si>
-    <t>Solicitud gráfica en escritorio, revisar recurso</t>
+    <t>Se debe editar con las imágenes</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1469,27 +1469,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1873,9 +1852,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1917,16 +1893,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,23 +1968,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2298,9 +2283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,25 +2317,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220" t="s">
+      <c r="B1" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="233" t="s">
+      <c r="C1" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="222" t="s">
+      <c r="D1" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="220" t="s">
+      <c r="E1" s="218" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="216" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="231" t="s">
+      <c r="G1" s="229" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="216" t="s">
@@ -2359,143 +2344,143 @@
       <c r="I1" s="216" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="228" t="s">
+      <c r="J1" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="226" t="s">
+      <c r="K1" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="224" t="s">
+      <c r="L1" s="222" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="230" t="s">
+      <c r="M1" s="228" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="230"/>
-      <c r="O1" s="218" t="s">
+      <c r="N1" s="228"/>
+      <c r="O1" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="218" t="s">
+      <c r="P1" s="208" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="235" t="s">
+      <c r="Q1" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="239" t="s">
+      <c r="R1" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="235" t="s">
+      <c r="S1" s="210" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="237" t="s">
+      <c r="T1" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="235" t="s">
+      <c r="U1" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="196" t="s">
+      <c r="V1" s="189" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="167" t="s">
+      <c r="W1" s="160" t="s">
         <v>255</v>
       </c>
-      <c r="X1" s="168" t="s">
+      <c r="X1" s="161" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="223"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="221"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="219"/>
       <c r="F2" s="217"/>
-      <c r="G2" s="232"/>
+      <c r="G2" s="230"/>
       <c r="H2" s="217"/>
       <c r="I2" s="217"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="227"/>
-      <c r="L2" s="225"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="223"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="236"/>
-      <c r="V2" s="161"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="211"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="154"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="208" t="s">
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="200" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="209">
+      <c r="H3" s="201">
         <v>1</v>
       </c>
-      <c r="I3" s="209" t="s">
+      <c r="I3" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="210" t="s">
+      <c r="J3" s="202" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="209" t="s">
+      <c r="L3" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="209"/>
-      <c r="O3" s="210" t="s">
+      <c r="N3" s="201"/>
+      <c r="O3" s="202" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="211" t="s">
+      <c r="P3" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="212">
+      <c r="Q3" s="204">
         <v>6</v>
       </c>
-      <c r="R3" s="212" t="s">
+      <c r="R3" s="204" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="212" t="s">
+      <c r="S3" s="204" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="213" t="s">
+      <c r="T3" s="205" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="214" t="s">
+      <c r="U3" s="206" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="215" t="s">
+      <c r="V3" s="207" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="201">
+      <c r="X3" s="193">
         <v>42411</v>
       </c>
       <c r="Y3" s="4" t="s">
@@ -2503,195 +2488,197 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="130" t="s">
         <v>125</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="141">
+      <c r="H4" s="134">
         <v>2</v>
       </c>
-      <c r="I4" s="142" t="s">
+      <c r="I4" s="135" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="142" t="s">
+      <c r="K4" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="142" t="s">
+      <c r="L4" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142" t="s">
+      <c r="M4" s="135"/>
+      <c r="N4" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="143" t="s">
+      <c r="O4" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="141" t="s">
+      <c r="P4" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="144">
+      <c r="Q4" s="137">
         <v>6</v>
       </c>
-      <c r="R4" s="144" t="s">
+      <c r="R4" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="144" t="s">
+      <c r="S4" s="137" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="145" t="s">
+      <c r="T4" s="138" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="146" t="s">
+      <c r="U4" s="139" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="162" t="s">
+      <c r="V4" s="155" t="s">
         <v>247</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="149" t="s">
         <v>125</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="194" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="121">
+      <c r="H5" s="195">
         <v>3</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="121" t="s">
+      <c r="K5" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="121" t="s">
+      <c r="L5" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="121" t="s">
+      <c r="M5" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="121"/>
-      <c r="O5" s="200" t="s">
+      <c r="N5" s="195"/>
+      <c r="O5" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="122" t="s">
+      <c r="P5" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="123">
+      <c r="Q5" s="197">
         <v>6</v>
       </c>
-      <c r="R5" s="123" t="s">
+      <c r="R5" s="197" t="s">
         <v>188</v>
       </c>
-      <c r="S5" s="123" t="s">
+      <c r="S5" s="197" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="157" t="s">
+      <c r="T5" s="198" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="158" t="s">
+      <c r="U5" s="199" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="163" t="s">
+      <c r="V5" s="207" t="s">
         <v>253</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="132" t="s">
+      <c r="X5" s="193">
+        <v>42412</v>
+      </c>
+      <c r="Y5" s="125" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="130" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="142" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="150">
+      <c r="H6" s="143">
         <v>4</v>
       </c>
-      <c r="I6" s="151" t="s">
+      <c r="I6" s="144" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="151" t="s">
+      <c r="K6" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="151" t="s">
+      <c r="L6" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151" t="s">
+      <c r="M6" s="144"/>
+      <c r="N6" s="144" t="s">
         <v>121</v>
       </c>
       <c r="O6" s="14"/>
-      <c r="P6" s="150" t="s">
+      <c r="P6" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="152">
+      <c r="Q6" s="145">
         <v>6</v>
       </c>
-      <c r="R6" s="152" t="s">
+      <c r="R6" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="152" t="s">
+      <c r="S6" s="145" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="153" t="s">
+      <c r="T6" s="146" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="154" t="s">
+      <c r="U6" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="V6" s="162" t="s">
+      <c r="V6" s="155" t="s">
         <v>248</v>
       </c>
       <c r="W6" s="3"/>
@@ -2712,57 +2699,61 @@
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="234" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="201">
         <v>5</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="235" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="201" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="54" t="s">
+      <c r="N7" s="201"/>
+      <c r="O7" s="202" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="56">
+      <c r="Q7" s="204">
         <v>6</v>
       </c>
-      <c r="R7" s="56" t="s">
+      <c r="R7" s="204" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="56" t="s">
+      <c r="S7" s="204" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="57" t="s">
+      <c r="T7" s="205" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="58" t="s">
+      <c r="U7" s="206" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="162" t="s">
+      <c r="V7" s="207" t="s">
         <v>252</v>
       </c>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="W7" s="165">
+        <v>42412</v>
+      </c>
+      <c r="X7" s="193">
+        <v>42047</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2776,117 +2767,117 @@
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="54">
         <v>6</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="55" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62" t="s">
+      <c r="M8" s="55"/>
+      <c r="N8" s="55" t="s">
         <v>40</v>
       </c>
       <c r="O8" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="61" t="s">
+      <c r="P8" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="Q8" s="56">
         <v>6</v>
       </c>
-      <c r="R8" s="63" t="s">
+      <c r="R8" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="63" t="s">
+      <c r="S8" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="64" t="s">
+      <c r="T8" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="65" t="s">
+      <c r="U8" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="162" t="s">
+      <c r="V8" s="155" t="s">
         <v>247</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="149" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="179" t="s">
+      <c r="G9" s="172" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="181">
+      <c r="H9" s="174">
         <v>7</v>
       </c>
-      <c r="I9" s="181" t="s">
+      <c r="I9" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="167" t="s">
+      <c r="J9" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="181" t="s">
+      <c r="K9" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="181" t="s">
+      <c r="L9" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181" t="s">
+      <c r="M9" s="174"/>
+      <c r="N9" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="167" t="s">
+      <c r="O9" s="160" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="180" t="s">
+      <c r="P9" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="182">
+      <c r="Q9" s="175">
         <v>6</v>
       </c>
-      <c r="R9" s="182" t="s">
+      <c r="R9" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="182" t="s">
+      <c r="S9" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="198" t="s">
+      <c r="T9" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="U9" s="183" t="s">
+      <c r="U9" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="V9" s="184" t="s">
+      <c r="V9" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="172">
+      <c r="W9" s="165">
         <v>42408</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -2894,16 +2885,16 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="149" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="24"/>
@@ -2911,54 +2902,54 @@
       <c r="G10" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="122">
+      <c r="H10" s="115">
         <v>8</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="114" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="121" t="s">
+      <c r="K10" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121" t="s">
+      <c r="M10" s="114"/>
+      <c r="N10" s="114" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="122" t="s">
+      <c r="P10" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="123">
+      <c r="Q10" s="116">
         <v>6</v>
       </c>
-      <c r="R10" s="123" t="s">
+      <c r="R10" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="S10" s="123" t="s">
+      <c r="S10" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="T10" s="157" t="s">
+      <c r="T10" s="150" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="158" t="s">
+      <c r="U10" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="V10" s="162" t="s">
+      <c r="V10" s="155" t="s">
         <v>247</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2972,53 +2963,53 @@
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="179" t="s">
+      <c r="G11" s="172" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="181">
+      <c r="H11" s="174">
         <v>9</v>
       </c>
-      <c r="I11" s="181" t="s">
+      <c r="I11" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="167" t="s">
+      <c r="J11" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="181" t="s">
+      <c r="K11" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="181" t="s">
+      <c r="L11" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181" t="s">
+      <c r="M11" s="174"/>
+      <c r="N11" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="167" t="s">
+      <c r="O11" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="180" t="s">
+      <c r="P11" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="182">
+      <c r="Q11" s="175">
         <v>6</v>
       </c>
-      <c r="R11" s="182" t="s">
+      <c r="R11" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="182" t="s">
+      <c r="S11" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="T11" s="198" t="s">
+      <c r="T11" s="191" t="s">
         <v>202</v>
       </c>
-      <c r="U11" s="183" t="s">
+      <c r="U11" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="184" t="s">
+      <c r="V11" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="172">
+      <c r="W11" s="165">
         <v>42408</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -3026,7 +3017,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -3038,52 +3029,52 @@
       <c r="D12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="60"/>
+      <c r="G12" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="62">
         <v>10</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70" t="s">
+      <c r="M12" s="63"/>
+      <c r="N12" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="67"/>
-      <c r="P12" s="69" t="s">
+      <c r="O12" s="60"/>
+      <c r="P12" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="71">
+      <c r="Q12" s="64">
         <v>6</v>
       </c>
-      <c r="R12" s="71" t="s">
+      <c r="R12" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="S12" s="71" t="s">
+      <c r="S12" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="T12" s="72" t="s">
+      <c r="T12" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="V12" s="162" t="s">
+      <c r="V12" s="155" t="s">
         <v>248</v>
       </c>
       <c r="W12" s="3"/>
@@ -3147,7 +3138,7 @@
       <c r="U13" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="V13" s="163" t="s">
+      <c r="V13" s="156" t="s">
         <v>252</v>
       </c>
       <c r="W13" s="3"/>
@@ -3211,7 +3202,7 @@
       <c r="U14" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="V14" s="162" t="s">
+      <c r="V14" s="155" t="s">
         <v>250</v>
       </c>
       <c r="W14" s="3"/>
@@ -3275,75 +3266,75 @@
       <c r="U15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="V15" s="162" t="s">
+      <c r="V15" s="155" t="s">
         <v>250</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="156" t="s">
+      <c r="D16" s="149" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="202" t="s">
+      <c r="G16" s="194" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="203">
+      <c r="H16" s="195">
         <v>14</v>
       </c>
-      <c r="I16" s="203" t="s">
+      <c r="I16" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="168" t="s">
+      <c r="J16" s="161" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="203" t="s">
+      <c r="K16" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="203" t="s">
+      <c r="L16" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="203"/>
-      <c r="N16" s="203" t="s">
+      <c r="M16" s="195"/>
+      <c r="N16" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="168" t="s">
+      <c r="O16" s="161" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="204" t="s">
+      <c r="P16" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="205">
+      <c r="Q16" s="197">
         <v>6</v>
       </c>
-      <c r="R16" s="205" t="s">
+      <c r="R16" s="197" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="205" t="s">
+      <c r="S16" s="197" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="206" t="s">
+      <c r="T16" s="198" t="s">
         <v>208</v>
       </c>
-      <c r="U16" s="207" t="s">
+      <c r="U16" s="199" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="184" t="s">
+      <c r="V16" s="177" t="s">
         <v>249</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="201">
+      <c r="X16" s="193">
         <v>42410</v>
       </c>
       <c r="Y16" s="4" t="s">
@@ -3410,134 +3401,134 @@
       <c r="U17" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="V17" s="162" t="s">
+      <c r="V17" s="155" t="s">
         <v>248</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="156" t="s">
+      <c r="C18" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="156" t="s">
+      <c r="D18" s="149" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="173" t="s">
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="166" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="174">
+      <c r="H18" s="167">
         <v>16</v>
       </c>
-      <c r="I18" s="174" t="s">
+      <c r="I18" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="175" t="s">
+      <c r="J18" s="168" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="174" t="s">
+      <c r="K18" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="174" t="s">
+      <c r="L18" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="174"/>
-      <c r="N18" s="174"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="176" t="s">
+      <c r="M18" s="167"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="177">
+      <c r="Q18" s="170">
         <v>8</v>
       </c>
-      <c r="R18" s="177" t="s">
+      <c r="R18" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="177" t="s">
+      <c r="S18" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="177" t="s">
+      <c r="T18" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="178" t="s">
+      <c r="U18" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="V18" s="184" t="s">
+      <c r="V18" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="199">
+      <c r="W18" s="192">
         <v>42403</v>
       </c>
-      <c r="X18" s="171" t="s">
+      <c r="X18" s="164" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="117" t="s">
         <v>185</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="179" t="s">
+      <c r="G19" s="172" t="s">
         <v>224</v>
       </c>
-      <c r="H19" s="180">
+      <c r="H19" s="173">
         <v>17</v>
       </c>
-      <c r="I19" s="181" t="s">
+      <c r="I19" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="167" t="s">
+      <c r="J19" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="181" t="s">
+      <c r="K19" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="181" t="s">
+      <c r="L19" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="167"/>
-      <c r="P19" s="180" t="s">
+      <c r="M19" s="174"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="182">
+      <c r="Q19" s="175">
         <v>8</v>
       </c>
-      <c r="R19" s="182" t="s">
+      <c r="R19" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="S19" s="182" t="s">
+      <c r="S19" s="175" t="s">
         <v>218</v>
       </c>
-      <c r="T19" s="182" t="s">
+      <c r="T19" s="175" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="183" t="s">
+      <c r="U19" s="176" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="184" t="s">
+      <c r="V19" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="199">
+      <c r="W19" s="192">
         <v>42403</v>
       </c>
       <c r="X19" s="24" t="s">
@@ -3545,144 +3536,144 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="93" t="s">
         <v>185</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="101" t="s">
+      <c r="G20" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="102">
+      <c r="H20" s="95">
         <v>18</v>
       </c>
-      <c r="I20" s="102" t="s">
+      <c r="I20" s="95" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="102" t="s">
+      <c r="K20" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="102" t="s">
+      <c r="L20" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="102" t="s">
+      <c r="M20" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="102"/>
+      <c r="N20" s="95"/>
       <c r="O20" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="103" t="s">
+      <c r="P20" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="104">
+      <c r="Q20" s="97">
         <v>6</v>
       </c>
-      <c r="R20" s="104" t="s">
+      <c r="R20" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="104" t="s">
+      <c r="S20" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="105" t="s">
+      <c r="T20" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="106" t="s">
+      <c r="U20" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="163" t="s">
+      <c r="V20" s="156" t="s">
         <v>254</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="93" t="s">
         <v>185</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="101" t="s">
+      <c r="G21" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="103">
+      <c r="H21" s="96">
         <v>19</v>
       </c>
-      <c r="I21" s="102" t="s">
+      <c r="I21" s="95" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="102" t="s">
+      <c r="K21" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="102" t="s">
+      <c r="L21" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102" t="s">
+      <c r="M21" s="95"/>
+      <c r="N21" s="95" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="103" t="s">
+      <c r="P21" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="104">
+      <c r="Q21" s="97">
         <v>6</v>
       </c>
-      <c r="R21" s="104" t="s">
+      <c r="R21" s="97" t="s">
         <v>192</v>
       </c>
-      <c r="S21" s="104" t="s">
+      <c r="S21" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="T21" s="105" t="s">
+      <c r="T21" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="U21" s="106" t="s">
+      <c r="U21" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="V21" s="163" t="s">
+      <c r="V21" s="156" t="s">
         <v>247</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="93" t="s">
         <v>185</v>
       </c>
       <c r="E22" s="18"/>
@@ -3690,240 +3681,240 @@
       <c r="G22" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="121">
+      <c r="H22" s="114">
         <v>20</v>
       </c>
-      <c r="I22" s="121" t="s">
+      <c r="I22" s="114" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="121" t="s">
+      <c r="K22" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="121" t="s">
+      <c r="L22" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121" t="s">
+      <c r="M22" s="114"/>
+      <c r="N22" s="114" t="s">
         <v>120</v>
       </c>
       <c r="O22" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="122" t="s">
+      <c r="P22" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="123">
+      <c r="Q22" s="116">
         <v>6</v>
       </c>
-      <c r="R22" s="123" t="s">
+      <c r="R22" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="S22" s="123" t="s">
+      <c r="S22" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="T22" s="157" t="s">
+      <c r="T22" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="U22" s="158" t="s">
+      <c r="U22" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="V22" s="163" t="s">
+      <c r="V22" s="156" t="s">
         <v>254</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C23" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="93" t="s">
         <v>185</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="179" t="s">
+      <c r="G23" s="172" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="180">
+      <c r="H23" s="173">
         <v>21</v>
       </c>
-      <c r="I23" s="181" t="s">
+      <c r="I23" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="167" t="s">
+      <c r="J23" s="160" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="181" t="s">
+      <c r="K23" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="181" t="s">
+      <c r="L23" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181" t="s">
+      <c r="M23" s="174"/>
+      <c r="N23" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="167" t="s">
+      <c r="O23" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="180" t="s">
+      <c r="P23" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="182">
+      <c r="Q23" s="175">
         <v>6</v>
       </c>
-      <c r="R23" s="182" t="s">
+      <c r="R23" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="182" t="s">
+      <c r="S23" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="198" t="s">
+      <c r="T23" s="191" t="s">
         <v>212</v>
       </c>
-      <c r="U23" s="183" t="s">
+      <c r="U23" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="V23" s="184" t="s">
+      <c r="V23" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="172">
+      <c r="W23" s="165">
         <v>42408</v>
       </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="101" t="s">
         <v>185</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>122</v>
       </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="109" t="s">
+      <c r="G24" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="110">
+      <c r="H24" s="103">
         <v>22</v>
       </c>
-      <c r="I24" s="111" t="s">
+      <c r="I24" s="104" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="111" t="s">
+      <c r="K24" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="111" t="s">
+      <c r="L24" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111" t="s">
+      <c r="M24" s="104"/>
+      <c r="N24" s="104" t="s">
         <v>121</v>
       </c>
       <c r="O24" s="19"/>
-      <c r="P24" s="110" t="s">
+      <c r="P24" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="112">
+      <c r="Q24" s="105">
         <v>6</v>
       </c>
-      <c r="R24" s="112" t="s">
+      <c r="R24" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="112" t="s">
+      <c r="S24" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="T24" s="113" t="s">
+      <c r="T24" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="U24" s="114" t="s">
+      <c r="U24" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="162" t="s">
+      <c r="V24" s="155" t="s">
         <v>247</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="75" t="s">
         <v>186</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="173" t="s">
+      <c r="G25" s="166" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="174">
+      <c r="H25" s="167">
         <v>23</v>
       </c>
-      <c r="I25" s="174" t="s">
+      <c r="I25" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="175" t="s">
+      <c r="J25" s="168" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="174" t="s">
+      <c r="K25" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="174" t="s">
+      <c r="L25" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="174"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="176" t="s">
+      <c r="M25" s="167"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="168"/>
+      <c r="P25" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="177">
+      <c r="Q25" s="170">
         <v>8</v>
       </c>
-      <c r="R25" s="177" t="s">
+      <c r="R25" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="S25" s="177" t="s">
+      <c r="S25" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="T25" s="177" t="s">
+      <c r="T25" s="170" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="178" t="s">
+      <c r="U25" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="V25" s="184" t="s">
+      <c r="V25" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="W25" s="199">
+      <c r="W25" s="192">
         <v>42404</v>
       </c>
       <c r="X25" s="24" t="s">
@@ -3931,63 +3922,63 @@
       </c>
     </row>
     <row r="26" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="77" t="s">
         <v>186</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="179" t="s">
+      <c r="G26" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="180">
+      <c r="H26" s="173">
         <v>24</v>
       </c>
-      <c r="I26" s="181" t="s">
+      <c r="I26" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="167" t="s">
+      <c r="J26" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="181" t="s">
+      <c r="K26" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="181" t="s">
+      <c r="L26" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="167"/>
-      <c r="P26" s="180" t="s">
+      <c r="M26" s="174"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="182">
+      <c r="Q26" s="175">
         <v>8</v>
       </c>
-      <c r="R26" s="182" t="s">
+      <c r="R26" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="S26" s="182" t="s">
+      <c r="S26" s="175" t="s">
         <v>218</v>
       </c>
-      <c r="T26" s="182" t="s">
+      <c r="T26" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="183" t="s">
+      <c r="U26" s="176" t="s">
         <v>219</v>
       </c>
-      <c r="V26" s="184" t="s">
+      <c r="V26" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="W26" s="199">
+      <c r="W26" s="192">
         <v>42404</v>
       </c>
       <c r="X26" s="24" t="s">
@@ -3995,60 +3986,60 @@
       </c>
     </row>
     <row r="27" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="77" t="s">
         <v>186</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="190" t="s">
+      <c r="G27" s="183" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="191">
+      <c r="H27" s="184">
         <v>25</v>
       </c>
-      <c r="I27" s="192" t="s">
+      <c r="I27" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="170" t="s">
+      <c r="J27" s="163" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="192" t="s">
+      <c r="K27" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="192" t="s">
+      <c r="L27" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="192"/>
-      <c r="N27" s="192"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="191" t="s">
+      <c r="M27" s="185"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="193">
+      <c r="Q27" s="186">
         <v>8</v>
       </c>
-      <c r="R27" s="193" t="s">
+      <c r="R27" s="186" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="193" t="s">
+      <c r="S27" s="186" t="s">
         <v>218</v>
       </c>
-      <c r="T27" s="193" t="s">
+      <c r="T27" s="186" t="s">
         <v>220</v>
       </c>
-      <c r="U27" s="194" t="s">
+      <c r="U27" s="187" t="s">
         <v>219</v>
       </c>
-      <c r="V27" s="184" t="s">
+      <c r="V27" s="177" t="s">
         <v>246</v>
       </c>
       <c r="W27" s="24" t="s">
@@ -4059,63 +4050,63 @@
       </c>
     </row>
     <row r="28" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="77" t="s">
         <v>186</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
-      <c r="G28" s="179" t="s">
+      <c r="G28" s="172" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="181">
+      <c r="H28" s="174">
         <v>26</v>
       </c>
-      <c r="I28" s="181" t="s">
+      <c r="I28" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="167" t="s">
+      <c r="J28" s="160" t="s">
         <v>261</v>
       </c>
-      <c r="K28" s="181" t="s">
+      <c r="K28" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="181" t="s">
+      <c r="L28" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="181"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="167"/>
-      <c r="P28" s="180" t="s">
+      <c r="M28" s="174"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="182">
+      <c r="Q28" s="175">
         <v>8</v>
       </c>
-      <c r="R28" s="182" t="s">
+      <c r="R28" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="182" t="s">
+      <c r="S28" s="175" t="s">
         <v>218</v>
       </c>
-      <c r="T28" s="182" t="s">
+      <c r="T28" s="175" t="s">
         <v>221</v>
       </c>
-      <c r="U28" s="183" t="s">
+      <c r="U28" s="176" t="s">
         <v>219</v>
       </c>
-      <c r="V28" s="184" t="s">
+      <c r="V28" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="199">
+      <c r="W28" s="192">
         <v>42404</v>
       </c>
       <c r="X28" s="24" t="s">
@@ -4123,60 +4114,60 @@
       </c>
     </row>
     <row r="29" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="155" t="s">
+      <c r="A29" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="124" t="s">
+      <c r="D29" s="117" t="s">
         <v>186</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="185" t="s">
+      <c r="G29" s="178" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="186">
+      <c r="H29" s="179">
         <v>27</v>
       </c>
-      <c r="I29" s="187" t="s">
+      <c r="I29" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="166" t="s">
+      <c r="J29" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="187" t="s">
+      <c r="K29" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="187" t="s">
+      <c r="L29" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="186" t="s">
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="188">
+      <c r="Q29" s="181">
         <v>8</v>
       </c>
-      <c r="R29" s="188" t="s">
+      <c r="R29" s="181" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="188" t="s">
+      <c r="S29" s="181" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="188" t="s">
+      <c r="T29" s="181" t="s">
         <v>169</v>
       </c>
-      <c r="U29" s="189" t="s">
+      <c r="U29" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="V29" s="197" t="s">
+      <c r="V29" s="190" t="s">
         <v>246</v>
       </c>
       <c r="W29" s="24"/>
@@ -4186,317 +4177,317 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="77" t="s">
         <v>186</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="85" t="s">
+      <c r="G30" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="87">
+      <c r="H30" s="80">
         <v>28</v>
       </c>
-      <c r="I30" s="86" t="s">
+      <c r="I30" s="79" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="86" t="s">
+      <c r="L30" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="86" t="s">
+      <c r="M30" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="86"/>
+      <c r="N30" s="79"/>
       <c r="O30" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="P30" s="87" t="s">
+      <c r="P30" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="88">
+      <c r="Q30" s="81">
         <v>6</v>
       </c>
-      <c r="R30" s="88" t="s">
+      <c r="R30" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="S30" s="88" t="s">
+      <c r="S30" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="T30" s="89" t="s">
+      <c r="T30" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="U30" s="90" t="s">
+      <c r="U30" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="V30" s="164" t="s">
+      <c r="V30" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="W30" s="169"/>
-      <c r="X30" s="169"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="85" t="s">
         <v>186</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="93" t="s">
+      <c r="G31" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="95">
+      <c r="H31" s="88">
         <v>29</v>
       </c>
-      <c r="I31" s="95" t="s">
+      <c r="I31" s="88" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="K31" s="95" t="s">
+      <c r="K31" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="95" t="s">
+      <c r="L31" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95" t="s">
+      <c r="M31" s="88"/>
+      <c r="N31" s="88" t="s">
         <v>121</v>
       </c>
       <c r="O31" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="P31" s="94" t="s">
+      <c r="P31" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="96">
+      <c r="Q31" s="89">
         <v>6</v>
       </c>
-      <c r="R31" s="96" t="s">
+      <c r="R31" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="S31" s="96" t="s">
+      <c r="S31" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="T31" s="97" t="s">
+      <c r="T31" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="U31" s="98" t="s">
+      <c r="U31" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="V31" s="165" t="s">
+      <c r="V31" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="W31" s="169"/>
-      <c r="X31" s="169"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116" t="s">
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="117">
+      <c r="H32" s="110">
         <v>30</v>
       </c>
-      <c r="I32" s="74" t="s">
+      <c r="I32" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="115" t="s">
+      <c r="J32" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="74" t="s">
+      <c r="K32" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="74" t="s">
+      <c r="L32" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74" t="s">
+      <c r="M32" s="67"/>
+      <c r="N32" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="118" t="s">
+      <c r="O32" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="117" t="s">
+      <c r="P32" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="119">
+      <c r="Q32" s="112">
         <v>6</v>
       </c>
-      <c r="R32" s="119" t="s">
+      <c r="R32" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="119" t="s">
+      <c r="S32" s="112" t="s">
         <v>193</v>
       </c>
-      <c r="T32" s="120" t="s">
+      <c r="T32" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="U32" s="119" t="s">
+      <c r="U32" s="112" t="s">
         <v>195</v>
       </c>
-      <c r="V32" s="164" t="s">
+      <c r="V32" s="157" t="s">
         <v>254</v>
       </c>
-      <c r="W32" s="169"/>
-      <c r="X32" s="169"/>
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="190" t="s">
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="191">
+      <c r="H33" s="184">
         <v>31</v>
       </c>
-      <c r="I33" s="192" t="s">
+      <c r="I33" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="170" t="s">
+      <c r="J33" s="163" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="192" t="s">
+      <c r="K33" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="192" t="s">
+      <c r="L33" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="191" t="s">
+      <c r="M33" s="185"/>
+      <c r="N33" s="185"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="193"/>
-      <c r="R33" s="193"/>
-      <c r="S33" s="193"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="193"/>
-      <c r="V33" s="195" t="s">
+      <c r="Q33" s="186"/>
+      <c r="R33" s="186"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="186"/>
+      <c r="U33" s="186"/>
+      <c r="V33" s="188" t="s">
         <v>246</v>
       </c>
-      <c r="W33" s="191"/>
-      <c r="X33" s="169"/>
+      <c r="W33" s="184"/>
+      <c r="X33" s="162"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="76" t="s">
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="77">
+      <c r="H34" s="70">
         <v>32</v>
       </c>
-      <c r="I34" s="77" t="s">
+      <c r="I34" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="75" t="s">
+      <c r="J34" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="77" t="s">
+      <c r="K34" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="77" t="s">
+      <c r="L34" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77" t="s">
+      <c r="M34" s="70"/>
+      <c r="N34" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="75"/>
-      <c r="P34" s="78" t="s">
+      <c r="O34" s="68"/>
+      <c r="P34" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="79">
+      <c r="Q34" s="72">
         <v>6</v>
       </c>
-      <c r="R34" s="79" t="s">
+      <c r="R34" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="S34" s="79" t="s">
+      <c r="S34" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="T34" s="80" t="s">
+      <c r="T34" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="79" t="s">
+      <c r="U34" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="V34" s="164" t="s">
+      <c r="V34" s="157" t="s">
         <v>247</v>
       </c>
-      <c r="W34" s="169"/>
-      <c r="X34" s="169"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="162"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="117" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -4507,969 +4498,969 @@
       <c r="G35" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="122">
+      <c r="H35" s="115">
         <v>33</v>
       </c>
-      <c r="I35" s="121" t="s">
+      <c r="I35" s="114" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="121" t="s">
+      <c r="K35" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="121" t="s">
+      <c r="L35" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121" t="s">
+      <c r="M35" s="114"/>
+      <c r="N35" s="114" t="s">
         <v>52</v>
       </c>
       <c r="O35" s="24"/>
-      <c r="P35" s="122" t="s">
+      <c r="P35" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="123">
+      <c r="Q35" s="116">
         <v>6</v>
       </c>
-      <c r="R35" s="123" t="s">
+      <c r="R35" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="S35" s="123" t="s">
+      <c r="S35" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="T35" s="157" t="s">
+      <c r="T35" s="150" t="s">
         <v>216</v>
       </c>
-      <c r="U35" s="123" t="s">
+      <c r="U35" s="116" t="s">
         <v>195</v>
       </c>
-      <c r="V35" s="165" t="s">
+      <c r="V35" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="W35" s="169"/>
-      <c r="X35" s="169"/>
+      <c r="W35" s="162"/>
+      <c r="X35" s="162"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="125"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="129"/>
-      <c r="R36" s="129"/>
-      <c r="S36" s="129"/>
-      <c r="T36" s="129"/>
-      <c r="U36" s="129"/>
-      <c r="V36" s="130"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="118"/>
+      <c r="M36" s="118"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="122"/>
+      <c r="U36" s="122"/>
+      <c r="V36" s="123"/>
       <c r="W36" s="22"/>
       <c r="X36" s="22"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="131"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="131"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="131"/>
-      <c r="N37" s="131"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="134"/>
-      <c r="Q37" s="135"/>
-      <c r="R37" s="135"/>
-      <c r="S37" s="135"/>
-      <c r="T37" s="135"/>
-      <c r="U37" s="135"/>
-      <c r="V37" s="134"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="124"/>
+      <c r="O37" s="125"/>
+      <c r="P37" s="127"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="128"/>
+      <c r="T37" s="128"/>
+      <c r="U37" s="128"/>
+      <c r="V37" s="127"/>
       <c r="W37" s="22"/>
       <c r="X37" s="22"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="131"/>
-      <c r="B38" s="132"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="134"/>
-      <c r="Q38" s="134"/>
-      <c r="R38" s="134"/>
-      <c r="S38" s="134"/>
-      <c r="T38" s="134"/>
-      <c r="U38" s="134"/>
-      <c r="V38" s="134"/>
+      <c r="A38" s="124"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="125"/>
+      <c r="P38" s="127"/>
+      <c r="Q38" s="127"/>
+      <c r="R38" s="127"/>
+      <c r="S38" s="127"/>
+      <c r="T38" s="127"/>
+      <c r="U38" s="127"/>
+      <c r="V38" s="127"/>
       <c r="W38" s="22"/>
       <c r="X38" s="22"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="131"/>
-      <c r="B39" s="132"/>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="132"/>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="134"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
+      <c r="O39" s="125"/>
+      <c r="P39" s="127"/>
+      <c r="Q39" s="127"/>
+      <c r="R39" s="127"/>
+      <c r="S39" s="127"/>
+      <c r="T39" s="127"/>
+      <c r="U39" s="127"/>
+      <c r="V39" s="127"/>
       <c r="W39" s="22"/>
       <c r="X39" s="22"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="131"/>
-      <c r="B40" s="132"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="134"/>
-      <c r="Q40" s="134"/>
-      <c r="R40" s="134"/>
-      <c r="S40" s="134"/>
-      <c r="T40" s="134"/>
-      <c r="U40" s="134"/>
-      <c r="V40" s="132"/>
+      <c r="A40" s="124"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="127"/>
+      <c r="Q40" s="127"/>
+      <c r="R40" s="127"/>
+      <c r="S40" s="127"/>
+      <c r="T40" s="127"/>
+      <c r="U40" s="127"/>
+      <c r="V40" s="125"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="131"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="131"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="131"/>
-      <c r="N41" s="131"/>
-      <c r="O41" s="132"/>
-      <c r="P41" s="134"/>
-      <c r="Q41" s="134"/>
-      <c r="R41" s="134"/>
-      <c r="S41" s="134"/>
-      <c r="T41" s="134"/>
-      <c r="U41" s="134"/>
-      <c r="V41" s="132"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="124"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="127"/>
+      <c r="Q41" s="127"/>
+      <c r="R41" s="127"/>
+      <c r="S41" s="127"/>
+      <c r="T41" s="127"/>
+      <c r="U41" s="127"/>
+      <c r="V41" s="125"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="131"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="134"/>
-      <c r="Q42" s="134"/>
-      <c r="R42" s="134"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="134"/>
-      <c r="U42" s="134"/>
-      <c r="V42" s="132"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="124"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="127"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="127"/>
+      <c r="S42" s="127"/>
+      <c r="T42" s="127"/>
+      <c r="U42" s="127"/>
+      <c r="V42" s="125"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="131"/>
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="131"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="131"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="131"/>
-      <c r="N43" s="131"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="134"/>
-      <c r="Q43" s="134"/>
-      <c r="R43" s="134"/>
-      <c r="S43" s="134"/>
-      <c r="T43" s="134"/>
-      <c r="U43" s="134"/>
-      <c r="V43" s="132"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="124"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="127"/>
+      <c r="Q43" s="127"/>
+      <c r="R43" s="127"/>
+      <c r="S43" s="127"/>
+      <c r="T43" s="127"/>
+      <c r="U43" s="127"/>
+      <c r="V43" s="125"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="131"/>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="131"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="131"/>
-      <c r="L44" s="131"/>
-      <c r="M44" s="131"/>
-      <c r="N44" s="131"/>
-      <c r="O44" s="132"/>
-      <c r="P44" s="134"/>
-      <c r="Q44" s="134"/>
-      <c r="R44" s="134"/>
-      <c r="S44" s="134"/>
-      <c r="T44" s="134"/>
-      <c r="U44" s="134"/>
-      <c r="V44" s="132"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="124"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="127"/>
+      <c r="Q44" s="127"/>
+      <c r="R44" s="127"/>
+      <c r="S44" s="127"/>
+      <c r="T44" s="127"/>
+      <c r="U44" s="127"/>
+      <c r="V44" s="125"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="131"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="132"/>
-      <c r="K45" s="131"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="131"/>
-      <c r="N45" s="131"/>
-      <c r="O45" s="132"/>
-      <c r="P45" s="134"/>
-      <c r="Q45" s="134"/>
-      <c r="R45" s="134"/>
-      <c r="S45" s="134"/>
-      <c r="T45" s="134"/>
-      <c r="U45" s="134"/>
-      <c r="V45" s="132"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="124"/>
+      <c r="N45" s="124"/>
+      <c r="O45" s="125"/>
+      <c r="P45" s="127"/>
+      <c r="Q45" s="127"/>
+      <c r="R45" s="127"/>
+      <c r="S45" s="127"/>
+      <c r="T45" s="127"/>
+      <c r="U45" s="127"/>
+      <c r="V45" s="125"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="131"/>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="131"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="131"/>
-      <c r="L46" s="131"/>
-      <c r="M46" s="131"/>
-      <c r="N46" s="131"/>
-      <c r="O46" s="132"/>
-      <c r="P46" s="134"/>
-      <c r="Q46" s="134"/>
-      <c r="R46" s="134"/>
-      <c r="S46" s="134"/>
-      <c r="T46" s="134"/>
-      <c r="U46" s="134"/>
-      <c r="V46" s="132"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
+      <c r="O46" s="125"/>
+      <c r="P46" s="127"/>
+      <c r="Q46" s="127"/>
+      <c r="R46" s="127"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="127"/>
+      <c r="U46" s="127"/>
+      <c r="V46" s="125"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="131"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="131"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="131"/>
-      <c r="N47" s="131"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="134"/>
-      <c r="Q47" s="134"/>
-      <c r="R47" s="134"/>
-      <c r="S47" s="134"/>
-      <c r="T47" s="134"/>
-      <c r="U47" s="134"/>
-      <c r="V47" s="132"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="126"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
+      <c r="O47" s="125"/>
+      <c r="P47" s="127"/>
+      <c r="Q47" s="127"/>
+      <c r="R47" s="127"/>
+      <c r="S47" s="127"/>
+      <c r="T47" s="127"/>
+      <c r="U47" s="127"/>
+      <c r="V47" s="125"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="131"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="131"/>
-      <c r="L48" s="131"/>
-      <c r="M48" s="131"/>
-      <c r="N48" s="131"/>
-      <c r="O48" s="132"/>
-      <c r="P48" s="134"/>
-      <c r="Q48" s="134"/>
-      <c r="R48" s="134"/>
-      <c r="S48" s="134"/>
-      <c r="T48" s="134"/>
-      <c r="U48" s="134"/>
-      <c r="V48" s="132"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="125"/>
+      <c r="P48" s="127"/>
+      <c r="Q48" s="127"/>
+      <c r="R48" s="127"/>
+      <c r="S48" s="127"/>
+      <c r="T48" s="127"/>
+      <c r="U48" s="127"/>
+      <c r="V48" s="125"/>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="131"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="132"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132"/>
-      <c r="F49" s="132"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="131"/>
-      <c r="J49" s="132"/>
-      <c r="K49" s="131"/>
-      <c r="L49" s="131"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="131"/>
-      <c r="O49" s="132"/>
-      <c r="P49" s="134"/>
-      <c r="Q49" s="134"/>
-      <c r="R49" s="134"/>
-      <c r="S49" s="134"/>
-      <c r="T49" s="134"/>
-      <c r="U49" s="134"/>
-      <c r="V49" s="132"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="124"/>
+      <c r="O49" s="125"/>
+      <c r="P49" s="127"/>
+      <c r="Q49" s="127"/>
+      <c r="R49" s="127"/>
+      <c r="S49" s="127"/>
+      <c r="T49" s="127"/>
+      <c r="U49" s="127"/>
+      <c r="V49" s="125"/>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="131"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="131"/>
-      <c r="L50" s="131"/>
-      <c r="M50" s="131"/>
-      <c r="N50" s="131"/>
-      <c r="O50" s="132"/>
-      <c r="P50" s="134"/>
-      <c r="Q50" s="134"/>
-      <c r="R50" s="134"/>
-      <c r="S50" s="134"/>
-      <c r="T50" s="134"/>
-      <c r="U50" s="134"/>
-      <c r="V50" s="132"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="124"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="124"/>
+      <c r="O50" s="125"/>
+      <c r="P50" s="127"/>
+      <c r="Q50" s="127"/>
+      <c r="R50" s="127"/>
+      <c r="S50" s="127"/>
+      <c r="T50" s="127"/>
+      <c r="U50" s="127"/>
+      <c r="V50" s="125"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="131"/>
-      <c r="B51" s="132"/>
-      <c r="C51" s="132"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="131"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="131"/>
-      <c r="N51" s="131"/>
-      <c r="O51" s="132"/>
-      <c r="P51" s="134"/>
-      <c r="Q51" s="134"/>
-      <c r="R51" s="134"/>
-      <c r="S51" s="134"/>
-      <c r="T51" s="134"/>
-      <c r="U51" s="134"/>
-      <c r="V51" s="132"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="124"/>
+      <c r="N51" s="124"/>
+      <c r="O51" s="125"/>
+      <c r="P51" s="127"/>
+      <c r="Q51" s="127"/>
+      <c r="R51" s="127"/>
+      <c r="S51" s="127"/>
+      <c r="T51" s="127"/>
+      <c r="U51" s="127"/>
+      <c r="V51" s="125"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="131"/>
-      <c r="B52" s="132"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="131"/>
-      <c r="L52" s="131"/>
-      <c r="M52" s="131"/>
-      <c r="N52" s="131"/>
-      <c r="O52" s="132"/>
-      <c r="P52" s="134"/>
-      <c r="Q52" s="134"/>
-      <c r="R52" s="134"/>
-      <c r="S52" s="134"/>
-      <c r="T52" s="134"/>
-      <c r="U52" s="134"/>
-      <c r="V52" s="132"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="124"/>
+      <c r="M52" s="124"/>
+      <c r="N52" s="124"/>
+      <c r="O52" s="125"/>
+      <c r="P52" s="127"/>
+      <c r="Q52" s="127"/>
+      <c r="R52" s="127"/>
+      <c r="S52" s="127"/>
+      <c r="T52" s="127"/>
+      <c r="U52" s="127"/>
+      <c r="V52" s="125"/>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="131"/>
-      <c r="B53" s="132"/>
-      <c r="C53" s="132"/>
-      <c r="D53" s="132"/>
-      <c r="E53" s="132"/>
-      <c r="F53" s="132"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="132"/>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131"/>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
-      <c r="O53" s="132"/>
-      <c r="P53" s="134"/>
-      <c r="Q53" s="134"/>
-      <c r="R53" s="134"/>
-      <c r="S53" s="134"/>
-      <c r="T53" s="134"/>
-      <c r="U53" s="134"/>
-      <c r="V53" s="132"/>
+      <c r="A53" s="124"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="124"/>
+      <c r="L53" s="124"/>
+      <c r="M53" s="124"/>
+      <c r="N53" s="124"/>
+      <c r="O53" s="125"/>
+      <c r="P53" s="127"/>
+      <c r="Q53" s="127"/>
+      <c r="R53" s="127"/>
+      <c r="S53" s="127"/>
+      <c r="T53" s="127"/>
+      <c r="U53" s="127"/>
+      <c r="V53" s="125"/>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="131"/>
-      <c r="B54" s="132"/>
-      <c r="C54" s="132"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="131"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131"/>
-      <c r="M54" s="131"/>
-      <c r="N54" s="131"/>
-      <c r="O54" s="132"/>
-      <c r="P54" s="134"/>
-      <c r="Q54" s="134"/>
-      <c r="R54" s="134"/>
-      <c r="S54" s="134"/>
-      <c r="T54" s="134"/>
-      <c r="U54" s="134"/>
-      <c r="V54" s="132"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="124"/>
+      <c r="N54" s="124"/>
+      <c r="O54" s="125"/>
+      <c r="P54" s="127"/>
+      <c r="Q54" s="127"/>
+      <c r="R54" s="127"/>
+      <c r="S54" s="127"/>
+      <c r="T54" s="127"/>
+      <c r="U54" s="127"/>
+      <c r="V54" s="125"/>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="131"/>
-      <c r="B55" s="132"/>
-      <c r="C55" s="132"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="132"/>
-      <c r="F55" s="132"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="131"/>
-      <c r="L55" s="131"/>
-      <c r="M55" s="131"/>
-      <c r="N55" s="131"/>
-      <c r="O55" s="132"/>
-      <c r="P55" s="134"/>
-      <c r="Q55" s="134"/>
-      <c r="R55" s="134"/>
-      <c r="S55" s="134"/>
-      <c r="T55" s="134"/>
-      <c r="U55" s="134"/>
-      <c r="V55" s="132"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="124"/>
+      <c r="N55" s="124"/>
+      <c r="O55" s="125"/>
+      <c r="P55" s="127"/>
+      <c r="Q55" s="127"/>
+      <c r="R55" s="127"/>
+      <c r="S55" s="127"/>
+      <c r="T55" s="127"/>
+      <c r="U55" s="127"/>
+      <c r="V55" s="125"/>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="131"/>
-      <c r="B56" s="132"/>
-      <c r="C56" s="132"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="131"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="131"/>
-      <c r="L56" s="131"/>
-      <c r="M56" s="131"/>
-      <c r="N56" s="131"/>
-      <c r="O56" s="132"/>
-      <c r="P56" s="134"/>
-      <c r="Q56" s="134"/>
-      <c r="R56" s="134"/>
-      <c r="S56" s="134"/>
-      <c r="T56" s="134"/>
-      <c r="U56" s="134"/>
-      <c r="V56" s="132"/>
+      <c r="A56" s="124"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="124"/>
+      <c r="N56" s="124"/>
+      <c r="O56" s="125"/>
+      <c r="P56" s="127"/>
+      <c r="Q56" s="127"/>
+      <c r="R56" s="127"/>
+      <c r="S56" s="127"/>
+      <c r="T56" s="127"/>
+      <c r="U56" s="127"/>
+      <c r="V56" s="125"/>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="131"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="131"/>
-      <c r="L57" s="131"/>
-      <c r="M57" s="131"/>
-      <c r="N57" s="131"/>
-      <c r="O57" s="132"/>
-      <c r="P57" s="134"/>
-      <c r="Q57" s="134"/>
-      <c r="R57" s="134"/>
-      <c r="S57" s="134"/>
-      <c r="T57" s="134"/>
-      <c r="U57" s="134"/>
-      <c r="V57" s="132"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="125"/>
+      <c r="P57" s="127"/>
+      <c r="Q57" s="127"/>
+      <c r="R57" s="127"/>
+      <c r="S57" s="127"/>
+      <c r="T57" s="127"/>
+      <c r="U57" s="127"/>
+      <c r="V57" s="125"/>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="131"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="131"/>
-      <c r="L58" s="131"/>
-      <c r="M58" s="131"/>
-      <c r="N58" s="131"/>
-      <c r="O58" s="132"/>
-      <c r="P58" s="134"/>
-      <c r="Q58" s="134"/>
-      <c r="R58" s="134"/>
-      <c r="S58" s="134"/>
-      <c r="T58" s="134"/>
-      <c r="U58" s="134"/>
-      <c r="V58" s="132"/>
+      <c r="A58" s="124"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="124"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="124"/>
+      <c r="N58" s="124"/>
+      <c r="O58" s="125"/>
+      <c r="P58" s="127"/>
+      <c r="Q58" s="127"/>
+      <c r="R58" s="127"/>
+      <c r="S58" s="127"/>
+      <c r="T58" s="127"/>
+      <c r="U58" s="127"/>
+      <c r="V58" s="125"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="131"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="132"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="132"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="131"/>
-      <c r="N59" s="131"/>
-      <c r="O59" s="132"/>
-      <c r="P59" s="134"/>
-      <c r="Q59" s="134"/>
-      <c r="R59" s="134"/>
-      <c r="S59" s="134"/>
-      <c r="T59" s="134"/>
-      <c r="U59" s="134"/>
-      <c r="V59" s="132"/>
+      <c r="A59" s="124"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="124"/>
+      <c r="J59" s="125"/>
+      <c r="K59" s="124"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="124"/>
+      <c r="N59" s="124"/>
+      <c r="O59" s="125"/>
+      <c r="P59" s="127"/>
+      <c r="Q59" s="127"/>
+      <c r="R59" s="127"/>
+      <c r="S59" s="127"/>
+      <c r="T59" s="127"/>
+      <c r="U59" s="127"/>
+      <c r="V59" s="125"/>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="131"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="132"/>
-      <c r="K60" s="131"/>
-      <c r="L60" s="131"/>
-      <c r="M60" s="131"/>
-      <c r="N60" s="131"/>
-      <c r="O60" s="132"/>
-      <c r="P60" s="134"/>
-      <c r="Q60" s="134"/>
-      <c r="R60" s="134"/>
-      <c r="S60" s="134"/>
-      <c r="T60" s="134"/>
-      <c r="U60" s="134"/>
-      <c r="V60" s="132"/>
+      <c r="A60" s="124"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="124"/>
+      <c r="J60" s="125"/>
+      <c r="K60" s="124"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="124"/>
+      <c r="N60" s="124"/>
+      <c r="O60" s="125"/>
+      <c r="P60" s="127"/>
+      <c r="Q60" s="127"/>
+      <c r="R60" s="127"/>
+      <c r="S60" s="127"/>
+      <c r="T60" s="127"/>
+      <c r="U60" s="127"/>
+      <c r="V60" s="125"/>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="131"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="132"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="131"/>
-      <c r="J61" s="132"/>
-      <c r="K61" s="131"/>
-      <c r="L61" s="131"/>
-      <c r="M61" s="131"/>
-      <c r="N61" s="131"/>
-      <c r="O61" s="132"/>
-      <c r="P61" s="134"/>
-      <c r="Q61" s="134"/>
-      <c r="R61" s="134"/>
-      <c r="S61" s="134"/>
-      <c r="T61" s="134"/>
-      <c r="U61" s="134"/>
-      <c r="V61" s="132"/>
+      <c r="A61" s="124"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="125"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="124"/>
+      <c r="M61" s="124"/>
+      <c r="N61" s="124"/>
+      <c r="O61" s="125"/>
+      <c r="P61" s="127"/>
+      <c r="Q61" s="127"/>
+      <c r="R61" s="127"/>
+      <c r="S61" s="127"/>
+      <c r="T61" s="127"/>
+      <c r="U61" s="127"/>
+      <c r="V61" s="125"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="131"/>
-      <c r="B62" s="132"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="131"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="131"/>
-      <c r="L62" s="131"/>
-      <c r="M62" s="131"/>
-      <c r="N62" s="131"/>
-      <c r="O62" s="132"/>
-      <c r="P62" s="134"/>
-      <c r="Q62" s="134"/>
-      <c r="R62" s="134"/>
-      <c r="S62" s="134"/>
-      <c r="T62" s="134"/>
-      <c r="U62" s="134"/>
-      <c r="V62" s="132"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="125"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="124"/>
+      <c r="O62" s="125"/>
+      <c r="P62" s="127"/>
+      <c r="Q62" s="127"/>
+      <c r="R62" s="127"/>
+      <c r="S62" s="127"/>
+      <c r="T62" s="127"/>
+      <c r="U62" s="127"/>
+      <c r="V62" s="125"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="131"/>
-      <c r="B63" s="132"/>
-      <c r="C63" s="132"/>
-      <c r="D63" s="132"/>
-      <c r="E63" s="132"/>
-      <c r="F63" s="132"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="131"/>
-      <c r="J63" s="132"/>
-      <c r="K63" s="131"/>
-      <c r="L63" s="131"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="131"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="134"/>
-      <c r="Q63" s="134"/>
-      <c r="R63" s="134"/>
-      <c r="S63" s="134"/>
-      <c r="T63" s="134"/>
-      <c r="U63" s="134"/>
-      <c r="V63" s="132"/>
+      <c r="A63" s="124"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="124"/>
+      <c r="J63" s="125"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="124"/>
+      <c r="M63" s="124"/>
+      <c r="N63" s="124"/>
+      <c r="O63" s="125"/>
+      <c r="P63" s="127"/>
+      <c r="Q63" s="127"/>
+      <c r="R63" s="127"/>
+      <c r="S63" s="127"/>
+      <c r="T63" s="127"/>
+      <c r="U63" s="127"/>
+      <c r="V63" s="125"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="131"/>
-      <c r="B64" s="132"/>
-      <c r="C64" s="132"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="131"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="131"/>
-      <c r="L64" s="131"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="131"/>
-      <c r="O64" s="132"/>
-      <c r="P64" s="134"/>
-      <c r="Q64" s="134"/>
-      <c r="R64" s="134"/>
-      <c r="S64" s="134"/>
-      <c r="T64" s="134"/>
-      <c r="U64" s="134"/>
-      <c r="V64" s="132"/>
+      <c r="A64" s="124"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="124"/>
+      <c r="J64" s="125"/>
+      <c r="K64" s="124"/>
+      <c r="L64" s="124"/>
+      <c r="M64" s="124"/>
+      <c r="N64" s="124"/>
+      <c r="O64" s="125"/>
+      <c r="P64" s="127"/>
+      <c r="Q64" s="127"/>
+      <c r="R64" s="127"/>
+      <c r="S64" s="127"/>
+      <c r="T64" s="127"/>
+      <c r="U64" s="127"/>
+      <c r="V64" s="125"/>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="131"/>
-      <c r="B65" s="132"/>
-      <c r="C65" s="132"/>
-      <c r="D65" s="132"/>
-      <c r="E65" s="132"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="131"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="131"/>
-      <c r="L65" s="131"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="134"/>
-      <c r="Q65" s="134"/>
-      <c r="R65" s="134"/>
-      <c r="S65" s="134"/>
-      <c r="T65" s="134"/>
-      <c r="U65" s="134"/>
-      <c r="V65" s="132"/>
+      <c r="A65" s="124"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="124"/>
+      <c r="J65" s="125"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="124"/>
+      <c r="O65" s="125"/>
+      <c r="P65" s="127"/>
+      <c r="Q65" s="127"/>
+      <c r="R65" s="127"/>
+      <c r="S65" s="127"/>
+      <c r="T65" s="127"/>
+      <c r="U65" s="127"/>
+      <c r="V65" s="125"/>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="131"/>
-      <c r="B66" s="132"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="131"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="131"/>
-      <c r="L66" s="131"/>
-      <c r="M66" s="131"/>
-      <c r="N66" s="131"/>
-      <c r="O66" s="132"/>
-      <c r="P66" s="134"/>
-      <c r="Q66" s="134"/>
-      <c r="R66" s="134"/>
-      <c r="S66" s="134"/>
-      <c r="T66" s="134"/>
-      <c r="U66" s="134"/>
-      <c r="V66" s="132"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="125"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="124"/>
+      <c r="N66" s="124"/>
+      <c r="O66" s="125"/>
+      <c r="P66" s="127"/>
+      <c r="Q66" s="127"/>
+      <c r="R66" s="127"/>
+      <c r="S66" s="127"/>
+      <c r="T66" s="127"/>
+      <c r="U66" s="127"/>
+      <c r="V66" s="125"/>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="131"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="132"/>
-      <c r="D67" s="132"/>
-      <c r="E67" s="132"/>
-      <c r="F67" s="132"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="131"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="131"/>
-      <c r="L67" s="131"/>
-      <c r="M67" s="131"/>
-      <c r="N67" s="131"/>
-      <c r="O67" s="132"/>
-      <c r="P67" s="134"/>
-      <c r="Q67" s="134"/>
-      <c r="R67" s="134"/>
-      <c r="S67" s="134"/>
-      <c r="T67" s="134"/>
-      <c r="U67" s="134"/>
-      <c r="V67" s="132"/>
+      <c r="A67" s="124"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="124"/>
+      <c r="N67" s="124"/>
+      <c r="O67" s="125"/>
+      <c r="P67" s="127"/>
+      <c r="Q67" s="127"/>
+      <c r="R67" s="127"/>
+      <c r="S67" s="127"/>
+      <c r="T67" s="127"/>
+      <c r="U67" s="127"/>
+      <c r="V67" s="125"/>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="131"/>
-      <c r="B68" s="132"/>
-      <c r="C68" s="132"/>
-      <c r="D68" s="132"/>
-      <c r="E68" s="132"/>
-      <c r="F68" s="132"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="131"/>
-      <c r="L68" s="131"/>
-      <c r="M68" s="131"/>
-      <c r="N68" s="131"/>
-      <c r="O68" s="132"/>
-      <c r="P68" s="134"/>
-      <c r="Q68" s="134"/>
-      <c r="R68" s="134"/>
-      <c r="S68" s="134"/>
-      <c r="T68" s="134"/>
-      <c r="U68" s="134"/>
-      <c r="V68" s="132"/>
+      <c r="A68" s="124"/>
+      <c r="B68" s="125"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="125"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="124"/>
+      <c r="J68" s="125"/>
+      <c r="K68" s="124"/>
+      <c r="L68" s="124"/>
+      <c r="M68" s="124"/>
+      <c r="N68" s="124"/>
+      <c r="O68" s="125"/>
+      <c r="P68" s="127"/>
+      <c r="Q68" s="127"/>
+      <c r="R68" s="127"/>
+      <c r="S68" s="127"/>
+      <c r="T68" s="127"/>
+      <c r="U68" s="127"/>
+      <c r="V68" s="125"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="131"/>
-      <c r="B69" s="132"/>
-      <c r="C69" s="132"/>
-      <c r="D69" s="132"/>
-      <c r="E69" s="132"/>
-      <c r="F69" s="132"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="131"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="131"/>
-      <c r="L69" s="131"/>
-      <c r="M69" s="131"/>
-      <c r="N69" s="131"/>
-      <c r="O69" s="132"/>
-      <c r="P69" s="134"/>
-      <c r="Q69" s="134"/>
-      <c r="R69" s="134"/>
-      <c r="S69" s="134"/>
-      <c r="T69" s="134"/>
-      <c r="U69" s="134"/>
-      <c r="V69" s="132"/>
+      <c r="A69" s="124"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="124"/>
+      <c r="J69" s="125"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="124"/>
+      <c r="O69" s="125"/>
+      <c r="P69" s="127"/>
+      <c r="Q69" s="127"/>
+      <c r="R69" s="127"/>
+      <c r="S69" s="127"/>
+      <c r="T69" s="127"/>
+      <c r="U69" s="127"/>
+      <c r="V69" s="125"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="131"/>
-      <c r="B70" s="132"/>
-      <c r="C70" s="132"/>
-      <c r="D70" s="132"/>
-      <c r="E70" s="132"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="133"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="131"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="131"/>
-      <c r="L70" s="131"/>
-      <c r="M70" s="131"/>
-      <c r="N70" s="131"/>
-      <c r="O70" s="132"/>
-      <c r="P70" s="134"/>
-      <c r="Q70" s="134"/>
-      <c r="R70" s="134"/>
-      <c r="S70" s="134"/>
-      <c r="T70" s="134"/>
-      <c r="U70" s="134"/>
-      <c r="V70" s="132"/>
+      <c r="A70" s="124"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="124"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="124"/>
+      <c r="L70" s="124"/>
+      <c r="M70" s="124"/>
+      <c r="N70" s="124"/>
+      <c r="O70" s="125"/>
+      <c r="P70" s="127"/>
+      <c r="Q70" s="127"/>
+      <c r="R70" s="127"/>
+      <c r="S70" s="127"/>
+      <c r="T70" s="127"/>
+      <c r="U70" s="127"/>
+      <c r="V70" s="125"/>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="131"/>
-      <c r="B71" s="132"/>
-      <c r="C71" s="132"/>
-      <c r="D71" s="132"/>
-      <c r="E71" s="132"/>
-      <c r="F71" s="132"/>
-      <c r="G71" s="133"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="131"/>
-      <c r="J71" s="132"/>
-      <c r="K71" s="131"/>
-      <c r="L71" s="131"/>
-      <c r="M71" s="131"/>
-      <c r="N71" s="131"/>
-      <c r="O71" s="132"/>
-      <c r="P71" s="134"/>
-      <c r="Q71" s="134"/>
-      <c r="R71" s="134"/>
-      <c r="S71" s="134"/>
-      <c r="T71" s="134"/>
-      <c r="U71" s="134"/>
-      <c r="V71" s="132"/>
+      <c r="A71" s="124"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="125"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="125"/>
+      <c r="I71" s="124"/>
+      <c r="J71" s="125"/>
+      <c r="K71" s="124"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="124"/>
+      <c r="N71" s="124"/>
+      <c r="O71" s="125"/>
+      <c r="P71" s="127"/>
+      <c r="Q71" s="127"/>
+      <c r="R71" s="127"/>
+      <c r="S71" s="127"/>
+      <c r="T71" s="127"/>
+      <c r="U71" s="127"/>
+      <c r="V71" s="125"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="131"/>
-      <c r="B72" s="132"/>
-      <c r="C72" s="132"/>
-      <c r="D72" s="132"/>
-      <c r="E72" s="132"/>
-      <c r="F72" s="132"/>
-      <c r="G72" s="133"/>
-      <c r="H72" s="132"/>
-      <c r="I72" s="131"/>
-      <c r="J72" s="132"/>
-      <c r="K72" s="131"/>
-      <c r="L72" s="131"/>
-      <c r="M72" s="131"/>
-      <c r="N72" s="131"/>
-      <c r="O72" s="132"/>
-      <c r="P72" s="134"/>
-      <c r="Q72" s="134"/>
-      <c r="R72" s="134"/>
-      <c r="S72" s="134"/>
-      <c r="T72" s="134"/>
-      <c r="U72" s="134"/>
-      <c r="V72" s="132"/>
+      <c r="A72" s="124"/>
+      <c r="B72" s="125"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="125"/>
+      <c r="G72" s="126"/>
+      <c r="H72" s="125"/>
+      <c r="I72" s="124"/>
+      <c r="J72" s="125"/>
+      <c r="K72" s="124"/>
+      <c r="L72" s="124"/>
+      <c r="M72" s="124"/>
+      <c r="N72" s="124"/>
+      <c r="O72" s="125"/>
+      <c r="P72" s="127"/>
+      <c r="Q72" s="127"/>
+      <c r="R72" s="127"/>
+      <c r="S72" s="127"/>
+      <c r="T72" s="127"/>
+      <c r="U72" s="127"/>
+      <c r="V72" s="125"/>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="131"/>
-      <c r="B73" s="132"/>
-      <c r="C73" s="132"/>
-      <c r="D73" s="132"/>
-      <c r="E73" s="132"/>
-      <c r="F73" s="132"/>
-      <c r="G73" s="133"/>
-      <c r="H73" s="132"/>
-      <c r="I73" s="131"/>
-      <c r="J73" s="132"/>
-      <c r="K73" s="131"/>
-      <c r="L73" s="131"/>
-      <c r="M73" s="131"/>
-      <c r="N73" s="131"/>
-      <c r="O73" s="132"/>
-      <c r="P73" s="134"/>
-      <c r="Q73" s="134"/>
-      <c r="R73" s="134"/>
-      <c r="S73" s="134"/>
-      <c r="T73" s="134"/>
-      <c r="U73" s="134"/>
-      <c r="V73" s="132"/>
+      <c r="A73" s="124"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="125"/>
+      <c r="G73" s="126"/>
+      <c r="H73" s="125"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="125"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="124"/>
+      <c r="N73" s="124"/>
+      <c r="O73" s="125"/>
+      <c r="P73" s="127"/>
+      <c r="Q73" s="127"/>
+      <c r="R73" s="127"/>
+      <c r="S73" s="127"/>
+      <c r="T73" s="127"/>
+      <c r="U73" s="127"/>
+      <c r="V73" s="125"/>
     </row>
     <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5834,12 +5825,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5854,6 +5839,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -1350,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1362,12 +1362,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1421,15 +1415,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1893,12 +1878,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1917,66 +1962,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2283,9 +2269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,21 +2281,21 @@
     <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="91.5703125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="11" style="17" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="91.5703125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="11" style="15" customWidth="1"/>
     <col min="10" max="10" width="125.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="4" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="35" style="17" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="27" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="27" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="22" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="22" customWidth="1"/>
-    <col min="20" max="20" width="43.28515625" style="22" customWidth="1"/>
-    <col min="21" max="21" width="17" style="22" customWidth="1"/>
+    <col min="15" max="15" width="35" style="15" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="25" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="25" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="43.28515625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="17" style="20" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
     <col min="23" max="23" width="14.5703125" style="4" customWidth="1"/>
     <col min="24" max="24" width="17.42578125" style="4" customWidth="1"/>
@@ -2317,90 +2303,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="231" t="s">
+      <c r="C1" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="220" t="s">
+      <c r="D1" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="218" t="s">
+      <c r="E1" s="210" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="216" t="s">
+      <c r="F1" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="229" t="s">
+      <c r="G1" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="216" t="s">
+      <c r="H1" s="206" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="216" t="s">
+      <c r="I1" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="226" t="s">
+      <c r="J1" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="224" t="s">
+      <c r="K1" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="222" t="s">
+      <c r="L1" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="228" t="s">
+      <c r="M1" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="228"/>
+      <c r="N1" s="220"/>
       <c r="O1" s="208" t="s">
         <v>109</v>
       </c>
       <c r="P1" s="208" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="210" t="s">
+      <c r="Q1" s="225" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="214" t="s">
+      <c r="R1" s="229" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="210" t="s">
+      <c r="S1" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="212" t="s">
+      <c r="T1" s="227" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="210" t="s">
+      <c r="U1" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="189" t="s">
+      <c r="V1" s="184" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="160" t="s">
+      <c r="W1" s="155" t="s">
         <v>255</v>
       </c>
-      <c r="X1" s="161" t="s">
+      <c r="X1" s="156" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="221"/>
-      <c r="B2" s="219"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="227"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="223"/>
+      <c r="A2" s="213"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="215"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
@@ -2409,78 +2395,78 @@
       </c>
       <c r="O2" s="209"/>
       <c r="P2" s="209"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="154"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="230"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="228"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="149"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="200" t="s">
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="201">
+      <c r="H3" s="196">
         <v>1</v>
       </c>
-      <c r="I3" s="201" t="s">
+      <c r="I3" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="202" t="s">
+      <c r="J3" s="197" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="201" t="s">
+      <c r="K3" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="201" t="s">
+      <c r="L3" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="201" t="s">
+      <c r="M3" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="201"/>
-      <c r="O3" s="202" t="s">
+      <c r="N3" s="196"/>
+      <c r="O3" s="197" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="203" t="s">
+      <c r="P3" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="204">
+      <c r="Q3" s="199">
         <v>6</v>
       </c>
-      <c r="R3" s="204" t="s">
+      <c r="R3" s="199" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="204" t="s">
+      <c r="S3" s="199" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="205" t="s">
+      <c r="T3" s="200" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="206" t="s">
+      <c r="U3" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="207" t="s">
+      <c r="V3" s="202" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="193">
+      <c r="X3" s="188">
         <v>42411</v>
       </c>
       <c r="Y3" s="4" t="s">
@@ -2488,204 +2474,204 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="133" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="134">
+      <c r="H4" s="129">
         <v>2</v>
       </c>
-      <c r="I4" s="135" t="s">
+      <c r="I4" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="135" t="s">
+      <c r="K4" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="135" t="s">
+      <c r="L4" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135" t="s">
+      <c r="M4" s="130"/>
+      <c r="N4" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="136" t="s">
+      <c r="O4" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="137">
+      <c r="Q4" s="132">
         <v>6</v>
       </c>
-      <c r="R4" s="137" t="s">
+      <c r="R4" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="137" t="s">
+      <c r="S4" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="138" t="s">
+      <c r="T4" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="139" t="s">
+      <c r="U4" s="134" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="155" t="s">
+      <c r="V4" s="150" t="s">
         <v>247</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="194" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="195">
+      <c r="H5" s="190">
         <v>3</v>
       </c>
-      <c r="I5" s="195" t="s">
+      <c r="I5" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="161" t="s">
+      <c r="J5" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="195" t="s">
+      <c r="K5" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="195" t="s">
+      <c r="L5" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="195" t="s">
+      <c r="M5" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="195"/>
-      <c r="O5" s="233" t="s">
+      <c r="N5" s="190"/>
+      <c r="O5" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="196" t="s">
+      <c r="P5" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="197">
+      <c r="Q5" s="192">
         <v>6</v>
       </c>
-      <c r="R5" s="197" t="s">
+      <c r="R5" s="192" t="s">
         <v>188</v>
       </c>
-      <c r="S5" s="197" t="s">
+      <c r="S5" s="192" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="198" t="s">
+      <c r="T5" s="193" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="199" t="s">
+      <c r="U5" s="194" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="207" t="s">
+      <c r="V5" s="202" t="s">
         <v>253</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="193">
+      <c r="X5" s="188">
         <v>42412</v>
       </c>
-      <c r="Y5" s="125" t="s">
+      <c r="Y5" s="120" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="142" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="137" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="143">
+      <c r="H6" s="138">
         <v>4</v>
       </c>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="144" t="s">
+      <c r="K6" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="144" t="s">
+      <c r="L6" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144" t="s">
+      <c r="M6" s="139"/>
+      <c r="N6" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="143" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="145">
+      <c r="Q6" s="140">
         <v>6</v>
       </c>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="145" t="s">
+      <c r="S6" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="146" t="s">
+      <c r="T6" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="147" t="s">
+      <c r="U6" s="142" t="s">
         <v>195</v>
       </c>
-      <c r="V6" s="155" t="s">
+      <c r="V6" s="150" t="s">
         <v>248</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2697,187 +2683,187 @@
       <c r="D7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="234" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="204" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="201">
+      <c r="H7" s="196">
         <v>5</v>
       </c>
-      <c r="I7" s="201" t="s">
+      <c r="I7" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="235" t="s">
+      <c r="J7" s="205" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="201" t="s">
+      <c r="K7" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="201" t="s">
+      <c r="L7" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="196" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="201"/>
-      <c r="O7" s="202" t="s">
+      <c r="N7" s="196"/>
+      <c r="O7" s="197" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="203" t="s">
+      <c r="P7" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="204">
+      <c r="Q7" s="199">
         <v>6</v>
       </c>
-      <c r="R7" s="204" t="s">
+      <c r="R7" s="199" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="204" t="s">
+      <c r="S7" s="199" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="205" t="s">
+      <c r="T7" s="200" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="206" t="s">
+      <c r="U7" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="207" t="s">
+      <c r="V7" s="202" t="s">
         <v>252</v>
       </c>
-      <c r="W7" s="165">
+      <c r="W7" s="160">
         <v>42412</v>
       </c>
-      <c r="X7" s="193">
+      <c r="X7" s="188">
         <v>42047</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="53" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="49">
         <v>6</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55" t="s">
+      <c r="M8" s="50"/>
+      <c r="N8" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="54" t="s">
+      <c r="P8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="51">
         <v>6</v>
       </c>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="56" t="s">
+      <c r="S8" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="57" t="s">
+      <c r="T8" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="58" t="s">
+      <c r="U8" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="155" t="s">
+      <c r="V8" s="150" t="s">
         <v>247</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="149" t="s">
+      <c r="D9" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="172" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="167" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="174">
+      <c r="H9" s="169">
         <v>7</v>
       </c>
-      <c r="I9" s="174" t="s">
+      <c r="I9" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="160" t="s">
+      <c r="J9" s="155" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="174" t="s">
+      <c r="K9" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="174" t="s">
+      <c r="L9" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="174"/>
-      <c r="N9" s="174" t="s">
+      <c r="M9" s="169"/>
+      <c r="N9" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="160" t="s">
+      <c r="O9" s="155" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="173" t="s">
+      <c r="P9" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="175">
+      <c r="Q9" s="170">
         <v>6</v>
       </c>
-      <c r="R9" s="175" t="s">
+      <c r="R9" s="170" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="175" t="s">
+      <c r="S9" s="170" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="191" t="s">
+      <c r="T9" s="186" t="s">
         <v>200</v>
       </c>
-      <c r="U9" s="176" t="s">
+      <c r="U9" s="171" t="s">
         <v>195</v>
       </c>
-      <c r="V9" s="177" t="s">
+      <c r="V9" s="172" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="165">
+      <c r="W9" s="160">
         <v>42408</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -2885,131 +2871,131 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="149" t="s">
+      <c r="D10" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="29" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="115">
+      <c r="H10" s="110">
         <v>8</v>
       </c>
-      <c r="I10" s="114" t="s">
+      <c r="I10" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="114" t="s">
+      <c r="K10" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="114" t="s">
+      <c r="L10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114" t="s">
+      <c r="M10" s="109"/>
+      <c r="N10" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="115" t="s">
+      <c r="P10" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="116">
+      <c r="Q10" s="111">
         <v>6</v>
       </c>
-      <c r="R10" s="116" t="s">
+      <c r="R10" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="S10" s="116" t="s">
+      <c r="S10" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="T10" s="150" t="s">
+      <c r="T10" s="145" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="151" t="s">
+      <c r="U10" s="146" t="s">
         <v>195</v>
       </c>
-      <c r="V10" s="155" t="s">
+      <c r="V10" s="150" t="s">
         <v>247</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="172" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="167" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="174">
+      <c r="H11" s="169">
         <v>9</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="160" t="s">
+      <c r="J11" s="155" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="174" t="s">
+      <c r="K11" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="174" t="s">
+      <c r="L11" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="174"/>
-      <c r="N11" s="174" t="s">
+      <c r="M11" s="169"/>
+      <c r="N11" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="160" t="s">
+      <c r="O11" s="155" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="173" t="s">
+      <c r="P11" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="175">
+      <c r="Q11" s="170">
         <v>6</v>
       </c>
-      <c r="R11" s="175" t="s">
+      <c r="R11" s="170" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="175" t="s">
+      <c r="S11" s="170" t="s">
         <v>193</v>
       </c>
-      <c r="T11" s="191" t="s">
+      <c r="T11" s="186" t="s">
         <v>202</v>
       </c>
-      <c r="U11" s="176" t="s">
+      <c r="U11" s="171" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="177" t="s">
+      <c r="V11" s="172" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="165">
+      <c r="W11" s="160">
         <v>42408</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -3017,324 +3003,328 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="57">
         <v>10</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="63" t="s">
+      <c r="K12" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63" t="s">
+      <c r="M12" s="58"/>
+      <c r="N12" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="60"/>
-      <c r="P12" s="62" t="s">
+      <c r="O12" s="55"/>
+      <c r="P12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="64">
+      <c r="Q12" s="59">
         <v>6</v>
       </c>
-      <c r="R12" s="64" t="s">
+      <c r="R12" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="S12" s="64" t="s">
+      <c r="S12" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="T12" s="65" t="s">
+      <c r="T12" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="V12" s="155" t="s">
+      <c r="V12" s="150" t="s">
         <v>248</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34" t="s">
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="196">
         <v>11</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="231" t="s">
         <v>238</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="33" t="s">
+      <c r="N13" s="196"/>
+      <c r="O13" s="231" t="s">
         <v>239</v>
       </c>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="199">
         <v>6</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="199" t="s">
         <v>188</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" s="199" t="s">
         <v>189</v>
       </c>
-      <c r="T13" s="36" t="s">
+      <c r="T13" s="200" t="s">
         <v>204</v>
       </c>
-      <c r="U13" s="8" t="s">
+      <c r="U13" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="V13" s="156" t="s">
+      <c r="V13" s="172" t="s">
         <v>252</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
+      <c r="W13" s="160">
+        <v>42412</v>
+      </c>
+      <c r="X13" s="188">
+        <v>42412</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="36">
         <v>12</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41" t="s">
+      <c r="M14" s="36"/>
+      <c r="N14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="8">
         <v>6</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="T14" s="42" t="s">
+      <c r="T14" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="V14" s="155" t="s">
+      <c r="V14" s="150" t="s">
         <v>250</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="24">
         <v>13</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41" t="s">
+      <c r="M15" s="36"/>
+      <c r="N15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="8">
         <v>6</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="42" t="s">
+      <c r="T15" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="V15" s="155" t="s">
+      <c r="V15" s="150" t="s">
         <v>250</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="148" t="s">
+      <c r="A16" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="149" t="s">
+      <c r="D16" s="144" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="194" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="195">
+      <c r="H16" s="190">
         <v>14</v>
       </c>
-      <c r="I16" s="195" t="s">
+      <c r="I16" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="161" t="s">
+      <c r="J16" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="195" t="s">
+      <c r="K16" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="195" t="s">
+      <c r="L16" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="195"/>
-      <c r="N16" s="195" t="s">
+      <c r="M16" s="190"/>
+      <c r="N16" s="190" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="161" t="s">
+      <c r="O16" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="196" t="s">
+      <c r="P16" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="197">
+      <c r="Q16" s="192">
         <v>6</v>
       </c>
-      <c r="R16" s="197" t="s">
+      <c r="R16" s="192" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="197" t="s">
+      <c r="S16" s="192" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="198" t="s">
+      <c r="T16" s="193" t="s">
         <v>208</v>
       </c>
-      <c r="U16" s="199" t="s">
+      <c r="U16" s="194" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="177" t="s">
+      <c r="V16" s="172" t="s">
         <v>249</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="193">
+      <c r="X16" s="188">
         <v>42410</v>
       </c>
       <c r="Y16" s="4" t="s">
@@ -3342,2125 +3332,2125 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46" t="s">
+      <c r="F17" s="40"/>
+      <c r="G17" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="42">
         <v>15</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="48" t="s">
+      <c r="L17" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48" t="s">
+      <c r="M17" s="43"/>
+      <c r="N17" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="O17" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="P17" s="47" t="s">
+      <c r="P17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="13">
         <v>6</v>
       </c>
-      <c r="R17" s="15" t="s">
+      <c r="R17" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="S17" s="15" t="s">
+      <c r="S17" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="T17" s="49" t="s">
+      <c r="T17" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="U17" s="16" t="s">
+      <c r="U17" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="V17" s="155" t="s">
+      <c r="V17" s="150" t="s">
         <v>248</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="153" t="s">
+    <row r="18" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="149" t="s">
+      <c r="D18" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="166" t="s">
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="161" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="167">
+      <c r="H18" s="162">
         <v>16</v>
       </c>
-      <c r="I18" s="167" t="s">
+      <c r="I18" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="168" t="s">
+      <c r="J18" s="163" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="167" t="s">
+      <c r="K18" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="167" t="s">
+      <c r="L18" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="167"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="169" t="s">
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="170">
+      <c r="Q18" s="165">
         <v>8</v>
       </c>
-      <c r="R18" s="170" t="s">
+      <c r="R18" s="165" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="170" t="s">
+      <c r="S18" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="170" t="s">
+      <c r="T18" s="165" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="171" t="s">
+      <c r="U18" s="166" t="s">
         <v>219</v>
       </c>
-      <c r="V18" s="177" t="s">
+      <c r="V18" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="192">
+      <c r="W18" s="187">
         <v>42403</v>
       </c>
-      <c r="X18" s="164" t="s">
+      <c r="X18" s="159" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="148" t="s">
+    <row r="19" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D19" s="112" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="172" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="167" t="s">
         <v>224</v>
       </c>
-      <c r="H19" s="173">
+      <c r="H19" s="168">
         <v>17</v>
       </c>
-      <c r="I19" s="174" t="s">
+      <c r="I19" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="160" t="s">
+      <c r="J19" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="174" t="s">
+      <c r="K19" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="174" t="s">
+      <c r="L19" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="174"/>
-      <c r="N19" s="174"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="173" t="s">
+      <c r="M19" s="169"/>
+      <c r="N19" s="169"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="175">
+      <c r="Q19" s="170">
         <v>8</v>
       </c>
-      <c r="R19" s="175" t="s">
+      <c r="R19" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="S19" s="175" t="s">
+      <c r="S19" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="T19" s="175" t="s">
+      <c r="T19" s="170" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="176" t="s">
+      <c r="U19" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="177" t="s">
+      <c r="V19" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="192">
+      <c r="W19" s="187">
         <v>42403</v>
       </c>
-      <c r="X19" s="24" t="s">
+      <c r="X19" s="22" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="94" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="95">
+      <c r="H20" s="90">
         <v>18</v>
       </c>
-      <c r="I20" s="95" t="s">
+      <c r="I20" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="95" t="s">
+      <c r="K20" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="95" t="s">
+      <c r="L20" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="95" t="s">
+      <c r="M20" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="95"/>
-      <c r="O20" s="18" t="s">
+      <c r="N20" s="90"/>
+      <c r="O20" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="96" t="s">
+      <c r="P20" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="97">
+      <c r="Q20" s="92">
         <v>6</v>
       </c>
-      <c r="R20" s="97" t="s">
+      <c r="R20" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="97" t="s">
+      <c r="S20" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="98" t="s">
+      <c r="T20" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="99" t="s">
+      <c r="U20" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="156" t="s">
+      <c r="V20" s="151" t="s">
         <v>254</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="94" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="96">
+      <c r="H21" s="91">
         <v>19</v>
       </c>
-      <c r="I21" s="95" t="s">
+      <c r="I21" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="95" t="s">
+      <c r="K21" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="95" t="s">
+      <c r="L21" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95" t="s">
+      <c r="M21" s="90"/>
+      <c r="N21" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O21" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="96" t="s">
+      <c r="P21" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="97">
+      <c r="Q21" s="92">
         <v>6</v>
       </c>
-      <c r="R21" s="97" t="s">
+      <c r="R21" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="S21" s="97" t="s">
+      <c r="S21" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="T21" s="98" t="s">
+      <c r="T21" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="U21" s="99" t="s">
+      <c r="U21" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="V21" s="156" t="s">
+      <c r="V21" s="151" t="s">
         <v>247</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="29" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="114">
+      <c r="H22" s="109">
         <v>20</v>
       </c>
-      <c r="I22" s="114" t="s">
+      <c r="I22" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="114" t="s">
+      <c r="K22" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="114" t="s">
+      <c r="L22" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114" t="s">
+      <c r="M22" s="109"/>
+      <c r="N22" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="115" t="s">
+      <c r="P22" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="116">
+      <c r="Q22" s="111">
         <v>6</v>
       </c>
-      <c r="R22" s="116" t="s">
+      <c r="R22" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="S22" s="116" t="s">
+      <c r="S22" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="T22" s="150" t="s">
+      <c r="T22" s="145" t="s">
         <v>211</v>
       </c>
-      <c r="U22" s="151" t="s">
+      <c r="U22" s="146" t="s">
         <v>195</v>
       </c>
-      <c r="V22" s="156" t="s">
+      <c r="V22" s="151" t="s">
         <v>254</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="172" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="173">
+      <c r="H23" s="168">
         <v>21</v>
       </c>
-      <c r="I23" s="174" t="s">
+      <c r="I23" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="160" t="s">
+      <c r="J23" s="155" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="174" t="s">
+      <c r="K23" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="174" t="s">
+      <c r="L23" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="174"/>
-      <c r="N23" s="174" t="s">
+      <c r="M23" s="169"/>
+      <c r="N23" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="160" t="s">
+      <c r="O23" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="173" t="s">
+      <c r="P23" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="175">
+      <c r="Q23" s="170">
         <v>6</v>
       </c>
-      <c r="R23" s="175" t="s">
+      <c r="R23" s="170" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="175" t="s">
+      <c r="S23" s="170" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="191" t="s">
+      <c r="T23" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="U23" s="176" t="s">
+      <c r="U23" s="171" t="s">
         <v>195</v>
       </c>
-      <c r="V23" s="177" t="s">
+      <c r="V23" s="172" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="165">
+      <c r="W23" s="160">
         <v>42408</v>
       </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="102" t="s">
+      <c r="F24" s="17"/>
+      <c r="G24" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="103">
+      <c r="H24" s="98">
         <v>22</v>
       </c>
-      <c r="I24" s="104" t="s">
+      <c r="I24" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="104" t="s">
+      <c r="K24" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="104" t="s">
+      <c r="L24" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104" t="s">
+      <c r="M24" s="99"/>
+      <c r="N24" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="19"/>
-      <c r="P24" s="103" t="s">
+      <c r="O24" s="17"/>
+      <c r="P24" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="105">
+      <c r="Q24" s="100">
         <v>6</v>
       </c>
-      <c r="R24" s="105" t="s">
+      <c r="R24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="105" t="s">
+      <c r="S24" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="T24" s="106" t="s">
+      <c r="T24" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="U24" s="107" t="s">
+      <c r="U24" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="155" t="s">
+      <c r="V24" s="150" t="s">
         <v>247</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
+    <row r="25" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="166" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="161" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="167">
+      <c r="H25" s="162">
         <v>23</v>
       </c>
-      <c r="I25" s="167" t="s">
+      <c r="I25" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="168" t="s">
+      <c r="J25" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="167" t="s">
+      <c r="K25" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="167" t="s">
+      <c r="L25" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="167"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="168"/>
-      <c r="P25" s="169" t="s">
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="170">
+      <c r="Q25" s="165">
         <v>8</v>
       </c>
-      <c r="R25" s="170" t="s">
+      <c r="R25" s="165" t="s">
         <v>217</v>
       </c>
-      <c r="S25" s="170" t="s">
+      <c r="S25" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="T25" s="170" t="s">
+      <c r="T25" s="165" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="171" t="s">
+      <c r="U25" s="166" t="s">
         <v>219</v>
       </c>
-      <c r="V25" s="177" t="s">
+      <c r="V25" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="W25" s="192">
+      <c r="W25" s="187">
         <v>42404</v>
       </c>
-      <c r="X25" s="24" t="s">
+      <c r="X25" s="22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
+    <row r="26" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="172" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="167" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="173">
+      <c r="H26" s="168">
         <v>24</v>
       </c>
-      <c r="I26" s="174" t="s">
+      <c r="I26" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="160" t="s">
+      <c r="J26" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="174" t="s">
+      <c r="K26" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="174" t="s">
+      <c r="L26" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="174"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="173" t="s">
+      <c r="M26" s="169"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="175">
+      <c r="Q26" s="170">
         <v>8</v>
       </c>
-      <c r="R26" s="175" t="s">
+      <c r="R26" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="S26" s="175" t="s">
+      <c r="S26" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="T26" s="175" t="s">
+      <c r="T26" s="170" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="176" t="s">
+      <c r="U26" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="V26" s="177" t="s">
+      <c r="V26" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="W26" s="192">
+      <c r="W26" s="187">
         <v>42404</v>
       </c>
-      <c r="X26" s="24" t="s">
+      <c r="X26" s="22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+    <row r="27" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="183" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="184">
+      <c r="H27" s="179">
         <v>25</v>
       </c>
-      <c r="I27" s="185" t="s">
+      <c r="I27" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="163" t="s">
+      <c r="J27" s="158" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="185" t="s">
+      <c r="K27" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="185" t="s">
+      <c r="L27" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="185"/>
-      <c r="N27" s="185"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="184" t="s">
+      <c r="M27" s="180"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="186">
+      <c r="Q27" s="181">
         <v>8</v>
       </c>
-      <c r="R27" s="186" t="s">
+      <c r="R27" s="181" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="186" t="s">
+      <c r="S27" s="181" t="s">
         <v>218</v>
       </c>
-      <c r="T27" s="186" t="s">
+      <c r="T27" s="181" t="s">
         <v>220</v>
       </c>
-      <c r="U27" s="187" t="s">
+      <c r="U27" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="V27" s="177" t="s">
+      <c r="V27" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="W27" s="24" t="s">
+      <c r="W27" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="X27" s="24" t="s">
+      <c r="X27" s="22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+    <row r="28" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="172" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="167" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="174">
+      <c r="H28" s="169">
         <v>26</v>
       </c>
-      <c r="I28" s="174" t="s">
+      <c r="I28" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="160" t="s">
+      <c r="J28" s="155" t="s">
         <v>261</v>
       </c>
-      <c r="K28" s="174" t="s">
+      <c r="K28" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="174" t="s">
+      <c r="L28" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="174"/>
-      <c r="N28" s="174"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="173" t="s">
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="175">
+      <c r="Q28" s="170">
         <v>8</v>
       </c>
-      <c r="R28" s="175" t="s">
+      <c r="R28" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="175" t="s">
+      <c r="S28" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="T28" s="175" t="s">
+      <c r="T28" s="170" t="s">
         <v>221</v>
       </c>
-      <c r="U28" s="176" t="s">
+      <c r="U28" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="V28" s="177" t="s">
+      <c r="V28" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="192">
+      <c r="W28" s="187">
         <v>42404</v>
       </c>
-      <c r="X28" s="24" t="s">
+      <c r="X28" s="22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="148" t="s">
+    <row r="29" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="117" t="s">
+      <c r="D29" s="112" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="178" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="173" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="179">
+      <c r="H29" s="174">
         <v>27</v>
       </c>
-      <c r="I29" s="180" t="s">
+      <c r="I29" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="159" t="s">
+      <c r="J29" s="154" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="180" t="s">
+      <c r="K29" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="180" t="s">
+      <c r="L29" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="179" t="s">
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="181">
+      <c r="Q29" s="176">
         <v>8</v>
       </c>
-      <c r="R29" s="181" t="s">
+      <c r="R29" s="176" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="181" t="s">
+      <c r="S29" s="176" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="181" t="s">
+      <c r="T29" s="176" t="s">
         <v>169</v>
       </c>
-      <c r="U29" s="182" t="s">
+      <c r="U29" s="177" t="s">
         <v>219</v>
       </c>
-      <c r="V29" s="190" t="s">
+      <c r="V29" s="185" t="s">
         <v>246</v>
       </c>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="17" t="s">
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="15" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="78" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="80">
+      <c r="H30" s="75">
         <v>28</v>
       </c>
-      <c r="I30" s="79" t="s">
+      <c r="I30" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="79" t="s">
+      <c r="K30" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="79" t="s">
+      <c r="L30" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="79" t="s">
+      <c r="M30" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="79"/>
-      <c r="O30" s="21" t="s">
+      <c r="N30" s="74"/>
+      <c r="O30" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="P30" s="80" t="s">
+      <c r="P30" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="81">
+      <c r="Q30" s="76">
         <v>6</v>
       </c>
-      <c r="R30" s="81" t="s">
+      <c r="R30" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="S30" s="81" t="s">
+      <c r="S30" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="T30" s="82" t="s">
+      <c r="T30" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="U30" s="83" t="s">
+      <c r="U30" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="V30" s="157" t="s">
+      <c r="V30" s="152" t="s">
         <v>248</v>
       </c>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
+      <c r="W30" s="157"/>
+      <c r="X30" s="157"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="86" t="s">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="81" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="88">
+      <c r="H31" s="83">
         <v>29</v>
       </c>
-      <c r="I31" s="88" t="s">
+      <c r="I31" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="K31" s="88" t="s">
+      <c r="K31" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="88" t="s">
+      <c r="L31" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88" t="s">
+      <c r="M31" s="83"/>
+      <c r="N31" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="O31" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="P31" s="87" t="s">
+      <c r="P31" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="89">
+      <c r="Q31" s="84">
         <v>6</v>
       </c>
-      <c r="R31" s="89" t="s">
+      <c r="R31" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="S31" s="89" t="s">
+      <c r="S31" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="T31" s="90" t="s">
+      <c r="T31" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="U31" s="91" t="s">
+      <c r="U31" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="V31" s="158" t="s">
+      <c r="V31" s="153" t="s">
         <v>248</v>
       </c>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
+      <c r="W31" s="157"/>
+      <c r="X31" s="157"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109" t="s">
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="110">
+      <c r="H32" s="105">
         <v>30</v>
       </c>
-      <c r="I32" s="67" t="s">
+      <c r="I32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="108" t="s">
+      <c r="J32" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="67" t="s">
+      <c r="K32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="67" t="s">
+      <c r="L32" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67" t="s">
+      <c r="M32" s="62"/>
+      <c r="N32" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="111" t="s">
+      <c r="O32" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="110" t="s">
+      <c r="P32" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="112">
+      <c r="Q32" s="107">
         <v>6</v>
       </c>
-      <c r="R32" s="112" t="s">
+      <c r="R32" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="112" t="s">
+      <c r="S32" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="T32" s="113" t="s">
+      <c r="T32" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="U32" s="112" t="s">
+      <c r="U32" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="V32" s="157" t="s">
+      <c r="V32" s="152" t="s">
         <v>254</v>
       </c>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
+      <c r="W32" s="157"/>
+      <c r="X32" s="157"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="183" t="s">
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="184">
+      <c r="H33" s="179">
         <v>31</v>
       </c>
-      <c r="I33" s="185" t="s">
+      <c r="I33" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="163" t="s">
+      <c r="J33" s="158" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="185" t="s">
+      <c r="K33" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="185" t="s">
+      <c r="L33" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="185"/>
-      <c r="N33" s="185"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="184" t="s">
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="179" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="186"/>
-      <c r="S33" s="186"/>
-      <c r="T33" s="186"/>
-      <c r="U33" s="186"/>
-      <c r="V33" s="188" t="s">
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="183" t="s">
         <v>246</v>
       </c>
-      <c r="W33" s="184"/>
-      <c r="X33" s="162"/>
+      <c r="W33" s="179"/>
+      <c r="X33" s="157"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69" t="s">
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="70">
+      <c r="H34" s="65">
         <v>32</v>
       </c>
-      <c r="I34" s="70" t="s">
+      <c r="I34" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="68" t="s">
+      <c r="J34" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="70" t="s">
+      <c r="K34" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="70" t="s">
+      <c r="L34" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70" t="s">
+      <c r="M34" s="65"/>
+      <c r="N34" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="68"/>
-      <c r="P34" s="71" t="s">
+      <c r="O34" s="63"/>
+      <c r="P34" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="72">
+      <c r="Q34" s="67">
         <v>6</v>
       </c>
-      <c r="R34" s="72" t="s">
+      <c r="R34" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="S34" s="72" t="s">
+      <c r="S34" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="T34" s="73" t="s">
+      <c r="T34" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="72" t="s">
+      <c r="U34" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="V34" s="157" t="s">
+      <c r="V34" s="152" t="s">
         <v>247</v>
       </c>
-      <c r="W34" s="162"/>
-      <c r="X34" s="162"/>
+      <c r="W34" s="157"/>
+      <c r="X34" s="157"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="29" t="s">
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="115">
+      <c r="H35" s="110">
         <v>33</v>
       </c>
-      <c r="I35" s="114" t="s">
+      <c r="I35" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="114" t="s">
+      <c r="K35" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="114" t="s">
+      <c r="L35" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114" t="s">
+      <c r="M35" s="109"/>
+      <c r="N35" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="24"/>
-      <c r="P35" s="115" t="s">
+      <c r="O35" s="22"/>
+      <c r="P35" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="116">
+      <c r="Q35" s="111">
         <v>6</v>
       </c>
-      <c r="R35" s="116" t="s">
+      <c r="R35" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="S35" s="116" t="s">
+      <c r="S35" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="T35" s="150" t="s">
+      <c r="T35" s="145" t="s">
         <v>216</v>
       </c>
-      <c r="U35" s="116" t="s">
+      <c r="U35" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="V35" s="158" t="s">
+      <c r="V35" s="153" t="s">
         <v>248</v>
       </c>
-      <c r="W35" s="162"/>
-      <c r="X35" s="162"/>
+      <c r="W35" s="157"/>
+      <c r="X35" s="157"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="118"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="119"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="122"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="123"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="117"/>
+      <c r="R36" s="117"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="117"/>
+      <c r="U36" s="117"/>
+      <c r="V36" s="118"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="124"/>
-      <c r="N37" s="124"/>
-      <c r="O37" s="125"/>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="127"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="123"/>
+      <c r="T37" s="123"/>
+      <c r="U37" s="123"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="124"/>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="124"/>
-      <c r="N38" s="124"/>
-      <c r="O38" s="125"/>
-      <c r="P38" s="127"/>
-      <c r="Q38" s="127"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="127"/>
-      <c r="T38" s="127"/>
-      <c r="U38" s="127"/>
-      <c r="V38" s="127"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="119"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="122"/>
+      <c r="U38" s="122"/>
+      <c r="V38" s="122"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="124"/>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="127"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="127"/>
-      <c r="U39" s="127"/>
-      <c r="V39" s="127"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="120"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="122"/>
+      <c r="V39" s="122"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="124"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="127"/>
-      <c r="T40" s="127"/>
-      <c r="U40" s="127"/>
-      <c r="V40" s="125"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="122"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="122"/>
+      <c r="U40" s="122"/>
+      <c r="V40" s="120"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="124"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="125"/>
-      <c r="P41" s="127"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="127"/>
-      <c r="U41" s="127"/>
-      <c r="V41" s="125"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="119"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="119"/>
+      <c r="N41" s="119"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="122"/>
+      <c r="Q41" s="122"/>
+      <c r="R41" s="122"/>
+      <c r="S41" s="122"/>
+      <c r="T41" s="122"/>
+      <c r="U41" s="122"/>
+      <c r="V41" s="120"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="124"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="125"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="125"/>
-      <c r="P42" s="127"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="127"/>
-      <c r="U42" s="127"/>
-      <c r="V42" s="125"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="119"/>
+      <c r="L42" s="119"/>
+      <c r="M42" s="119"/>
+      <c r="N42" s="119"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="122"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="122"/>
+      <c r="U42" s="122"/>
+      <c r="V42" s="120"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="124"/>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="124"/>
-      <c r="O43" s="125"/>
-      <c r="P43" s="127"/>
-      <c r="Q43" s="127"/>
-      <c r="R43" s="127"/>
-      <c r="S43" s="127"/>
-      <c r="T43" s="127"/>
-      <c r="U43" s="127"/>
-      <c r="V43" s="125"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="119"/>
+      <c r="M43" s="119"/>
+      <c r="N43" s="119"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
+      <c r="U43" s="122"/>
+      <c r="V43" s="120"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="124"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="124"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="127"/>
-      <c r="Q44" s="127"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="127"/>
-      <c r="T44" s="127"/>
-      <c r="U44" s="127"/>
-      <c r="V44" s="125"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="122"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="122"/>
+      <c r="T44" s="122"/>
+      <c r="U44" s="122"/>
+      <c r="V44" s="120"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="124"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="124"/>
-      <c r="O45" s="125"/>
-      <c r="P45" s="127"/>
-      <c r="Q45" s="127"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="127"/>
-      <c r="T45" s="127"/>
-      <c r="U45" s="127"/>
-      <c r="V45" s="125"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="122"/>
+      <c r="Q45" s="122"/>
+      <c r="R45" s="122"/>
+      <c r="S45" s="122"/>
+      <c r="T45" s="122"/>
+      <c r="U45" s="122"/>
+      <c r="V45" s="120"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="124"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="125"/>
-      <c r="P46" s="127"/>
-      <c r="Q46" s="127"/>
-      <c r="R46" s="127"/>
-      <c r="S46" s="127"/>
-      <c r="T46" s="127"/>
-      <c r="U46" s="127"/>
-      <c r="V46" s="125"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="122"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="122"/>
+      <c r="U46" s="122"/>
+      <c r="V46" s="120"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
-      <c r="O47" s="125"/>
-      <c r="P47" s="127"/>
-      <c r="Q47" s="127"/>
-      <c r="R47" s="127"/>
-      <c r="S47" s="127"/>
-      <c r="T47" s="127"/>
-      <c r="U47" s="127"/>
-      <c r="V47" s="125"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="122"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="122"/>
+      <c r="S47" s="122"/>
+      <c r="T47" s="122"/>
+      <c r="U47" s="122"/>
+      <c r="V47" s="120"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="124"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="125"/>
-      <c r="P48" s="127"/>
-      <c r="Q48" s="127"/>
-      <c r="R48" s="127"/>
-      <c r="S48" s="127"/>
-      <c r="T48" s="127"/>
-      <c r="U48" s="127"/>
-      <c r="V48" s="125"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="119"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="119"/>
+      <c r="L48" s="119"/>
+      <c r="M48" s="119"/>
+      <c r="N48" s="119"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="122"/>
+      <c r="S48" s="122"/>
+      <c r="T48" s="122"/>
+      <c r="U48" s="122"/>
+      <c r="V48" s="120"/>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="124"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="125"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="125"/>
-      <c r="P49" s="127"/>
-      <c r="Q49" s="127"/>
-      <c r="R49" s="127"/>
-      <c r="S49" s="127"/>
-      <c r="T49" s="127"/>
-      <c r="U49" s="127"/>
-      <c r="V49" s="125"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="119"/>
+      <c r="M49" s="119"/>
+      <c r="N49" s="119"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="122"/>
+      <c r="Q49" s="122"/>
+      <c r="R49" s="122"/>
+      <c r="S49" s="122"/>
+      <c r="T49" s="122"/>
+      <c r="U49" s="122"/>
+      <c r="V49" s="120"/>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="124"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
-      <c r="O50" s="125"/>
-      <c r="P50" s="127"/>
-      <c r="Q50" s="127"/>
-      <c r="R50" s="127"/>
-      <c r="S50" s="127"/>
-      <c r="T50" s="127"/>
-      <c r="U50" s="127"/>
-      <c r="V50" s="125"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="119"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="119"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="120"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="124"/>
-      <c r="B51" s="125"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="124"/>
-      <c r="N51" s="124"/>
-      <c r="O51" s="125"/>
-      <c r="P51" s="127"/>
-      <c r="Q51" s="127"/>
-      <c r="R51" s="127"/>
-      <c r="S51" s="127"/>
-      <c r="T51" s="127"/>
-      <c r="U51" s="127"/>
-      <c r="V51" s="125"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="120"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="119"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="119"/>
+      <c r="N51" s="119"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="122"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="122"/>
+      <c r="U51" s="122"/>
+      <c r="V51" s="120"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="124"/>
-      <c r="B52" s="125"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="125"/>
-      <c r="P52" s="127"/>
-      <c r="Q52" s="127"/>
-      <c r="R52" s="127"/>
-      <c r="S52" s="127"/>
-      <c r="T52" s="127"/>
-      <c r="U52" s="127"/>
-      <c r="V52" s="125"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="120"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="119"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="119"/>
+      <c r="L52" s="119"/>
+      <c r="M52" s="119"/>
+      <c r="N52" s="119"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="122"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="122"/>
+      <c r="T52" s="122"/>
+      <c r="U52" s="122"/>
+      <c r="V52" s="120"/>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="124"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="124"/>
-      <c r="L53" s="124"/>
-      <c r="M53" s="124"/>
-      <c r="N53" s="124"/>
-      <c r="O53" s="125"/>
-      <c r="P53" s="127"/>
-      <c r="Q53" s="127"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="127"/>
-      <c r="T53" s="127"/>
-      <c r="U53" s="127"/>
-      <c r="V53" s="125"/>
+      <c r="A53" s="119"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="119"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="122"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="122"/>
+      <c r="T53" s="122"/>
+      <c r="U53" s="122"/>
+      <c r="V53" s="120"/>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="124"/>
-      <c r="B54" s="125"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="124"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="125"/>
-      <c r="P54" s="127"/>
-      <c r="Q54" s="127"/>
-      <c r="R54" s="127"/>
-      <c r="S54" s="127"/>
-      <c r="T54" s="127"/>
-      <c r="U54" s="127"/>
-      <c r="V54" s="125"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="119"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="119"/>
+      <c r="L54" s="119"/>
+      <c r="M54" s="119"/>
+      <c r="N54" s="119"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="122"/>
+      <c r="T54" s="122"/>
+      <c r="U54" s="122"/>
+      <c r="V54" s="120"/>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="124"/>
-      <c r="B55" s="125"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="124"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="124"/>
-      <c r="L55" s="124"/>
-      <c r="M55" s="124"/>
-      <c r="N55" s="124"/>
-      <c r="O55" s="125"/>
-      <c r="P55" s="127"/>
-      <c r="Q55" s="127"/>
-      <c r="R55" s="127"/>
-      <c r="S55" s="127"/>
-      <c r="T55" s="127"/>
-      <c r="U55" s="127"/>
-      <c r="V55" s="125"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="119"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="119"/>
+      <c r="L55" s="119"/>
+      <c r="M55" s="119"/>
+      <c r="N55" s="119"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="122"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="122"/>
+      <c r="T55" s="122"/>
+      <c r="U55" s="122"/>
+      <c r="V55" s="120"/>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="124"/>
-      <c r="B56" s="125"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="125"/>
-      <c r="P56" s="127"/>
-      <c r="Q56" s="127"/>
-      <c r="R56" s="127"/>
-      <c r="S56" s="127"/>
-      <c r="T56" s="127"/>
-      <c r="U56" s="127"/>
-      <c r="V56" s="125"/>
+      <c r="A56" s="119"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="119"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="119"/>
+      <c r="L56" s="119"/>
+      <c r="M56" s="119"/>
+      <c r="N56" s="119"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="122"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="122"/>
+      <c r="T56" s="122"/>
+      <c r="U56" s="122"/>
+      <c r="V56" s="120"/>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="124"/>
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="125"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="124"/>
-      <c r="N57" s="124"/>
-      <c r="O57" s="125"/>
-      <c r="P57" s="127"/>
-      <c r="Q57" s="127"/>
-      <c r="R57" s="127"/>
-      <c r="S57" s="127"/>
-      <c r="T57" s="127"/>
-      <c r="U57" s="127"/>
-      <c r="V57" s="125"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="119"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="119"/>
+      <c r="L57" s="119"/>
+      <c r="M57" s="119"/>
+      <c r="N57" s="119"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="122"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="122"/>
+      <c r="T57" s="122"/>
+      <c r="U57" s="122"/>
+      <c r="V57" s="120"/>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="124"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="124"/>
-      <c r="L58" s="124"/>
-      <c r="M58" s="124"/>
-      <c r="N58" s="124"/>
-      <c r="O58" s="125"/>
-      <c r="P58" s="127"/>
-      <c r="Q58" s="127"/>
-      <c r="R58" s="127"/>
-      <c r="S58" s="127"/>
-      <c r="T58" s="127"/>
-      <c r="U58" s="127"/>
-      <c r="V58" s="125"/>
+      <c r="A58" s="119"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="119"/>
+      <c r="L58" s="119"/>
+      <c r="M58" s="119"/>
+      <c r="N58" s="119"/>
+      <c r="O58" s="120"/>
+      <c r="P58" s="122"/>
+      <c r="Q58" s="122"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="122"/>
+      <c r="T58" s="122"/>
+      <c r="U58" s="122"/>
+      <c r="V58" s="120"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="124"/>
-      <c r="B59" s="125"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="124"/>
-      <c r="J59" s="125"/>
-      <c r="K59" s="124"/>
-      <c r="L59" s="124"/>
-      <c r="M59" s="124"/>
-      <c r="N59" s="124"/>
-      <c r="O59" s="125"/>
-      <c r="P59" s="127"/>
-      <c r="Q59" s="127"/>
-      <c r="R59" s="127"/>
-      <c r="S59" s="127"/>
-      <c r="T59" s="127"/>
-      <c r="U59" s="127"/>
-      <c r="V59" s="125"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="120"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="119"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="119"/>
+      <c r="L59" s="119"/>
+      <c r="M59" s="119"/>
+      <c r="N59" s="119"/>
+      <c r="O59" s="120"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="122"/>
+      <c r="R59" s="122"/>
+      <c r="S59" s="122"/>
+      <c r="T59" s="122"/>
+      <c r="U59" s="122"/>
+      <c r="V59" s="120"/>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="124"/>
-      <c r="B60" s="125"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="124"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="124"/>
-      <c r="L60" s="124"/>
-      <c r="M60" s="124"/>
-      <c r="N60" s="124"/>
-      <c r="O60" s="125"/>
-      <c r="P60" s="127"/>
-      <c r="Q60" s="127"/>
-      <c r="R60" s="127"/>
-      <c r="S60" s="127"/>
-      <c r="T60" s="127"/>
-      <c r="U60" s="127"/>
-      <c r="V60" s="125"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="119"/>
+      <c r="L60" s="119"/>
+      <c r="M60" s="119"/>
+      <c r="N60" s="119"/>
+      <c r="O60" s="120"/>
+      <c r="P60" s="122"/>
+      <c r="Q60" s="122"/>
+      <c r="R60" s="122"/>
+      <c r="S60" s="122"/>
+      <c r="T60" s="122"/>
+      <c r="U60" s="122"/>
+      <c r="V60" s="120"/>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="124"/>
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="125"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="124"/>
-      <c r="M61" s="124"/>
-      <c r="N61" s="124"/>
-      <c r="O61" s="125"/>
-      <c r="P61" s="127"/>
-      <c r="Q61" s="127"/>
-      <c r="R61" s="127"/>
-      <c r="S61" s="127"/>
-      <c r="T61" s="127"/>
-      <c r="U61" s="127"/>
-      <c r="V61" s="125"/>
+      <c r="A61" s="119"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="120"/>
+      <c r="K61" s="119"/>
+      <c r="L61" s="119"/>
+      <c r="M61" s="119"/>
+      <c r="N61" s="119"/>
+      <c r="O61" s="120"/>
+      <c r="P61" s="122"/>
+      <c r="Q61" s="122"/>
+      <c r="R61" s="122"/>
+      <c r="S61" s="122"/>
+      <c r="T61" s="122"/>
+      <c r="U61" s="122"/>
+      <c r="V61" s="120"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="124"/>
-      <c r="B62" s="125"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="125"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="124"/>
-      <c r="N62" s="124"/>
-      <c r="O62" s="125"/>
-      <c r="P62" s="127"/>
-      <c r="Q62" s="127"/>
-      <c r="R62" s="127"/>
-      <c r="S62" s="127"/>
-      <c r="T62" s="127"/>
-      <c r="U62" s="127"/>
-      <c r="V62" s="125"/>
+      <c r="A62" s="119"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="119"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="119"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="119"/>
+      <c r="N62" s="119"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="122"/>
+      <c r="Q62" s="122"/>
+      <c r="R62" s="122"/>
+      <c r="S62" s="122"/>
+      <c r="T62" s="122"/>
+      <c r="U62" s="122"/>
+      <c r="V62" s="120"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="124"/>
-      <c r="B63" s="125"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="125"/>
-      <c r="K63" s="124"/>
-      <c r="L63" s="124"/>
-      <c r="M63" s="124"/>
-      <c r="N63" s="124"/>
-      <c r="O63" s="125"/>
-      <c r="P63" s="127"/>
-      <c r="Q63" s="127"/>
-      <c r="R63" s="127"/>
-      <c r="S63" s="127"/>
-      <c r="T63" s="127"/>
-      <c r="U63" s="127"/>
-      <c r="V63" s="125"/>
+      <c r="A63" s="119"/>
+      <c r="B63" s="120"/>
+      <c r="C63" s="120"/>
+      <c r="D63" s="120"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="121"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="119"/>
+      <c r="J63" s="120"/>
+      <c r="K63" s="119"/>
+      <c r="L63" s="119"/>
+      <c r="M63" s="119"/>
+      <c r="N63" s="119"/>
+      <c r="O63" s="120"/>
+      <c r="P63" s="122"/>
+      <c r="Q63" s="122"/>
+      <c r="R63" s="122"/>
+      <c r="S63" s="122"/>
+      <c r="T63" s="122"/>
+      <c r="U63" s="122"/>
+      <c r="V63" s="120"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="124"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="125"/>
-      <c r="K64" s="124"/>
-      <c r="L64" s="124"/>
-      <c r="M64" s="124"/>
-      <c r="N64" s="124"/>
-      <c r="O64" s="125"/>
-      <c r="P64" s="127"/>
-      <c r="Q64" s="127"/>
-      <c r="R64" s="127"/>
-      <c r="S64" s="127"/>
-      <c r="T64" s="127"/>
-      <c r="U64" s="127"/>
-      <c r="V64" s="125"/>
+      <c r="A64" s="119"/>
+      <c r="B64" s="120"/>
+      <c r="C64" s="120"/>
+      <c r="D64" s="120"/>
+      <c r="E64" s="120"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="121"/>
+      <c r="H64" s="120"/>
+      <c r="I64" s="119"/>
+      <c r="J64" s="120"/>
+      <c r="K64" s="119"/>
+      <c r="L64" s="119"/>
+      <c r="M64" s="119"/>
+      <c r="N64" s="119"/>
+      <c r="O64" s="120"/>
+      <c r="P64" s="122"/>
+      <c r="Q64" s="122"/>
+      <c r="R64" s="122"/>
+      <c r="S64" s="122"/>
+      <c r="T64" s="122"/>
+      <c r="U64" s="122"/>
+      <c r="V64" s="120"/>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="124"/>
-      <c r="B65" s="125"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="124"/>
-      <c r="J65" s="125"/>
-      <c r="K65" s="124"/>
-      <c r="L65" s="124"/>
-      <c r="M65" s="124"/>
-      <c r="N65" s="124"/>
-      <c r="O65" s="125"/>
-      <c r="P65" s="127"/>
-      <c r="Q65" s="127"/>
-      <c r="R65" s="127"/>
-      <c r="S65" s="127"/>
-      <c r="T65" s="127"/>
-      <c r="U65" s="127"/>
-      <c r="V65" s="125"/>
+      <c r="A65" s="119"/>
+      <c r="B65" s="120"/>
+      <c r="C65" s="120"/>
+      <c r="D65" s="120"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="120"/>
+      <c r="G65" s="121"/>
+      <c r="H65" s="120"/>
+      <c r="I65" s="119"/>
+      <c r="J65" s="120"/>
+      <c r="K65" s="119"/>
+      <c r="L65" s="119"/>
+      <c r="M65" s="119"/>
+      <c r="N65" s="119"/>
+      <c r="O65" s="120"/>
+      <c r="P65" s="122"/>
+      <c r="Q65" s="122"/>
+      <c r="R65" s="122"/>
+      <c r="S65" s="122"/>
+      <c r="T65" s="122"/>
+      <c r="U65" s="122"/>
+      <c r="V65" s="120"/>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="124"/>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="125"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="124"/>
-      <c r="M66" s="124"/>
-      <c r="N66" s="124"/>
-      <c r="O66" s="125"/>
-      <c r="P66" s="127"/>
-      <c r="Q66" s="127"/>
-      <c r="R66" s="127"/>
-      <c r="S66" s="127"/>
-      <c r="T66" s="127"/>
-      <c r="U66" s="127"/>
-      <c r="V66" s="125"/>
+      <c r="A66" s="119"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="120"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="120"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="121"/>
+      <c r="H66" s="120"/>
+      <c r="I66" s="119"/>
+      <c r="J66" s="120"/>
+      <c r="K66" s="119"/>
+      <c r="L66" s="119"/>
+      <c r="M66" s="119"/>
+      <c r="N66" s="119"/>
+      <c r="O66" s="120"/>
+      <c r="P66" s="122"/>
+      <c r="Q66" s="122"/>
+      <c r="R66" s="122"/>
+      <c r="S66" s="122"/>
+      <c r="T66" s="122"/>
+      <c r="U66" s="122"/>
+      <c r="V66" s="120"/>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="124"/>
-      <c r="B67" s="125"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="125"/>
-      <c r="K67" s="124"/>
-      <c r="L67" s="124"/>
-      <c r="M67" s="124"/>
-      <c r="N67" s="124"/>
-      <c r="O67" s="125"/>
-      <c r="P67" s="127"/>
-      <c r="Q67" s="127"/>
-      <c r="R67" s="127"/>
-      <c r="S67" s="127"/>
-      <c r="T67" s="127"/>
-      <c r="U67" s="127"/>
-      <c r="V67" s="125"/>
+      <c r="A67" s="119"/>
+      <c r="B67" s="120"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="121"/>
+      <c r="H67" s="120"/>
+      <c r="I67" s="119"/>
+      <c r="J67" s="120"/>
+      <c r="K67" s="119"/>
+      <c r="L67" s="119"/>
+      <c r="M67" s="119"/>
+      <c r="N67" s="119"/>
+      <c r="O67" s="120"/>
+      <c r="P67" s="122"/>
+      <c r="Q67" s="122"/>
+      <c r="R67" s="122"/>
+      <c r="S67" s="122"/>
+      <c r="T67" s="122"/>
+      <c r="U67" s="122"/>
+      <c r="V67" s="120"/>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="124"/>
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="125"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="124"/>
-      <c r="J68" s="125"/>
-      <c r="K68" s="124"/>
-      <c r="L68" s="124"/>
-      <c r="M68" s="124"/>
-      <c r="N68" s="124"/>
-      <c r="O68" s="125"/>
-      <c r="P68" s="127"/>
-      <c r="Q68" s="127"/>
-      <c r="R68" s="127"/>
-      <c r="S68" s="127"/>
-      <c r="T68" s="127"/>
-      <c r="U68" s="127"/>
-      <c r="V68" s="125"/>
+      <c r="A68" s="119"/>
+      <c r="B68" s="120"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="120"/>
+      <c r="F68" s="120"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="119"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="119"/>
+      <c r="L68" s="119"/>
+      <c r="M68" s="119"/>
+      <c r="N68" s="119"/>
+      <c r="O68" s="120"/>
+      <c r="P68" s="122"/>
+      <c r="Q68" s="122"/>
+      <c r="R68" s="122"/>
+      <c r="S68" s="122"/>
+      <c r="T68" s="122"/>
+      <c r="U68" s="122"/>
+      <c r="V68" s="120"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="124"/>
-      <c r="B69" s="125"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="124"/>
-      <c r="J69" s="125"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="124"/>
-      <c r="O69" s="125"/>
-      <c r="P69" s="127"/>
-      <c r="Q69" s="127"/>
-      <c r="R69" s="127"/>
-      <c r="S69" s="127"/>
-      <c r="T69" s="127"/>
-      <c r="U69" s="127"/>
-      <c r="V69" s="125"/>
+      <c r="A69" s="119"/>
+      <c r="B69" s="120"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="120"/>
+      <c r="E69" s="120"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="121"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="119"/>
+      <c r="J69" s="120"/>
+      <c r="K69" s="119"/>
+      <c r="L69" s="119"/>
+      <c r="M69" s="119"/>
+      <c r="N69" s="119"/>
+      <c r="O69" s="120"/>
+      <c r="P69" s="122"/>
+      <c r="Q69" s="122"/>
+      <c r="R69" s="122"/>
+      <c r="S69" s="122"/>
+      <c r="T69" s="122"/>
+      <c r="U69" s="122"/>
+      <c r="V69" s="120"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="124"/>
-      <c r="B70" s="125"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
-      <c r="E70" s="125"/>
-      <c r="F70" s="125"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="124"/>
-      <c r="J70" s="125"/>
-      <c r="K70" s="124"/>
-      <c r="L70" s="124"/>
-      <c r="M70" s="124"/>
-      <c r="N70" s="124"/>
-      <c r="O70" s="125"/>
-      <c r="P70" s="127"/>
-      <c r="Q70" s="127"/>
-      <c r="R70" s="127"/>
-      <c r="S70" s="127"/>
-      <c r="T70" s="127"/>
-      <c r="U70" s="127"/>
-      <c r="V70" s="125"/>
+      <c r="A70" s="119"/>
+      <c r="B70" s="120"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="120"/>
+      <c r="E70" s="120"/>
+      <c r="F70" s="120"/>
+      <c r="G70" s="121"/>
+      <c r="H70" s="120"/>
+      <c r="I70" s="119"/>
+      <c r="J70" s="120"/>
+      <c r="K70" s="119"/>
+      <c r="L70" s="119"/>
+      <c r="M70" s="119"/>
+      <c r="N70" s="119"/>
+      <c r="O70" s="120"/>
+      <c r="P70" s="122"/>
+      <c r="Q70" s="122"/>
+      <c r="R70" s="122"/>
+      <c r="S70" s="122"/>
+      <c r="T70" s="122"/>
+      <c r="U70" s="122"/>
+      <c r="V70" s="120"/>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="124"/>
-      <c r="B71" s="125"/>
-      <c r="C71" s="125"/>
-      <c r="D71" s="125"/>
-      <c r="E71" s="125"/>
-      <c r="F71" s="125"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="125"/>
-      <c r="K71" s="124"/>
-      <c r="L71" s="124"/>
-      <c r="M71" s="124"/>
-      <c r="N71" s="124"/>
-      <c r="O71" s="125"/>
-      <c r="P71" s="127"/>
-      <c r="Q71" s="127"/>
-      <c r="R71" s="127"/>
-      <c r="S71" s="127"/>
-      <c r="T71" s="127"/>
-      <c r="U71" s="127"/>
-      <c r="V71" s="125"/>
+      <c r="A71" s="119"/>
+      <c r="B71" s="120"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="120"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="121"/>
+      <c r="H71" s="120"/>
+      <c r="I71" s="119"/>
+      <c r="J71" s="120"/>
+      <c r="K71" s="119"/>
+      <c r="L71" s="119"/>
+      <c r="M71" s="119"/>
+      <c r="N71" s="119"/>
+      <c r="O71" s="120"/>
+      <c r="P71" s="122"/>
+      <c r="Q71" s="122"/>
+      <c r="R71" s="122"/>
+      <c r="S71" s="122"/>
+      <c r="T71" s="122"/>
+      <c r="U71" s="122"/>
+      <c r="V71" s="120"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="124"/>
-      <c r="B72" s="125"/>
-      <c r="C72" s="125"/>
-      <c r="D72" s="125"/>
-      <c r="E72" s="125"/>
-      <c r="F72" s="125"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="125"/>
-      <c r="I72" s="124"/>
-      <c r="J72" s="125"/>
-      <c r="K72" s="124"/>
-      <c r="L72" s="124"/>
-      <c r="M72" s="124"/>
-      <c r="N72" s="124"/>
-      <c r="O72" s="125"/>
-      <c r="P72" s="127"/>
-      <c r="Q72" s="127"/>
-      <c r="R72" s="127"/>
-      <c r="S72" s="127"/>
-      <c r="T72" s="127"/>
-      <c r="U72" s="127"/>
-      <c r="V72" s="125"/>
+      <c r="A72" s="119"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="120"/>
+      <c r="E72" s="120"/>
+      <c r="F72" s="120"/>
+      <c r="G72" s="121"/>
+      <c r="H72" s="120"/>
+      <c r="I72" s="119"/>
+      <c r="J72" s="120"/>
+      <c r="K72" s="119"/>
+      <c r="L72" s="119"/>
+      <c r="M72" s="119"/>
+      <c r="N72" s="119"/>
+      <c r="O72" s="120"/>
+      <c r="P72" s="122"/>
+      <c r="Q72" s="122"/>
+      <c r="R72" s="122"/>
+      <c r="S72" s="122"/>
+      <c r="T72" s="122"/>
+      <c r="U72" s="122"/>
+      <c r="V72" s="120"/>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="124"/>
-      <c r="B73" s="125"/>
-      <c r="C73" s="125"/>
-      <c r="D73" s="125"/>
-      <c r="E73" s="125"/>
-      <c r="F73" s="125"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="125"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="124"/>
-      <c r="M73" s="124"/>
-      <c r="N73" s="124"/>
-      <c r="O73" s="125"/>
-      <c r="P73" s="127"/>
-      <c r="Q73" s="127"/>
-      <c r="R73" s="127"/>
-      <c r="S73" s="127"/>
-      <c r="T73" s="127"/>
-      <c r="U73" s="127"/>
-      <c r="V73" s="125"/>
+      <c r="A73" s="119"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="120"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="120"/>
+      <c r="G73" s="121"/>
+      <c r="H73" s="120"/>
+      <c r="I73" s="119"/>
+      <c r="J73" s="120"/>
+      <c r="K73" s="119"/>
+      <c r="L73" s="119"/>
+      <c r="M73" s="119"/>
+      <c r="N73" s="119"/>
+      <c r="O73" s="120"/>
+      <c r="P73" s="122"/>
+      <c r="Q73" s="122"/>
+      <c r="R73" s="122"/>
+      <c r="S73" s="122"/>
+      <c r="T73" s="122"/>
+      <c r="U73" s="122"/>
+      <c r="V73" s="120"/>
     </row>
     <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5825,6 +5815,12 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5839,12 +5835,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="266">
   <si>
     <t>Asignatura</t>
   </si>
@@ -1350,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1365,12 +1365,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1393,9 +1387,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1422,15 +1413,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1887,18 +1869,37 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1944,25 +1945,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2271,7 +2253,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomLeft" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,21 +2263,21 @@
     <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="91.5703125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="91.5703125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11" style="13" customWidth="1"/>
     <col min="10" max="10" width="125.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="4" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="35" style="15" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="25" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" style="25" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="43.28515625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="17" style="20" customWidth="1"/>
+    <col min="15" max="15" width="35" style="13" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="22" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="18" customWidth="1"/>
+    <col min="20" max="20" width="43.28515625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="17" style="18" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
     <col min="23" max="23" width="14.5703125" style="4" customWidth="1"/>
     <col min="24" max="24" width="17.42578125" style="4" customWidth="1"/>
@@ -2303,170 +2285,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="223" t="s">
+      <c r="C1" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="212" t="s">
+      <c r="D1" s="213" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="210" t="s">
+      <c r="E1" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="206" t="s">
+      <c r="F1" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="221" t="s">
+      <c r="G1" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="206" t="s">
+      <c r="H1" s="209" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="206" t="s">
+      <c r="I1" s="209" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="218" t="s">
+      <c r="J1" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="216" t="s">
+      <c r="K1" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="214" t="s">
+      <c r="L1" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="220" t="s">
+      <c r="M1" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="220"/>
-      <c r="O1" s="208" t="s">
+      <c r="N1" s="221"/>
+      <c r="O1" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="208" t="s">
+      <c r="P1" s="201" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="225" t="s">
+      <c r="Q1" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="229" t="s">
+      <c r="R1" s="207" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="225" t="s">
+      <c r="S1" s="203" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="227" t="s">
+      <c r="T1" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="225" t="s">
+      <c r="U1" s="203" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="184" t="s">
+      <c r="V1" s="178" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="155" t="s">
+      <c r="W1" s="149" t="s">
         <v>255</v>
       </c>
-      <c r="X1" s="156" t="s">
+      <c r="X1" s="150" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="213"/>
-      <c r="B2" s="211"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="215"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="216"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="228"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="149"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="143"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="119" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="195" t="s">
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="189" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="196">
+      <c r="H3" s="190">
         <v>1</v>
       </c>
-      <c r="I3" s="196" t="s">
+      <c r="I3" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="197" t="s">
+      <c r="J3" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="196" t="s">
+      <c r="K3" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="196" t="s">
+      <c r="L3" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="196" t="s">
+      <c r="M3" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="196"/>
-      <c r="O3" s="197" t="s">
+      <c r="N3" s="190"/>
+      <c r="O3" s="191" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="198" t="s">
+      <c r="P3" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="199">
+      <c r="Q3" s="193">
         <v>6</v>
       </c>
-      <c r="R3" s="199" t="s">
+      <c r="R3" s="193" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="199" t="s">
+      <c r="S3" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="200" t="s">
+      <c r="T3" s="194" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="201" t="s">
+      <c r="U3" s="195" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="202" t="s">
+      <c r="V3" s="196" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="188">
+      <c r="X3" s="182">
         <v>42411</v>
       </c>
       <c r="Y3" s="4" t="s">
@@ -2474,204 +2456,204 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="128" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="129">
+      <c r="H4" s="123">
         <v>2</v>
       </c>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="130" t="s">
+      <c r="K4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="130" t="s">
+      <c r="L4" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130" t="s">
+      <c r="M4" s="124"/>
+      <c r="N4" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="131" t="s">
+      <c r="O4" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="132">
+      <c r="Q4" s="126">
         <v>6</v>
       </c>
-      <c r="R4" s="132" t="s">
+      <c r="R4" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="132" t="s">
+      <c r="S4" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="133" t="s">
+      <c r="T4" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="134" t="s">
+      <c r="U4" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="150" t="s">
+      <c r="V4" s="144" t="s">
         <v>247</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="189" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="190">
+      <c r="H5" s="184">
         <v>3</v>
       </c>
-      <c r="I5" s="190" t="s">
+      <c r="I5" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="156" t="s">
+      <c r="J5" s="150" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="190" t="s">
+      <c r="K5" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="190" t="s">
+      <c r="L5" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="190" t="s">
+      <c r="M5" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="190"/>
-      <c r="O5" s="203" t="s">
+      <c r="N5" s="184"/>
+      <c r="O5" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="191" t="s">
+      <c r="P5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="192">
+      <c r="Q5" s="186">
         <v>6</v>
       </c>
-      <c r="R5" s="192" t="s">
+      <c r="R5" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="S5" s="192" t="s">
+      <c r="S5" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="193" t="s">
+      <c r="T5" s="187" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="194" t="s">
+      <c r="U5" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="202" t="s">
+      <c r="V5" s="196" t="s">
         <v>253</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="188">
+      <c r="X5" s="182">
         <v>42412</v>
       </c>
-      <c r="Y5" s="120" t="s">
+      <c r="Y5" s="114" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="137" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="131" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="138">
+      <c r="H6" s="132">
         <v>4</v>
       </c>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="139" t="s">
+      <c r="K6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="139" t="s">
+      <c r="L6" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139" t="s">
+      <c r="M6" s="133"/>
+      <c r="N6" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="138" t="s">
+      <c r="O6" s="10"/>
+      <c r="P6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="140">
+      <c r="Q6" s="134">
         <v>6</v>
       </c>
-      <c r="R6" s="140" t="s">
+      <c r="R6" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="140" t="s">
+      <c r="S6" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="141" t="s">
+      <c r="T6" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="142" t="s">
+      <c r="U6" s="136" t="s">
         <v>195</v>
       </c>
-      <c r="V6" s="150" t="s">
+      <c r="V6" s="144" t="s">
         <v>248</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="39" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2683,63 +2665,63 @@
       <c r="D7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="204" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="198" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="196">
+      <c r="H7" s="190">
         <v>5</v>
       </c>
-      <c r="I7" s="196" t="s">
+      <c r="I7" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="205" t="s">
+      <c r="J7" s="199" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="196" t="s">
+      <c r="K7" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="196" t="s">
+      <c r="L7" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="196" t="s">
+      <c r="M7" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="197" t="s">
+      <c r="N7" s="190"/>
+      <c r="O7" s="191" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="198" t="s">
+      <c r="P7" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="199">
+      <c r="Q7" s="193">
         <v>6</v>
       </c>
-      <c r="R7" s="199" t="s">
+      <c r="R7" s="193" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="199" t="s">
+      <c r="S7" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="200" t="s">
+      <c r="T7" s="194" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="201" t="s">
+      <c r="U7" s="195" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="202" t="s">
+      <c r="V7" s="196" t="s">
         <v>252</v>
       </c>
-      <c r="W7" s="160">
+      <c r="W7" s="154">
         <v>42412</v>
       </c>
-      <c r="X7" s="188">
+      <c r="X7" s="182">
         <v>42047</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2751,119 +2733,119 @@
       <c r="D8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="48" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="43">
         <v>6</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50" t="s">
+      <c r="M8" s="44"/>
+      <c r="N8" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="49" t="s">
+      <c r="P8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="45">
         <v>6</v>
       </c>
-      <c r="R8" s="51" t="s">
+      <c r="R8" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="51" t="s">
+      <c r="S8" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="52" t="s">
+      <c r="T8" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="53" t="s">
+      <c r="U8" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="150" t="s">
+      <c r="V8" s="144" t="s">
         <v>247</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="167" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="169">
+      <c r="H9" s="163">
         <v>7</v>
       </c>
-      <c r="I9" s="169" t="s">
+      <c r="I9" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="155" t="s">
+      <c r="J9" s="149" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="169" t="s">
+      <c r="K9" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="169" t="s">
+      <c r="L9" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="169"/>
-      <c r="N9" s="169" t="s">
+      <c r="M9" s="163"/>
+      <c r="N9" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="155" t="s">
+      <c r="O9" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="168" t="s">
+      <c r="P9" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="170">
+      <c r="Q9" s="164">
         <v>6</v>
       </c>
-      <c r="R9" s="170" t="s">
+      <c r="R9" s="164" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="170" t="s">
+      <c r="S9" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="186" t="s">
+      <c r="T9" s="180" t="s">
         <v>200</v>
       </c>
-      <c r="U9" s="171" t="s">
+      <c r="U9" s="165" t="s">
         <v>195</v>
       </c>
-      <c r="V9" s="172" t="s">
+      <c r="V9" s="166" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="160">
+      <c r="W9" s="154">
         <v>42408</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -2871,71 +2853,71 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="27" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="104">
         <v>8</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="109" t="s">
+      <c r="K10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="109" t="s">
+      <c r="L10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109" t="s">
+      <c r="M10" s="103"/>
+      <c r="N10" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="110" t="s">
+      <c r="P10" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="111">
+      <c r="Q10" s="105">
         <v>6</v>
       </c>
-      <c r="R10" s="111" t="s">
+      <c r="R10" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="S10" s="111" t="s">
+      <c r="S10" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="T10" s="145" t="s">
+      <c r="T10" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="146" t="s">
+      <c r="U10" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="V10" s="150" t="s">
+      <c r="V10" s="144" t="s">
         <v>247</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2947,55 +2929,55 @@
       <c r="D11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="167" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="169">
+      <c r="H11" s="163">
         <v>9</v>
       </c>
-      <c r="I11" s="169" t="s">
+      <c r="I11" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="155" t="s">
+      <c r="J11" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="169" t="s">
+      <c r="K11" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="169" t="s">
+      <c r="L11" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169" t="s">
+      <c r="M11" s="163"/>
+      <c r="N11" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="155" t="s">
+      <c r="O11" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="168" t="s">
+      <c r="P11" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="170">
+      <c r="Q11" s="164">
         <v>6</v>
       </c>
-      <c r="R11" s="170" t="s">
+      <c r="R11" s="164" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="170" t="s">
+      <c r="S11" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="T11" s="186" t="s">
+      <c r="T11" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="U11" s="171" t="s">
+      <c r="U11" s="165" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="172" t="s">
+      <c r="V11" s="166" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="160">
+      <c r="W11" s="154">
         <v>42408</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -3003,328 +2985,336 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="51">
         <v>10</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58" t="s">
+      <c r="M12" s="52"/>
+      <c r="N12" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="57" t="s">
+      <c r="O12" s="49"/>
+      <c r="P12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="59">
+      <c r="Q12" s="53">
         <v>6</v>
       </c>
-      <c r="R12" s="59" t="s">
+      <c r="R12" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="S12" s="59" t="s">
+      <c r="S12" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="T12" s="60" t="s">
+      <c r="T12" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="V12" s="150" t="s">
+      <c r="V12" s="144" t="s">
         <v>248</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="204" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="198" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="196">
+      <c r="H13" s="190">
         <v>11</v>
       </c>
-      <c r="I13" s="196" t="s">
+      <c r="I13" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="231" t="s">
+      <c r="J13" s="200" t="s">
         <v>238</v>
       </c>
-      <c r="K13" s="196" t="s">
+      <c r="K13" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="196" t="s">
+      <c r="L13" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="196" t="s">
+      <c r="M13" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="196"/>
-      <c r="O13" s="231" t="s">
+      <c r="N13" s="190"/>
+      <c r="O13" s="200" t="s">
         <v>239</v>
       </c>
-      <c r="P13" s="198" t="s">
+      <c r="P13" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="199">
+      <c r="Q13" s="193">
         <v>6</v>
       </c>
-      <c r="R13" s="199" t="s">
+      <c r="R13" s="193" t="s">
         <v>188</v>
       </c>
-      <c r="S13" s="199" t="s">
+      <c r="S13" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="T13" s="200" t="s">
+      <c r="T13" s="194" t="s">
         <v>204</v>
       </c>
-      <c r="U13" s="201" t="s">
+      <c r="U13" s="195" t="s">
         <v>191</v>
       </c>
-      <c r="V13" s="172" t="s">
+      <c r="V13" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="W13" s="160">
+      <c r="W13" s="154">
         <v>42412</v>
       </c>
-      <c r="X13" s="188">
+      <c r="X13" s="182">
         <v>42412</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="163">
         <v>12</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36" t="s">
+      <c r="M14" s="163"/>
+      <c r="N14" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="P14" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="164">
         <v>6</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="R14" s="164" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="T14" s="37" t="s">
+      <c r="T14" s="180" t="s">
         <v>205</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="U14" s="165" t="s">
         <v>195</v>
       </c>
-      <c r="V14" s="150" t="s">
+      <c r="V14" s="166" t="s">
         <v>250</v>
       </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="W14" s="154">
+        <v>42414</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="185">
         <v>13</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="150" t="s">
         <v>229</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36" t="s">
+      <c r="M15" s="184"/>
+      <c r="N15" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="P15" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="186">
         <v>6</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="186" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="T15" s="187" t="s">
         <v>206</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="U15" s="188" t="s">
         <v>195</v>
       </c>
-      <c r="V15" s="150" t="s">
+      <c r="V15" s="166" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="W15" s="154">
+        <v>42414</v>
+      </c>
+      <c r="X15" s="182">
+        <v>42414</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="144" t="s">
+      <c r="D16" s="138" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="189" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="190">
+      <c r="H16" s="184">
         <v>14</v>
       </c>
-      <c r="I16" s="190" t="s">
+      <c r="I16" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="156" t="s">
+      <c r="J16" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="190" t="s">
+      <c r="K16" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="190" t="s">
+      <c r="L16" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="190"/>
-      <c r="N16" s="190" t="s">
+      <c r="M16" s="184"/>
+      <c r="N16" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="156" t="s">
+      <c r="O16" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="191" t="s">
+      <c r="P16" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="192">
+      <c r="Q16" s="186">
         <v>6</v>
       </c>
-      <c r="R16" s="192" t="s">
+      <c r="R16" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="192" t="s">
+      <c r="S16" s="186" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="193" t="s">
+      <c r="T16" s="187" t="s">
         <v>208</v>
       </c>
-      <c r="U16" s="194" t="s">
+      <c r="U16" s="188" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="172" t="s">
+      <c r="V16" s="166" t="s">
         <v>249</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="188">
+      <c r="X16" s="182">
         <v>42410</v>
       </c>
       <c r="Y16" s="4" t="s">
@@ -3332,2125 +3322,2125 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41" t="s">
+      <c r="F17" s="34"/>
+      <c r="G17" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="36">
         <v>15</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="43" t="s">
+      <c r="L17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43" t="s">
+      <c r="M17" s="37"/>
+      <c r="N17" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="O17" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="P17" s="42" t="s">
+      <c r="P17" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="11">
         <v>6</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="T17" s="44" t="s">
+      <c r="T17" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="U17" s="14" t="s">
+      <c r="U17" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="V17" s="150" t="s">
+      <c r="V17" s="144" t="s">
         <v>248</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="148" t="s">
+    <row r="18" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="144" t="s">
+      <c r="C18" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="144" t="s">
+      <c r="D18" s="138" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="161" t="s">
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="162">
+      <c r="H18" s="156">
         <v>16</v>
       </c>
-      <c r="I18" s="162" t="s">
+      <c r="I18" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="163" t="s">
+      <c r="J18" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="162" t="s">
+      <c r="K18" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="162" t="s">
+      <c r="L18" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="164" t="s">
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="165">
+      <c r="Q18" s="159">
         <v>8</v>
       </c>
-      <c r="R18" s="165" t="s">
+      <c r="R18" s="159" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="165" t="s">
+      <c r="S18" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="165" t="s">
+      <c r="T18" s="159" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="166" t="s">
+      <c r="U18" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="V18" s="172" t="s">
+      <c r="V18" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="187">
+      <c r="W18" s="181">
         <v>42403</v>
       </c>
-      <c r="X18" s="159" t="s">
+      <c r="X18" s="153" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="143" t="s">
+    <row r="19" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="167" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="H19" s="168">
+      <c r="H19" s="162">
         <v>17</v>
       </c>
-      <c r="I19" s="169" t="s">
+      <c r="I19" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="155" t="s">
+      <c r="J19" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="169" t="s">
+      <c r="K19" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="169" t="s">
+      <c r="L19" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="169"/>
-      <c r="N19" s="169"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="168" t="s">
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="149"/>
+      <c r="P19" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="170">
+      <c r="Q19" s="164">
         <v>8</v>
       </c>
-      <c r="R19" s="170" t="s">
+      <c r="R19" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="S19" s="170" t="s">
+      <c r="S19" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="T19" s="170" t="s">
+      <c r="T19" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="171" t="s">
+      <c r="U19" s="165" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="172" t="s">
+      <c r="V19" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="187">
+      <c r="W19" s="181">
         <v>42403</v>
       </c>
-      <c r="X19" s="22" t="s">
+      <c r="X19" s="20" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="89" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="84">
         <v>18</v>
       </c>
-      <c r="I20" s="90" t="s">
+      <c r="I20" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="90" t="s">
+      <c r="K20" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="90" t="s">
+      <c r="L20" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="90" t="s">
+      <c r="M20" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="90"/>
-      <c r="O20" s="16" t="s">
+      <c r="N20" s="84"/>
+      <c r="O20" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="91" t="s">
+      <c r="P20" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="92">
+      <c r="Q20" s="86">
         <v>6</v>
       </c>
-      <c r="R20" s="92" t="s">
+      <c r="R20" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="92" t="s">
+      <c r="S20" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="93" t="s">
+      <c r="T20" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="94" t="s">
+      <c r="U20" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="151" t="s">
+      <c r="V20" s="145" t="s">
         <v>254</v>
       </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="89" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="91">
+      <c r="H21" s="85">
         <v>19</v>
       </c>
-      <c r="I21" s="90" t="s">
+      <c r="I21" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="90" t="s">
+      <c r="K21" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="90" t="s">
+      <c r="L21" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90" t="s">
+      <c r="M21" s="84"/>
+      <c r="N21" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="91" t="s">
+      <c r="P21" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="92">
+      <c r="Q21" s="86">
         <v>6</v>
       </c>
-      <c r="R21" s="92" t="s">
+      <c r="R21" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="S21" s="92" t="s">
+      <c r="S21" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="T21" s="93" t="s">
+      <c r="T21" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="U21" s="94" t="s">
+      <c r="U21" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="V21" s="151" t="s">
+      <c r="V21" s="145" t="s">
         <v>247</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="27" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="109">
+      <c r="H22" s="103">
         <v>20</v>
       </c>
-      <c r="I22" s="109" t="s">
+      <c r="I22" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="109" t="s">
+      <c r="K22" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="109" t="s">
+      <c r="L22" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109" t="s">
+      <c r="M22" s="103"/>
+      <c r="N22" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="O22" s="22" t="s">
+      <c r="O22" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="110" t="s">
+      <c r="P22" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="111">
+      <c r="Q22" s="105">
         <v>6</v>
       </c>
-      <c r="R22" s="111" t="s">
+      <c r="R22" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="S22" s="111" t="s">
+      <c r="S22" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="T22" s="145" t="s">
+      <c r="T22" s="139" t="s">
         <v>211</v>
       </c>
-      <c r="U22" s="146" t="s">
+      <c r="U22" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="V22" s="151" t="s">
+      <c r="V22" s="145" t="s">
         <v>254</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="167" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="161" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="168">
+      <c r="H23" s="162">
         <v>21</v>
       </c>
-      <c r="I23" s="169" t="s">
+      <c r="I23" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="155" t="s">
+      <c r="J23" s="149" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="169" t="s">
+      <c r="K23" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="169" t="s">
+      <c r="L23" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169" t="s">
+      <c r="M23" s="163"/>
+      <c r="N23" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="155" t="s">
+      <c r="O23" s="149" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="168" t="s">
+      <c r="P23" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="170">
+      <c r="Q23" s="164">
         <v>6</v>
       </c>
-      <c r="R23" s="170" t="s">
+      <c r="R23" s="164" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="170" t="s">
+      <c r="S23" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="186" t="s">
+      <c r="T23" s="180" t="s">
         <v>212</v>
       </c>
-      <c r="U23" s="171" t="s">
+      <c r="U23" s="165" t="s">
         <v>195</v>
       </c>
-      <c r="V23" s="172" t="s">
+      <c r="V23" s="166" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="160">
+      <c r="W23" s="154">
         <v>42408</v>
       </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="97" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="98">
+      <c r="H24" s="92">
         <v>22</v>
       </c>
-      <c r="I24" s="99" t="s">
+      <c r="I24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="99" t="s">
+      <c r="K24" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="99" t="s">
+      <c r="L24" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99" t="s">
+      <c r="M24" s="93"/>
+      <c r="N24" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="98" t="s">
+      <c r="O24" s="15"/>
+      <c r="P24" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="100">
+      <c r="Q24" s="94">
         <v>6</v>
       </c>
-      <c r="R24" s="100" t="s">
+      <c r="R24" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="100" t="s">
+      <c r="S24" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="T24" s="101" t="s">
+      <c r="T24" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="U24" s="102" t="s">
+      <c r="U24" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="150" t="s">
+      <c r="V24" s="144" t="s">
         <v>247</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+    <row r="25" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="161" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="155" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="162">
+      <c r="H25" s="156">
         <v>23</v>
       </c>
-      <c r="I25" s="162" t="s">
+      <c r="I25" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="163" t="s">
+      <c r="J25" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="162" t="s">
+      <c r="K25" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="162" t="s">
+      <c r="L25" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="164" t="s">
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="165">
+      <c r="Q25" s="159">
         <v>8</v>
       </c>
-      <c r="R25" s="165" t="s">
+      <c r="R25" s="159" t="s">
         <v>217</v>
       </c>
-      <c r="S25" s="165" t="s">
+      <c r="S25" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="T25" s="165" t="s">
+      <c r="T25" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="166" t="s">
+      <c r="U25" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="V25" s="172" t="s">
+      <c r="V25" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="W25" s="187">
+      <c r="W25" s="181">
         <v>42404</v>
       </c>
-      <c r="X25" s="22" t="s">
+      <c r="X25" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="167" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="161" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="168">
+      <c r="H26" s="162">
         <v>24</v>
       </c>
-      <c r="I26" s="169" t="s">
+      <c r="I26" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="155" t="s">
+      <c r="J26" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="169" t="s">
+      <c r="K26" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="169" t="s">
+      <c r="L26" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="169"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="168" t="s">
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="149"/>
+      <c r="P26" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="170">
+      <c r="Q26" s="164">
         <v>8</v>
       </c>
-      <c r="R26" s="170" t="s">
+      <c r="R26" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="S26" s="170" t="s">
+      <c r="S26" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="T26" s="170" t="s">
+      <c r="T26" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="171" t="s">
+      <c r="U26" s="165" t="s">
         <v>219</v>
       </c>
-      <c r="V26" s="172" t="s">
+      <c r="V26" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="W26" s="187">
+      <c r="W26" s="181">
         <v>42404</v>
       </c>
-      <c r="X26" s="22" t="s">
+      <c r="X26" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+    <row r="27" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="178" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="179">
+      <c r="H27" s="173">
         <v>25</v>
       </c>
-      <c r="I27" s="180" t="s">
+      <c r="I27" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="158" t="s">
+      <c r="J27" s="152" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="180" t="s">
+      <c r="K27" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="180" t="s">
+      <c r="L27" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="179" t="s">
+      <c r="M27" s="174"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="152"/>
+      <c r="P27" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="181">
+      <c r="Q27" s="175">
         <v>8</v>
       </c>
-      <c r="R27" s="181" t="s">
+      <c r="R27" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="181" t="s">
+      <c r="S27" s="175" t="s">
         <v>218</v>
       </c>
-      <c r="T27" s="181" t="s">
+      <c r="T27" s="175" t="s">
         <v>220</v>
       </c>
-      <c r="U27" s="182" t="s">
+      <c r="U27" s="176" t="s">
         <v>219</v>
       </c>
-      <c r="V27" s="172" t="s">
+      <c r="V27" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="W27" s="22" t="s">
+      <c r="W27" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="X27" s="22" t="s">
+      <c r="X27" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+    <row r="28" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="167" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="161" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="169">
+      <c r="H28" s="163">
         <v>26</v>
       </c>
-      <c r="I28" s="169" t="s">
+      <c r="I28" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="155" t="s">
+      <c r="J28" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="K28" s="169" t="s">
+      <c r="K28" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="169" t="s">
+      <c r="L28" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="168" t="s">
+      <c r="M28" s="163"/>
+      <c r="N28" s="163"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="170">
+      <c r="Q28" s="164">
         <v>8</v>
       </c>
-      <c r="R28" s="170" t="s">
+      <c r="R28" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="170" t="s">
+      <c r="S28" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="T28" s="170" t="s">
+      <c r="T28" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="U28" s="171" t="s">
+      <c r="U28" s="165" t="s">
         <v>219</v>
       </c>
-      <c r="V28" s="172" t="s">
+      <c r="V28" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="187">
+      <c r="W28" s="181">
         <v>42404</v>
       </c>
-      <c r="X28" s="22" t="s">
+      <c r="X28" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="143" t="s">
+    <row r="29" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="173" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="167" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="174">
+      <c r="H29" s="168">
         <v>27</v>
       </c>
-      <c r="I29" s="175" t="s">
+      <c r="I29" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="154" t="s">
+      <c r="J29" s="148" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="175" t="s">
+      <c r="K29" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="175" t="s">
+      <c r="L29" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="174" t="s">
+      <c r="M29" s="169"/>
+      <c r="N29" s="169"/>
+      <c r="O29" s="148"/>
+      <c r="P29" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="176">
+      <c r="Q29" s="170">
         <v>8</v>
       </c>
-      <c r="R29" s="176" t="s">
+      <c r="R29" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="176" t="s">
+      <c r="S29" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="176" t="s">
+      <c r="T29" s="170" t="s">
         <v>169</v>
       </c>
-      <c r="U29" s="177" t="s">
+      <c r="U29" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="V29" s="185" t="s">
+      <c r="V29" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="15" t="s">
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="13" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="73" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="75">
+      <c r="H30" s="69">
         <v>28</v>
       </c>
-      <c r="I30" s="74" t="s">
+      <c r="I30" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="74" t="s">
+      <c r="K30" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="74" t="s">
+      <c r="L30" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="74" t="s">
+      <c r="M30" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="74"/>
-      <c r="O30" s="19" t="s">
+      <c r="N30" s="68"/>
+      <c r="O30" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="P30" s="75" t="s">
+      <c r="P30" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="76">
+      <c r="Q30" s="70">
         <v>6</v>
       </c>
-      <c r="R30" s="76" t="s">
+      <c r="R30" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="S30" s="76" t="s">
+      <c r="S30" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="T30" s="77" t="s">
+      <c r="T30" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="U30" s="78" t="s">
+      <c r="U30" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="V30" s="152" t="s">
+      <c r="V30" s="146" t="s">
         <v>248</v>
       </c>
-      <c r="W30" s="157"/>
-      <c r="X30" s="157"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="151"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="81" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="83">
+      <c r="H31" s="77">
         <v>29</v>
       </c>
-      <c r="I31" s="83" t="s">
+      <c r="I31" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="K31" s="83" t="s">
+      <c r="K31" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="83" t="s">
+      <c r="L31" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83" t="s">
+      <c r="M31" s="77"/>
+      <c r="N31" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="21" t="s">
+      <c r="O31" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="P31" s="82" t="s">
+      <c r="P31" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="84">
+      <c r="Q31" s="78">
         <v>6</v>
       </c>
-      <c r="R31" s="84" t="s">
+      <c r="R31" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="S31" s="84" t="s">
+      <c r="S31" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="T31" s="85" t="s">
+      <c r="T31" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="U31" s="86" t="s">
+      <c r="U31" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="V31" s="153" t="s">
+      <c r="V31" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="W31" s="157"/>
-      <c r="X31" s="157"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="104" t="s">
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="105">
+      <c r="H32" s="99">
         <v>30</v>
       </c>
-      <c r="I32" s="62" t="s">
+      <c r="I32" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="103" t="s">
+      <c r="J32" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="62" t="s">
+      <c r="L32" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62" t="s">
+      <c r="M32" s="56"/>
+      <c r="N32" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="106" t="s">
+      <c r="O32" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="105" t="s">
+      <c r="P32" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="107">
+      <c r="Q32" s="101">
         <v>6</v>
       </c>
-      <c r="R32" s="107" t="s">
+      <c r="R32" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="107" t="s">
+      <c r="S32" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="T32" s="108" t="s">
+      <c r="T32" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="U32" s="107" t="s">
+      <c r="U32" s="101" t="s">
         <v>195</v>
       </c>
-      <c r="V32" s="152" t="s">
+      <c r="V32" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="W32" s="157"/>
-      <c r="X32" s="157"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="151"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="178" t="s">
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="179">
+      <c r="H33" s="173">
         <v>31</v>
       </c>
-      <c r="I33" s="180" t="s">
+      <c r="I33" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="158" t="s">
+      <c r="J33" s="152" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="180" t="s">
+      <c r="K33" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="180" t="s">
+      <c r="L33" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="179" t="s">
+      <c r="M33" s="174"/>
+      <c r="N33" s="174"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="181"/>
-      <c r="T33" s="181"/>
-      <c r="U33" s="181"/>
-      <c r="V33" s="183" t="s">
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="W33" s="179"/>
-      <c r="X33" s="157"/>
+      <c r="W33" s="173"/>
+      <c r="X33" s="151"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="64" t="s">
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="65">
+      <c r="H34" s="59">
         <v>32</v>
       </c>
-      <c r="I34" s="65" t="s">
+      <c r="I34" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="63" t="s">
+      <c r="J34" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="65" t="s">
+      <c r="K34" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="65" t="s">
+      <c r="L34" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65" t="s">
+      <c r="M34" s="59"/>
+      <c r="N34" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="63"/>
-      <c r="P34" s="66" t="s">
+      <c r="O34" s="57"/>
+      <c r="P34" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="67">
+      <c r="Q34" s="61">
         <v>6</v>
       </c>
-      <c r="R34" s="67" t="s">
+      <c r="R34" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="S34" s="67" t="s">
+      <c r="S34" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="T34" s="68" t="s">
+      <c r="T34" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="67" t="s">
+      <c r="U34" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="V34" s="152" t="s">
+      <c r="V34" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="W34" s="157"/>
-      <c r="X34" s="157"/>
+      <c r="W34" s="151"/>
+      <c r="X34" s="151"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="112" t="s">
+      <c r="C35" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="27" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="110">
+      <c r="H35" s="104">
         <v>33</v>
       </c>
-      <c r="I35" s="109" t="s">
+      <c r="I35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="109" t="s">
+      <c r="K35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="109" t="s">
+      <c r="L35" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109" t="s">
+      <c r="M35" s="103"/>
+      <c r="N35" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="O35" s="22"/>
-      <c r="P35" s="110" t="s">
+      <c r="O35" s="20"/>
+      <c r="P35" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="111">
+      <c r="Q35" s="105">
         <v>6</v>
       </c>
-      <c r="R35" s="111" t="s">
+      <c r="R35" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="S35" s="111" t="s">
+      <c r="S35" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="T35" s="145" t="s">
+      <c r="T35" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="U35" s="111" t="s">
+      <c r="U35" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="V35" s="153" t="s">
+      <c r="V35" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="W35" s="157"/>
-      <c r="X35" s="157"/>
+      <c r="W35" s="151"/>
+      <c r="X35" s="151"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="113"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="117"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="117"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="107"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="112"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="119"/>
-      <c r="O37" s="120"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="123"/>
-      <c r="U37" s="123"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="117"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="117"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="116"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="120"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="122"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="116"/>
+      <c r="Q38" s="116"/>
+      <c r="R38" s="116"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="116"/>
+      <c r="U38" s="116"/>
+      <c r="V38" s="116"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="120"/>
-      <c r="P39" s="122"/>
-      <c r="Q39" s="122"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="116"/>
+      <c r="Q39" s="116"/>
+      <c r="R39" s="116"/>
+      <c r="S39" s="116"/>
+      <c r="T39" s="116"/>
+      <c r="U39" s="116"/>
+      <c r="V39" s="116"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
-      <c r="B40" s="120"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="122"/>
-      <c r="Q40" s="122"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="122"/>
-      <c r="T40" s="122"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="120"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="116"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="116"/>
+      <c r="S40" s="116"/>
+      <c r="T40" s="116"/>
+      <c r="U40" s="116"/>
+      <c r="V40" s="114"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="119"/>
-      <c r="N41" s="119"/>
-      <c r="O41" s="120"/>
-      <c r="P41" s="122"/>
-      <c r="Q41" s="122"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="122"/>
-      <c r="T41" s="122"/>
-      <c r="U41" s="122"/>
-      <c r="V41" s="120"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="116"/>
+      <c r="R41" s="116"/>
+      <c r="S41" s="116"/>
+      <c r="T41" s="116"/>
+      <c r="U41" s="116"/>
+      <c r="V41" s="114"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="119"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="120"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
+      <c r="U42" s="116"/>
+      <c r="V42" s="114"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="119"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="119"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="120"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="114"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="116"/>
+      <c r="S43" s="116"/>
+      <c r="T43" s="116"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="114"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="120"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="116"/>
+      <c r="S44" s="116"/>
+      <c r="T44" s="116"/>
+      <c r="U44" s="116"/>
+      <c r="V44" s="114"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="119"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="122"/>
-      <c r="Q45" s="122"/>
-      <c r="R45" s="122"/>
-      <c r="S45" s="122"/>
-      <c r="T45" s="122"/>
-      <c r="U45" s="122"/>
-      <c r="V45" s="120"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="116"/>
+      <c r="R45" s="116"/>
+      <c r="S45" s="116"/>
+      <c r="T45" s="116"/>
+      <c r="U45" s="116"/>
+      <c r="V45" s="114"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="119"/>
-      <c r="B46" s="120"/>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
-      <c r="S46" s="122"/>
-      <c r="T46" s="122"/>
-      <c r="U46" s="122"/>
-      <c r="V46" s="120"/>
+      <c r="A46" s="113"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="113"/>
+      <c r="L46" s="113"/>
+      <c r="M46" s="113"/>
+      <c r="N46" s="113"/>
+      <c r="O46" s="114"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="114"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="120"/>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="119"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="122"/>
-      <c r="Q47" s="122"/>
-      <c r="R47" s="122"/>
-      <c r="S47" s="122"/>
-      <c r="T47" s="122"/>
-      <c r="U47" s="122"/>
-      <c r="V47" s="120"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="114"/>
+      <c r="P47" s="116"/>
+      <c r="Q47" s="116"/>
+      <c r="R47" s="116"/>
+      <c r="S47" s="116"/>
+      <c r="T47" s="116"/>
+      <c r="U47" s="116"/>
+      <c r="V47" s="114"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="119"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="122"/>
-      <c r="S48" s="122"/>
-      <c r="T48" s="122"/>
-      <c r="U48" s="122"/>
-      <c r="V48" s="120"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="114"/>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="116"/>
+      <c r="R48" s="116"/>
+      <c r="S48" s="116"/>
+      <c r="T48" s="116"/>
+      <c r="U48" s="116"/>
+      <c r="V48" s="114"/>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="119"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="120"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="122"/>
-      <c r="T49" s="122"/>
-      <c r="U49" s="122"/>
-      <c r="V49" s="120"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="113"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="116"/>
+      <c r="Q49" s="116"/>
+      <c r="R49" s="116"/>
+      <c r="S49" s="116"/>
+      <c r="T49" s="116"/>
+      <c r="U49" s="116"/>
+      <c r="V49" s="114"/>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="119"/>
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="120"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="122"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="120"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="113"/>
+      <c r="N50" s="113"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="116"/>
+      <c r="S50" s="116"/>
+      <c r="T50" s="116"/>
+      <c r="U50" s="116"/>
+      <c r="V50" s="114"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="119"/>
-      <c r="B51" s="120"/>
-      <c r="C51" s="120"/>
-      <c r="D51" s="120"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="120"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="122"/>
-      <c r="T51" s="122"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="120"/>
+      <c r="A51" s="113"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="113"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="116"/>
+      <c r="Q51" s="116"/>
+      <c r="R51" s="116"/>
+      <c r="S51" s="116"/>
+      <c r="T51" s="116"/>
+      <c r="U51" s="116"/>
+      <c r="V51" s="114"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="119"/>
-      <c r="B52" s="120"/>
-      <c r="C52" s="120"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="120"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="122"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="122"/>
-      <c r="T52" s="122"/>
-      <c r="U52" s="122"/>
-      <c r="V52" s="120"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="116"/>
+      <c r="Q52" s="116"/>
+      <c r="R52" s="116"/>
+      <c r="S52" s="116"/>
+      <c r="T52" s="116"/>
+      <c r="U52" s="116"/>
+      <c r="V52" s="114"/>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="119"/>
-      <c r="B53" s="120"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="122"/>
-      <c r="T53" s="122"/>
-      <c r="U53" s="122"/>
-      <c r="V53" s="120"/>
+      <c r="A53" s="113"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="113"/>
+      <c r="N53" s="113"/>
+      <c r="O53" s="114"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="116"/>
+      <c r="R53" s="116"/>
+      <c r="S53" s="116"/>
+      <c r="T53" s="116"/>
+      <c r="U53" s="116"/>
+      <c r="V53" s="114"/>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="119"/>
-      <c r="B54" s="120"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="120"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="120"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="122"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="122"/>
-      <c r="T54" s="122"/>
-      <c r="U54" s="122"/>
-      <c r="V54" s="120"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="113"/>
+      <c r="L54" s="113"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
+      <c r="O54" s="114"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="116"/>
+      <c r="S54" s="116"/>
+      <c r="T54" s="116"/>
+      <c r="U54" s="116"/>
+      <c r="V54" s="114"/>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="119"/>
-      <c r="B55" s="120"/>
-      <c r="C55" s="120"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="122"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="122"/>
-      <c r="T55" s="122"/>
-      <c r="U55" s="122"/>
-      <c r="V55" s="120"/>
+      <c r="A55" s="113"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="113"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
+      <c r="O55" s="114"/>
+      <c r="P55" s="116"/>
+      <c r="Q55" s="116"/>
+      <c r="R55" s="116"/>
+      <c r="S55" s="116"/>
+      <c r="T55" s="116"/>
+      <c r="U55" s="116"/>
+      <c r="V55" s="114"/>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="119"/>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="122"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="122"/>
-      <c r="T56" s="122"/>
-      <c r="U56" s="122"/>
-      <c r="V56" s="120"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="114"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="113"/>
+      <c r="M56" s="113"/>
+      <c r="N56" s="113"/>
+      <c r="O56" s="114"/>
+      <c r="P56" s="116"/>
+      <c r="Q56" s="116"/>
+      <c r="R56" s="116"/>
+      <c r="S56" s="116"/>
+      <c r="T56" s="116"/>
+      <c r="U56" s="116"/>
+      <c r="V56" s="114"/>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="119"/>
-      <c r="B57" s="120"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="119"/>
-      <c r="L57" s="119"/>
-      <c r="M57" s="119"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="120"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="122"/>
-      <c r="T57" s="122"/>
-      <c r="U57" s="122"/>
-      <c r="V57" s="120"/>
+      <c r="A57" s="113"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="113"/>
+      <c r="L57" s="113"/>
+      <c r="M57" s="113"/>
+      <c r="N57" s="113"/>
+      <c r="O57" s="114"/>
+      <c r="P57" s="116"/>
+      <c r="Q57" s="116"/>
+      <c r="R57" s="116"/>
+      <c r="S57" s="116"/>
+      <c r="T57" s="116"/>
+      <c r="U57" s="116"/>
+      <c r="V57" s="114"/>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="119"/>
-      <c r="B58" s="120"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="120"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="119"/>
-      <c r="L58" s="119"/>
-      <c r="M58" s="119"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="120"/>
-      <c r="P58" s="122"/>
-      <c r="Q58" s="122"/>
-      <c r="R58" s="122"/>
-      <c r="S58" s="122"/>
-      <c r="T58" s="122"/>
-      <c r="U58" s="122"/>
-      <c r="V58" s="120"/>
+      <c r="A58" s="113"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
+      <c r="O58" s="114"/>
+      <c r="P58" s="116"/>
+      <c r="Q58" s="116"/>
+      <c r="R58" s="116"/>
+      <c r="S58" s="116"/>
+      <c r="T58" s="116"/>
+      <c r="U58" s="116"/>
+      <c r="V58" s="114"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="119"/>
-      <c r="B59" s="120"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="120"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="120"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="119"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="120"/>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="122"/>
-      <c r="R59" s="122"/>
-      <c r="S59" s="122"/>
-      <c r="T59" s="122"/>
-      <c r="U59" s="122"/>
-      <c r="V59" s="120"/>
+      <c r="A59" s="113"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="113"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="114"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="116"/>
+      <c r="R59" s="116"/>
+      <c r="S59" s="116"/>
+      <c r="T59" s="116"/>
+      <c r="U59" s="116"/>
+      <c r="V59" s="114"/>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="119"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="120"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="120"/>
-      <c r="P60" s="122"/>
-      <c r="Q60" s="122"/>
-      <c r="R60" s="122"/>
-      <c r="S60" s="122"/>
-      <c r="T60" s="122"/>
-      <c r="U60" s="122"/>
-      <c r="V60" s="120"/>
+      <c r="A60" s="113"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="113"/>
+      <c r="L60" s="113"/>
+      <c r="M60" s="113"/>
+      <c r="N60" s="113"/>
+      <c r="O60" s="114"/>
+      <c r="P60" s="116"/>
+      <c r="Q60" s="116"/>
+      <c r="R60" s="116"/>
+      <c r="S60" s="116"/>
+      <c r="T60" s="116"/>
+      <c r="U60" s="116"/>
+      <c r="V60" s="114"/>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="119"/>
-      <c r="B61" s="120"/>
-      <c r="C61" s="120"/>
-      <c r="D61" s="120"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="119"/>
-      <c r="J61" s="120"/>
-      <c r="K61" s="119"/>
-      <c r="L61" s="119"/>
-      <c r="M61" s="119"/>
-      <c r="N61" s="119"/>
-      <c r="O61" s="120"/>
-      <c r="P61" s="122"/>
-      <c r="Q61" s="122"/>
-      <c r="R61" s="122"/>
-      <c r="S61" s="122"/>
-      <c r="T61" s="122"/>
-      <c r="U61" s="122"/>
-      <c r="V61" s="120"/>
+      <c r="A61" s="113"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="113"/>
+      <c r="L61" s="113"/>
+      <c r="M61" s="113"/>
+      <c r="N61" s="113"/>
+      <c r="O61" s="114"/>
+      <c r="P61" s="116"/>
+      <c r="Q61" s="116"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="116"/>
+      <c r="T61" s="116"/>
+      <c r="U61" s="116"/>
+      <c r="V61" s="114"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="119"/>
-      <c r="B62" s="120"/>
-      <c r="C62" s="120"/>
-      <c r="D62" s="120"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="120"/>
-      <c r="I62" s="119"/>
-      <c r="J62" s="120"/>
-      <c r="K62" s="119"/>
-      <c r="L62" s="119"/>
-      <c r="M62" s="119"/>
-      <c r="N62" s="119"/>
-      <c r="O62" s="120"/>
-      <c r="P62" s="122"/>
-      <c r="Q62" s="122"/>
-      <c r="R62" s="122"/>
-      <c r="S62" s="122"/>
-      <c r="T62" s="122"/>
-      <c r="U62" s="122"/>
-      <c r="V62" s="120"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="113"/>
+      <c r="L62" s="113"/>
+      <c r="M62" s="113"/>
+      <c r="N62" s="113"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="116"/>
+      <c r="Q62" s="116"/>
+      <c r="R62" s="116"/>
+      <c r="S62" s="116"/>
+      <c r="T62" s="116"/>
+      <c r="U62" s="116"/>
+      <c r="V62" s="114"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="119"/>
-      <c r="B63" s="120"/>
-      <c r="C63" s="120"/>
-      <c r="D63" s="120"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="120"/>
-      <c r="I63" s="119"/>
-      <c r="J63" s="120"/>
-      <c r="K63" s="119"/>
-      <c r="L63" s="119"/>
-      <c r="M63" s="119"/>
-      <c r="N63" s="119"/>
-      <c r="O63" s="120"/>
-      <c r="P63" s="122"/>
-      <c r="Q63" s="122"/>
-      <c r="R63" s="122"/>
-      <c r="S63" s="122"/>
-      <c r="T63" s="122"/>
-      <c r="U63" s="122"/>
-      <c r="V63" s="120"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="113"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="113"/>
+      <c r="L63" s="113"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="113"/>
+      <c r="O63" s="114"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
+      <c r="U63" s="116"/>
+      <c r="V63" s="114"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="119"/>
-      <c r="B64" s="120"/>
-      <c r="C64" s="120"/>
-      <c r="D64" s="120"/>
-      <c r="E64" s="120"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="121"/>
-      <c r="H64" s="120"/>
-      <c r="I64" s="119"/>
-      <c r="J64" s="120"/>
-      <c r="K64" s="119"/>
-      <c r="L64" s="119"/>
-      <c r="M64" s="119"/>
-      <c r="N64" s="119"/>
-      <c r="O64" s="120"/>
-      <c r="P64" s="122"/>
-      <c r="Q64" s="122"/>
-      <c r="R64" s="122"/>
-      <c r="S64" s="122"/>
-      <c r="T64" s="122"/>
-      <c r="U64" s="122"/>
-      <c r="V64" s="120"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="115"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="113"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="113"/>
+      <c r="L64" s="113"/>
+      <c r="M64" s="113"/>
+      <c r="N64" s="113"/>
+      <c r="O64" s="114"/>
+      <c r="P64" s="116"/>
+      <c r="Q64" s="116"/>
+      <c r="R64" s="116"/>
+      <c r="S64" s="116"/>
+      <c r="T64" s="116"/>
+      <c r="U64" s="116"/>
+      <c r="V64" s="114"/>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="119"/>
-      <c r="B65" s="120"/>
-      <c r="C65" s="120"/>
-      <c r="D65" s="120"/>
-      <c r="E65" s="120"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="121"/>
-      <c r="H65" s="120"/>
-      <c r="I65" s="119"/>
-      <c r="J65" s="120"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="119"/>
-      <c r="M65" s="119"/>
-      <c r="N65" s="119"/>
-      <c r="O65" s="120"/>
-      <c r="P65" s="122"/>
-      <c r="Q65" s="122"/>
-      <c r="R65" s="122"/>
-      <c r="S65" s="122"/>
-      <c r="T65" s="122"/>
-      <c r="U65" s="122"/>
-      <c r="V65" s="120"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="114"/>
+      <c r="K65" s="113"/>
+      <c r="L65" s="113"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="113"/>
+      <c r="O65" s="114"/>
+      <c r="P65" s="116"/>
+      <c r="Q65" s="116"/>
+      <c r="R65" s="116"/>
+      <c r="S65" s="116"/>
+      <c r="T65" s="116"/>
+      <c r="U65" s="116"/>
+      <c r="V65" s="114"/>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="119"/>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="121"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="119"/>
-      <c r="J66" s="120"/>
-      <c r="K66" s="119"/>
-      <c r="L66" s="119"/>
-      <c r="M66" s="119"/>
-      <c r="N66" s="119"/>
-      <c r="O66" s="120"/>
-      <c r="P66" s="122"/>
-      <c r="Q66" s="122"/>
-      <c r="R66" s="122"/>
-      <c r="S66" s="122"/>
-      <c r="T66" s="122"/>
-      <c r="U66" s="122"/>
-      <c r="V66" s="120"/>
+      <c r="A66" s="113"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="113"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="113"/>
+      <c r="L66" s="113"/>
+      <c r="M66" s="113"/>
+      <c r="N66" s="113"/>
+      <c r="O66" s="114"/>
+      <c r="P66" s="116"/>
+      <c r="Q66" s="116"/>
+      <c r="R66" s="116"/>
+      <c r="S66" s="116"/>
+      <c r="T66" s="116"/>
+      <c r="U66" s="116"/>
+      <c r="V66" s="114"/>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="119"/>
-      <c r="B67" s="120"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="121"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="119"/>
-      <c r="J67" s="120"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="119"/>
-      <c r="M67" s="119"/>
-      <c r="N67" s="119"/>
-      <c r="O67" s="120"/>
-      <c r="P67" s="122"/>
-      <c r="Q67" s="122"/>
-      <c r="R67" s="122"/>
-      <c r="S67" s="122"/>
-      <c r="T67" s="122"/>
-      <c r="U67" s="122"/>
-      <c r="V67" s="120"/>
+      <c r="A67" s="113"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="115"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="113"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="113"/>
+      <c r="O67" s="114"/>
+      <c r="P67" s="116"/>
+      <c r="Q67" s="116"/>
+      <c r="R67" s="116"/>
+      <c r="S67" s="116"/>
+      <c r="T67" s="116"/>
+      <c r="U67" s="116"/>
+      <c r="V67" s="114"/>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="119"/>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
-      <c r="D68" s="120"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="119"/>
-      <c r="J68" s="120"/>
-      <c r="K68" s="119"/>
-      <c r="L68" s="119"/>
-      <c r="M68" s="119"/>
-      <c r="N68" s="119"/>
-      <c r="O68" s="120"/>
-      <c r="P68" s="122"/>
-      <c r="Q68" s="122"/>
-      <c r="R68" s="122"/>
-      <c r="S68" s="122"/>
-      <c r="T68" s="122"/>
-      <c r="U68" s="122"/>
-      <c r="V68" s="120"/>
+      <c r="A68" s="113"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="115"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="113"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="113"/>
+      <c r="L68" s="113"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="113"/>
+      <c r="O68" s="114"/>
+      <c r="P68" s="116"/>
+      <c r="Q68" s="116"/>
+      <c r="R68" s="116"/>
+      <c r="S68" s="116"/>
+      <c r="T68" s="116"/>
+      <c r="U68" s="116"/>
+      <c r="V68" s="114"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="119"/>
-      <c r="B69" s="120"/>
-      <c r="C69" s="120"/>
-      <c r="D69" s="120"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="120"/>
-      <c r="G69" s="121"/>
-      <c r="H69" s="120"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="120"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="119"/>
-      <c r="M69" s="119"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="120"/>
-      <c r="P69" s="122"/>
-      <c r="Q69" s="122"/>
-      <c r="R69" s="122"/>
-      <c r="S69" s="122"/>
-      <c r="T69" s="122"/>
-      <c r="U69" s="122"/>
-      <c r="V69" s="120"/>
+      <c r="A69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="113"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="113"/>
+      <c r="L69" s="113"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="113"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="116"/>
+      <c r="Q69" s="116"/>
+      <c r="R69" s="116"/>
+      <c r="S69" s="116"/>
+      <c r="T69" s="116"/>
+      <c r="U69" s="116"/>
+      <c r="V69" s="114"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="119"/>
-      <c r="B70" s="120"/>
-      <c r="C70" s="120"/>
-      <c r="D70" s="120"/>
-      <c r="E70" s="120"/>
-      <c r="F70" s="120"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="120"/>
-      <c r="I70" s="119"/>
-      <c r="J70" s="120"/>
-      <c r="K70" s="119"/>
-      <c r="L70" s="119"/>
-      <c r="M70" s="119"/>
-      <c r="N70" s="119"/>
-      <c r="O70" s="120"/>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="122"/>
-      <c r="R70" s="122"/>
-      <c r="S70" s="122"/>
-      <c r="T70" s="122"/>
-      <c r="U70" s="122"/>
-      <c r="V70" s="120"/>
+      <c r="A70" s="113"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="115"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="114"/>
+      <c r="P70" s="116"/>
+      <c r="Q70" s="116"/>
+      <c r="R70" s="116"/>
+      <c r="S70" s="116"/>
+      <c r="T70" s="116"/>
+      <c r="U70" s="116"/>
+      <c r="V70" s="114"/>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="119"/>
-      <c r="B71" s="120"/>
-      <c r="C71" s="120"/>
-      <c r="D71" s="120"/>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
-      <c r="G71" s="121"/>
-      <c r="H71" s="120"/>
-      <c r="I71" s="119"/>
-      <c r="J71" s="120"/>
-      <c r="K71" s="119"/>
-      <c r="L71" s="119"/>
-      <c r="M71" s="119"/>
-      <c r="N71" s="119"/>
-      <c r="O71" s="120"/>
-      <c r="P71" s="122"/>
-      <c r="Q71" s="122"/>
-      <c r="R71" s="122"/>
-      <c r="S71" s="122"/>
-      <c r="T71" s="122"/>
-      <c r="U71" s="122"/>
-      <c r="V71" s="120"/>
+      <c r="A71" s="113"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="115"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="113"/>
+      <c r="J71" s="114"/>
+      <c r="K71" s="113"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="113"/>
+      <c r="O71" s="114"/>
+      <c r="P71" s="116"/>
+      <c r="Q71" s="116"/>
+      <c r="R71" s="116"/>
+      <c r="S71" s="116"/>
+      <c r="T71" s="116"/>
+      <c r="U71" s="116"/>
+      <c r="V71" s="114"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="119"/>
-      <c r="B72" s="120"/>
-      <c r="C72" s="120"/>
-      <c r="D72" s="120"/>
-      <c r="E72" s="120"/>
-      <c r="F72" s="120"/>
-      <c r="G72" s="121"/>
-      <c r="H72" s="120"/>
-      <c r="I72" s="119"/>
-      <c r="J72" s="120"/>
-      <c r="K72" s="119"/>
-      <c r="L72" s="119"/>
-      <c r="M72" s="119"/>
-      <c r="N72" s="119"/>
-      <c r="O72" s="120"/>
-      <c r="P72" s="122"/>
-      <c r="Q72" s="122"/>
-      <c r="R72" s="122"/>
-      <c r="S72" s="122"/>
-      <c r="T72" s="122"/>
-      <c r="U72" s="122"/>
-      <c r="V72" s="120"/>
+      <c r="A72" s="113"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="114"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="115"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="113"/>
+      <c r="J72" s="114"/>
+      <c r="K72" s="113"/>
+      <c r="L72" s="113"/>
+      <c r="M72" s="113"/>
+      <c r="N72" s="113"/>
+      <c r="O72" s="114"/>
+      <c r="P72" s="116"/>
+      <c r="Q72" s="116"/>
+      <c r="R72" s="116"/>
+      <c r="S72" s="116"/>
+      <c r="T72" s="116"/>
+      <c r="U72" s="116"/>
+      <c r="V72" s="114"/>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="119"/>
-      <c r="B73" s="120"/>
-      <c r="C73" s="120"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="120"/>
-      <c r="G73" s="121"/>
-      <c r="H73" s="120"/>
-      <c r="I73" s="119"/>
-      <c r="J73" s="120"/>
-      <c r="K73" s="119"/>
-      <c r="L73" s="119"/>
-      <c r="M73" s="119"/>
-      <c r="N73" s="119"/>
-      <c r="O73" s="120"/>
-      <c r="P73" s="122"/>
-      <c r="Q73" s="122"/>
-      <c r="R73" s="122"/>
-      <c r="S73" s="122"/>
-      <c r="T73" s="122"/>
-      <c r="U73" s="122"/>
-      <c r="V73" s="120"/>
+      <c r="A73" s="113"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="115"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="114"/>
+      <c r="K73" s="113"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="114"/>
+      <c r="P73" s="116"/>
+      <c r="Q73" s="116"/>
+      <c r="R73" s="116"/>
+      <c r="S73" s="116"/>
+      <c r="T73" s="116"/>
+      <c r="U73" s="116"/>
+      <c r="V73" s="114"/>
     </row>
     <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5815,12 +5805,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5835,6 +5819,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="265">
   <si>
     <t>Asignatura</t>
   </si>
@@ -953,9 +953,6 @@
   </si>
   <si>
     <t>Corrección de estilo y edición con imágenes, esta en carpeta</t>
-  </si>
-  <si>
-    <t>Pedir recurso motor M para agregar al interior</t>
   </si>
   <si>
     <t>Se debe editar con las imágenes</t>
@@ -1870,12 +1867,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1892,57 +1940,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2251,9 +2248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,65 +2282,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="224" t="s">
+      <c r="C1" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="213" t="s">
+      <c r="D1" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="205" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="209" t="s">
+      <c r="F1" s="201" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="222" t="s">
+      <c r="G1" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="209" t="s">
+      <c r="H1" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="209" t="s">
+      <c r="I1" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="219" t="s">
+      <c r="J1" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="217" t="s">
+      <c r="K1" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="215" t="s">
+      <c r="L1" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="221" t="s">
+      <c r="M1" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="221"/>
-      <c r="O1" s="201" t="s">
+      <c r="N1" s="215"/>
+      <c r="O1" s="203" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="201" t="s">
+      <c r="P1" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="203" t="s">
+      <c r="Q1" s="220" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="207" t="s">
+      <c r="R1" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="203" t="s">
+      <c r="S1" s="220" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="205" t="s">
+      <c r="T1" s="222" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="203" t="s">
+      <c r="U1" s="220" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="178" t="s">
@@ -2357,31 +2354,31 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="214"/>
-      <c r="B2" s="212"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="216"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="210"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="204"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="221"/>
       <c r="V2" s="143"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -2451,9 +2448,6 @@
       <c r="X3" s="182">
         <v>42411</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
@@ -2585,7 +2579,7 @@
         <v>42412</v>
       </c>
       <c r="Y5" s="114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2710,10 +2704,10 @@
       <c r="U7" s="195" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="196" t="s">
+      <c r="V7" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="W7" s="154">
+      <c r="W7" s="181">
         <v>42412</v>
       </c>
       <c r="X7" s="182">
@@ -3109,7 +3103,7 @@
       <c r="V13" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="W13" s="154">
+      <c r="W13" s="181">
         <v>42412</v>
       </c>
       <c r="X13" s="182">
@@ -3245,7 +3239,7 @@
       <c r="V15" s="166" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="154">
+      <c r="W15" s="181">
         <v>42414</v>
       </c>
       <c r="X15" s="182">
@@ -5805,6 +5799,12 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5819,12 +5819,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="273">
   <si>
     <t>Asignatura</t>
   </si>
@@ -956,6 +956,30 @@
   </si>
   <si>
     <t>Se debe editar con las imágenes</t>
+  </si>
+  <si>
+    <t>En proceso 6</t>
+  </si>
+  <si>
+    <t>Faltan 18</t>
+  </si>
+  <si>
+    <t>En proceso 4</t>
+  </si>
+  <si>
+    <t>Listos 8</t>
+  </si>
+  <si>
+    <t>Faltan 20</t>
+  </si>
+  <si>
+    <t>Listos 17</t>
+  </si>
+  <si>
+    <t>En proceso 1</t>
+  </si>
+  <si>
+    <t>Faltan 15</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1856,7 +1880,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2248,9 +2271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
+      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,65 +2305,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="218" t="s">
+      <c r="C1" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="207" t="s">
+      <c r="D1" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="205" t="s">
+      <c r="E1" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="201" t="s">
+      <c r="F1" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="216" t="s">
+      <c r="G1" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="201" t="s">
+      <c r="H1" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="201" t="s">
+      <c r="I1" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="213" t="s">
+      <c r="J1" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="211" t="s">
+      <c r="K1" s="210" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="209" t="s">
+      <c r="L1" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="215" t="s">
+      <c r="M1" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="215"/>
-      <c r="O1" s="203" t="s">
+      <c r="N1" s="214"/>
+      <c r="O1" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="203" t="s">
+      <c r="P1" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="220" t="s">
+      <c r="Q1" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="224" t="s">
+      <c r="R1" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="220" t="s">
+      <c r="S1" s="219" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="222" t="s">
+      <c r="T1" s="221" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="220" t="s">
+      <c r="U1" s="219" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="178" t="s">
@@ -2354,31 +2377,31 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="208"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="210"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="209"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="204"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="221"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="221"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="220"/>
       <c r="V2" s="143"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -2441,7 +2464,7 @@
       <c r="U3" s="195" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="196" t="s">
+      <c r="V3" s="166" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
@@ -2550,7 +2573,7 @@
         <v>53</v>
       </c>
       <c r="N5" s="184"/>
-      <c r="O5" s="197" t="s">
+      <c r="O5" s="196" t="s">
         <v>129</v>
       </c>
       <c r="P5" s="185" t="s">
@@ -2571,7 +2594,7 @@
       <c r="U5" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="196" t="s">
+      <c r="V5" s="166" t="s">
         <v>253</v>
       </c>
       <c r="W5" s="3"/>
@@ -2661,7 +2684,7 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
-      <c r="G7" s="198" t="s">
+      <c r="G7" s="197" t="s">
         <v>132</v>
       </c>
       <c r="H7" s="190">
@@ -2670,7 +2693,7 @@
       <c r="I7" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="199" t="s">
+      <c r="J7" s="198" t="s">
         <v>237</v>
       </c>
       <c r="K7" s="190" t="s">
@@ -3057,7 +3080,7 @@
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="198" t="s">
+      <c r="G13" s="197" t="s">
         <v>232</v>
       </c>
       <c r="H13" s="190">
@@ -3066,7 +3089,7 @@
       <c r="I13" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="200" t="s">
+      <c r="J13" s="199" t="s">
         <v>238</v>
       </c>
       <c r="K13" s="190" t="s">
@@ -3079,7 +3102,7 @@
         <v>54</v>
       </c>
       <c r="N13" s="190"/>
-      <c r="O13" s="200" t="s">
+      <c r="O13" s="199" t="s">
         <v>239</v>
       </c>
       <c r="P13" s="192" t="s">
@@ -4564,8 +4587,12 @@
       <c r="S37" s="117"/>
       <c r="T37" s="117"/>
       <c r="U37" s="117"/>
-      <c r="V37" s="116"/>
-      <c r="W37" s="18"/>
+      <c r="V37" s="116" t="s">
+        <v>270</v>
+      </c>
+      <c r="W37" s="18" t="s">
+        <v>268</v>
+      </c>
       <c r="X37" s="18"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -4590,9 +4617,15 @@
       <c r="S38" s="116"/>
       <c r="T38" s="116"/>
       <c r="U38" s="116"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
+      <c r="V38" s="116" t="s">
+        <v>271</v>
+      </c>
+      <c r="W38" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="X38" s="18" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="113"/>
@@ -4616,9 +4649,15 @@
       <c r="S39" s="116"/>
       <c r="T39" s="116"/>
       <c r="U39" s="116"/>
-      <c r="V39" s="116"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
+      <c r="V39" s="116" t="s">
+        <v>272</v>
+      </c>
+      <c r="W39" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="X39" s="18" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="113"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -958,12 +958,6 @@
     <t>Se debe editar con las imágenes</t>
   </si>
   <si>
-    <t>En proceso 6</t>
-  </si>
-  <si>
-    <t>Faltan 18</t>
-  </si>
-  <si>
     <t>En proceso 4</t>
   </si>
   <si>
@@ -973,13 +967,19 @@
     <t>Faltan 20</t>
   </si>
   <si>
-    <t>Listos 17</t>
-  </si>
-  <si>
     <t>En proceso 1</t>
   </si>
   <si>
-    <t>Faltan 15</t>
+    <t>En proceso 7</t>
+  </si>
+  <si>
+    <t>Faltan 17</t>
+  </si>
+  <si>
+    <t>Listos 18</t>
+  </si>
+  <si>
+    <t>Faltan 14</t>
   </si>
 </sst>
 </file>
@@ -1890,18 +1890,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1945,24 +1963,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2271,9 +2271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V40" sqref="V40"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,10 +2284,10 @@
     <col min="4" max="4" width="26.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26" style="4" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="91.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="74.5703125" style="25" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="13" customWidth="1"/>
     <col min="9" max="9" width="11" style="13" customWidth="1"/>
-    <col min="10" max="10" width="125.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="105.42578125" style="4" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="4" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="4" customWidth="1"/>
@@ -2305,65 +2305,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="217" t="s">
+      <c r="C1" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="212" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="204" t="s">
+      <c r="E1" s="210" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="200" t="s">
+      <c r="F1" s="208" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="215" t="s">
+      <c r="G1" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="200" t="s">
+      <c r="H1" s="208" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="200" t="s">
+      <c r="I1" s="208" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="212" t="s">
+      <c r="J1" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="210" t="s">
+      <c r="K1" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="208" t="s">
+      <c r="L1" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="214" t="s">
+      <c r="M1" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="214"/>
-      <c r="O1" s="202" t="s">
+      <c r="N1" s="220"/>
+      <c r="O1" s="200" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="202" t="s">
+      <c r="P1" s="200" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="219" t="s">
+      <c r="Q1" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="223" t="s">
+      <c r="R1" s="206" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="219" t="s">
+      <c r="S1" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="221" t="s">
+      <c r="T1" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="219" t="s">
+      <c r="U1" s="202" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="178" t="s">
@@ -2377,31 +2377,31 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="207"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="209"/>
+      <c r="A2" s="213"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="215"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="220"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="203"/>
       <c r="V2" s="143"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -3547,54 +3547,56 @@
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="183" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="184">
         <v>18</v>
       </c>
-      <c r="I20" s="84" t="s">
+      <c r="I20" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="150" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="84" t="s">
+      <c r="K20" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="84" t="s">
+      <c r="L20" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="84" t="s">
+      <c r="M20" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="84"/>
-      <c r="O20" s="14" t="s">
+      <c r="N20" s="184"/>
+      <c r="O20" s="150" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="85" t="s">
+      <c r="P20" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="86">
+      <c r="Q20" s="186">
         <v>6</v>
       </c>
-      <c r="R20" s="86" t="s">
+      <c r="R20" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="86" t="s">
+      <c r="S20" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="87" t="s">
+      <c r="T20" s="187" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="88" t="s">
+      <c r="U20" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="145" t="s">
+      <c r="V20" s="166" t="s">
         <v>254</v>
       </c>
       <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="X20" s="182">
+        <v>42415</v>
+      </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
@@ -4588,10 +4590,10 @@
       <c r="T37" s="117"/>
       <c r="U37" s="117"/>
       <c r="V37" s="116" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W37" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X37" s="18"/>
     </row>
@@ -4618,13 +4620,13 @@
       <c r="T38" s="116"/>
       <c r="U38" s="116"/>
       <c r="V38" s="116" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W38" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="X38" s="18" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -4653,10 +4655,10 @@
         <v>272</v>
       </c>
       <c r="W39" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X39" s="18" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -5838,12 +5840,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5858,6 +5854,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -1890,12 +1890,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1912,57 +1963,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2271,7 +2271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
@@ -2305,65 +2305,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="223" t="s">
+      <c r="C1" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="212" t="s">
+      <c r="D1" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="210" t="s">
+      <c r="E1" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="208" t="s">
+      <c r="F1" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="221" t="s">
+      <c r="G1" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="208" t="s">
+      <c r="H1" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="208" t="s">
+      <c r="I1" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="218" t="s">
+      <c r="J1" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="216" t="s">
+      <c r="K1" s="210" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="214" t="s">
+      <c r="L1" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="220" t="s">
+      <c r="M1" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="220"/>
-      <c r="O1" s="200" t="s">
+      <c r="N1" s="214"/>
+      <c r="O1" s="202" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="200" t="s">
+      <c r="P1" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="202" t="s">
+      <c r="Q1" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="206" t="s">
+      <c r="R1" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="202" t="s">
+      <c r="S1" s="219" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="204" t="s">
+      <c r="T1" s="221" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="202" t="s">
+      <c r="U1" s="219" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="178" t="s">
@@ -2377,31 +2377,31 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="213"/>
-      <c r="B2" s="211"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="215"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="209"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="220"/>
       <c r="V2" s="143"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -5840,6 +5840,12 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5854,12 +5860,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="271">
   <si>
     <t>Asignatura</t>
   </si>
@@ -949,9 +949,6 @@
     <t>Actividad para deducir el valor de ángulos en polígonos y circunferencias</t>
   </si>
   <si>
-    <t>Se deben arreglar las fichas de docente y estudiante</t>
-  </si>
-  <si>
     <t>Corrección de estilo y edición con imágenes, esta en carpeta</t>
   </si>
   <si>
@@ -964,22 +961,19 @@
     <t>Listos 8</t>
   </si>
   <si>
-    <t>Faltan 20</t>
-  </si>
-  <si>
-    <t>En proceso 1</t>
-  </si>
-  <si>
     <t>En proceso 7</t>
   </si>
   <si>
     <t>Faltan 17</t>
   </si>
   <si>
-    <t>Listos 18</t>
-  </si>
-  <si>
-    <t>Faltan 14</t>
+    <t>Listos 19</t>
+  </si>
+  <si>
+    <t>Faltan 13</t>
+  </si>
+  <si>
+    <t>Faltan 15</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1760,7 +1754,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1801,21 +1794,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1835,7 +1813,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1890,18 +1867,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1945,24 +1940,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2271,9 +2248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,103 +2282,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="217" t="s">
+      <c r="C1" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="204" t="s">
+      <c r="E1" s="203" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="200" t="s">
+      <c r="F1" s="201" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="215" t="s">
+      <c r="G1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="200" t="s">
+      <c r="H1" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="200" t="s">
+      <c r="I1" s="201" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="212" t="s">
+      <c r="J1" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="210" t="s">
+      <c r="K1" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="208" t="s">
+      <c r="L1" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="214" t="s">
+      <c r="M1" s="213" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="214"/>
-      <c r="O1" s="202" t="s">
+      <c r="N1" s="213"/>
+      <c r="O1" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="202" t="s">
+      <c r="P1" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="219" t="s">
+      <c r="Q1" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="223" t="s">
+      <c r="R1" s="199" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="219" t="s">
+      <c r="S1" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="221" t="s">
+      <c r="T1" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="219" t="s">
+      <c r="U1" s="195" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="178" t="s">
+      <c r="V1" s="172" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="149" t="s">
+      <c r="W1" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="X1" s="150" t="s">
+      <c r="X1" s="149" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="207"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="209"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="208"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="220"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="196"/>
       <c r="V2" s="143"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -2421,54 +2398,54 @@
       </c>
       <c r="E3" s="119"/>
       <c r="F3" s="119"/>
-      <c r="G3" s="189" t="s">
+      <c r="G3" s="182" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="190">
+      <c r="H3" s="183">
         <v>1</v>
       </c>
-      <c r="I3" s="190" t="s">
+      <c r="I3" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="191" t="s">
+      <c r="J3" s="184" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="190" t="s">
+      <c r="K3" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="190" t="s">
+      <c r="L3" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="190" t="s">
+      <c r="M3" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="190"/>
-      <c r="O3" s="191" t="s">
+      <c r="N3" s="183"/>
+      <c r="O3" s="184" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="192" t="s">
+      <c r="P3" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="193">
+      <c r="Q3" s="186">
         <v>6</v>
       </c>
-      <c r="R3" s="193" t="s">
+      <c r="R3" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="193" t="s">
+      <c r="S3" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="194" t="s">
+      <c r="T3" s="187" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="195" t="s">
+      <c r="U3" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="166" t="s">
+      <c r="V3" s="165" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="182">
+      <c r="X3" s="175">
         <v>42411</v>
       </c>
     </row>
@@ -2551,58 +2528,58 @@
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="183" t="s">
+      <c r="G5" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="184">
+      <c r="H5" s="177">
         <v>3</v>
       </c>
-      <c r="I5" s="184" t="s">
+      <c r="I5" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="150" t="s">
+      <c r="J5" s="149" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="184" t="s">
+      <c r="K5" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="184" t="s">
+      <c r="M5" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="184"/>
-      <c r="O5" s="196" t="s">
+      <c r="N5" s="177"/>
+      <c r="O5" s="189" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="185" t="s">
+      <c r="P5" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="186">
+      <c r="Q5" s="179">
         <v>6</v>
       </c>
-      <c r="R5" s="186" t="s">
+      <c r="R5" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="S5" s="186" t="s">
+      <c r="S5" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="187" t="s">
+      <c r="T5" s="180" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="188" t="s">
+      <c r="U5" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="166" t="s">
+      <c r="V5" s="165" t="s">
         <v>253</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="182">
+      <c r="X5" s="175">
         <v>42412</v>
       </c>
       <c r="Y5" s="114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2684,56 +2661,56 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
-      <c r="G7" s="197" t="s">
+      <c r="G7" s="190" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="190">
+      <c r="H7" s="183">
         <v>5</v>
       </c>
-      <c r="I7" s="190" t="s">
+      <c r="I7" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="198" t="s">
+      <c r="J7" s="191" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="190" t="s">
+      <c r="K7" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="190" t="s">
+      <c r="L7" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="190" t="s">
+      <c r="M7" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="190"/>
-      <c r="O7" s="191" t="s">
+      <c r="N7" s="183"/>
+      <c r="O7" s="184" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="192" t="s">
+      <c r="P7" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="193">
+      <c r="Q7" s="186">
         <v>6</v>
       </c>
-      <c r="R7" s="193" t="s">
+      <c r="R7" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="193" t="s">
+      <c r="S7" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="194" t="s">
+      <c r="T7" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="195" t="s">
+      <c r="U7" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="166" t="s">
+      <c r="V7" s="165" t="s">
         <v>252</v>
       </c>
-      <c r="W7" s="181">
+      <c r="W7" s="174">
         <v>42412</v>
       </c>
-      <c r="X7" s="182">
+      <c r="X7" s="175">
         <v>42047</v>
       </c>
     </row>
@@ -2816,53 +2793,53 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="161" t="s">
+      <c r="G9" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="162">
         <v>7</v>
       </c>
-      <c r="I9" s="163" t="s">
+      <c r="I9" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="149" t="s">
+      <c r="J9" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="163" t="s">
+      <c r="K9" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="163" t="s">
+      <c r="L9" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163" t="s">
+      <c r="M9" s="162"/>
+      <c r="N9" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="149" t="s">
+      <c r="O9" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="162" t="s">
+      <c r="P9" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="164">
+      <c r="Q9" s="163">
         <v>6</v>
       </c>
-      <c r="R9" s="164" t="s">
+      <c r="R9" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="164" t="s">
+      <c r="S9" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="180" t="s">
+      <c r="T9" s="173" t="s">
         <v>200</v>
       </c>
-      <c r="U9" s="165" t="s">
+      <c r="U9" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="V9" s="166" t="s">
+      <c r="V9" s="165" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="154">
+      <c r="W9" s="153">
         <v>42408</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -2948,53 +2925,53 @@
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="161" t="s">
+      <c r="G11" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="163">
+      <c r="H11" s="162">
         <v>9</v>
       </c>
-      <c r="I11" s="163" t="s">
+      <c r="I11" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="149" t="s">
+      <c r="J11" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="163" t="s">
+      <c r="K11" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="163" t="s">
+      <c r="L11" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163" t="s">
+      <c r="M11" s="162"/>
+      <c r="N11" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="149" t="s">
+      <c r="O11" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="162" t="s">
+      <c r="P11" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="164">
+      <c r="Q11" s="163">
         <v>6</v>
       </c>
-      <c r="R11" s="164" t="s">
+      <c r="R11" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="164" t="s">
+      <c r="S11" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="T11" s="180" t="s">
+      <c r="T11" s="173" t="s">
         <v>202</v>
       </c>
-      <c r="U11" s="165" t="s">
+      <c r="U11" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="166" t="s">
+      <c r="V11" s="165" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="154">
+      <c r="W11" s="153">
         <v>42408</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -3080,56 +3057,56 @@
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="197" t="s">
+      <c r="G13" s="190" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="190">
+      <c r="H13" s="183">
         <v>11</v>
       </c>
-      <c r="I13" s="190" t="s">
+      <c r="I13" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="199" t="s">
+      <c r="J13" s="192" t="s">
         <v>238</v>
       </c>
-      <c r="K13" s="190" t="s">
+      <c r="K13" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="190" t="s">
+      <c r="L13" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="190" t="s">
+      <c r="M13" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="190"/>
-      <c r="O13" s="199" t="s">
+      <c r="N13" s="183"/>
+      <c r="O13" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="P13" s="192" t="s">
+      <c r="P13" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="193">
+      <c r="Q13" s="186">
         <v>6</v>
       </c>
-      <c r="R13" s="193" t="s">
+      <c r="R13" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="S13" s="193" t="s">
+      <c r="S13" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="T13" s="194" t="s">
+      <c r="T13" s="187" t="s">
         <v>204</v>
       </c>
-      <c r="U13" s="195" t="s">
+      <c r="U13" s="188" t="s">
         <v>191</v>
       </c>
-      <c r="V13" s="166" t="s">
+      <c r="V13" s="165" t="s">
         <v>252</v>
       </c>
-      <c r="W13" s="181">
+      <c r="W13" s="174">
         <v>42412</v>
       </c>
-      <c r="X13" s="182">
+      <c r="X13" s="175">
         <v>42412</v>
       </c>
     </row>
@@ -3148,53 +3125,53 @@
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="161" t="s">
+      <c r="G14" s="160" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="163">
+      <c r="H14" s="162">
         <v>12</v>
       </c>
-      <c r="I14" s="163" t="s">
+      <c r="I14" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="149" t="s">
+      <c r="J14" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="163" t="s">
+      <c r="K14" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="163" t="s">
+      <c r="L14" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163" t="s">
+      <c r="M14" s="162"/>
+      <c r="N14" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="149" t="s">
+      <c r="O14" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="162" t="s">
+      <c r="P14" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="164">
+      <c r="Q14" s="163">
         <v>6</v>
       </c>
-      <c r="R14" s="164" t="s">
+      <c r="R14" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="164" t="s">
+      <c r="S14" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="T14" s="180" t="s">
+      <c r="T14" s="173" t="s">
         <v>205</v>
       </c>
-      <c r="U14" s="165" t="s">
+      <c r="U14" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="V14" s="166" t="s">
+      <c r="V14" s="165" t="s">
         <v>250</v>
       </c>
-      <c r="W14" s="154">
+      <c r="W14" s="153">
         <v>42414</v>
       </c>
       <c r="X14" s="3" t="s">
@@ -3216,56 +3193,56 @@
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="183" t="s">
+      <c r="G15" s="176" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="185">
+      <c r="H15" s="178">
         <v>13</v>
       </c>
-      <c r="I15" s="184" t="s">
+      <c r="I15" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="150" t="s">
+      <c r="J15" s="149" t="s">
         <v>229</v>
       </c>
-      <c r="K15" s="184" t="s">
+      <c r="K15" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="184" t="s">
+      <c r="L15" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184" t="s">
+      <c r="M15" s="177"/>
+      <c r="N15" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="150" t="s">
+      <c r="O15" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="185" t="s">
+      <c r="P15" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="186">
+      <c r="Q15" s="179">
         <v>6</v>
       </c>
-      <c r="R15" s="186" t="s">
+      <c r="R15" s="179" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="186" t="s">
+      <c r="S15" s="179" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="187" t="s">
+      <c r="T15" s="180" t="s">
         <v>206</v>
       </c>
-      <c r="U15" s="188" t="s">
+      <c r="U15" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="V15" s="166" t="s">
+      <c r="V15" s="165" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="181">
+      <c r="W15" s="174">
         <v>42414</v>
       </c>
-      <c r="X15" s="182">
+      <c r="X15" s="175">
         <v>42414</v>
       </c>
     </row>
@@ -3284,61 +3261,61 @@
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="183" t="s">
+      <c r="G16" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="184">
+      <c r="H16" s="177">
         <v>14</v>
       </c>
-      <c r="I16" s="184" t="s">
+      <c r="I16" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="150" t="s">
+      <c r="J16" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="184" t="s">
+      <c r="K16" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="184" t="s">
+      <c r="L16" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="184"/>
-      <c r="N16" s="184" t="s">
+      <c r="M16" s="177"/>
+      <c r="N16" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="150" t="s">
+      <c r="O16" s="149" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="185" t="s">
+      <c r="P16" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="186">
+      <c r="Q16" s="179">
         <v>6</v>
       </c>
-      <c r="R16" s="186" t="s">
+      <c r="R16" s="179" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="186" t="s">
+      <c r="S16" s="179" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="187" t="s">
+      <c r="T16" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="U16" s="188" t="s">
+      <c r="U16" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="166" t="s">
+      <c r="V16" s="165" t="s">
         <v>249</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="182">
+      <c r="X16" s="175">
         <v>42410</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>15</v>
       </c>
@@ -3404,7 +3381,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="142" t="s">
         <v>15</v>
       </c>
@@ -3419,56 +3396,56 @@
       </c>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
-      <c r="G18" s="155" t="s">
+      <c r="G18" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="156">
+      <c r="H18" s="155">
         <v>16</v>
       </c>
-      <c r="I18" s="156" t="s">
+      <c r="I18" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="157" t="s">
+      <c r="J18" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="156" t="s">
+      <c r="K18" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="156" t="s">
+      <c r="L18" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="158" t="s">
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="159">
+      <c r="Q18" s="158">
         <v>8</v>
       </c>
-      <c r="R18" s="159" t="s">
+      <c r="R18" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="159" t="s">
+      <c r="S18" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="159" t="s">
+      <c r="T18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="160" t="s">
+      <c r="U18" s="159" t="s">
         <v>219</v>
       </c>
-      <c r="V18" s="166" t="s">
+      <c r="V18" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="181">
+      <c r="W18" s="174">
         <v>42403</v>
       </c>
-      <c r="X18" s="153" t="s">
+      <c r="X18" s="152" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="137" t="s">
         <v>15</v>
       </c>
@@ -3483,56 +3460,56 @@
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="161" t="s">
+      <c r="G19" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="H19" s="162">
+      <c r="H19" s="161">
         <v>17</v>
       </c>
-      <c r="I19" s="163" t="s">
+      <c r="I19" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="149" t="s">
+      <c r="J19" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="163" t="s">
+      <c r="K19" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="163" t="s">
+      <c r="L19" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="162" t="s">
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="164">
+      <c r="Q19" s="163">
         <v>8</v>
       </c>
-      <c r="R19" s="164" t="s">
+      <c r="R19" s="163" t="s">
         <v>217</v>
       </c>
-      <c r="S19" s="164" t="s">
+      <c r="S19" s="163" t="s">
         <v>218</v>
       </c>
-      <c r="T19" s="164" t="s">
+      <c r="T19" s="163" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="165" t="s">
+      <c r="U19" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="166" t="s">
+      <c r="V19" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="181">
+      <c r="W19" s="174">
         <v>42403</v>
       </c>
       <c r="X19" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>15</v>
       </c>
@@ -3547,58 +3524,58 @@
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="183" t="s">
+      <c r="G20" s="176" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="184">
+      <c r="H20" s="177">
         <v>18</v>
       </c>
-      <c r="I20" s="184" t="s">
+      <c r="I20" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="150" t="s">
+      <c r="J20" s="149" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="184" t="s">
+      <c r="K20" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="184" t="s">
+      <c r="L20" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="184" t="s">
+      <c r="M20" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="184"/>
-      <c r="O20" s="150" t="s">
+      <c r="N20" s="177"/>
+      <c r="O20" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="185" t="s">
+      <c r="P20" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="186">
+      <c r="Q20" s="179">
         <v>6</v>
       </c>
-      <c r="R20" s="186" t="s">
+      <c r="R20" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="186" t="s">
+      <c r="S20" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="187" t="s">
+      <c r="T20" s="180" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="188" t="s">
+      <c r="U20" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="166" t="s">
+      <c r="V20" s="165" t="s">
         <v>254</v>
       </c>
       <c r="W20" s="3"/>
-      <c r="X20" s="182">
+      <c r="X20" s="175">
         <v>42415</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
         <v>15</v>
       </c>
@@ -3662,7 +3639,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>15</v>
       </c>
@@ -3726,7 +3703,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>15</v>
       </c>
@@ -3741,58 +3718,60 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="161" t="s">
+      <c r="G23" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="162">
+      <c r="H23" s="161">
         <v>21</v>
       </c>
-      <c r="I23" s="163" t="s">
+      <c r="I23" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="149" t="s">
+      <c r="J23" s="148" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="163" t="s">
+      <c r="K23" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="163" t="s">
+      <c r="L23" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163" t="s">
+      <c r="M23" s="162"/>
+      <c r="N23" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="149" t="s">
+      <c r="O23" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="162" t="s">
+      <c r="P23" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="164">
+      <c r="Q23" s="163">
         <v>6</v>
       </c>
-      <c r="R23" s="164" t="s">
+      <c r="R23" s="163" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="164" t="s">
+      <c r="S23" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="180" t="s">
+      <c r="T23" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="U23" s="165" t="s">
+      <c r="U23" s="164" t="s">
         <v>195</v>
       </c>
-      <c r="V23" s="166" t="s">
+      <c r="V23" s="165" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="154">
+      <c r="W23" s="153">
         <v>42408</v>
       </c>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X23" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="89" t="s">
         <v>15</v>
       </c>
@@ -3856,7 +3835,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>15</v>
       </c>
@@ -3871,56 +3850,56 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="155" t="s">
+      <c r="G25" s="154" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="156">
+      <c r="H25" s="155">
         <v>23</v>
       </c>
-      <c r="I25" s="156" t="s">
+      <c r="I25" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="157" t="s">
+      <c r="J25" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="156" t="s">
+      <c r="K25" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="156" t="s">
+      <c r="L25" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="158" t="s">
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="159">
+      <c r="Q25" s="158">
         <v>8</v>
       </c>
-      <c r="R25" s="159" t="s">
+      <c r="R25" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="S25" s="159" t="s">
+      <c r="S25" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="T25" s="159" t="s">
+      <c r="T25" s="158" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="160" t="s">
+      <c r="U25" s="159" t="s">
         <v>219</v>
       </c>
-      <c r="V25" s="166" t="s">
+      <c r="V25" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="W25" s="181">
+      <c r="W25" s="174">
         <v>42404</v>
       </c>
       <c r="X25" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
         <v>15</v>
       </c>
@@ -3935,56 +3914,56 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="161" t="s">
+      <c r="G26" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="162">
+      <c r="H26" s="161">
         <v>24</v>
       </c>
-      <c r="I26" s="163" t="s">
+      <c r="I26" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="149" t="s">
+      <c r="J26" s="148" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="163" t="s">
+      <c r="K26" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="163" t="s">
+      <c r="L26" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="149"/>
-      <c r="P26" s="162" t="s">
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="148"/>
+      <c r="P26" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="164">
+      <c r="Q26" s="163">
         <v>8</v>
       </c>
-      <c r="R26" s="164" t="s">
+      <c r="R26" s="163" t="s">
         <v>217</v>
       </c>
-      <c r="S26" s="164" t="s">
+      <c r="S26" s="163" t="s">
         <v>218</v>
       </c>
-      <c r="T26" s="164" t="s">
+      <c r="T26" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="165" t="s">
+      <c r="U26" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="V26" s="166" t="s">
+      <c r="V26" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="W26" s="181">
+      <c r="W26" s="174">
         <v>42404</v>
       </c>
       <c r="X26" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
         <v>15</v>
       </c>
@@ -3999,46 +3978,46 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="172" t="s">
+      <c r="G27" s="166" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="173">
+      <c r="H27" s="167">
         <v>25</v>
       </c>
-      <c r="I27" s="174" t="s">
+      <c r="I27" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="152" t="s">
+      <c r="J27" s="151" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="174" t="s">
+      <c r="K27" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="174" t="s">
+      <c r="L27" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="174"/>
-      <c r="N27" s="174"/>
-      <c r="O27" s="152"/>
-      <c r="P27" s="173" t="s">
+      <c r="M27" s="168"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="175">
+      <c r="Q27" s="169">
         <v>8</v>
       </c>
-      <c r="R27" s="175" t="s">
+      <c r="R27" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="175" t="s">
+      <c r="S27" s="169" t="s">
         <v>218</v>
       </c>
-      <c r="T27" s="175" t="s">
+      <c r="T27" s="169" t="s">
         <v>220</v>
       </c>
-      <c r="U27" s="176" t="s">
+      <c r="U27" s="170" t="s">
         <v>219</v>
       </c>
-      <c r="V27" s="166" t="s">
+      <c r="V27" s="165" t="s">
         <v>246</v>
       </c>
       <c r="W27" s="20" t="s">
@@ -4048,7 +4027,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="s">
         <v>15</v>
       </c>
@@ -4063,56 +4042,56 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="161" t="s">
+      <c r="G28" s="160" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="163">
+      <c r="H28" s="162">
         <v>26</v>
       </c>
-      <c r="I28" s="163" t="s">
+      <c r="I28" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="149" t="s">
+      <c r="J28" s="148" t="s">
         <v>261</v>
       </c>
-      <c r="K28" s="163" t="s">
+      <c r="K28" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="163" t="s">
+      <c r="L28" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="149"/>
-      <c r="P28" s="162" t="s">
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="164">
+      <c r="Q28" s="163">
         <v>8</v>
       </c>
-      <c r="R28" s="164" t="s">
+      <c r="R28" s="163" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="164" t="s">
+      <c r="S28" s="163" t="s">
         <v>218</v>
       </c>
-      <c r="T28" s="164" t="s">
+      <c r="T28" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="U28" s="165" t="s">
+      <c r="U28" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="V28" s="166" t="s">
+      <c r="V28" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="181">
+      <c r="W28" s="174">
         <v>42404</v>
       </c>
       <c r="X28" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="137" t="s">
         <v>15</v>
       </c>
@@ -4127,55 +4106,56 @@
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="167" t="s">
+      <c r="G29" s="166" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="168">
+      <c r="H29" s="167">
         <v>27</v>
       </c>
-      <c r="I29" s="169" t="s">
+      <c r="I29" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="148" t="s">
+      <c r="J29" s="151" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="169" t="s">
+      <c r="K29" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="169" t="s">
+      <c r="L29" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="169"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="168" t="s">
+      <c r="M29" s="168"/>
+      <c r="N29" s="168"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="170">
+      <c r="Q29" s="169">
         <v>8</v>
       </c>
-      <c r="R29" s="170" t="s">
+      <c r="R29" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="170" t="s">
+      <c r="S29" s="169" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="170" t="s">
+      <c r="T29" s="169" t="s">
         <v>169</v>
       </c>
-      <c r="U29" s="171" t="s">
+      <c r="U29" s="170" t="s">
         <v>219</v>
       </c>
-      <c r="V29" s="179" t="s">
+      <c r="V29" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W29" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="X29" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="s">
         <v>15</v>
       </c>
@@ -4236,10 +4216,10 @@
       <c r="V30" s="146" t="s">
         <v>248</v>
       </c>
-      <c r="W30" s="151"/>
-      <c r="X30" s="151"/>
-    </row>
-    <row r="31" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W30" s="150"/>
+      <c r="X30" s="150"/>
+    </row>
+    <row r="31" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="73" t="s">
         <v>15</v>
       </c>
@@ -4300,10 +4280,10 @@
       <c r="V31" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="W31" s="151"/>
-      <c r="X31" s="151"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W31" s="150"/>
+      <c r="X31" s="150"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>15</v>
       </c>
@@ -4364,8 +4344,8 @@
       <c r="V32" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="W32" s="151"/>
-      <c r="X32" s="151"/>
+      <c r="W32" s="150"/>
+      <c r="X32" s="150"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
@@ -4382,40 +4362,42 @@
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
-      <c r="G33" s="172" t="s">
+      <c r="G33" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="173">
+      <c r="H33" s="167">
         <v>31</v>
       </c>
-      <c r="I33" s="174" t="s">
+      <c r="I33" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="152" t="s">
+      <c r="J33" s="151" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="174" t="s">
+      <c r="K33" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="174" t="s">
+      <c r="L33" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="174"/>
-      <c r="N33" s="174"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="173" t="s">
+      <c r="M33" s="168"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="175"/>
-      <c r="U33" s="175"/>
-      <c r="V33" s="177" t="s">
+      <c r="Q33" s="169"/>
+      <c r="R33" s="169"/>
+      <c r="S33" s="169"/>
+      <c r="T33" s="169"/>
+      <c r="U33" s="169"/>
+      <c r="V33" s="171" t="s">
         <v>246</v>
       </c>
-      <c r="W33" s="173"/>
-      <c r="X33" s="151"/>
+      <c r="W33" s="167"/>
+      <c r="X33" s="150" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
@@ -4476,8 +4458,8 @@
       <c r="V34" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="W34" s="151"/>
-      <c r="X34" s="151"/>
+      <c r="W34" s="150"/>
+      <c r="X34" s="150"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="106" t="s">
@@ -4538,8 +4520,8 @@
       <c r="V35" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="W35" s="151"/>
-      <c r="X35" s="151"/>
+      <c r="W35" s="150"/>
+      <c r="X35" s="150"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="107"/>
@@ -4590,10 +4572,10 @@
       <c r="T37" s="117"/>
       <c r="U37" s="117"/>
       <c r="V37" s="116" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W37" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X37" s="18"/>
     </row>
@@ -4619,14 +4601,12 @@
       <c r="S38" s="116"/>
       <c r="T38" s="116"/>
       <c r="U38" s="116"/>
-      <c r="V38" s="116" t="s">
-        <v>268</v>
-      </c>
+      <c r="V38" s="116"/>
       <c r="W38" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X38" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -4652,13 +4632,13 @@
       <c r="T39" s="116"/>
       <c r="U39" s="116"/>
       <c r="V39" s="116" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="W39" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="X39" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="X39" s="18" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -5840,12 +5820,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5860,6 +5834,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -955,25 +955,25 @@
     <t>Se debe editar con las imágenes</t>
   </si>
   <si>
-    <t>En proceso 4</t>
-  </si>
-  <si>
     <t>Listos 8</t>
   </si>
   <si>
-    <t>En proceso 7</t>
-  </si>
-  <si>
     <t>Faltan 17</t>
   </si>
   <si>
-    <t>Listos 19</t>
-  </si>
-  <si>
-    <t>Faltan 13</t>
-  </si>
-  <si>
-    <t>Faltan 15</t>
+    <t>En proceso 5</t>
+  </si>
+  <si>
+    <t>Faltan 14</t>
+  </si>
+  <si>
+    <t>Faltan 12</t>
+  </si>
+  <si>
+    <t>Listos 18</t>
+  </si>
+  <si>
+    <t>En proceso 8</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1405,9 +1405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1683,27 +1680,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1867,12 +1843,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1891,56 +1918,14 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2248,9 +2233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y23" sqref="Y23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,7 +2246,7 @@
     <col min="4" max="4" width="26.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26" style="4" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="74.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="71.5703125" style="24" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="13" customWidth="1"/>
     <col min="9" max="9" width="11" style="13" customWidth="1"/>
     <col min="10" max="10" width="105.42578125" style="4" customWidth="1"/>
@@ -2282,372 +2267,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="216" t="s">
+      <c r="C1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="205" t="s">
+      <c r="D1" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="203" t="s">
+      <c r="E1" s="189" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="201" t="s">
+      <c r="F1" s="185" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="214" t="s">
+      <c r="G1" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="201" t="s">
+      <c r="H1" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="201" t="s">
+      <c r="I1" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="211" t="s">
+      <c r="J1" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="209" t="s">
+      <c r="K1" s="195" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="207" t="s">
+      <c r="L1" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="213" t="s">
+      <c r="M1" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="213"/>
-      <c r="O1" s="193" t="s">
+      <c r="N1" s="199"/>
+      <c r="O1" s="187" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="193" t="s">
+      <c r="P1" s="187" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="195" t="s">
+      <c r="Q1" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="199" t="s">
+      <c r="R1" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="195" t="s">
+      <c r="S1" s="204" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="197" t="s">
+      <c r="T1" s="206" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="195" t="s">
+      <c r="U1" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="172" t="s">
+      <c r="V1" s="164" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="148" t="s">
+      <c r="W1" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="X1" s="149" t="s">
+      <c r="X1" s="141" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="206"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="208"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="194"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="143"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="135"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="182" t="s">
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="183">
+      <c r="H3" s="175">
         <v>1</v>
       </c>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="184" t="s">
+      <c r="J3" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="183" t="s">
+      <c r="K3" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="183" t="s">
+      <c r="L3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="183" t="s">
+      <c r="M3" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="183"/>
-      <c r="O3" s="184" t="s">
+      <c r="N3" s="175"/>
+      <c r="O3" s="176" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="185" t="s">
+      <c r="P3" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="186">
+      <c r="Q3" s="178">
         <v>6</v>
       </c>
-      <c r="R3" s="186" t="s">
+      <c r="R3" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="186" t="s">
+      <c r="S3" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="187" t="s">
+      <c r="T3" s="179" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="188" t="s">
+      <c r="U3" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="165" t="s">
+      <c r="V3" s="157" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="175">
+      <c r="X3" s="167">
         <v>42411</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="118" t="s">
         <v>125</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="123">
+      <c r="H4" s="170">
         <v>2</v>
       </c>
-      <c r="I4" s="124" t="s">
+      <c r="I4" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="211" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="124" t="s">
+      <c r="L4" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124" t="s">
+      <c r="M4" s="169"/>
+      <c r="N4" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="125" t="s">
+      <c r="O4" s="212" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="123" t="s">
+      <c r="P4" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="126">
+      <c r="Q4" s="171">
         <v>6</v>
       </c>
-      <c r="R4" s="126" t="s">
+      <c r="R4" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="126" t="s">
+      <c r="S4" s="171" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="127" t="s">
+      <c r="T4" s="172" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="128" t="s">
+      <c r="U4" s="173" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="144" t="s">
+      <c r="V4" s="157" t="s">
         <v>247</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="W4" s="145">
+        <v>42417</v>
+      </c>
+      <c r="X4" s="167">
+        <v>42417</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="130" t="s">
         <v>125</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="176" t="s">
+      <c r="G5" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="177">
+      <c r="H5" s="169">
         <v>3</v>
       </c>
-      <c r="I5" s="177" t="s">
+      <c r="I5" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="149" t="s">
+      <c r="J5" s="141" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="177" t="s">
+      <c r="K5" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="177" t="s">
+      <c r="L5" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="177" t="s">
+      <c r="M5" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="177"/>
-      <c r="O5" s="189" t="s">
+      <c r="N5" s="169"/>
+      <c r="O5" s="181" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="178" t="s">
+      <c r="P5" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="179">
+      <c r="Q5" s="171">
         <v>6</v>
       </c>
-      <c r="R5" s="179" t="s">
+      <c r="R5" s="171" t="s">
         <v>188</v>
       </c>
-      <c r="S5" s="179" t="s">
+      <c r="S5" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="180" t="s">
+      <c r="T5" s="172" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="181" t="s">
+      <c r="U5" s="173" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="165" t="s">
+      <c r="V5" s="157" t="s">
         <v>253</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="175">
+      <c r="X5" s="167">
         <v>42412</v>
       </c>
-      <c r="Y5" s="114" t="s">
+      <c r="Y5" s="113" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="131" t="s">
+      <c r="G6" s="123" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="132">
+      <c r="H6" s="124">
         <v>4</v>
       </c>
-      <c r="I6" s="133" t="s">
+      <c r="I6" s="125" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="133" t="s">
+      <c r="L6" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133" t="s">
+      <c r="M6" s="125"/>
+      <c r="N6" s="125" t="s">
         <v>121</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="132" t="s">
+      <c r="P6" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="134">
+      <c r="Q6" s="126">
         <v>6</v>
       </c>
-      <c r="R6" s="134" t="s">
+      <c r="R6" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="134" t="s">
+      <c r="S6" s="126" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="135" t="s">
+      <c r="T6" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="136" t="s">
+      <c r="U6" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="V6" s="144" t="s">
+      <c r="V6" s="136" t="s">
         <v>248</v>
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2659,63 +2648,63 @@
       <c r="D7" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="190" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="182" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="183">
+      <c r="H7" s="175">
         <v>5</v>
       </c>
-      <c r="I7" s="183" t="s">
+      <c r="I7" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="191" t="s">
+      <c r="J7" s="183" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="183" t="s">
+      <c r="K7" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="183" t="s">
+      <c r="L7" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="183" t="s">
+      <c r="M7" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="183"/>
-      <c r="O7" s="184" t="s">
+      <c r="N7" s="175"/>
+      <c r="O7" s="176" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="185" t="s">
+      <c r="P7" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="186">
+      <c r="Q7" s="178">
         <v>6</v>
       </c>
-      <c r="R7" s="186" t="s">
+      <c r="R7" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="186" t="s">
+      <c r="S7" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="187" t="s">
+      <c r="T7" s="179" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="188" t="s">
+      <c r="U7" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="165" t="s">
+      <c r="V7" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="W7" s="174">
+      <c r="W7" s="166">
         <v>42412</v>
       </c>
-      <c r="X7" s="175">
+      <c r="X7" s="167">
         <v>42047</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2729,117 +2718,117 @@
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H8" s="42">
         <v>6</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="43" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44" t="s">
+      <c r="M8" s="43"/>
+      <c r="N8" s="43" t="s">
         <v>40</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="44">
         <v>6</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="45" t="s">
+      <c r="S8" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="46" t="s">
+      <c r="T8" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="47" t="s">
+      <c r="U8" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="144" t="s">
+      <c r="V8" s="136" t="s">
         <v>247</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="130" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="160" t="s">
+      <c r="G9" s="152" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="162">
+      <c r="H9" s="154">
         <v>7</v>
       </c>
-      <c r="I9" s="162" t="s">
+      <c r="I9" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="148" t="s">
+      <c r="J9" s="140" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="162" t="s">
+      <c r="K9" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="162" t="s">
+      <c r="L9" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162" t="s">
+      <c r="M9" s="154"/>
+      <c r="N9" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="148" t="s">
+      <c r="O9" s="140" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="161" t="s">
+      <c r="P9" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="163">
+      <c r="Q9" s="155">
         <v>6</v>
       </c>
-      <c r="R9" s="163" t="s">
+      <c r="R9" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="163" t="s">
+      <c r="S9" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="173" t="s">
+      <c r="T9" s="165" t="s">
         <v>200</v>
       </c>
-      <c r="U9" s="164" t="s">
+      <c r="U9" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="V9" s="165" t="s">
+      <c r="V9" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="153">
+      <c r="W9" s="145">
         <v>42408</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -2847,71 +2836,71 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="130" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="104">
+      <c r="H10" s="103">
         <v>8</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="102" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="103" t="s">
+      <c r="L10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103" t="s">
+      <c r="M10" s="102"/>
+      <c r="N10" s="102" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="104" t="s">
+      <c r="P10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="105">
+      <c r="Q10" s="104">
         <v>6</v>
       </c>
-      <c r="R10" s="105" t="s">
+      <c r="R10" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="S10" s="105" t="s">
+      <c r="S10" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="T10" s="139" t="s">
+      <c r="T10" s="131" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="140" t="s">
+      <c r="U10" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="V10" s="144" t="s">
+      <c r="V10" s="136" t="s">
         <v>247</v>
       </c>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2925,53 +2914,53 @@
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="160" t="s">
+      <c r="G11" s="152" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="162">
+      <c r="H11" s="154">
         <v>9</v>
       </c>
-      <c r="I11" s="162" t="s">
+      <c r="I11" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="148" t="s">
+      <c r="J11" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="162" t="s">
+      <c r="K11" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="162" t="s">
+      <c r="L11" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162" t="s">
+      <c r="M11" s="154"/>
+      <c r="N11" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="148" t="s">
+      <c r="O11" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="161" t="s">
+      <c r="P11" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="163">
+      <c r="Q11" s="155">
         <v>6</v>
       </c>
-      <c r="R11" s="163" t="s">
+      <c r="R11" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="163" t="s">
+      <c r="S11" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="T11" s="173" t="s">
+      <c r="T11" s="165" t="s">
         <v>202</v>
       </c>
-      <c r="U11" s="164" t="s">
+      <c r="U11" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="165" t="s">
+      <c r="V11" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="153">
+      <c r="W11" s="145">
         <v>42408</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -2979,7 +2968,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2991,187 +2980,187 @@
       <c r="D12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="50">
         <v>10</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="52" t="s">
+      <c r="L12" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52" t="s">
+      <c r="M12" s="51"/>
+      <c r="N12" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="51" t="s">
+      <c r="O12" s="48"/>
+      <c r="P12" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="53">
+      <c r="Q12" s="52">
         <v>6</v>
       </c>
-      <c r="R12" s="53" t="s">
+      <c r="R12" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="S12" s="53" t="s">
+      <c r="S12" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="T12" s="54" t="s">
+      <c r="T12" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="U12" s="55" t="s">
+      <c r="U12" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="V12" s="144" t="s">
+      <c r="V12" s="136" t="s">
         <v>248</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="190" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="182" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="183">
+      <c r="H13" s="175">
         <v>11</v>
       </c>
-      <c r="I13" s="183" t="s">
+      <c r="I13" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="192" t="s">
+      <c r="J13" s="184" t="s">
         <v>238</v>
       </c>
-      <c r="K13" s="183" t="s">
+      <c r="K13" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="183" t="s">
+      <c r="L13" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="183" t="s">
+      <c r="M13" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="183"/>
-      <c r="O13" s="192" t="s">
+      <c r="N13" s="175"/>
+      <c r="O13" s="184" t="s">
         <v>239</v>
       </c>
-      <c r="P13" s="185" t="s">
+      <c r="P13" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="186">
+      <c r="Q13" s="178">
         <v>6</v>
       </c>
-      <c r="R13" s="186" t="s">
+      <c r="R13" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="S13" s="186" t="s">
+      <c r="S13" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="T13" s="187" t="s">
+      <c r="T13" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="U13" s="188" t="s">
+      <c r="U13" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="V13" s="165" t="s">
+      <c r="V13" s="157" t="s">
         <v>252</v>
       </c>
-      <c r="W13" s="174">
+      <c r="W13" s="166">
         <v>42412</v>
       </c>
-      <c r="X13" s="175">
+      <c r="X13" s="167">
         <v>42412</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="160" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="162">
+      <c r="H14" s="154">
         <v>12</v>
       </c>
-      <c r="I14" s="162" t="s">
+      <c r="I14" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="148" t="s">
+      <c r="J14" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="162" t="s">
+      <c r="K14" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="162" t="s">
+      <c r="L14" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162" t="s">
+      <c r="M14" s="154"/>
+      <c r="N14" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="148" t="s">
+      <c r="O14" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="161" t="s">
+      <c r="P14" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="163">
+      <c r="Q14" s="155">
         <v>6</v>
       </c>
-      <c r="R14" s="163" t="s">
+      <c r="R14" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="163" t="s">
+      <c r="S14" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="T14" s="173" t="s">
+      <c r="T14" s="165" t="s">
         <v>205</v>
       </c>
-      <c r="U14" s="164" t="s">
+      <c r="U14" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="V14" s="165" t="s">
+      <c r="V14" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="W14" s="153">
+      <c r="W14" s="145">
         <v>42414</v>
       </c>
       <c r="X14" s="3" t="s">
@@ -3179,136 +3168,136 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="176" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="168" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="178">
+      <c r="H15" s="170">
         <v>13</v>
       </c>
-      <c r="I15" s="177" t="s">
+      <c r="I15" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="149" t="s">
+      <c r="J15" s="141" t="s">
         <v>229</v>
       </c>
-      <c r="K15" s="177" t="s">
+      <c r="K15" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="177" t="s">
+      <c r="L15" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177" t="s">
+      <c r="M15" s="169"/>
+      <c r="N15" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="149" t="s">
+      <c r="O15" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="178" t="s">
+      <c r="P15" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="179">
+      <c r="Q15" s="171">
         <v>6</v>
       </c>
-      <c r="R15" s="179" t="s">
+      <c r="R15" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="179" t="s">
+      <c r="S15" s="171" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="180" t="s">
+      <c r="T15" s="172" t="s">
         <v>206</v>
       </c>
-      <c r="U15" s="181" t="s">
+      <c r="U15" s="173" t="s">
         <v>195</v>
       </c>
-      <c r="V15" s="165" t="s">
+      <c r="V15" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="174">
+      <c r="W15" s="166">
         <v>42414</v>
       </c>
-      <c r="X15" s="175">
+      <c r="X15" s="167">
         <v>42414</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="130" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="176" t="s">
+      <c r="G16" s="168" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="177">
+      <c r="H16" s="169">
         <v>14</v>
       </c>
-      <c r="I16" s="177" t="s">
+      <c r="I16" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="149" t="s">
+      <c r="J16" s="141" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="177" t="s">
+      <c r="K16" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="177" t="s">
+      <c r="L16" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177" t="s">
+      <c r="M16" s="169"/>
+      <c r="N16" s="169" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="149" t="s">
+      <c r="O16" s="141" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="178" t="s">
+      <c r="P16" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="179">
+      <c r="Q16" s="171">
         <v>6</v>
       </c>
-      <c r="R16" s="179" t="s">
+      <c r="R16" s="171" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="179" t="s">
+      <c r="S16" s="171" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="180" t="s">
+      <c r="T16" s="172" t="s">
         <v>208</v>
       </c>
-      <c r="U16" s="181" t="s">
+      <c r="U16" s="173" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="165" t="s">
+      <c r="V16" s="157" t="s">
         <v>249</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="175">
+      <c r="X16" s="167">
         <v>42410</v>
       </c>
       <c r="Y16" s="4" t="s">
@@ -3316,48 +3305,48 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="35">
         <v>15</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37" t="s">
+      <c r="M17" s="36"/>
+      <c r="N17" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="P17" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="11">
@@ -3369,140 +3358,140 @@
       <c r="S17" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="T17" s="38" t="s">
+      <c r="T17" s="37" t="s">
         <v>207</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="V17" s="144" t="s">
+      <c r="V17" s="136" t="s">
         <v>248</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="138" t="s">
+      <c r="C18" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="138" t="s">
+      <c r="D18" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="154" t="s">
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="155">
+      <c r="H18" s="147">
         <v>16</v>
       </c>
-      <c r="I18" s="155" t="s">
+      <c r="I18" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="156" t="s">
+      <c r="J18" s="148" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="155" t="s">
+      <c r="K18" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="155" t="s">
+      <c r="L18" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="157" t="s">
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="158">
+      <c r="Q18" s="150">
         <v>8</v>
       </c>
-      <c r="R18" s="158" t="s">
+      <c r="R18" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="158" t="s">
+      <c r="S18" s="150" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="158" t="s">
+      <c r="T18" s="150" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="159" t="s">
+      <c r="U18" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="V18" s="165" t="s">
+      <c r="V18" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="174">
+      <c r="W18" s="166">
         <v>42403</v>
       </c>
-      <c r="X18" s="152" t="s">
+      <c r="X18" s="144" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="106" t="s">
+      <c r="D19" s="105" t="s">
         <v>185</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="160" t="s">
+      <c r="G19" s="152" t="s">
         <v>224</v>
       </c>
-      <c r="H19" s="161">
+      <c r="H19" s="153">
         <v>17</v>
       </c>
-      <c r="I19" s="162" t="s">
+      <c r="I19" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="148" t="s">
+      <c r="J19" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="162" t="s">
+      <c r="K19" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="162" t="s">
+      <c r="L19" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="161" t="s">
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="163">
+      <c r="Q19" s="155">
         <v>8</v>
       </c>
-      <c r="R19" s="163" t="s">
+      <c r="R19" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="S19" s="163" t="s">
+      <c r="S19" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="T19" s="163" t="s">
+      <c r="T19" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="164" t="s">
+      <c r="U19" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="165" t="s">
+      <c r="V19" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="174">
+      <c r="W19" s="166">
         <v>42403</v>
       </c>
       <c r="X19" s="20" t="s">
@@ -3510,261 +3499,261 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="81" t="s">
         <v>185</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="176" t="s">
+      <c r="G20" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="177">
+      <c r="H20" s="169">
         <v>18</v>
       </c>
-      <c r="I20" s="177" t="s">
+      <c r="I20" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="149" t="s">
+      <c r="J20" s="141" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="177" t="s">
+      <c r="K20" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="177" t="s">
+      <c r="L20" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="177" t="s">
+      <c r="M20" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="177"/>
-      <c r="O20" s="149" t="s">
+      <c r="N20" s="169"/>
+      <c r="O20" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="178" t="s">
+      <c r="P20" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="179">
+      <c r="Q20" s="171">
         <v>6</v>
       </c>
-      <c r="R20" s="179" t="s">
+      <c r="R20" s="171" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="179" t="s">
+      <c r="S20" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="180" t="s">
+      <c r="T20" s="172" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="181" t="s">
+      <c r="U20" s="173" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="165" t="s">
+      <c r="V20" s="157" t="s">
         <v>254</v>
       </c>
       <c r="W20" s="3"/>
-      <c r="X20" s="175">
+      <c r="X20" s="167">
         <v>42415</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="81" t="s">
         <v>185</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="83" t="s">
+      <c r="G21" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="85">
+      <c r="H21" s="84">
         <v>19</v>
       </c>
-      <c r="I21" s="84" t="s">
+      <c r="I21" s="83" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="84" t="s">
+      <c r="K21" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="84" t="s">
+      <c r="L21" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84" t="s">
+      <c r="M21" s="83"/>
+      <c r="N21" s="83" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="85" t="s">
+      <c r="P21" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="86">
+      <c r="Q21" s="85">
         <v>6</v>
       </c>
-      <c r="R21" s="86" t="s">
+      <c r="R21" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="S21" s="86" t="s">
+      <c r="S21" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="T21" s="87" t="s">
+      <c r="T21" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="U21" s="88" t="s">
+      <c r="U21" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="V21" s="145" t="s">
+      <c r="V21" s="137" t="s">
         <v>247</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="81" t="s">
         <v>185</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="103">
+      <c r="H22" s="102">
         <v>20</v>
       </c>
-      <c r="I22" s="103" t="s">
+      <c r="I22" s="102" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="103" t="s">
+      <c r="K22" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="103" t="s">
+      <c r="L22" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103" t="s">
+      <c r="M22" s="102"/>
+      <c r="N22" s="102" t="s">
         <v>120</v>
       </c>
       <c r="O22" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="104" t="s">
+      <c r="P22" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="105">
+      <c r="Q22" s="104">
         <v>6</v>
       </c>
-      <c r="R22" s="105" t="s">
+      <c r="R22" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="S22" s="105" t="s">
+      <c r="S22" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="T22" s="139" t="s">
+      <c r="T22" s="131" t="s">
         <v>211</v>
       </c>
-      <c r="U22" s="140" t="s">
+      <c r="U22" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="V22" s="145" t="s">
+      <c r="V22" s="137" t="s">
         <v>254</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="81" t="s">
         <v>185</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="160" t="s">
+      <c r="G23" s="152" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="161">
+      <c r="H23" s="153">
         <v>21</v>
       </c>
-      <c r="I23" s="162" t="s">
+      <c r="I23" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="148" t="s">
+      <c r="J23" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="162" t="s">
+      <c r="K23" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="162" t="s">
+      <c r="L23" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162" t="s">
+      <c r="M23" s="154"/>
+      <c r="N23" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="148" t="s">
+      <c r="O23" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="161" t="s">
+      <c r="P23" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="163">
+      <c r="Q23" s="155">
         <v>6</v>
       </c>
-      <c r="R23" s="163" t="s">
+      <c r="R23" s="155" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="163" t="s">
+      <c r="S23" s="155" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="173" t="s">
+      <c r="T23" s="165" t="s">
         <v>212</v>
       </c>
-      <c r="U23" s="164" t="s">
+      <c r="U23" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="V23" s="165" t="s">
+      <c r="V23" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="153">
+      <c r="W23" s="145">
         <v>42408</v>
       </c>
       <c r="X23" s="3" t="s">
@@ -3772,127 +3761,127 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="90" t="s">
+      <c r="D24" s="89" t="s">
         <v>185</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="91">
         <v>22</v>
       </c>
-      <c r="I24" s="93" t="s">
+      <c r="I24" s="92" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="93" t="s">
+      <c r="K24" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="93" t="s">
+      <c r="L24" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93" t="s">
+      <c r="M24" s="92"/>
+      <c r="N24" s="92" t="s">
         <v>121</v>
       </c>
       <c r="O24" s="15"/>
-      <c r="P24" s="92" t="s">
+      <c r="P24" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="94">
+      <c r="Q24" s="93">
         <v>6</v>
       </c>
-      <c r="R24" s="94" t="s">
+      <c r="R24" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="94" t="s">
+      <c r="S24" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="T24" s="95" t="s">
+      <c r="T24" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="U24" s="96" t="s">
+      <c r="U24" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="144" t="s">
+      <c r="V24" s="136" t="s">
         <v>247</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="63" t="s">
         <v>186</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="154" t="s">
+      <c r="G25" s="146" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="155">
+      <c r="H25" s="147">
         <v>23</v>
       </c>
-      <c r="I25" s="155" t="s">
+      <c r="I25" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="156" t="s">
+      <c r="J25" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="155" t="s">
+      <c r="K25" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="155" t="s">
+      <c r="L25" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="157" t="s">
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="148"/>
+      <c r="P25" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="158">
+      <c r="Q25" s="150">
         <v>8</v>
       </c>
-      <c r="R25" s="158" t="s">
+      <c r="R25" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="S25" s="158" t="s">
+      <c r="S25" s="150" t="s">
         <v>218</v>
       </c>
-      <c r="T25" s="158" t="s">
+      <c r="T25" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="159" t="s">
+      <c r="U25" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="V25" s="165" t="s">
+      <c r="V25" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="W25" s="174">
+      <c r="W25" s="166">
         <v>42404</v>
       </c>
       <c r="X25" s="20" t="s">
@@ -3900,63 +3889,63 @@
       </c>
     </row>
     <row r="26" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="65" t="s">
         <v>186</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="160" t="s">
+      <c r="G26" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="161">
+      <c r="H26" s="153">
         <v>24</v>
       </c>
-      <c r="I26" s="162" t="s">
+      <c r="I26" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="148" t="s">
+      <c r="J26" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="162" t="s">
+      <c r="K26" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="162" t="s">
+      <c r="L26" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="161" t="s">
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="163">
+      <c r="Q26" s="155">
         <v>8</v>
       </c>
-      <c r="R26" s="163" t="s">
+      <c r="R26" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="S26" s="163" t="s">
+      <c r="S26" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="T26" s="163" t="s">
+      <c r="T26" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="164" t="s">
+      <c r="U26" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="V26" s="165" t="s">
+      <c r="V26" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="W26" s="174">
+      <c r="W26" s="166">
         <v>42404</v>
       </c>
       <c r="X26" s="20" t="s">
@@ -3964,60 +3953,60 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="65" t="s">
         <v>186</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="166" t="s">
+      <c r="G27" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="167">
+      <c r="H27" s="159">
         <v>25</v>
       </c>
-      <c r="I27" s="168" t="s">
+      <c r="I27" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="151" t="s">
+      <c r="J27" s="143" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="168" t="s">
+      <c r="K27" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="168" t="s">
+      <c r="L27" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="168"/>
-      <c r="N27" s="168"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="167" t="s">
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="169">
+      <c r="Q27" s="161">
         <v>8</v>
       </c>
-      <c r="R27" s="169" t="s">
+      <c r="R27" s="161" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="169" t="s">
+      <c r="S27" s="161" t="s">
         <v>218</v>
       </c>
-      <c r="T27" s="169" t="s">
+      <c r="T27" s="161" t="s">
         <v>220</v>
       </c>
-      <c r="U27" s="170" t="s">
+      <c r="U27" s="162" t="s">
         <v>219</v>
       </c>
-      <c r="V27" s="165" t="s">
+      <c r="V27" s="157" t="s">
         <v>246</v>
       </c>
       <c r="W27" s="20" t="s">
@@ -4028,63 +4017,63 @@
       </c>
     </row>
     <row r="28" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="65" t="s">
         <v>186</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="160" t="s">
+      <c r="G28" s="152" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="162">
+      <c r="H28" s="154">
         <v>26</v>
       </c>
-      <c r="I28" s="162" t="s">
+      <c r="I28" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="148" t="s">
+      <c r="J28" s="140" t="s">
         <v>261</v>
       </c>
-      <c r="K28" s="162" t="s">
+      <c r="K28" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="162" t="s">
+      <c r="L28" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="161" t="s">
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="163">
+      <c r="Q28" s="155">
         <v>8</v>
       </c>
-      <c r="R28" s="163" t="s">
+      <c r="R28" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="163" t="s">
+      <c r="S28" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="T28" s="163" t="s">
+      <c r="T28" s="155" t="s">
         <v>221</v>
       </c>
-      <c r="U28" s="164" t="s">
+      <c r="U28" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="V28" s="165" t="s">
+      <c r="V28" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="174">
+      <c r="W28" s="166">
         <v>42404</v>
       </c>
       <c r="X28" s="20" t="s">
@@ -4092,60 +4081,60 @@
       </c>
     </row>
     <row r="29" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="137" t="s">
+      <c r="A29" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="106" t="s">
+      <c r="D29" s="105" t="s">
         <v>186</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="166" t="s">
+      <c r="G29" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="167">
+      <c r="H29" s="159">
         <v>27</v>
       </c>
-      <c r="I29" s="168" t="s">
+      <c r="I29" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="151" t="s">
+      <c r="J29" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="168" t="s">
+      <c r="K29" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="168" t="s">
+      <c r="L29" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="168"/>
-      <c r="N29" s="168"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="167" t="s">
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="169">
+      <c r="Q29" s="161">
         <v>8</v>
       </c>
-      <c r="R29" s="169" t="s">
+      <c r="R29" s="161" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="169" t="s">
+      <c r="S29" s="161" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="169" t="s">
+      <c r="T29" s="161" t="s">
         <v>169</v>
       </c>
-      <c r="U29" s="170" t="s">
+      <c r="U29" s="162" t="s">
         <v>219</v>
       </c>
-      <c r="V29" s="165" t="s">
+      <c r="V29" s="157" t="s">
         <v>246</v>
       </c>
       <c r="W29" s="20" t="s">
@@ -4156,319 +4145,319 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="65" t="s">
         <v>186</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="68">
         <v>28</v>
       </c>
-      <c r="I30" s="68" t="s">
+      <c r="I30" s="67" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="68" t="s">
+      <c r="K30" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="68" t="s">
+      <c r="L30" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="68" t="s">
+      <c r="M30" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="68"/>
+      <c r="N30" s="67"/>
       <c r="O30" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="P30" s="69" t="s">
+      <c r="P30" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="70">
+      <c r="Q30" s="69">
         <v>6</v>
       </c>
-      <c r="R30" s="70" t="s">
+      <c r="R30" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="S30" s="70" t="s">
+      <c r="S30" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="T30" s="71" t="s">
+      <c r="T30" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="U30" s="72" t="s">
+      <c r="U30" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="V30" s="146" t="s">
+      <c r="V30" s="138" t="s">
         <v>248</v>
       </c>
-      <c r="W30" s="150"/>
-      <c r="X30" s="150"/>
+      <c r="W30" s="142"/>
+      <c r="X30" s="142"/>
     </row>
     <row r="31" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="73" t="s">
         <v>186</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="74" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="76">
         <v>29</v>
       </c>
-      <c r="I31" s="77" t="s">
+      <c r="I31" s="76" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="K31" s="77" t="s">
+      <c r="K31" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="77" t="s">
+      <c r="L31" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77" t="s">
+      <c r="M31" s="76"/>
+      <c r="N31" s="76" t="s">
         <v>121</v>
       </c>
       <c r="O31" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="P31" s="76" t="s">
+      <c r="P31" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="78">
+      <c r="Q31" s="77">
         <v>6</v>
       </c>
-      <c r="R31" s="78" t="s">
+      <c r="R31" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="S31" s="78" t="s">
+      <c r="S31" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="T31" s="79" t="s">
+      <c r="T31" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="U31" s="80" t="s">
+      <c r="U31" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="V31" s="147" t="s">
+      <c r="V31" s="139" t="s">
         <v>248</v>
       </c>
-      <c r="W31" s="150"/>
-      <c r="X31" s="150"/>
+      <c r="W31" s="142"/>
+      <c r="X31" s="142"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98" t="s">
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="99">
+      <c r="H32" s="98">
         <v>30</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="97" t="s">
+      <c r="J32" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="56" t="s">
+      <c r="K32" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="56" t="s">
+      <c r="L32" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56" t="s">
+      <c r="M32" s="55"/>
+      <c r="N32" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="100" t="s">
+      <c r="O32" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="99" t="s">
+      <c r="P32" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="101">
+      <c r="Q32" s="100">
         <v>6</v>
       </c>
-      <c r="R32" s="101" t="s">
+      <c r="R32" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="101" t="s">
+      <c r="S32" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="T32" s="102" t="s">
+      <c r="T32" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="U32" s="101" t="s">
+      <c r="U32" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="V32" s="146" t="s">
+      <c r="V32" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="W32" s="150"/>
-      <c r="X32" s="150"/>
+      <c r="W32" s="142"/>
+      <c r="X32" s="142"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="166" t="s">
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="167">
+      <c r="H33" s="159">
         <v>31</v>
       </c>
-      <c r="I33" s="168" t="s">
+      <c r="I33" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="151" t="s">
+      <c r="J33" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="168" t="s">
+      <c r="K33" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="168" t="s">
+      <c r="L33" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="168"/>
-      <c r="N33" s="168"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="167" t="s">
+      <c r="M33" s="160"/>
+      <c r="N33" s="160"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="169"/>
-      <c r="R33" s="169"/>
-      <c r="S33" s="169"/>
-      <c r="T33" s="169"/>
-      <c r="U33" s="169"/>
-      <c r="V33" s="171" t="s">
+      <c r="Q33" s="161"/>
+      <c r="R33" s="161"/>
+      <c r="S33" s="161"/>
+      <c r="T33" s="161"/>
+      <c r="U33" s="161"/>
+      <c r="V33" s="163" t="s">
         <v>246</v>
       </c>
-      <c r="W33" s="167"/>
-      <c r="X33" s="150" t="s">
+      <c r="W33" s="159"/>
+      <c r="X33" s="142" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58" t="s">
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H34" s="58">
         <v>32</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="57" t="s">
+      <c r="J34" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="59" t="s">
+      <c r="K34" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="59" t="s">
+      <c r="L34" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59" t="s">
+      <c r="M34" s="58"/>
+      <c r="N34" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="57"/>
-      <c r="P34" s="60" t="s">
+      <c r="O34" s="56"/>
+      <c r="P34" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="61">
+      <c r="Q34" s="60">
         <v>6</v>
       </c>
-      <c r="R34" s="61" t="s">
+      <c r="R34" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="S34" s="61" t="s">
+      <c r="S34" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="T34" s="62" t="s">
+      <c r="T34" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="61" t="s">
+      <c r="U34" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="V34" s="146" t="s">
+      <c r="V34" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="W34" s="150"/>
-      <c r="X34" s="150"/>
+      <c r="W34" s="142"/>
+      <c r="X34" s="142"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="106" t="s">
+      <c r="C35" s="105" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -4476,986 +4465,986 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="104">
+      <c r="H35" s="103">
         <v>33</v>
       </c>
-      <c r="I35" s="103" t="s">
+      <c r="I35" s="102" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="103" t="s">
+      <c r="K35" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="103" t="s">
+      <c r="L35" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103" t="s">
+      <c r="M35" s="102"/>
+      <c r="N35" s="102" t="s">
         <v>52</v>
       </c>
       <c r="O35" s="20"/>
-      <c r="P35" s="104" t="s">
+      <c r="P35" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="105">
+      <c r="Q35" s="104">
         <v>6</v>
       </c>
-      <c r="R35" s="105" t="s">
+      <c r="R35" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="S35" s="105" t="s">
+      <c r="S35" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="T35" s="139" t="s">
+      <c r="T35" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="U35" s="105" t="s">
+      <c r="U35" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="V35" s="147" t="s">
+      <c r="V35" s="139" t="s">
         <v>248</v>
       </c>
-      <c r="W35" s="150"/>
-      <c r="X35" s="150"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="142"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="107"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="107"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="112"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="110"/>
+      <c r="T36" s="110"/>
+      <c r="U36" s="110"/>
+      <c r="V36" s="111"/>
       <c r="W36" s="18"/>
       <c r="X36" s="18"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="113"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="117"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="116" t="s">
+      <c r="A37" s="112"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="116"/>
+      <c r="V37" s="115" t="s">
+        <v>269</v>
+      </c>
+      <c r="W37" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="X37" s="18"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="112"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="112"/>
+      <c r="N38" s="112"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="115"/>
+      <c r="R38" s="115"/>
+      <c r="S38" s="115"/>
+      <c r="T38" s="115"/>
+      <c r="U38" s="115"/>
+      <c r="V38" s="115"/>
+      <c r="W38" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="X38" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="112"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115"/>
+      <c r="R39" s="115"/>
+      <c r="S39" s="115"/>
+      <c r="T39" s="115"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="115" t="s">
         <v>268</v>
       </c>
-      <c r="W37" s="18" t="s">
+      <c r="W39" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="X39" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="X37" s="18"/>
-    </row>
-    <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="113"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="X38" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="113"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="114"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
-      <c r="S39" s="116"/>
-      <c r="T39" s="116"/>
-      <c r="U39" s="116"/>
-      <c r="V39" s="116" t="s">
-        <v>269</v>
-      </c>
-      <c r="W39" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="X39" s="18" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="113"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="116"/>
-      <c r="V40" s="114"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="115"/>
+      <c r="R40" s="115"/>
+      <c r="S40" s="115"/>
+      <c r="T40" s="115"/>
+      <c r="U40" s="115"/>
+      <c r="V40" s="113"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="113"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="113"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="113"/>
-      <c r="N41" s="113"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="116"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="114"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="115"/>
+      <c r="Q41" s="115"/>
+      <c r="R41" s="115"/>
+      <c r="S41" s="115"/>
+      <c r="T41" s="115"/>
+      <c r="U41" s="115"/>
+      <c r="V41" s="113"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="113"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="114"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="114"/>
+      <c r="A42" s="112"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="115"/>
+      <c r="R42" s="115"/>
+      <c r="S42" s="115"/>
+      <c r="T42" s="115"/>
+      <c r="U42" s="115"/>
+      <c r="V42" s="113"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="113"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="114"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-      <c r="S43" s="116"/>
-      <c r="T43" s="116"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="114"/>
+      <c r="A43" s="112"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="112"/>
+      <c r="L43" s="112"/>
+      <c r="M43" s="112"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="115"/>
+      <c r="Q43" s="115"/>
+      <c r="R43" s="115"/>
+      <c r="S43" s="115"/>
+      <c r="T43" s="115"/>
+      <c r="U43" s="115"/>
+      <c r="V43" s="113"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="113"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="116"/>
-      <c r="V44" s="114"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="112"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="112"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="115"/>
+      <c r="Q44" s="115"/>
+      <c r="R44" s="115"/>
+      <c r="S44" s="115"/>
+      <c r="T44" s="115"/>
+      <c r="U44" s="115"/>
+      <c r="V44" s="113"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="113"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="114"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="116"/>
-      <c r="S45" s="116"/>
-      <c r="T45" s="116"/>
-      <c r="U45" s="116"/>
-      <c r="V45" s="114"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="115"/>
+      <c r="Q45" s="115"/>
+      <c r="R45" s="115"/>
+      <c r="S45" s="115"/>
+      <c r="T45" s="115"/>
+      <c r="U45" s="115"/>
+      <c r="V45" s="113"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="113"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="114"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="113"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-      <c r="S46" s="116"/>
-      <c r="T46" s="116"/>
-      <c r="U46" s="116"/>
-      <c r="V46" s="114"/>
+      <c r="A46" s="112"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="112"/>
+      <c r="L46" s="112"/>
+      <c r="M46" s="112"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="113"/>
+      <c r="P46" s="115"/>
+      <c r="Q46" s="115"/>
+      <c r="R46" s="115"/>
+      <c r="S46" s="115"/>
+      <c r="T46" s="115"/>
+      <c r="U46" s="115"/>
+      <c r="V46" s="113"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="113"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="114"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="113"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="116"/>
-      <c r="S47" s="116"/>
-      <c r="T47" s="116"/>
-      <c r="U47" s="116"/>
-      <c r="V47" s="114"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="115"/>
+      <c r="Q47" s="115"/>
+      <c r="R47" s="115"/>
+      <c r="S47" s="115"/>
+      <c r="T47" s="115"/>
+      <c r="U47" s="115"/>
+      <c r="V47" s="113"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="113"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="114"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="113"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="116"/>
-      <c r="Q48" s="116"/>
-      <c r="R48" s="116"/>
-      <c r="S48" s="116"/>
-      <c r="T48" s="116"/>
-      <c r="U48" s="116"/>
-      <c r="V48" s="114"/>
+      <c r="A48" s="112"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="112"/>
+      <c r="N48" s="112"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="115"/>
+      <c r="Q48" s="115"/>
+      <c r="R48" s="115"/>
+      <c r="S48" s="115"/>
+      <c r="T48" s="115"/>
+      <c r="U48" s="115"/>
+      <c r="V48" s="113"/>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="113"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="114"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="113"/>
-      <c r="N49" s="113"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="116"/>
-      <c r="Q49" s="116"/>
-      <c r="R49" s="116"/>
-      <c r="S49" s="116"/>
-      <c r="T49" s="116"/>
-      <c r="U49" s="116"/>
-      <c r="V49" s="114"/>
+      <c r="A49" s="112"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="112"/>
+      <c r="L49" s="112"/>
+      <c r="M49" s="112"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="115"/>
+      <c r="Q49" s="115"/>
+      <c r="R49" s="115"/>
+      <c r="S49" s="115"/>
+      <c r="T49" s="115"/>
+      <c r="U49" s="115"/>
+      <c r="V49" s="113"/>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="113"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="114"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="113"/>
-      <c r="N50" s="113"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="116"/>
-      <c r="Q50" s="116"/>
-      <c r="R50" s="116"/>
-      <c r="S50" s="116"/>
-      <c r="T50" s="116"/>
-      <c r="U50" s="116"/>
-      <c r="V50" s="114"/>
+      <c r="A50" s="112"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="113"/>
+      <c r="P50" s="115"/>
+      <c r="Q50" s="115"/>
+      <c r="R50" s="115"/>
+      <c r="S50" s="115"/>
+      <c r="T50" s="115"/>
+      <c r="U50" s="115"/>
+      <c r="V50" s="113"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="113"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="114"/>
-      <c r="K51" s="113"/>
-      <c r="L51" s="113"/>
-      <c r="M51" s="113"/>
-      <c r="N51" s="113"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="116"/>
-      <c r="Q51" s="116"/>
-      <c r="R51" s="116"/>
-      <c r="S51" s="116"/>
-      <c r="T51" s="116"/>
-      <c r="U51" s="116"/>
-      <c r="V51" s="114"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="112"/>
+      <c r="M51" s="112"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="115"/>
+      <c r="Q51" s="115"/>
+      <c r="R51" s="115"/>
+      <c r="S51" s="115"/>
+      <c r="T51" s="115"/>
+      <c r="U51" s="115"/>
+      <c r="V51" s="113"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="113"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="114"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="113"/>
-      <c r="M52" s="113"/>
-      <c r="N52" s="113"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="116"/>
-      <c r="Q52" s="116"/>
-      <c r="R52" s="116"/>
-      <c r="S52" s="116"/>
-      <c r="T52" s="116"/>
-      <c r="U52" s="116"/>
-      <c r="V52" s="114"/>
+      <c r="A52" s="112"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="112"/>
+      <c r="L52" s="112"/>
+      <c r="M52" s="112"/>
+      <c r="N52" s="112"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="115"/>
+      <c r="R52" s="115"/>
+      <c r="S52" s="115"/>
+      <c r="T52" s="115"/>
+      <c r="U52" s="115"/>
+      <c r="V52" s="113"/>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="113"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="114"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="114"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="113"/>
-      <c r="N53" s="113"/>
-      <c r="O53" s="114"/>
-      <c r="P53" s="116"/>
-      <c r="Q53" s="116"/>
-      <c r="R53" s="116"/>
-      <c r="S53" s="116"/>
-      <c r="T53" s="116"/>
-      <c r="U53" s="116"/>
-      <c r="V53" s="114"/>
+      <c r="A53" s="112"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="112"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="112"/>
+      <c r="N53" s="112"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="115"/>
+      <c r="Q53" s="115"/>
+      <c r="R53" s="115"/>
+      <c r="S53" s="115"/>
+      <c r="T53" s="115"/>
+      <c r="U53" s="115"/>
+      <c r="V53" s="113"/>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="113"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="113"/>
-      <c r="L54" s="113"/>
-      <c r="M54" s="113"/>
-      <c r="N54" s="113"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="116"/>
-      <c r="S54" s="116"/>
-      <c r="T54" s="116"/>
-      <c r="U54" s="116"/>
-      <c r="V54" s="114"/>
+      <c r="A54" s="112"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="112"/>
+      <c r="M54" s="112"/>
+      <c r="N54" s="112"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="115"/>
+      <c r="Q54" s="115"/>
+      <c r="R54" s="115"/>
+      <c r="S54" s="115"/>
+      <c r="T54" s="115"/>
+      <c r="U54" s="115"/>
+      <c r="V54" s="113"/>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="113"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="113"/>
-      <c r="L55" s="113"/>
-      <c r="M55" s="113"/>
-      <c r="N55" s="113"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="116"/>
-      <c r="Q55" s="116"/>
-      <c r="R55" s="116"/>
-      <c r="S55" s="116"/>
-      <c r="T55" s="116"/>
-      <c r="U55" s="116"/>
-      <c r="V55" s="114"/>
+      <c r="A55" s="112"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="112"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="112"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="112"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="115"/>
+      <c r="Q55" s="115"/>
+      <c r="R55" s="115"/>
+      <c r="S55" s="115"/>
+      <c r="T55" s="115"/>
+      <c r="U55" s="115"/>
+      <c r="V55" s="113"/>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="113"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="113"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="113"/>
-      <c r="L56" s="113"/>
-      <c r="M56" s="113"/>
-      <c r="N56" s="113"/>
-      <c r="O56" s="114"/>
-      <c r="P56" s="116"/>
-      <c r="Q56" s="116"/>
-      <c r="R56" s="116"/>
-      <c r="S56" s="116"/>
-      <c r="T56" s="116"/>
-      <c r="U56" s="116"/>
-      <c r="V56" s="114"/>
+      <c r="A56" s="112"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="112"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="113"/>
+      <c r="P56" s="115"/>
+      <c r="Q56" s="115"/>
+      <c r="R56" s="115"/>
+      <c r="S56" s="115"/>
+      <c r="T56" s="115"/>
+      <c r="U56" s="115"/>
+      <c r="V56" s="113"/>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="113"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="114"/>
-      <c r="K57" s="113"/>
-      <c r="L57" s="113"/>
-      <c r="M57" s="113"/>
-      <c r="N57" s="113"/>
-      <c r="O57" s="114"/>
-      <c r="P57" s="116"/>
-      <c r="Q57" s="116"/>
-      <c r="R57" s="116"/>
-      <c r="S57" s="116"/>
-      <c r="T57" s="116"/>
-      <c r="U57" s="116"/>
-      <c r="V57" s="114"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="113"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="112"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="113"/>
+      <c r="P57" s="115"/>
+      <c r="Q57" s="115"/>
+      <c r="R57" s="115"/>
+      <c r="S57" s="115"/>
+      <c r="T57" s="115"/>
+      <c r="U57" s="115"/>
+      <c r="V57" s="113"/>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="113"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="113"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="113"/>
-      <c r="L58" s="113"/>
-      <c r="M58" s="113"/>
-      <c r="N58" s="113"/>
-      <c r="O58" s="114"/>
-      <c r="P58" s="116"/>
-      <c r="Q58" s="116"/>
-      <c r="R58" s="116"/>
-      <c r="S58" s="116"/>
-      <c r="T58" s="116"/>
-      <c r="U58" s="116"/>
-      <c r="V58" s="114"/>
+      <c r="A58" s="112"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="112"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="112"/>
+      <c r="L58" s="112"/>
+      <c r="M58" s="112"/>
+      <c r="N58" s="112"/>
+      <c r="O58" s="113"/>
+      <c r="P58" s="115"/>
+      <c r="Q58" s="115"/>
+      <c r="R58" s="115"/>
+      <c r="S58" s="115"/>
+      <c r="T58" s="115"/>
+      <c r="U58" s="115"/>
+      <c r="V58" s="113"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="113"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="113"/>
-      <c r="L59" s="113"/>
-      <c r="M59" s="113"/>
-      <c r="N59" s="113"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="116"/>
-      <c r="Q59" s="116"/>
-      <c r="R59" s="116"/>
-      <c r="S59" s="116"/>
-      <c r="T59" s="116"/>
-      <c r="U59" s="116"/>
-      <c r="V59" s="114"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="112"/>
+      <c r="L59" s="112"/>
+      <c r="M59" s="112"/>
+      <c r="N59" s="112"/>
+      <c r="O59" s="113"/>
+      <c r="P59" s="115"/>
+      <c r="Q59" s="115"/>
+      <c r="R59" s="115"/>
+      <c r="S59" s="115"/>
+      <c r="T59" s="115"/>
+      <c r="U59" s="115"/>
+      <c r="V59" s="113"/>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="113"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="113"/>
-      <c r="J60" s="114"/>
-      <c r="K60" s="113"/>
-      <c r="L60" s="113"/>
-      <c r="M60" s="113"/>
-      <c r="N60" s="113"/>
-      <c r="O60" s="114"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="116"/>
-      <c r="R60" s="116"/>
-      <c r="S60" s="116"/>
-      <c r="T60" s="116"/>
-      <c r="U60" s="116"/>
-      <c r="V60" s="114"/>
+      <c r="A60" s="112"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="113"/>
+      <c r="K60" s="112"/>
+      <c r="L60" s="112"/>
+      <c r="M60" s="112"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="113"/>
+      <c r="P60" s="115"/>
+      <c r="Q60" s="115"/>
+      <c r="R60" s="115"/>
+      <c r="S60" s="115"/>
+      <c r="T60" s="115"/>
+      <c r="U60" s="115"/>
+      <c r="V60" s="113"/>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="113"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="113"/>
-      <c r="L61" s="113"/>
-      <c r="M61" s="113"/>
-      <c r="N61" s="113"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="116"/>
-      <c r="Q61" s="116"/>
-      <c r="R61" s="116"/>
-      <c r="S61" s="116"/>
-      <c r="T61" s="116"/>
-      <c r="U61" s="116"/>
-      <c r="V61" s="114"/>
+      <c r="A61" s="112"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="112"/>
+      <c r="J61" s="113"/>
+      <c r="K61" s="112"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="112"/>
+      <c r="N61" s="112"/>
+      <c r="O61" s="113"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="115"/>
+      <c r="S61" s="115"/>
+      <c r="T61" s="115"/>
+      <c r="U61" s="115"/>
+      <c r="V61" s="113"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="113"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="113"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="113"/>
-      <c r="L62" s="113"/>
-      <c r="M62" s="113"/>
-      <c r="N62" s="113"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="116"/>
-      <c r="Q62" s="116"/>
-      <c r="R62" s="116"/>
-      <c r="S62" s="116"/>
-      <c r="T62" s="116"/>
-      <c r="U62" s="116"/>
-      <c r="V62" s="114"/>
+      <c r="A62" s="112"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="112"/>
+      <c r="J62" s="113"/>
+      <c r="K62" s="112"/>
+      <c r="L62" s="112"/>
+      <c r="M62" s="112"/>
+      <c r="N62" s="112"/>
+      <c r="O62" s="113"/>
+      <c r="P62" s="115"/>
+      <c r="Q62" s="115"/>
+      <c r="R62" s="115"/>
+      <c r="S62" s="115"/>
+      <c r="T62" s="115"/>
+      <c r="U62" s="115"/>
+      <c r="V62" s="113"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="113"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="113"/>
-      <c r="J63" s="114"/>
-      <c r="K63" s="113"/>
-      <c r="L63" s="113"/>
-      <c r="M63" s="113"/>
-      <c r="N63" s="113"/>
-      <c r="O63" s="114"/>
-      <c r="P63" s="116"/>
-      <c r="Q63" s="116"/>
-      <c r="R63" s="116"/>
-      <c r="S63" s="116"/>
-      <c r="T63" s="116"/>
-      <c r="U63" s="116"/>
-      <c r="V63" s="114"/>
+      <c r="A63" s="112"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="113"/>
+      <c r="I63" s="112"/>
+      <c r="J63" s="113"/>
+      <c r="K63" s="112"/>
+      <c r="L63" s="112"/>
+      <c r="M63" s="112"/>
+      <c r="N63" s="112"/>
+      <c r="O63" s="113"/>
+      <c r="P63" s="115"/>
+      <c r="Q63" s="115"/>
+      <c r="R63" s="115"/>
+      <c r="S63" s="115"/>
+      <c r="T63" s="115"/>
+      <c r="U63" s="115"/>
+      <c r="V63" s="113"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="113"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="113"/>
-      <c r="J64" s="114"/>
-      <c r="K64" s="113"/>
-      <c r="L64" s="113"/>
-      <c r="M64" s="113"/>
-      <c r="N64" s="113"/>
-      <c r="O64" s="114"/>
-      <c r="P64" s="116"/>
-      <c r="Q64" s="116"/>
-      <c r="R64" s="116"/>
-      <c r="S64" s="116"/>
-      <c r="T64" s="116"/>
-      <c r="U64" s="116"/>
-      <c r="V64" s="114"/>
+      <c r="A64" s="112"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="113"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="113"/>
+      <c r="I64" s="112"/>
+      <c r="J64" s="113"/>
+      <c r="K64" s="112"/>
+      <c r="L64" s="112"/>
+      <c r="M64" s="112"/>
+      <c r="N64" s="112"/>
+      <c r="O64" s="113"/>
+      <c r="P64" s="115"/>
+      <c r="Q64" s="115"/>
+      <c r="R64" s="115"/>
+      <c r="S64" s="115"/>
+      <c r="T64" s="115"/>
+      <c r="U64" s="115"/>
+      <c r="V64" s="113"/>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="113"/>
-      <c r="B65" s="114"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="113"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="113"/>
-      <c r="L65" s="113"/>
-      <c r="M65" s="113"/>
-      <c r="N65" s="113"/>
-      <c r="O65" s="114"/>
-      <c r="P65" s="116"/>
-      <c r="Q65" s="116"/>
-      <c r="R65" s="116"/>
-      <c r="S65" s="116"/>
-      <c r="T65" s="116"/>
-      <c r="U65" s="116"/>
-      <c r="V65" s="114"/>
+      <c r="A65" s="112"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="113"/>
+      <c r="K65" s="112"/>
+      <c r="L65" s="112"/>
+      <c r="M65" s="112"/>
+      <c r="N65" s="112"/>
+      <c r="O65" s="113"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="115"/>
+      <c r="R65" s="115"/>
+      <c r="S65" s="115"/>
+      <c r="T65" s="115"/>
+      <c r="U65" s="115"/>
+      <c r="V65" s="113"/>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="113"/>
-      <c r="B66" s="114"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="114"/>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="115"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="113"/>
-      <c r="J66" s="114"/>
-      <c r="K66" s="113"/>
-      <c r="L66" s="113"/>
-      <c r="M66" s="113"/>
-      <c r="N66" s="113"/>
-      <c r="O66" s="114"/>
-      <c r="P66" s="116"/>
-      <c r="Q66" s="116"/>
-      <c r="R66" s="116"/>
-      <c r="S66" s="116"/>
-      <c r="T66" s="116"/>
-      <c r="U66" s="116"/>
-      <c r="V66" s="114"/>
+      <c r="A66" s="112"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="113"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="113"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="113"/>
+      <c r="K66" s="112"/>
+      <c r="L66" s="112"/>
+      <c r="M66" s="112"/>
+      <c r="N66" s="112"/>
+      <c r="O66" s="113"/>
+      <c r="P66" s="115"/>
+      <c r="Q66" s="115"/>
+      <c r="R66" s="115"/>
+      <c r="S66" s="115"/>
+      <c r="T66" s="115"/>
+      <c r="U66" s="115"/>
+      <c r="V66" s="113"/>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="113"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="115"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="113"/>
-      <c r="J67" s="114"/>
-      <c r="K67" s="113"/>
-      <c r="L67" s="113"/>
-      <c r="M67" s="113"/>
-      <c r="N67" s="113"/>
-      <c r="O67" s="114"/>
-      <c r="P67" s="116"/>
-      <c r="Q67" s="116"/>
-      <c r="R67" s="116"/>
-      <c r="S67" s="116"/>
-      <c r="T67" s="116"/>
-      <c r="U67" s="116"/>
-      <c r="V67" s="114"/>
+      <c r="A67" s="112"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="112"/>
+      <c r="L67" s="112"/>
+      <c r="M67" s="112"/>
+      <c r="N67" s="112"/>
+      <c r="O67" s="113"/>
+      <c r="P67" s="115"/>
+      <c r="Q67" s="115"/>
+      <c r="R67" s="115"/>
+      <c r="S67" s="115"/>
+      <c r="T67" s="115"/>
+      <c r="U67" s="115"/>
+      <c r="V67" s="113"/>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="113"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="114"/>
-      <c r="F68" s="114"/>
-      <c r="G68" s="115"/>
-      <c r="H68" s="114"/>
-      <c r="I68" s="113"/>
-      <c r="J68" s="114"/>
-      <c r="K68" s="113"/>
-      <c r="L68" s="113"/>
-      <c r="M68" s="113"/>
-      <c r="N68" s="113"/>
-      <c r="O68" s="114"/>
-      <c r="P68" s="116"/>
-      <c r="Q68" s="116"/>
-      <c r="R68" s="116"/>
-      <c r="S68" s="116"/>
-      <c r="T68" s="116"/>
-      <c r="U68" s="116"/>
-      <c r="V68" s="114"/>
+      <c r="A68" s="112"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="113"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="113"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="113"/>
+      <c r="I68" s="112"/>
+      <c r="J68" s="113"/>
+      <c r="K68" s="112"/>
+      <c r="L68" s="112"/>
+      <c r="M68" s="112"/>
+      <c r="N68" s="112"/>
+      <c r="O68" s="113"/>
+      <c r="P68" s="115"/>
+      <c r="Q68" s="115"/>
+      <c r="R68" s="115"/>
+      <c r="S68" s="115"/>
+      <c r="T68" s="115"/>
+      <c r="U68" s="115"/>
+      <c r="V68" s="113"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="113"/>
-      <c r="B69" s="114"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="114"/>
-      <c r="E69" s="114"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="115"/>
-      <c r="H69" s="114"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="114"/>
-      <c r="K69" s="113"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="113"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="116"/>
-      <c r="Q69" s="116"/>
-      <c r="R69" s="116"/>
-      <c r="S69" s="116"/>
-      <c r="T69" s="116"/>
-      <c r="U69" s="116"/>
-      <c r="V69" s="114"/>
+      <c r="A69" s="112"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="113"/>
+      <c r="I69" s="112"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="112"/>
+      <c r="L69" s="112"/>
+      <c r="M69" s="112"/>
+      <c r="N69" s="112"/>
+      <c r="O69" s="113"/>
+      <c r="P69" s="115"/>
+      <c r="Q69" s="115"/>
+      <c r="R69" s="115"/>
+      <c r="S69" s="115"/>
+      <c r="T69" s="115"/>
+      <c r="U69" s="115"/>
+      <c r="V69" s="113"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="113"/>
-      <c r="B70" s="114"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="114"/>
-      <c r="F70" s="114"/>
-      <c r="G70" s="115"/>
-      <c r="H70" s="114"/>
-      <c r="I70" s="113"/>
-      <c r="J70" s="114"/>
-      <c r="K70" s="113"/>
-      <c r="L70" s="113"/>
-      <c r="M70" s="113"/>
-      <c r="N70" s="113"/>
-      <c r="O70" s="114"/>
-      <c r="P70" s="116"/>
-      <c r="Q70" s="116"/>
-      <c r="R70" s="116"/>
-      <c r="S70" s="116"/>
-      <c r="T70" s="116"/>
-      <c r="U70" s="116"/>
-      <c r="V70" s="114"/>
+      <c r="A70" s="112"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="113"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="112"/>
+      <c r="L70" s="112"/>
+      <c r="M70" s="112"/>
+      <c r="N70" s="112"/>
+      <c r="O70" s="113"/>
+      <c r="P70" s="115"/>
+      <c r="Q70" s="115"/>
+      <c r="R70" s="115"/>
+      <c r="S70" s="115"/>
+      <c r="T70" s="115"/>
+      <c r="U70" s="115"/>
+      <c r="V70" s="113"/>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="113"/>
-      <c r="B71" s="114"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="115"/>
-      <c r="H71" s="114"/>
-      <c r="I71" s="113"/>
-      <c r="J71" s="114"/>
-      <c r="K71" s="113"/>
-      <c r="L71" s="113"/>
-      <c r="M71" s="113"/>
-      <c r="N71" s="113"/>
-      <c r="O71" s="114"/>
-      <c r="P71" s="116"/>
-      <c r="Q71" s="116"/>
-      <c r="R71" s="116"/>
-      <c r="S71" s="116"/>
-      <c r="T71" s="116"/>
-      <c r="U71" s="116"/>
-      <c r="V71" s="114"/>
+      <c r="A71" s="112"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="113"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="113"/>
+      <c r="I71" s="112"/>
+      <c r="J71" s="113"/>
+      <c r="K71" s="112"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="112"/>
+      <c r="N71" s="112"/>
+      <c r="O71" s="113"/>
+      <c r="P71" s="115"/>
+      <c r="Q71" s="115"/>
+      <c r="R71" s="115"/>
+      <c r="S71" s="115"/>
+      <c r="T71" s="115"/>
+      <c r="U71" s="115"/>
+      <c r="V71" s="113"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="113"/>
-      <c r="B72" s="114"/>
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="115"/>
-      <c r="H72" s="114"/>
-      <c r="I72" s="113"/>
-      <c r="J72" s="114"/>
-      <c r="K72" s="113"/>
-      <c r="L72" s="113"/>
-      <c r="M72" s="113"/>
-      <c r="N72" s="113"/>
-      <c r="O72" s="114"/>
-      <c r="P72" s="116"/>
-      <c r="Q72" s="116"/>
-      <c r="R72" s="116"/>
-      <c r="S72" s="116"/>
-      <c r="T72" s="116"/>
-      <c r="U72" s="116"/>
-      <c r="V72" s="114"/>
+      <c r="A72" s="112"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="113"/>
+      <c r="D72" s="113"/>
+      <c r="E72" s="113"/>
+      <c r="F72" s="113"/>
+      <c r="G72" s="114"/>
+      <c r="H72" s="113"/>
+      <c r="I72" s="112"/>
+      <c r="J72" s="113"/>
+      <c r="K72" s="112"/>
+      <c r="L72" s="112"/>
+      <c r="M72" s="112"/>
+      <c r="N72" s="112"/>
+      <c r="O72" s="113"/>
+      <c r="P72" s="115"/>
+      <c r="Q72" s="115"/>
+      <c r="R72" s="115"/>
+      <c r="S72" s="115"/>
+      <c r="T72" s="115"/>
+      <c r="U72" s="115"/>
+      <c r="V72" s="113"/>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="113"/>
-      <c r="B73" s="114"/>
-      <c r="C73" s="114"/>
-      <c r="D73" s="114"/>
-      <c r="E73" s="114"/>
-      <c r="F73" s="114"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="114"/>
-      <c r="I73" s="113"/>
-      <c r="J73" s="114"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="113"/>
-      <c r="M73" s="113"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="114"/>
-      <c r="P73" s="116"/>
-      <c r="Q73" s="116"/>
-      <c r="R73" s="116"/>
-      <c r="S73" s="116"/>
-      <c r="T73" s="116"/>
-      <c r="U73" s="116"/>
-      <c r="V73" s="114"/>
+      <c r="A73" s="112"/>
+      <c r="B73" s="113"/>
+      <c r="C73" s="113"/>
+      <c r="D73" s="113"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="113"/>
+      <c r="G73" s="114"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="112"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="112"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="112"/>
+      <c r="N73" s="112"/>
+      <c r="O73" s="113"/>
+      <c r="P73" s="115"/>
+      <c r="Q73" s="115"/>
+      <c r="R73" s="115"/>
+      <c r="S73" s="115"/>
+      <c r="T73" s="115"/>
+      <c r="U73" s="115"/>
+      <c r="V73" s="113"/>
     </row>
     <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5820,6 +5809,12 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5834,12 +5829,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -1365,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1451,24 +1451,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1843,18 +1825,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1899,33 +1908,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2235,7 +2217,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X41" sqref="X41"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,369 +2249,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="202" t="s">
+      <c r="C1" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="191" t="s">
+      <c r="D1" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="189" t="s">
+      <c r="E1" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="185" t="s">
+      <c r="F1" s="190" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="200" t="s">
+      <c r="G1" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="185" t="s">
+      <c r="H1" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="185" t="s">
+      <c r="I1" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="197" t="s">
+      <c r="J1" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="195" t="s">
+      <c r="K1" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="193" t="s">
+      <c r="L1" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="199" t="s">
+      <c r="M1" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="199"/>
-      <c r="O1" s="187" t="s">
+      <c r="N1" s="202"/>
+      <c r="O1" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="187" t="s">
+      <c r="P1" s="182" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="204" t="s">
+      <c r="Q1" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="208" t="s">
+      <c r="R1" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="204" t="s">
+      <c r="S1" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="206" t="s">
+      <c r="T1" s="186" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="204" t="s">
+      <c r="U1" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="164" t="s">
+      <c r="V1" s="158" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="140" t="s">
+      <c r="W1" s="134" t="s">
         <v>255</v>
       </c>
-      <c r="X1" s="141" t="s">
+      <c r="X1" s="135" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="192"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="194"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="197"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="205"/>
-      <c r="T2" s="207"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="135"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="129"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="174" t="s">
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="168" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="175">
+      <c r="H3" s="169">
         <v>1</v>
       </c>
-      <c r="I3" s="175" t="s">
+      <c r="I3" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="175" t="s">
+      <c r="K3" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="175" t="s">
+      <c r="L3" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="175" t="s">
+      <c r="M3" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="175"/>
-      <c r="O3" s="176" t="s">
+      <c r="N3" s="169"/>
+      <c r="O3" s="170" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="177" t="s">
+      <c r="P3" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="178">
+      <c r="Q3" s="172">
         <v>6</v>
       </c>
-      <c r="R3" s="178" t="s">
+      <c r="R3" s="172" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="178" t="s">
+      <c r="S3" s="172" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="179" t="s">
+      <c r="T3" s="173" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="180" t="s">
+      <c r="U3" s="174" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="157" t="s">
+      <c r="V3" s="151" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="167">
+      <c r="X3" s="161">
         <v>42411</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="112" t="s">
         <v>125</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="210" t="s">
+      <c r="G4" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="170">
+      <c r="H4" s="164">
         <v>2</v>
       </c>
-      <c r="I4" s="169" t="s">
+      <c r="I4" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="211" t="s">
+      <c r="J4" s="180" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="169" t="s">
+      <c r="K4" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="169" t="s">
+      <c r="L4" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169" t="s">
+      <c r="M4" s="163"/>
+      <c r="N4" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="212" t="s">
+      <c r="O4" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="170" t="s">
+      <c r="P4" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="171">
+      <c r="Q4" s="165">
         <v>6</v>
       </c>
-      <c r="R4" s="171" t="s">
+      <c r="R4" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="171" t="s">
+      <c r="S4" s="165" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="172" t="s">
+      <c r="T4" s="166" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="173" t="s">
+      <c r="U4" s="167" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="157" t="s">
+      <c r="V4" s="151" t="s">
         <v>247</v>
       </c>
-      <c r="W4" s="145">
+      <c r="W4" s="139">
         <v>42417</v>
       </c>
-      <c r="X4" s="167">
+      <c r="X4" s="161">
         <v>42417</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="124" t="s">
         <v>125</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="168" t="s">
+      <c r="G5" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="169">
+      <c r="H5" s="163">
         <v>3</v>
       </c>
-      <c r="I5" s="169" t="s">
+      <c r="I5" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="141" t="s">
+      <c r="J5" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="169" t="s">
+      <c r="K5" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="169" t="s">
+      <c r="L5" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="169" t="s">
+      <c r="M5" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="169"/>
-      <c r="O5" s="181" t="s">
+      <c r="N5" s="163"/>
+      <c r="O5" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="170" t="s">
+      <c r="P5" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="171">
+      <c r="Q5" s="165">
         <v>6</v>
       </c>
-      <c r="R5" s="171" t="s">
+      <c r="R5" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="S5" s="171" t="s">
+      <c r="S5" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="172" t="s">
+      <c r="T5" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="173" t="s">
+      <c r="U5" s="167" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="157" t="s">
+      <c r="V5" s="151" t="s">
         <v>253</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="167">
+      <c r="X5" s="161">
         <v>42412</v>
       </c>
-      <c r="Y5" s="113" t="s">
+      <c r="Y5" s="107" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="112" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="123" t="s">
+      <c r="G6" s="117" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="124">
+      <c r="H6" s="118">
         <v>4</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="119" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125" t="s">
+      <c r="M6" s="119"/>
+      <c r="N6" s="119" t="s">
         <v>121</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="124" t="s">
+      <c r="P6" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="126">
+      <c r="Q6" s="120">
         <v>6</v>
       </c>
-      <c r="R6" s="126" t="s">
+      <c r="R6" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="126" t="s">
+      <c r="S6" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="127" t="s">
+      <c r="T6" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="128" t="s">
+      <c r="U6" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="V6" s="136" t="s">
+      <c r="V6" s="130" t="s">
         <v>248</v>
       </c>
       <c r="W6" s="3"/>
@@ -2650,56 +2632,56 @@
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="182" t="s">
+      <c r="G7" s="176" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="175">
+      <c r="H7" s="169">
         <v>5</v>
       </c>
-      <c r="I7" s="175" t="s">
+      <c r="I7" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="183" t="s">
+      <c r="J7" s="177" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="175" t="s">
+      <c r="K7" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="175" t="s">
+      <c r="L7" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="175" t="s">
+      <c r="M7" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="175"/>
-      <c r="O7" s="176" t="s">
+      <c r="N7" s="169"/>
+      <c r="O7" s="170" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="177" t="s">
+      <c r="P7" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="178">
+      <c r="Q7" s="172">
         <v>6</v>
       </c>
-      <c r="R7" s="178" t="s">
+      <c r="R7" s="172" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="178" t="s">
+      <c r="S7" s="172" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="179" t="s">
+      <c r="T7" s="173" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="180" t="s">
+      <c r="U7" s="174" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="157" t="s">
+      <c r="V7" s="151" t="s">
         <v>252</v>
       </c>
-      <c r="W7" s="166">
+      <c r="W7" s="160">
         <v>42412</v>
       </c>
-      <c r="X7" s="167">
+      <c r="X7" s="161">
         <v>42047</v>
       </c>
     </row>
@@ -2718,117 +2700,121 @@
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="147">
         <v>6</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43" t="s">
+      <c r="M8" s="148"/>
+      <c r="N8" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="134" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="149">
         <v>6</v>
       </c>
-      <c r="R8" s="44" t="s">
+      <c r="R8" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="45" t="s">
+      <c r="T8" s="159" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="46" t="s">
+      <c r="U8" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="136" t="s">
+      <c r="V8" s="151" t="s">
         <v>247</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="W8" s="139">
+        <v>42418</v>
+      </c>
+      <c r="X8" s="139">
+        <v>42418</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="130" t="s">
+      <c r="D9" s="124" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="154">
+      <c r="H9" s="148">
         <v>7</v>
       </c>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="140" t="s">
+      <c r="J9" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="154" t="s">
+      <c r="K9" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="154" t="s">
+      <c r="L9" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="154"/>
-      <c r="N9" s="154" t="s">
+      <c r="M9" s="148"/>
+      <c r="N9" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="140" t="s">
+      <c r="O9" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="153" t="s">
+      <c r="P9" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="155">
+      <c r="Q9" s="149">
         <v>6</v>
       </c>
-      <c r="R9" s="155" t="s">
+      <c r="R9" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="155" t="s">
+      <c r="S9" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="165" t="s">
+      <c r="T9" s="159" t="s">
         <v>200</v>
       </c>
-      <c r="U9" s="156" t="s">
+      <c r="U9" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="V9" s="157" t="s">
+      <c r="V9" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="145">
+      <c r="W9" s="139">
         <v>42408</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -2836,16 +2822,16 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="124" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="20"/>
@@ -2853,47 +2839,47 @@
       <c r="G10" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="103">
+      <c r="H10" s="97">
         <v>8</v>
       </c>
-      <c r="I10" s="102" t="s">
+      <c r="I10" s="96" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="102" t="s">
+      <c r="K10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="102" t="s">
+      <c r="L10" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102" t="s">
+      <c r="M10" s="96"/>
+      <c r="N10" s="96" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="103" t="s">
+      <c r="P10" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="104">
+      <c r="Q10" s="98">
         <v>6</v>
       </c>
-      <c r="R10" s="104" t="s">
+      <c r="R10" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="S10" s="104" t="s">
+      <c r="S10" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="T10" s="131" t="s">
+      <c r="T10" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="132" t="s">
+      <c r="U10" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="V10" s="136" t="s">
+      <c r="V10" s="130" t="s">
         <v>247</v>
       </c>
       <c r="W10" s="3"/>
@@ -2914,53 +2900,53 @@
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="152" t="s">
+      <c r="G11" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="154">
+      <c r="H11" s="148">
         <v>9</v>
       </c>
-      <c r="I11" s="154" t="s">
+      <c r="I11" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="140" t="s">
+      <c r="J11" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="154" t="s">
+      <c r="K11" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="154" t="s">
+      <c r="L11" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154" t="s">
+      <c r="M11" s="148"/>
+      <c r="N11" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="140" t="s">
+      <c r="O11" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="153" t="s">
+      <c r="P11" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="155">
+      <c r="Q11" s="149">
         <v>6</v>
       </c>
-      <c r="R11" s="155" t="s">
+      <c r="R11" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="155" t="s">
+      <c r="S11" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="T11" s="165" t="s">
+      <c r="T11" s="159" t="s">
         <v>202</v>
       </c>
-      <c r="U11" s="156" t="s">
+      <c r="U11" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="157" t="s">
+      <c r="V11" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="145">
+      <c r="W11" s="139">
         <v>42408</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -2968,7 +2954,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2980,52 +2966,52 @@
       <c r="D12" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="44">
         <v>10</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51" t="s">
+      <c r="M12" s="45"/>
+      <c r="N12" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="48"/>
-      <c r="P12" s="50" t="s">
+      <c r="O12" s="42"/>
+      <c r="P12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="52">
+      <c r="Q12" s="46">
         <v>6</v>
       </c>
-      <c r="R12" s="52" t="s">
+      <c r="R12" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="S12" s="52" t="s">
+      <c r="S12" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="T12" s="53" t="s">
+      <c r="T12" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="U12" s="54" t="s">
+      <c r="U12" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="V12" s="136" t="s">
+      <c r="V12" s="130" t="s">
         <v>248</v>
       </c>
       <c r="W12" s="3"/>
@@ -3046,56 +3032,56 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="182" t="s">
+      <c r="G13" s="176" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="175">
+      <c r="H13" s="169">
         <v>11</v>
       </c>
-      <c r="I13" s="175" t="s">
+      <c r="I13" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="184" t="s">
+      <c r="J13" s="178" t="s">
         <v>238</v>
       </c>
-      <c r="K13" s="175" t="s">
+      <c r="K13" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="175" t="s">
+      <c r="L13" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="175" t="s">
+      <c r="M13" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="175"/>
-      <c r="O13" s="184" t="s">
+      <c r="N13" s="169"/>
+      <c r="O13" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="P13" s="177" t="s">
+      <c r="P13" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="178">
+      <c r="Q13" s="172">
         <v>6</v>
       </c>
-      <c r="R13" s="178" t="s">
+      <c r="R13" s="172" t="s">
         <v>188</v>
       </c>
-      <c r="S13" s="178" t="s">
+      <c r="S13" s="172" t="s">
         <v>189</v>
       </c>
-      <c r="T13" s="179" t="s">
+      <c r="T13" s="173" t="s">
         <v>204</v>
       </c>
-      <c r="U13" s="180" t="s">
+      <c r="U13" s="174" t="s">
         <v>191</v>
       </c>
-      <c r="V13" s="157" t="s">
+      <c r="V13" s="151" t="s">
         <v>252</v>
       </c>
-      <c r="W13" s="166">
+      <c r="W13" s="160">
         <v>42412</v>
       </c>
-      <c r="X13" s="167">
+      <c r="X13" s="161">
         <v>42412</v>
       </c>
     </row>
@@ -3114,53 +3100,53 @@
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="152" t="s">
+      <c r="G14" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="154">
+      <c r="H14" s="148">
         <v>12</v>
       </c>
-      <c r="I14" s="154" t="s">
+      <c r="I14" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="140" t="s">
+      <c r="J14" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="154" t="s">
+      <c r="K14" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="154" t="s">
+      <c r="L14" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="154"/>
-      <c r="N14" s="154" t="s">
+      <c r="M14" s="148"/>
+      <c r="N14" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="140" t="s">
+      <c r="O14" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="153" t="s">
+      <c r="P14" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="155">
+      <c r="Q14" s="149">
         <v>6</v>
       </c>
-      <c r="R14" s="155" t="s">
+      <c r="R14" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="155" t="s">
+      <c r="S14" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="T14" s="165" t="s">
+      <c r="T14" s="159" t="s">
         <v>205</v>
       </c>
-      <c r="U14" s="156" t="s">
+      <c r="U14" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="V14" s="157" t="s">
+      <c r="V14" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="W14" s="145">
+      <c r="W14" s="139">
         <v>42414</v>
       </c>
       <c r="X14" s="3" t="s">
@@ -3182,122 +3168,122 @@
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="168" t="s">
+      <c r="G15" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="170">
+      <c r="H15" s="164">
         <v>13</v>
       </c>
-      <c r="I15" s="169" t="s">
+      <c r="I15" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="141" t="s">
+      <c r="J15" s="135" t="s">
         <v>229</v>
       </c>
-      <c r="K15" s="169" t="s">
+      <c r="K15" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="169" t="s">
+      <c r="L15" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169" t="s">
+      <c r="M15" s="163"/>
+      <c r="N15" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="141" t="s">
+      <c r="O15" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="170" t="s">
+      <c r="P15" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="171">
+      <c r="Q15" s="165">
         <v>6</v>
       </c>
-      <c r="R15" s="171" t="s">
+      <c r="R15" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="171" t="s">
+      <c r="S15" s="165" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="172" t="s">
+      <c r="T15" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="U15" s="173" t="s">
+      <c r="U15" s="167" t="s">
         <v>195</v>
       </c>
-      <c r="V15" s="157" t="s">
+      <c r="V15" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="166">
+      <c r="W15" s="160">
         <v>42414</v>
       </c>
-      <c r="X15" s="167">
+      <c r="X15" s="161">
         <v>42414</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="124" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="168" t="s">
+      <c r="G16" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="169">
+      <c r="H16" s="163">
         <v>14</v>
       </c>
-      <c r="I16" s="169" t="s">
+      <c r="I16" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="141" t="s">
+      <c r="J16" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="169" t="s">
+      <c r="K16" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="169" t="s">
+      <c r="L16" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="169"/>
-      <c r="N16" s="169" t="s">
+      <c r="M16" s="163"/>
+      <c r="N16" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="141" t="s">
+      <c r="O16" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="170" t="s">
+      <c r="P16" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="171">
+      <c r="Q16" s="165">
         <v>6</v>
       </c>
-      <c r="R16" s="171" t="s">
+      <c r="R16" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="171" t="s">
+      <c r="S16" s="165" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="172" t="s">
+      <c r="T16" s="166" t="s">
         <v>208</v>
       </c>
-      <c r="U16" s="173" t="s">
+      <c r="U16" s="167" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="157" t="s">
+      <c r="V16" s="151" t="s">
         <v>249</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="167">
+      <c r="X16" s="161">
         <v>42410</v>
       </c>
       <c r="Y16" s="4" t="s">
@@ -3364,134 +3350,134 @@
       <c r="U17" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="V17" s="136" t="s">
+      <c r="V17" s="130" t="s">
         <v>248</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="130" t="s">
+      <c r="D18" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="146" t="s">
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="147">
+      <c r="H18" s="141">
         <v>16</v>
       </c>
-      <c r="I18" s="147" t="s">
+      <c r="I18" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="148" t="s">
+      <c r="J18" s="142" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="147" t="s">
+      <c r="K18" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="147" t="s">
+      <c r="L18" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="149" t="s">
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="150">
+      <c r="Q18" s="144">
         <v>8</v>
       </c>
-      <c r="R18" s="150" t="s">
+      <c r="R18" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="150" t="s">
+      <c r="S18" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="150" t="s">
+      <c r="T18" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="151" t="s">
+      <c r="U18" s="145" t="s">
         <v>219</v>
       </c>
-      <c r="V18" s="157" t="s">
+      <c r="V18" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="166">
+      <c r="W18" s="160">
         <v>42403</v>
       </c>
-      <c r="X18" s="144" t="s">
+      <c r="X18" s="138" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="99" t="s">
         <v>185</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="H19" s="153">
+      <c r="H19" s="147">
         <v>17</v>
       </c>
-      <c r="I19" s="154" t="s">
+      <c r="I19" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="140" t="s">
+      <c r="J19" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="154" t="s">
+      <c r="K19" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="154" t="s">
+      <c r="L19" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="153" t="s">
+      <c r="M19" s="148"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="155">
+      <c r="Q19" s="149">
         <v>8</v>
       </c>
-      <c r="R19" s="155" t="s">
+      <c r="R19" s="149" t="s">
         <v>217</v>
       </c>
-      <c r="S19" s="155" t="s">
+      <c r="S19" s="149" t="s">
         <v>218</v>
       </c>
-      <c r="T19" s="155" t="s">
+      <c r="T19" s="149" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="156" t="s">
+      <c r="U19" s="150" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="157" t="s">
+      <c r="V19" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="166">
+      <c r="W19" s="160">
         <v>42403</v>
       </c>
       <c r="X19" s="20" t="s">
@@ -3499,146 +3485,146 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="75" t="s">
         <v>185</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="168" t="s">
+      <c r="G20" s="162" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="169">
+      <c r="H20" s="163">
         <v>18</v>
       </c>
-      <c r="I20" s="169" t="s">
+      <c r="I20" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="141" t="s">
+      <c r="J20" s="135" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="169" t="s">
+      <c r="K20" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="169" t="s">
+      <c r="L20" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="169" t="s">
+      <c r="M20" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="169"/>
-      <c r="O20" s="141" t="s">
+      <c r="N20" s="163"/>
+      <c r="O20" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="170" t="s">
+      <c r="P20" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="171">
+      <c r="Q20" s="165">
         <v>6</v>
       </c>
-      <c r="R20" s="171" t="s">
+      <c r="R20" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="171" t="s">
+      <c r="S20" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="172" t="s">
+      <c r="T20" s="166" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="173" t="s">
+      <c r="U20" s="167" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="157" t="s">
+      <c r="V20" s="151" t="s">
         <v>254</v>
       </c>
       <c r="W20" s="3"/>
-      <c r="X20" s="167">
+      <c r="X20" s="161">
         <v>42415</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="75" t="s">
         <v>185</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="82" t="s">
+      <c r="G21" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="78">
         <v>19</v>
       </c>
-      <c r="I21" s="83" t="s">
+      <c r="I21" s="77" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="83" t="s">
+      <c r="K21" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="83" t="s">
+      <c r="L21" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83" t="s">
+      <c r="M21" s="77"/>
+      <c r="N21" s="77" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="84" t="s">
+      <c r="P21" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="85">
+      <c r="Q21" s="79">
         <v>6</v>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R21" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="S21" s="85" t="s">
+      <c r="S21" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="T21" s="86" t="s">
+      <c r="T21" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="U21" s="87" t="s">
+      <c r="U21" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="V21" s="137" t="s">
+      <c r="V21" s="131" t="s">
         <v>247</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="75" t="s">
         <v>185</v>
       </c>
       <c r="E22" s="14"/>
@@ -3646,114 +3632,114 @@
       <c r="G22" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="102">
+      <c r="H22" s="96">
         <v>20</v>
       </c>
-      <c r="I22" s="102" t="s">
+      <c r="I22" s="96" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="102" t="s">
+      <c r="K22" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="102" t="s">
+      <c r="L22" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102" t="s">
+      <c r="M22" s="96"/>
+      <c r="N22" s="96" t="s">
         <v>120</v>
       </c>
       <c r="O22" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="103" t="s">
+      <c r="P22" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="104">
+      <c r="Q22" s="98">
         <v>6</v>
       </c>
-      <c r="R22" s="104" t="s">
+      <c r="R22" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="S22" s="104" t="s">
+      <c r="S22" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="T22" s="131" t="s">
+      <c r="T22" s="125" t="s">
         <v>211</v>
       </c>
-      <c r="U22" s="132" t="s">
+      <c r="U22" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="V22" s="137" t="s">
+      <c r="V22" s="131" t="s">
         <v>254</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="75" t="s">
         <v>185</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="152" t="s">
+      <c r="G23" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="147">
         <v>21</v>
       </c>
-      <c r="I23" s="154" t="s">
+      <c r="I23" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="140" t="s">
+      <c r="J23" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="154" t="s">
+      <c r="K23" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="154" t="s">
+      <c r="L23" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154" t="s">
+      <c r="M23" s="148"/>
+      <c r="N23" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="140" t="s">
+      <c r="O23" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="153" t="s">
+      <c r="P23" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="155">
+      <c r="Q23" s="149">
         <v>6</v>
       </c>
-      <c r="R23" s="155" t="s">
+      <c r="R23" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="155" t="s">
+      <c r="S23" s="149" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="165" t="s">
+      <c r="T23" s="159" t="s">
         <v>212</v>
       </c>
-      <c r="U23" s="156" t="s">
+      <c r="U23" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="V23" s="157" t="s">
+      <c r="V23" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="145">
+      <c r="W23" s="139">
         <v>42408</v>
       </c>
       <c r="X23" s="3" t="s">
@@ -3761,127 +3747,127 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="83" t="s">
         <v>185</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="90" t="s">
+      <c r="G24" s="84" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="91">
+      <c r="H24" s="85">
         <v>22</v>
       </c>
-      <c r="I24" s="92" t="s">
+      <c r="I24" s="86" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="92" t="s">
+      <c r="K24" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="92" t="s">
+      <c r="L24" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92" t="s">
+      <c r="M24" s="86"/>
+      <c r="N24" s="86" t="s">
         <v>121</v>
       </c>
       <c r="O24" s="15"/>
-      <c r="P24" s="91" t="s">
+      <c r="P24" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="93">
+      <c r="Q24" s="87">
         <v>6</v>
       </c>
-      <c r="R24" s="93" t="s">
+      <c r="R24" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="93" t="s">
+      <c r="S24" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="T24" s="94" t="s">
+      <c r="T24" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="U24" s="95" t="s">
+      <c r="U24" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="136" t="s">
+      <c r="V24" s="130" t="s">
         <v>247</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="57" t="s">
         <v>186</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="146" t="s">
+      <c r="G25" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="147">
+      <c r="H25" s="141">
         <v>23</v>
       </c>
-      <c r="I25" s="147" t="s">
+      <c r="I25" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="148" t="s">
+      <c r="J25" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="147" t="s">
+      <c r="K25" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="147" t="s">
+      <c r="L25" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="149" t="s">
+      <c r="M25" s="141"/>
+      <c r="N25" s="141"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="150">
+      <c r="Q25" s="144">
         <v>8</v>
       </c>
-      <c r="R25" s="150" t="s">
+      <c r="R25" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="S25" s="150" t="s">
+      <c r="S25" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="T25" s="150" t="s">
+      <c r="T25" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="151" t="s">
+      <c r="U25" s="145" t="s">
         <v>219</v>
       </c>
-      <c r="V25" s="157" t="s">
+      <c r="V25" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="W25" s="166">
+      <c r="W25" s="160">
         <v>42404</v>
       </c>
       <c r="X25" s="20" t="s">
@@ -3889,63 +3875,63 @@
       </c>
     </row>
     <row r="26" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="59" t="s">
         <v>186</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="152" t="s">
+      <c r="G26" s="146" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="153">
+      <c r="H26" s="147">
         <v>24</v>
       </c>
-      <c r="I26" s="154" t="s">
+      <c r="I26" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="140" t="s">
+      <c r="J26" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="154" t="s">
+      <c r="K26" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="154" t="s">
+      <c r="L26" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="153" t="s">
+      <c r="M26" s="148"/>
+      <c r="N26" s="148"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="155">
+      <c r="Q26" s="149">
         <v>8</v>
       </c>
-      <c r="R26" s="155" t="s">
+      <c r="R26" s="149" t="s">
         <v>217</v>
       </c>
-      <c r="S26" s="155" t="s">
+      <c r="S26" s="149" t="s">
         <v>218</v>
       </c>
-      <c r="T26" s="155" t="s">
+      <c r="T26" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="156" t="s">
+      <c r="U26" s="150" t="s">
         <v>219</v>
       </c>
-      <c r="V26" s="157" t="s">
+      <c r="V26" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="W26" s="166">
+      <c r="W26" s="160">
         <v>42404</v>
       </c>
       <c r="X26" s="20" t="s">
@@ -3953,60 +3939,60 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="59" t="s">
         <v>186</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="158" t="s">
+      <c r="G27" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="159">
+      <c r="H27" s="153">
         <v>25</v>
       </c>
-      <c r="I27" s="160" t="s">
+      <c r="I27" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="143" t="s">
+      <c r="J27" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="160" t="s">
+      <c r="K27" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="160" t="s">
+      <c r="L27" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="159" t="s">
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="161">
+      <c r="Q27" s="155">
         <v>8</v>
       </c>
-      <c r="R27" s="161" t="s">
+      <c r="R27" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="161" t="s">
+      <c r="S27" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="T27" s="161" t="s">
+      <c r="T27" s="155" t="s">
         <v>220</v>
       </c>
-      <c r="U27" s="162" t="s">
+      <c r="U27" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="V27" s="157" t="s">
+      <c r="V27" s="151" t="s">
         <v>246</v>
       </c>
       <c r="W27" s="20" t="s">
@@ -4017,63 +4003,63 @@
       </c>
     </row>
     <row r="28" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="59" t="s">
         <v>186</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="152" t="s">
+      <c r="G28" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="154">
+      <c r="H28" s="148">
         <v>26</v>
       </c>
-      <c r="I28" s="154" t="s">
+      <c r="I28" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="140" t="s">
+      <c r="J28" s="134" t="s">
         <v>261</v>
       </c>
-      <c r="K28" s="154" t="s">
+      <c r="K28" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="154" t="s">
+      <c r="L28" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="154"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="153" t="s">
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="155">
+      <c r="Q28" s="149">
         <v>8</v>
       </c>
-      <c r="R28" s="155" t="s">
+      <c r="R28" s="149" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="155" t="s">
+      <c r="S28" s="149" t="s">
         <v>218</v>
       </c>
-      <c r="T28" s="155" t="s">
+      <c r="T28" s="149" t="s">
         <v>221</v>
       </c>
-      <c r="U28" s="156" t="s">
+      <c r="U28" s="150" t="s">
         <v>219</v>
       </c>
-      <c r="V28" s="157" t="s">
+      <c r="V28" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="166">
+      <c r="W28" s="160">
         <v>42404</v>
       </c>
       <c r="X28" s="20" t="s">
@@ -4081,60 +4067,60 @@
       </c>
     </row>
     <row r="29" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="105" t="s">
+      <c r="D29" s="99" t="s">
         <v>186</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="158" t="s">
+      <c r="G29" s="152" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="159">
+      <c r="H29" s="153">
         <v>27</v>
       </c>
-      <c r="I29" s="160" t="s">
+      <c r="I29" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="143" t="s">
+      <c r="J29" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="160" t="s">
+      <c r="K29" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="160" t="s">
+      <c r="L29" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="160"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="159" t="s">
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="161">
+      <c r="Q29" s="155">
         <v>8</v>
       </c>
-      <c r="R29" s="161" t="s">
+      <c r="R29" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="161" t="s">
+      <c r="S29" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="161" t="s">
+      <c r="T29" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="U29" s="162" t="s">
+      <c r="U29" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="V29" s="157" t="s">
+      <c r="V29" s="151" t="s">
         <v>246</v>
       </c>
       <c r="W29" s="20" t="s">
@@ -4145,319 +4131,319 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="59" t="s">
         <v>186</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="62">
         <v>28</v>
       </c>
-      <c r="I30" s="67" t="s">
+      <c r="I30" s="61" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="K30" s="67" t="s">
+      <c r="K30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="67" t="s">
+      <c r="L30" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="67" t="s">
+      <c r="M30" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="67"/>
+      <c r="N30" s="61"/>
       <c r="O30" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="P30" s="68" t="s">
+      <c r="P30" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="69">
+      <c r="Q30" s="63">
         <v>6</v>
       </c>
-      <c r="R30" s="69" t="s">
+      <c r="R30" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="S30" s="69" t="s">
+      <c r="S30" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="T30" s="70" t="s">
+      <c r="T30" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="U30" s="71" t="s">
+      <c r="U30" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="V30" s="138" t="s">
+      <c r="V30" s="132" t="s">
         <v>248</v>
       </c>
-      <c r="W30" s="142"/>
-      <c r="X30" s="142"/>
+      <c r="W30" s="136"/>
+      <c r="X30" s="136"/>
     </row>
     <row r="31" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="67" t="s">
         <v>186</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="74" t="s">
+      <c r="G31" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="76">
+      <c r="H31" s="70">
         <v>29</v>
       </c>
-      <c r="I31" s="76" t="s">
+      <c r="I31" s="70" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="K31" s="76" t="s">
+      <c r="K31" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="76" t="s">
+      <c r="L31" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76" t="s">
+      <c r="M31" s="70"/>
+      <c r="N31" s="70" t="s">
         <v>121</v>
       </c>
       <c r="O31" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="P31" s="75" t="s">
+      <c r="P31" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="77">
+      <c r="Q31" s="71">
         <v>6</v>
       </c>
-      <c r="R31" s="77" t="s">
+      <c r="R31" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="S31" s="77" t="s">
+      <c r="S31" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="T31" s="78" t="s">
+      <c r="T31" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="U31" s="79" t="s">
+      <c r="U31" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="V31" s="139" t="s">
+      <c r="V31" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="W31" s="142"/>
-      <c r="X31" s="142"/>
+      <c r="W31" s="136"/>
+      <c r="X31" s="136"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97" t="s">
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="98">
+      <c r="H32" s="92">
         <v>30</v>
       </c>
-      <c r="I32" s="55" t="s">
+      <c r="I32" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="96" t="s">
+      <c r="J32" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="K32" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="55" t="s">
+      <c r="L32" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55" t="s">
+      <c r="M32" s="49"/>
+      <c r="N32" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="99" t="s">
+      <c r="O32" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="98" t="s">
+      <c r="P32" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="100">
+      <c r="Q32" s="94">
         <v>6</v>
       </c>
-      <c r="R32" s="100" t="s">
+      <c r="R32" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="100" t="s">
+      <c r="S32" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="T32" s="101" t="s">
+      <c r="T32" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="U32" s="100" t="s">
+      <c r="U32" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="V32" s="138" t="s">
+      <c r="V32" s="132" t="s">
         <v>254</v>
       </c>
-      <c r="W32" s="142"/>
-      <c r="X32" s="142"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="136"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="158" t="s">
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="159">
+      <c r="H33" s="153">
         <v>31</v>
       </c>
-      <c r="I33" s="160" t="s">
+      <c r="I33" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="143" t="s">
+      <c r="J33" s="137" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="160" t="s">
+      <c r="K33" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="160" t="s">
+      <c r="L33" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="160"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="143"/>
-      <c r="P33" s="159" t="s">
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="161"/>
-      <c r="S33" s="161"/>
-      <c r="T33" s="161"/>
-      <c r="U33" s="161"/>
-      <c r="V33" s="163" t="s">
+      <c r="Q33" s="155"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="W33" s="159"/>
-      <c r="X33" s="142" t="s">
+      <c r="W33" s="153"/>
+      <c r="X33" s="136" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="57" t="s">
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="58">
+      <c r="H34" s="52">
         <v>32</v>
       </c>
-      <c r="I34" s="58" t="s">
+      <c r="I34" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="56" t="s">
+      <c r="J34" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="58" t="s">
+      <c r="K34" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="58" t="s">
+      <c r="L34" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58" t="s">
+      <c r="M34" s="52"/>
+      <c r="N34" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O34" s="56"/>
-      <c r="P34" s="59" t="s">
+      <c r="O34" s="50"/>
+      <c r="P34" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="60">
+      <c r="Q34" s="54">
         <v>6</v>
       </c>
-      <c r="R34" s="60" t="s">
+      <c r="R34" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="S34" s="60" t="s">
+      <c r="S34" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="T34" s="61" t="s">
+      <c r="T34" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="U34" s="60" t="s">
+      <c r="U34" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="V34" s="138" t="s">
+      <c r="V34" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="W34" s="142"/>
-      <c r="X34" s="142"/>
+      <c r="W34" s="136"/>
+      <c r="X34" s="136"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="99" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -4468,99 +4454,99 @@
       <c r="G35" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="103">
+      <c r="H35" s="97">
         <v>33</v>
       </c>
-      <c r="I35" s="102" t="s">
+      <c r="I35" s="96" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="102" t="s">
+      <c r="K35" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="102" t="s">
+      <c r="L35" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="102"/>
-      <c r="N35" s="102" t="s">
+      <c r="M35" s="96"/>
+      <c r="N35" s="96" t="s">
         <v>52</v>
       </c>
       <c r="O35" s="20"/>
-      <c r="P35" s="103" t="s">
+      <c r="P35" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="104">
+      <c r="Q35" s="98">
         <v>6</v>
       </c>
-      <c r="R35" s="104" t="s">
+      <c r="R35" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="S35" s="104" t="s">
+      <c r="S35" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="T35" s="131" t="s">
+      <c r="T35" s="125" t="s">
         <v>216</v>
       </c>
-      <c r="U35" s="104" t="s">
+      <c r="U35" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="V35" s="139" t="s">
+      <c r="V35" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="W35" s="142"/>
-      <c r="X35" s="142"/>
+      <c r="W35" s="136"/>
+      <c r="X35" s="136"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="110"/>
-      <c r="U36" s="110"/>
-      <c r="V36" s="111"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="105"/>
       <c r="W36" s="18"/>
       <c r="X36" s="18"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="112"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="115"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="116"/>
-      <c r="S37" s="116"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="116"/>
-      <c r="V37" s="115" t="s">
+      <c r="A37" s="106"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="109"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="109" t="s">
         <v>269</v>
       </c>
       <c r="W37" s="18" t="s">
@@ -4569,28 +4555,28 @@
       <c r="X37" s="18"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="115"/>
-      <c r="R38" s="115"/>
-      <c r="S38" s="115"/>
-      <c r="T38" s="115"/>
-      <c r="U38" s="115"/>
-      <c r="V38" s="115"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="109"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="109"/>
+      <c r="U38" s="109"/>
+      <c r="V38" s="109"/>
       <c r="W38" s="18" t="s">
         <v>266</v>
       </c>
@@ -4599,28 +4585,28 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="112"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="115"/>
-      <c r="R39" s="115"/>
-      <c r="S39" s="115"/>
-      <c r="T39" s="115"/>
-      <c r="U39" s="115"/>
-      <c r="V39" s="115" t="s">
+      <c r="A39" s="106"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="109"/>
+      <c r="U39" s="109"/>
+      <c r="V39" s="109" t="s">
         <v>268</v>
       </c>
       <c r="W39" s="18" t="s">
@@ -4631,820 +4617,820 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="113"/>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="115"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="115"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="113"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="109"/>
+      <c r="S40" s="109"/>
+      <c r="T40" s="109"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="107"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="112"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="115"/>
-      <c r="Q41" s="115"/>
-      <c r="R41" s="115"/>
-      <c r="S41" s="115"/>
-      <c r="T41" s="115"/>
-      <c r="U41" s="115"/>
-      <c r="V41" s="113"/>
+      <c r="A41" s="106"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="106"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="109"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="109"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="109"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="107"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="112"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="115"/>
-      <c r="Q42" s="115"/>
-      <c r="R42" s="115"/>
-      <c r="S42" s="115"/>
-      <c r="T42" s="115"/>
-      <c r="U42" s="115"/>
-      <c r="V42" s="113"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="106"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="109"/>
+      <c r="Q42" s="109"/>
+      <c r="R42" s="109"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="109"/>
+      <c r="U42" s="109"/>
+      <c r="V42" s="107"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="112"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="112"/>
-      <c r="L43" s="112"/>
-      <c r="M43" s="112"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="115"/>
-      <c r="Q43" s="115"/>
-      <c r="R43" s="115"/>
-      <c r="S43" s="115"/>
-      <c r="T43" s="115"/>
-      <c r="U43" s="115"/>
-      <c r="V43" s="113"/>
+      <c r="A43" s="106"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="106"/>
+      <c r="M43" s="106"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="109"/>
+      <c r="U43" s="109"/>
+      <c r="V43" s="107"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="112"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="112"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="112"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="115"/>
-      <c r="Q44" s="115"/>
-      <c r="R44" s="115"/>
-      <c r="S44" s="115"/>
-      <c r="T44" s="115"/>
-      <c r="U44" s="115"/>
-      <c r="V44" s="113"/>
+      <c r="A44" s="106"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="106"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="109"/>
+      <c r="Q44" s="109"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="109"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="109"/>
+      <c r="V44" s="107"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="112"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112"/>
-      <c r="M45" s="112"/>
-      <c r="N45" s="112"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="115"/>
-      <c r="Q45" s="115"/>
-      <c r="R45" s="115"/>
-      <c r="S45" s="115"/>
-      <c r="T45" s="115"/>
-      <c r="U45" s="115"/>
-      <c r="V45" s="113"/>
+      <c r="A45" s="106"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="106"/>
+      <c r="M45" s="106"/>
+      <c r="N45" s="106"/>
+      <c r="O45" s="107"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="109"/>
+      <c r="V45" s="107"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="112"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="112"/>
-      <c r="L46" s="112"/>
-      <c r="M46" s="112"/>
-      <c r="N46" s="112"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="115"/>
-      <c r="Q46" s="115"/>
-      <c r="R46" s="115"/>
-      <c r="S46" s="115"/>
-      <c r="T46" s="115"/>
-      <c r="U46" s="115"/>
-      <c r="V46" s="113"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="106"/>
+      <c r="M46" s="106"/>
+      <c r="N46" s="106"/>
+      <c r="O46" s="107"/>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="109"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="109"/>
+      <c r="T46" s="109"/>
+      <c r="U46" s="109"/>
+      <c r="V46" s="107"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="112"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="112"/>
-      <c r="M47" s="112"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="115"/>
-      <c r="Q47" s="115"/>
-      <c r="R47" s="115"/>
-      <c r="S47" s="115"/>
-      <c r="T47" s="115"/>
-      <c r="U47" s="115"/>
-      <c r="V47" s="113"/>
+      <c r="A47" s="106"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="106"/>
+      <c r="L47" s="106"/>
+      <c r="M47" s="106"/>
+      <c r="N47" s="106"/>
+      <c r="O47" s="107"/>
+      <c r="P47" s="109"/>
+      <c r="Q47" s="109"/>
+      <c r="R47" s="109"/>
+      <c r="S47" s="109"/>
+      <c r="T47" s="109"/>
+      <c r="U47" s="109"/>
+      <c r="V47" s="107"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="112"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="112"/>
-      <c r="M48" s="112"/>
-      <c r="N48" s="112"/>
-      <c r="O48" s="113"/>
-      <c r="P48" s="115"/>
-      <c r="Q48" s="115"/>
-      <c r="R48" s="115"/>
-      <c r="S48" s="115"/>
-      <c r="T48" s="115"/>
-      <c r="U48" s="115"/>
-      <c r="V48" s="113"/>
+      <c r="A48" s="106"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="106"/>
+      <c r="L48" s="106"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="106"/>
+      <c r="O48" s="107"/>
+      <c r="P48" s="109"/>
+      <c r="Q48" s="109"/>
+      <c r="R48" s="109"/>
+      <c r="S48" s="109"/>
+      <c r="T48" s="109"/>
+      <c r="U48" s="109"/>
+      <c r="V48" s="107"/>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="112"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="112"/>
-      <c r="M49" s="112"/>
-      <c r="N49" s="112"/>
-      <c r="O49" s="113"/>
-      <c r="P49" s="115"/>
-      <c r="Q49" s="115"/>
-      <c r="R49" s="115"/>
-      <c r="S49" s="115"/>
-      <c r="T49" s="115"/>
-      <c r="U49" s="115"/>
-      <c r="V49" s="113"/>
+      <c r="A49" s="106"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="106"/>
+      <c r="N49" s="106"/>
+      <c r="O49" s="107"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="109"/>
+      <c r="R49" s="109"/>
+      <c r="S49" s="109"/>
+      <c r="T49" s="109"/>
+      <c r="U49" s="109"/>
+      <c r="V49" s="107"/>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="112"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="113"/>
-      <c r="P50" s="115"/>
-      <c r="Q50" s="115"/>
-      <c r="R50" s="115"/>
-      <c r="S50" s="115"/>
-      <c r="T50" s="115"/>
-      <c r="U50" s="115"/>
-      <c r="V50" s="113"/>
+      <c r="A50" s="106"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="106"/>
+      <c r="N50" s="106"/>
+      <c r="O50" s="107"/>
+      <c r="P50" s="109"/>
+      <c r="Q50" s="109"/>
+      <c r="R50" s="109"/>
+      <c r="S50" s="109"/>
+      <c r="T50" s="109"/>
+      <c r="U50" s="109"/>
+      <c r="V50" s="107"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="112"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="112"/>
-      <c r="L51" s="112"/>
-      <c r="M51" s="112"/>
-      <c r="N51" s="112"/>
-      <c r="O51" s="113"/>
-      <c r="P51" s="115"/>
-      <c r="Q51" s="115"/>
-      <c r="R51" s="115"/>
-      <c r="S51" s="115"/>
-      <c r="T51" s="115"/>
-      <c r="U51" s="115"/>
-      <c r="V51" s="113"/>
+      <c r="A51" s="106"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="106"/>
+      <c r="M51" s="106"/>
+      <c r="N51" s="106"/>
+      <c r="O51" s="107"/>
+      <c r="P51" s="109"/>
+      <c r="Q51" s="109"/>
+      <c r="R51" s="109"/>
+      <c r="S51" s="109"/>
+      <c r="T51" s="109"/>
+      <c r="U51" s="109"/>
+      <c r="V51" s="107"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="112"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="112"/>
-      <c r="L52" s="112"/>
-      <c r="M52" s="112"/>
-      <c r="N52" s="112"/>
-      <c r="O52" s="113"/>
-      <c r="P52" s="115"/>
-      <c r="Q52" s="115"/>
-      <c r="R52" s="115"/>
-      <c r="S52" s="115"/>
-      <c r="T52" s="115"/>
-      <c r="U52" s="115"/>
-      <c r="V52" s="113"/>
+      <c r="A52" s="106"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="106"/>
+      <c r="M52" s="106"/>
+      <c r="N52" s="106"/>
+      <c r="O52" s="107"/>
+      <c r="P52" s="109"/>
+      <c r="Q52" s="109"/>
+      <c r="R52" s="109"/>
+      <c r="S52" s="109"/>
+      <c r="T52" s="109"/>
+      <c r="U52" s="109"/>
+      <c r="V52" s="107"/>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="112"/>
-      <c r="L53" s="112"/>
-      <c r="M53" s="112"/>
-      <c r="N53" s="112"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="115"/>
-      <c r="Q53" s="115"/>
-      <c r="R53" s="115"/>
-      <c r="S53" s="115"/>
-      <c r="T53" s="115"/>
-      <c r="U53" s="115"/>
-      <c r="V53" s="113"/>
+      <c r="A53" s="106"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="106"/>
+      <c r="M53" s="106"/>
+      <c r="N53" s="106"/>
+      <c r="O53" s="107"/>
+      <c r="P53" s="109"/>
+      <c r="Q53" s="109"/>
+      <c r="R53" s="109"/>
+      <c r="S53" s="109"/>
+      <c r="T53" s="109"/>
+      <c r="U53" s="109"/>
+      <c r="V53" s="107"/>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="112"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="112"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="112"/>
-      <c r="L54" s="112"/>
-      <c r="M54" s="112"/>
-      <c r="N54" s="112"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="115"/>
-      <c r="Q54" s="115"/>
-      <c r="R54" s="115"/>
-      <c r="S54" s="115"/>
-      <c r="T54" s="115"/>
-      <c r="U54" s="115"/>
-      <c r="V54" s="113"/>
+      <c r="A54" s="106"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="106"/>
+      <c r="M54" s="106"/>
+      <c r="N54" s="106"/>
+      <c r="O54" s="107"/>
+      <c r="P54" s="109"/>
+      <c r="Q54" s="109"/>
+      <c r="R54" s="109"/>
+      <c r="S54" s="109"/>
+      <c r="T54" s="109"/>
+      <c r="U54" s="109"/>
+      <c r="V54" s="107"/>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="112"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="112"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="112"/>
-      <c r="L55" s="112"/>
-      <c r="M55" s="112"/>
-      <c r="N55" s="112"/>
-      <c r="O55" s="113"/>
-      <c r="P55" s="115"/>
-      <c r="Q55" s="115"/>
-      <c r="R55" s="115"/>
-      <c r="S55" s="115"/>
-      <c r="T55" s="115"/>
-      <c r="U55" s="115"/>
-      <c r="V55" s="113"/>
+      <c r="A55" s="106"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="106"/>
+      <c r="N55" s="106"/>
+      <c r="O55" s="107"/>
+      <c r="P55" s="109"/>
+      <c r="Q55" s="109"/>
+      <c r="R55" s="109"/>
+      <c r="S55" s="109"/>
+      <c r="T55" s="109"/>
+      <c r="U55" s="109"/>
+      <c r="V55" s="107"/>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="112"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="112"/>
-      <c r="M56" s="112"/>
-      <c r="N56" s="112"/>
-      <c r="O56" s="113"/>
-      <c r="P56" s="115"/>
-      <c r="Q56" s="115"/>
-      <c r="R56" s="115"/>
-      <c r="S56" s="115"/>
-      <c r="T56" s="115"/>
-      <c r="U56" s="115"/>
-      <c r="V56" s="113"/>
+      <c r="A56" s="106"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="106"/>
+      <c r="L56" s="106"/>
+      <c r="M56" s="106"/>
+      <c r="N56" s="106"/>
+      <c r="O56" s="107"/>
+      <c r="P56" s="109"/>
+      <c r="Q56" s="109"/>
+      <c r="R56" s="109"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="109"/>
+      <c r="U56" s="109"/>
+      <c r="V56" s="107"/>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="112"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="112"/>
-      <c r="M57" s="112"/>
-      <c r="N57" s="112"/>
-      <c r="O57" s="113"/>
-      <c r="P57" s="115"/>
-      <c r="Q57" s="115"/>
-      <c r="R57" s="115"/>
-      <c r="S57" s="115"/>
-      <c r="T57" s="115"/>
-      <c r="U57" s="115"/>
-      <c r="V57" s="113"/>
+      <c r="A57" s="106"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="106"/>
+      <c r="N57" s="106"/>
+      <c r="O57" s="107"/>
+      <c r="P57" s="109"/>
+      <c r="Q57" s="109"/>
+      <c r="R57" s="109"/>
+      <c r="S57" s="109"/>
+      <c r="T57" s="109"/>
+      <c r="U57" s="109"/>
+      <c r="V57" s="107"/>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="112"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="112"/>
-      <c r="L58" s="112"/>
-      <c r="M58" s="112"/>
-      <c r="N58" s="112"/>
-      <c r="O58" s="113"/>
-      <c r="P58" s="115"/>
-      <c r="Q58" s="115"/>
-      <c r="R58" s="115"/>
-      <c r="S58" s="115"/>
-      <c r="T58" s="115"/>
-      <c r="U58" s="115"/>
-      <c r="V58" s="113"/>
+      <c r="A58" s="106"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="106"/>
+      <c r="O58" s="107"/>
+      <c r="P58" s="109"/>
+      <c r="Q58" s="109"/>
+      <c r="R58" s="109"/>
+      <c r="S58" s="109"/>
+      <c r="T58" s="109"/>
+      <c r="U58" s="109"/>
+      <c r="V58" s="107"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="112"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="112"/>
-      <c r="L59" s="112"/>
-      <c r="M59" s="112"/>
-      <c r="N59" s="112"/>
-      <c r="O59" s="113"/>
-      <c r="P59" s="115"/>
-      <c r="Q59" s="115"/>
-      <c r="R59" s="115"/>
-      <c r="S59" s="115"/>
-      <c r="T59" s="115"/>
-      <c r="U59" s="115"/>
-      <c r="V59" s="113"/>
+      <c r="A59" s="106"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="107"/>
+      <c r="K59" s="106"/>
+      <c r="L59" s="106"/>
+      <c r="M59" s="106"/>
+      <c r="N59" s="106"/>
+      <c r="O59" s="107"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="109"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="109"/>
+      <c r="V59" s="107"/>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="112"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="112"/>
-      <c r="L60" s="112"/>
-      <c r="M60" s="112"/>
-      <c r="N60" s="112"/>
-      <c r="O60" s="113"/>
-      <c r="P60" s="115"/>
-      <c r="Q60" s="115"/>
-      <c r="R60" s="115"/>
-      <c r="S60" s="115"/>
-      <c r="T60" s="115"/>
-      <c r="U60" s="115"/>
-      <c r="V60" s="113"/>
+      <c r="A60" s="106"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="106"/>
+      <c r="N60" s="106"/>
+      <c r="O60" s="107"/>
+      <c r="P60" s="109"/>
+      <c r="Q60" s="109"/>
+      <c r="R60" s="109"/>
+      <c r="S60" s="109"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="109"/>
+      <c r="V60" s="107"/>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="112"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="112"/>
-      <c r="L61" s="112"/>
-      <c r="M61" s="112"/>
-      <c r="N61" s="112"/>
-      <c r="O61" s="113"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="115"/>
-      <c r="R61" s="115"/>
-      <c r="S61" s="115"/>
-      <c r="T61" s="115"/>
-      <c r="U61" s="115"/>
-      <c r="V61" s="113"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="106"/>
+      <c r="M61" s="106"/>
+      <c r="N61" s="106"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="109"/>
+      <c r="R61" s="109"/>
+      <c r="S61" s="109"/>
+      <c r="T61" s="109"/>
+      <c r="U61" s="109"/>
+      <c r="V61" s="107"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="112"/>
-      <c r="B62" s="113"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="112"/>
-      <c r="J62" s="113"/>
-      <c r="K62" s="112"/>
-      <c r="L62" s="112"/>
-      <c r="M62" s="112"/>
-      <c r="N62" s="112"/>
-      <c r="O62" s="113"/>
-      <c r="P62" s="115"/>
-      <c r="Q62" s="115"/>
-      <c r="R62" s="115"/>
-      <c r="S62" s="115"/>
-      <c r="T62" s="115"/>
-      <c r="U62" s="115"/>
-      <c r="V62" s="113"/>
+      <c r="A62" s="106"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106"/>
+      <c r="N62" s="106"/>
+      <c r="O62" s="107"/>
+      <c r="P62" s="109"/>
+      <c r="Q62" s="109"/>
+      <c r="R62" s="109"/>
+      <c r="S62" s="109"/>
+      <c r="T62" s="109"/>
+      <c r="U62" s="109"/>
+      <c r="V62" s="107"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="112"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
-      <c r="G63" s="114"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="113"/>
-      <c r="K63" s="112"/>
-      <c r="L63" s="112"/>
-      <c r="M63" s="112"/>
-      <c r="N63" s="112"/>
-      <c r="O63" s="113"/>
-      <c r="P63" s="115"/>
-      <c r="Q63" s="115"/>
-      <c r="R63" s="115"/>
-      <c r="S63" s="115"/>
-      <c r="T63" s="115"/>
-      <c r="U63" s="115"/>
-      <c r="V63" s="113"/>
+      <c r="A63" s="106"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="106"/>
+      <c r="L63" s="106"/>
+      <c r="M63" s="106"/>
+      <c r="N63" s="106"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="109"/>
+      <c r="Q63" s="109"/>
+      <c r="R63" s="109"/>
+      <c r="S63" s="109"/>
+      <c r="T63" s="109"/>
+      <c r="U63" s="109"/>
+      <c r="V63" s="107"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="112"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="112"/>
-      <c r="J64" s="113"/>
-      <c r="K64" s="112"/>
-      <c r="L64" s="112"/>
-      <c r="M64" s="112"/>
-      <c r="N64" s="112"/>
-      <c r="O64" s="113"/>
-      <c r="P64" s="115"/>
-      <c r="Q64" s="115"/>
-      <c r="R64" s="115"/>
-      <c r="S64" s="115"/>
-      <c r="T64" s="115"/>
-      <c r="U64" s="115"/>
-      <c r="V64" s="113"/>
+      <c r="A64" s="106"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="106"/>
+      <c r="L64" s="106"/>
+      <c r="M64" s="106"/>
+      <c r="N64" s="106"/>
+      <c r="O64" s="107"/>
+      <c r="P64" s="109"/>
+      <c r="Q64" s="109"/>
+      <c r="R64" s="109"/>
+      <c r="S64" s="109"/>
+      <c r="T64" s="109"/>
+      <c r="U64" s="109"/>
+      <c r="V64" s="107"/>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="112"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="113"/>
-      <c r="K65" s="112"/>
-      <c r="L65" s="112"/>
-      <c r="M65" s="112"/>
-      <c r="N65" s="112"/>
-      <c r="O65" s="113"/>
-      <c r="P65" s="115"/>
-      <c r="Q65" s="115"/>
-      <c r="R65" s="115"/>
-      <c r="S65" s="115"/>
-      <c r="T65" s="115"/>
-      <c r="U65" s="115"/>
-      <c r="V65" s="113"/>
+      <c r="A65" s="106"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="106"/>
+      <c r="M65" s="106"/>
+      <c r="N65" s="106"/>
+      <c r="O65" s="107"/>
+      <c r="P65" s="109"/>
+      <c r="Q65" s="109"/>
+      <c r="R65" s="109"/>
+      <c r="S65" s="109"/>
+      <c r="T65" s="109"/>
+      <c r="U65" s="109"/>
+      <c r="V65" s="107"/>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="112"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="113"/>
-      <c r="F66" s="113"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="113"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="113"/>
-      <c r="K66" s="112"/>
-      <c r="L66" s="112"/>
-      <c r="M66" s="112"/>
-      <c r="N66" s="112"/>
-      <c r="O66" s="113"/>
-      <c r="P66" s="115"/>
-      <c r="Q66" s="115"/>
-      <c r="R66" s="115"/>
-      <c r="S66" s="115"/>
-      <c r="T66" s="115"/>
-      <c r="U66" s="115"/>
-      <c r="V66" s="113"/>
+      <c r="A66" s="106"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="106"/>
+      <c r="J66" s="107"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="106"/>
+      <c r="N66" s="106"/>
+      <c r="O66" s="107"/>
+      <c r="P66" s="109"/>
+      <c r="Q66" s="109"/>
+      <c r="R66" s="109"/>
+      <c r="S66" s="109"/>
+      <c r="T66" s="109"/>
+      <c r="U66" s="109"/>
+      <c r="V66" s="107"/>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="112"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="113"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="113"/>
-      <c r="K67" s="112"/>
-      <c r="L67" s="112"/>
-      <c r="M67" s="112"/>
-      <c r="N67" s="112"/>
-      <c r="O67" s="113"/>
-      <c r="P67" s="115"/>
-      <c r="Q67" s="115"/>
-      <c r="R67" s="115"/>
-      <c r="S67" s="115"/>
-      <c r="T67" s="115"/>
-      <c r="U67" s="115"/>
-      <c r="V67" s="113"/>
+      <c r="A67" s="106"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="106"/>
+      <c r="L67" s="106"/>
+      <c r="M67" s="106"/>
+      <c r="N67" s="106"/>
+      <c r="O67" s="107"/>
+      <c r="P67" s="109"/>
+      <c r="Q67" s="109"/>
+      <c r="R67" s="109"/>
+      <c r="S67" s="109"/>
+      <c r="T67" s="109"/>
+      <c r="U67" s="109"/>
+      <c r="V67" s="107"/>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="112"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="113"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="114"/>
-      <c r="H68" s="113"/>
-      <c r="I68" s="112"/>
-      <c r="J68" s="113"/>
-      <c r="K68" s="112"/>
-      <c r="L68" s="112"/>
-      <c r="M68" s="112"/>
-      <c r="N68" s="112"/>
-      <c r="O68" s="113"/>
-      <c r="P68" s="115"/>
-      <c r="Q68" s="115"/>
-      <c r="R68" s="115"/>
-      <c r="S68" s="115"/>
-      <c r="T68" s="115"/>
-      <c r="U68" s="115"/>
-      <c r="V68" s="113"/>
+      <c r="A68" s="106"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="106"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="106"/>
+      <c r="L68" s="106"/>
+      <c r="M68" s="106"/>
+      <c r="N68" s="106"/>
+      <c r="O68" s="107"/>
+      <c r="P68" s="109"/>
+      <c r="Q68" s="109"/>
+      <c r="R68" s="109"/>
+      <c r="S68" s="109"/>
+      <c r="T68" s="109"/>
+      <c r="U68" s="109"/>
+      <c r="V68" s="107"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="112"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="112"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="112"/>
-      <c r="L69" s="112"/>
-      <c r="M69" s="112"/>
-      <c r="N69" s="112"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="115"/>
-      <c r="Q69" s="115"/>
-      <c r="R69" s="115"/>
-      <c r="S69" s="115"/>
-      <c r="T69" s="115"/>
-      <c r="U69" s="115"/>
-      <c r="V69" s="113"/>
+      <c r="A69" s="106"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="107"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="106"/>
+      <c r="J69" s="107"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="106"/>
+      <c r="N69" s="106"/>
+      <c r="O69" s="107"/>
+      <c r="P69" s="109"/>
+      <c r="Q69" s="109"/>
+      <c r="R69" s="109"/>
+      <c r="S69" s="109"/>
+      <c r="T69" s="109"/>
+      <c r="U69" s="109"/>
+      <c r="V69" s="107"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="112"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="113"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="113"/>
-      <c r="I70" s="112"/>
-      <c r="J70" s="113"/>
-      <c r="K70" s="112"/>
-      <c r="L70" s="112"/>
-      <c r="M70" s="112"/>
-      <c r="N70" s="112"/>
-      <c r="O70" s="113"/>
-      <c r="P70" s="115"/>
-      <c r="Q70" s="115"/>
-      <c r="R70" s="115"/>
-      <c r="S70" s="115"/>
-      <c r="T70" s="115"/>
-      <c r="U70" s="115"/>
-      <c r="V70" s="113"/>
+      <c r="A70" s="106"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="107"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="106"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="106"/>
+      <c r="N70" s="106"/>
+      <c r="O70" s="107"/>
+      <c r="P70" s="109"/>
+      <c r="Q70" s="109"/>
+      <c r="R70" s="109"/>
+      <c r="S70" s="109"/>
+      <c r="T70" s="109"/>
+      <c r="U70" s="109"/>
+      <c r="V70" s="107"/>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="112"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="113"/>
-      <c r="D71" s="113"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="113"/>
-      <c r="I71" s="112"/>
-      <c r="J71" s="113"/>
-      <c r="K71" s="112"/>
-      <c r="L71" s="112"/>
-      <c r="M71" s="112"/>
-      <c r="N71" s="112"/>
-      <c r="O71" s="113"/>
-      <c r="P71" s="115"/>
-      <c r="Q71" s="115"/>
-      <c r="R71" s="115"/>
-      <c r="S71" s="115"/>
-      <c r="T71" s="115"/>
-      <c r="U71" s="115"/>
-      <c r="V71" s="113"/>
+      <c r="A71" s="106"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="106"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="106"/>
+      <c r="L71" s="106"/>
+      <c r="M71" s="106"/>
+      <c r="N71" s="106"/>
+      <c r="O71" s="107"/>
+      <c r="P71" s="109"/>
+      <c r="Q71" s="109"/>
+      <c r="R71" s="109"/>
+      <c r="S71" s="109"/>
+      <c r="T71" s="109"/>
+      <c r="U71" s="109"/>
+      <c r="V71" s="107"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="112"/>
-      <c r="B72" s="113"/>
-      <c r="C72" s="113"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="113"/>
-      <c r="F72" s="113"/>
-      <c r="G72" s="114"/>
-      <c r="H72" s="113"/>
-      <c r="I72" s="112"/>
-      <c r="J72" s="113"/>
-      <c r="K72" s="112"/>
-      <c r="L72" s="112"/>
-      <c r="M72" s="112"/>
-      <c r="N72" s="112"/>
-      <c r="O72" s="113"/>
-      <c r="P72" s="115"/>
-      <c r="Q72" s="115"/>
-      <c r="R72" s="115"/>
-      <c r="S72" s="115"/>
-      <c r="T72" s="115"/>
-      <c r="U72" s="115"/>
-      <c r="V72" s="113"/>
+      <c r="A72" s="106"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="107"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="106"/>
+      <c r="J72" s="107"/>
+      <c r="K72" s="106"/>
+      <c r="L72" s="106"/>
+      <c r="M72" s="106"/>
+      <c r="N72" s="106"/>
+      <c r="O72" s="107"/>
+      <c r="P72" s="109"/>
+      <c r="Q72" s="109"/>
+      <c r="R72" s="109"/>
+      <c r="S72" s="109"/>
+      <c r="T72" s="109"/>
+      <c r="U72" s="109"/>
+      <c r="V72" s="107"/>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="112"/>
-      <c r="B73" s="113"/>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="113"/>
-      <c r="G73" s="114"/>
-      <c r="H73" s="113"/>
-      <c r="I73" s="112"/>
-      <c r="J73" s="113"/>
-      <c r="K73" s="112"/>
-      <c r="L73" s="112"/>
-      <c r="M73" s="112"/>
-      <c r="N73" s="112"/>
-      <c r="O73" s="113"/>
-      <c r="P73" s="115"/>
-      <c r="Q73" s="115"/>
-      <c r="R73" s="115"/>
-      <c r="S73" s="115"/>
-      <c r="T73" s="115"/>
-      <c r="U73" s="115"/>
-      <c r="V73" s="113"/>
+      <c r="A73" s="106"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="106"/>
+      <c r="J73" s="107"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="106"/>
+      <c r="M73" s="106"/>
+      <c r="N73" s="106"/>
+      <c r="O73" s="107"/>
+      <c r="P73" s="109"/>
+      <c r="Q73" s="109"/>
+      <c r="R73" s="109"/>
+      <c r="S73" s="109"/>
+      <c r="T73" s="109"/>
+      <c r="U73" s="109"/>
+      <c r="V73" s="107"/>
     </row>
     <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5809,12 +5795,6 @@
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5829,6 +5809,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -958,22 +958,22 @@
     <t>Listos 8</t>
   </si>
   <si>
-    <t>Faltan 17</t>
-  </si>
-  <si>
-    <t>En proceso 5</t>
-  </si>
-  <si>
-    <t>Faltan 14</t>
-  </si>
-  <si>
     <t>Faltan 12</t>
   </si>
   <si>
-    <t>Listos 18</t>
-  </si>
-  <si>
-    <t>En proceso 8</t>
+    <t>En proceso 10</t>
+  </si>
+  <si>
+    <t>Faltan 15</t>
+  </si>
+  <si>
+    <t>En proceso 7</t>
+  </si>
+  <si>
+    <t>Faltan 10</t>
+  </si>
+  <si>
+    <t>Listos 20</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1338,19 +1338,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1365,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1552,24 +1539,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1704,12 +1673,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1751,7 +1719,7 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1770,7 +1738,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1834,12 +1801,63 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1858,56 +1876,23 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2215,9 +2200,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,369 +2234,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="194" t="s">
+      <c r="D1" s="180" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="192" t="s">
+      <c r="E1" s="178" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="190" t="s">
+      <c r="F1" s="174" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="203" t="s">
+      <c r="G1" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="190" t="s">
+      <c r="H1" s="174" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="190" t="s">
+      <c r="I1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="200" t="s">
+      <c r="J1" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="198" t="s">
+      <c r="K1" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="196" t="s">
+      <c r="L1" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="202" t="s">
+      <c r="M1" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="202"/>
-      <c r="O1" s="182" t="s">
+      <c r="N1" s="188"/>
+      <c r="O1" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="182" t="s">
+      <c r="P1" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="184" t="s">
+      <c r="Q1" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="188" t="s">
+      <c r="R1" s="197" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="184" t="s">
+      <c r="S1" s="193" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="186" t="s">
+      <c r="T1" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="184" t="s">
+      <c r="U1" s="193" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="158" t="s">
+      <c r="V1" s="199" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="134" t="s">
+      <c r="W1" s="201" t="s">
         <v>255</v>
       </c>
-      <c r="X1" s="135" t="s">
+      <c r="X1" s="203" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="195"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="197"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="183"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="204"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="168" t="s">
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="169">
+      <c r="H3" s="161">
         <v>1</v>
       </c>
-      <c r="I3" s="169" t="s">
+      <c r="I3" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="170" t="s">
+      <c r="J3" s="162" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="169" t="s">
+      <c r="K3" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="169" t="s">
+      <c r="L3" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="169" t="s">
+      <c r="M3" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="169"/>
-      <c r="O3" s="170" t="s">
+      <c r="N3" s="161"/>
+      <c r="O3" s="162" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="171" t="s">
+      <c r="P3" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="172">
+      <c r="Q3" s="164">
         <v>6</v>
       </c>
-      <c r="R3" s="172" t="s">
+      <c r="R3" s="164" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="172" t="s">
+      <c r="S3" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="173" t="s">
+      <c r="T3" s="165" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="174" t="s">
+      <c r="U3" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="151" t="s">
+      <c r="V3" s="144" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="161">
+      <c r="X3" s="153">
         <v>42411</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="106" t="s">
         <v>125</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="179" t="s">
+      <c r="G4" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="164">
+      <c r="H4" s="156">
         <v>2</v>
       </c>
-      <c r="I4" s="163" t="s">
+      <c r="I4" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="180" t="s">
+      <c r="J4" s="172" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="163" t="s">
+      <c r="K4" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="163" t="s">
+      <c r="L4" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163" t="s">
+      <c r="M4" s="155"/>
+      <c r="N4" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="181" t="s">
+      <c r="O4" s="173" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="164" t="s">
+      <c r="P4" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="165">
+      <c r="Q4" s="157">
         <v>6</v>
       </c>
-      <c r="R4" s="165" t="s">
+      <c r="R4" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="165" t="s">
+      <c r="S4" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="166" t="s">
+      <c r="T4" s="158" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="167" t="s">
+      <c r="U4" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="151" t="s">
+      <c r="V4" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="W4" s="139">
+      <c r="W4" s="132">
         <v>42417</v>
       </c>
-      <c r="X4" s="161">
+      <c r="X4" s="153">
         <v>42417</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="118" t="s">
         <v>125</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="162" t="s">
+      <c r="G5" s="154" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="163">
+      <c r="H5" s="155">
         <v>3</v>
       </c>
-      <c r="I5" s="163" t="s">
+      <c r="I5" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="163" t="s">
+      <c r="K5" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="163" t="s">
+      <c r="L5" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="163" t="s">
+      <c r="M5" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="163"/>
-      <c r="O5" s="175" t="s">
+      <c r="N5" s="155"/>
+      <c r="O5" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="164" t="s">
+      <c r="P5" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="165">
+      <c r="Q5" s="157">
         <v>6</v>
       </c>
-      <c r="R5" s="165" t="s">
+      <c r="R5" s="157" t="s">
         <v>188</v>
       </c>
-      <c r="S5" s="165" t="s">
+      <c r="S5" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="166" t="s">
+      <c r="T5" s="158" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="167" t="s">
+      <c r="U5" s="159" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="151" t="s">
+      <c r="V5" s="144" t="s">
         <v>253</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="161">
+      <c r="X5" s="153">
         <v>42412</v>
       </c>
-      <c r="Y5" s="107" t="s">
+      <c r="Y5" s="101" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="110" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="D6" s="106" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="118">
+      <c r="H6" s="112">
         <v>4</v>
       </c>
-      <c r="I6" s="119" t="s">
+      <c r="I6" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="119" t="s">
+      <c r="K6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="119" t="s">
+      <c r="L6" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119" t="s">
+      <c r="M6" s="113"/>
+      <c r="N6" s="113" t="s">
         <v>121</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="120">
+      <c r="Q6" s="114">
         <v>6</v>
       </c>
-      <c r="R6" s="120" t="s">
+      <c r="R6" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="120" t="s">
+      <c r="S6" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="121" t="s">
+      <c r="T6" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="122" t="s">
+      <c r="U6" s="116" t="s">
         <v>195</v>
       </c>
-      <c r="V6" s="130" t="s">
+      <c r="V6" s="123" t="s">
         <v>248</v>
       </c>
       <c r="W6" s="3"/>
@@ -2632,56 +2617,56 @@
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="176" t="s">
+      <c r="G7" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="169">
+      <c r="H7" s="161">
         <v>5</v>
       </c>
-      <c r="I7" s="169" t="s">
+      <c r="I7" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="177" t="s">
+      <c r="J7" s="169" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="169" t="s">
+      <c r="K7" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="169" t="s">
+      <c r="L7" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="169" t="s">
+      <c r="M7" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="169"/>
-      <c r="O7" s="170" t="s">
+      <c r="N7" s="161"/>
+      <c r="O7" s="162" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="171" t="s">
+      <c r="P7" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="172">
+      <c r="Q7" s="164">
         <v>6</v>
       </c>
-      <c r="R7" s="172" t="s">
+      <c r="R7" s="164" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="172" t="s">
+      <c r="S7" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="173" t="s">
+      <c r="T7" s="165" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="174" t="s">
+      <c r="U7" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="151" t="s">
+      <c r="V7" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="W7" s="160">
+      <c r="W7" s="152">
         <v>42412</v>
       </c>
-      <c r="X7" s="161">
+      <c r="X7" s="153">
         <v>42047</v>
       </c>
     </row>
@@ -2700,121 +2685,121 @@
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="146" t="s">
+      <c r="G8" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="147">
+      <c r="H8" s="140">
         <v>6</v>
       </c>
-      <c r="I8" s="148" t="s">
+      <c r="I8" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="134" t="s">
+      <c r="J8" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="148" t="s">
+      <c r="K8" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="148" t="s">
+      <c r="L8" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148" t="s">
+      <c r="M8" s="141"/>
+      <c r="N8" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="134" t="s">
+      <c r="O8" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="147" t="s">
+      <c r="P8" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="149">
+      <c r="Q8" s="142">
         <v>6</v>
       </c>
-      <c r="R8" s="149" t="s">
+      <c r="R8" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="149" t="s">
+      <c r="S8" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="159" t="s">
+      <c r="T8" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="150" t="s">
+      <c r="U8" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="151" t="s">
+      <c r="V8" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="W8" s="139">
+      <c r="W8" s="132">
         <v>42418</v>
       </c>
-      <c r="X8" s="139">
+      <c r="X8" s="132">
         <v>42418</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="118" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="146" t="s">
+      <c r="G9" s="139" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="148">
+      <c r="H9" s="141">
         <v>7</v>
       </c>
-      <c r="I9" s="148" t="s">
+      <c r="I9" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="134" t="s">
+      <c r="J9" s="127" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="148" t="s">
+      <c r="K9" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="148" t="s">
+      <c r="L9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148" t="s">
+      <c r="M9" s="141"/>
+      <c r="N9" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="134" t="s">
+      <c r="O9" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="P9" s="147" t="s">
+      <c r="P9" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="149">
+      <c r="Q9" s="142">
         <v>6</v>
       </c>
-      <c r="R9" s="149" t="s">
+      <c r="R9" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="S9" s="149" t="s">
+      <c r="S9" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="159" t="s">
+      <c r="T9" s="151" t="s">
         <v>200</v>
       </c>
-      <c r="U9" s="150" t="s">
+      <c r="U9" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="V9" s="151" t="s">
+      <c r="V9" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="W9" s="139">
+      <c r="W9" s="132">
         <v>42408</v>
       </c>
       <c r="X9" s="3" t="s">
@@ -2822,68 +2807,72 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="118" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="97">
+      <c r="H10" s="156">
         <v>8</v>
       </c>
-      <c r="I10" s="96" t="s">
+      <c r="I10" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="96" t="s">
+      <c r="K10" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="96" t="s">
+      <c r="L10" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96" t="s">
+      <c r="M10" s="155"/>
+      <c r="N10" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="128" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="97" t="s">
+      <c r="P10" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="98">
+      <c r="Q10" s="157">
         <v>6</v>
       </c>
-      <c r="R10" s="98" t="s">
+      <c r="R10" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="S10" s="98" t="s">
+      <c r="S10" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="T10" s="125" t="s">
+      <c r="T10" s="158" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="126" t="s">
+      <c r="U10" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="V10" s="130" t="s">
+      <c r="V10" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="W10" s="132">
+        <v>42419</v>
+      </c>
+      <c r="X10" s="153">
+        <v>42419</v>
+      </c>
     </row>
     <row r="11" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
@@ -2900,53 +2889,53 @@
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="146" t="s">
+      <c r="G11" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="148">
+      <c r="H11" s="141">
         <v>9</v>
       </c>
-      <c r="I11" s="148" t="s">
+      <c r="I11" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="134" t="s">
+      <c r="J11" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="148" t="s">
+      <c r="K11" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="148" t="s">
+      <c r="L11" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148" t="s">
+      <c r="M11" s="141"/>
+      <c r="N11" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="134" t="s">
+      <c r="O11" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="147" t="s">
+      <c r="P11" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="149">
+      <c r="Q11" s="142">
         <v>6</v>
       </c>
-      <c r="R11" s="149" t="s">
+      <c r="R11" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="149" t="s">
+      <c r="S11" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="T11" s="159" t="s">
+      <c r="T11" s="151" t="s">
         <v>202</v>
       </c>
-      <c r="U11" s="150" t="s">
+      <c r="U11" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="V11" s="151" t="s">
+      <c r="V11" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="W11" s="139">
+      <c r="W11" s="132">
         <v>42408</v>
       </c>
       <c r="X11" s="3" t="s">
@@ -3011,7 +3000,7 @@
       <c r="U12" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="V12" s="130" t="s">
+      <c r="V12" s="123" t="s">
         <v>248</v>
       </c>
       <c r="W12" s="3"/>
@@ -3032,56 +3021,56 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="176" t="s">
+      <c r="G13" s="168" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="169">
+      <c r="H13" s="161">
         <v>11</v>
       </c>
-      <c r="I13" s="169" t="s">
+      <c r="I13" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="178" t="s">
+      <c r="J13" s="170" t="s">
         <v>238</v>
       </c>
-      <c r="K13" s="169" t="s">
+      <c r="K13" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="169" t="s">
+      <c r="L13" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="169" t="s">
+      <c r="M13" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="169"/>
-      <c r="O13" s="178" t="s">
+      <c r="N13" s="161"/>
+      <c r="O13" s="170" t="s">
         <v>239</v>
       </c>
-      <c r="P13" s="171" t="s">
+      <c r="P13" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="172">
+      <c r="Q13" s="164">
         <v>6</v>
       </c>
-      <c r="R13" s="172" t="s">
+      <c r="R13" s="164" t="s">
         <v>188</v>
       </c>
-      <c r="S13" s="172" t="s">
+      <c r="S13" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="T13" s="173" t="s">
+      <c r="T13" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="U13" s="174" t="s">
+      <c r="U13" s="166" t="s">
         <v>191</v>
       </c>
-      <c r="V13" s="151" t="s">
+      <c r="V13" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="W13" s="160">
+      <c r="W13" s="152">
         <v>42412</v>
       </c>
-      <c r="X13" s="161">
+      <c r="X13" s="153">
         <v>42412</v>
       </c>
     </row>
@@ -3100,53 +3089,53 @@
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="146" t="s">
+      <c r="G14" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="148">
+      <c r="H14" s="141">
         <v>12</v>
       </c>
-      <c r="I14" s="148" t="s">
+      <c r="I14" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="134" t="s">
+      <c r="J14" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="148" t="s">
+      <c r="K14" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="148" t="s">
+      <c r="L14" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148" t="s">
+      <c r="M14" s="141"/>
+      <c r="N14" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="134" t="s">
+      <c r="O14" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="P14" s="147" t="s">
+      <c r="P14" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="149">
+      <c r="Q14" s="142">
         <v>6</v>
       </c>
-      <c r="R14" s="149" t="s">
+      <c r="R14" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="S14" s="149" t="s">
+      <c r="S14" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="T14" s="159" t="s">
+      <c r="T14" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="U14" s="150" t="s">
+      <c r="U14" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="V14" s="151" t="s">
+      <c r="V14" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="W14" s="139">
+      <c r="W14" s="132">
         <v>42414</v>
       </c>
       <c r="X14" s="3" t="s">
@@ -3168,122 +3157,122 @@
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="162" t="s">
+      <c r="G15" s="154" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="164">
+      <c r="H15" s="156">
         <v>13</v>
       </c>
-      <c r="I15" s="163" t="s">
+      <c r="I15" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="135" t="s">
+      <c r="J15" s="128" t="s">
         <v>229</v>
       </c>
-      <c r="K15" s="163" t="s">
+      <c r="K15" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="163" t="s">
+      <c r="L15" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163" t="s">
+      <c r="M15" s="155"/>
+      <c r="N15" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="O15" s="135" t="s">
+      <c r="O15" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="164" t="s">
+      <c r="P15" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="165">
+      <c r="Q15" s="157">
         <v>6</v>
       </c>
-      <c r="R15" s="165" t="s">
+      <c r="R15" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="165" t="s">
+      <c r="S15" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="166" t="s">
+      <c r="T15" s="158" t="s">
         <v>206</v>
       </c>
-      <c r="U15" s="167" t="s">
+      <c r="U15" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="V15" s="151" t="s">
+      <c r="V15" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="W15" s="160">
+      <c r="W15" s="152">
         <v>42414</v>
       </c>
-      <c r="X15" s="161">
+      <c r="X15" s="153">
         <v>42414</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="118" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="162" t="s">
+      <c r="G16" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="163">
+      <c r="H16" s="155">
         <v>14</v>
       </c>
-      <c r="I16" s="163" t="s">
+      <c r="I16" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="135" t="s">
+      <c r="J16" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="163" t="s">
+      <c r="K16" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="163" t="s">
+      <c r="L16" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163" t="s">
+      <c r="M16" s="155"/>
+      <c r="N16" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="135" t="s">
+      <c r="O16" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="164" t="s">
+      <c r="P16" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="165">
+      <c r="Q16" s="157">
         <v>6</v>
       </c>
-      <c r="R16" s="165" t="s">
+      <c r="R16" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="165" t="s">
+      <c r="S16" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="166" t="s">
+      <c r="T16" s="158" t="s">
         <v>208</v>
       </c>
-      <c r="U16" s="167" t="s">
+      <c r="U16" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="V16" s="151" t="s">
+      <c r="V16" s="144" t="s">
         <v>249</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="161">
+      <c r="X16" s="153">
         <v>42410</v>
       </c>
       <c r="Y16" s="4" t="s">
@@ -3350,134 +3339,134 @@
       <c r="U17" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="V17" s="130" t="s">
+      <c r="V17" s="123" t="s">
         <v>248</v>
       </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="140" t="s">
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="141">
+      <c r="H18" s="134">
         <v>16</v>
       </c>
-      <c r="I18" s="141" t="s">
+      <c r="I18" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="142" t="s">
+      <c r="J18" s="135" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="141" t="s">
+      <c r="K18" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="141" t="s">
+      <c r="L18" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="143" t="s">
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="144">
+      <c r="Q18" s="137">
         <v>8</v>
       </c>
-      <c r="R18" s="144" t="s">
+      <c r="R18" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="144" t="s">
+      <c r="S18" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="144" t="s">
+      <c r="T18" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="145" t="s">
+      <c r="U18" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="V18" s="151" t="s">
+      <c r="V18" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="W18" s="160">
+      <c r="W18" s="152">
         <v>42403</v>
       </c>
-      <c r="X18" s="138" t="s">
+      <c r="X18" s="131" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="93" t="s">
         <v>185</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="146" t="s">
+      <c r="G19" s="139" t="s">
         <v>224</v>
       </c>
-      <c r="H19" s="147">
+      <c r="H19" s="140">
         <v>17</v>
       </c>
-      <c r="I19" s="148" t="s">
+      <c r="I19" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="134" t="s">
+      <c r="J19" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="148" t="s">
+      <c r="K19" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="148" t="s">
+      <c r="L19" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="147" t="s">
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="149">
+      <c r="Q19" s="142">
         <v>8</v>
       </c>
-      <c r="R19" s="149" t="s">
+      <c r="R19" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="S19" s="149" t="s">
+      <c r="S19" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="T19" s="149" t="s">
+      <c r="T19" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="U19" s="150" t="s">
+      <c r="U19" s="143" t="s">
         <v>219</v>
       </c>
-      <c r="V19" s="151" t="s">
+      <c r="V19" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="W19" s="160">
+      <c r="W19" s="152">
         <v>42403</v>
       </c>
       <c r="X19" s="20" t="s">
@@ -3499,54 +3488,54 @@
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="162" t="s">
+      <c r="G20" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="H20" s="163">
+      <c r="H20" s="155">
         <v>18</v>
       </c>
-      <c r="I20" s="163" t="s">
+      <c r="I20" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="135" t="s">
+      <c r="J20" s="128" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="163" t="s">
+      <c r="K20" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="163" t="s">
+      <c r="L20" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="163" t="s">
+      <c r="M20" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="163"/>
-      <c r="O20" s="135" t="s">
+      <c r="N20" s="155"/>
+      <c r="O20" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="P20" s="164" t="s">
+      <c r="P20" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="165">
+      <c r="Q20" s="157">
         <v>6</v>
       </c>
-      <c r="R20" s="165" t="s">
+      <c r="R20" s="157" t="s">
         <v>188</v>
       </c>
-      <c r="S20" s="165" t="s">
+      <c r="S20" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="166" t="s">
+      <c r="T20" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="U20" s="167" t="s">
+      <c r="U20" s="159" t="s">
         <v>191</v>
       </c>
-      <c r="V20" s="151" t="s">
+      <c r="V20" s="144" t="s">
         <v>254</v>
       </c>
       <c r="W20" s="3"/>
-      <c r="X20" s="161">
+      <c r="X20" s="153">
         <v>42415</v>
       </c>
     </row>
@@ -3565,54 +3554,58 @@
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="76" t="s">
+      <c r="G21" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="78">
+      <c r="H21" s="156">
         <v>19</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="128" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="77" t="s">
+      <c r="K21" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="77" t="s">
+      <c r="L21" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77" t="s">
+      <c r="M21" s="155"/>
+      <c r="N21" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="78" t="s">
+      <c r="P21" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="79">
+      <c r="Q21" s="157">
         <v>6</v>
       </c>
-      <c r="R21" s="79" t="s">
+      <c r="R21" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="S21" s="79" t="s">
+      <c r="S21" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="T21" s="80" t="s">
+      <c r="T21" s="158" t="s">
         <v>210</v>
       </c>
-      <c r="U21" s="81" t="s">
+      <c r="U21" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="V21" s="131" t="s">
+      <c r="V21" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+      <c r="W21" s="132">
+        <v>42419</v>
+      </c>
+      <c r="X21" s="153">
+        <v>42419</v>
+      </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
@@ -3632,47 +3625,47 @@
       <c r="G22" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="96">
+      <c r="H22" s="90">
         <v>20</v>
       </c>
-      <c r="I22" s="96" t="s">
+      <c r="I22" s="90" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="96" t="s">
+      <c r="K22" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="96" t="s">
+      <c r="L22" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96" t="s">
+      <c r="M22" s="90"/>
+      <c r="N22" s="90" t="s">
         <v>120</v>
       </c>
       <c r="O22" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="97" t="s">
+      <c r="P22" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="98">
+      <c r="Q22" s="92">
         <v>6</v>
       </c>
-      <c r="R22" s="98" t="s">
+      <c r="R22" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="S22" s="98" t="s">
+      <c r="S22" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="T22" s="125" t="s">
+      <c r="T22" s="119" t="s">
         <v>211</v>
       </c>
-      <c r="U22" s="126" t="s">
+      <c r="U22" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="V22" s="131" t="s">
+      <c r="V22" s="124" t="s">
         <v>254</v>
       </c>
       <c r="W22" s="3"/>
@@ -3693,53 +3686,53 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="146" t="s">
+      <c r="G23" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="147">
+      <c r="H23" s="140">
         <v>21</v>
       </c>
-      <c r="I23" s="148" t="s">
+      <c r="I23" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="134" t="s">
+      <c r="J23" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="148" t="s">
+      <c r="K23" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="148" t="s">
+      <c r="L23" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148" t="s">
+      <c r="M23" s="141"/>
+      <c r="N23" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="134" t="s">
+      <c r="O23" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="P23" s="147" t="s">
+      <c r="P23" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="149">
+      <c r="Q23" s="142">
         <v>6</v>
       </c>
-      <c r="R23" s="149" t="s">
+      <c r="R23" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="149" t="s">
+      <c r="S23" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="T23" s="159" t="s">
+      <c r="T23" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="U23" s="150" t="s">
+      <c r="U23" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="V23" s="151" t="s">
+      <c r="V23" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="W23" s="139">
+      <c r="W23" s="132">
         <v>42408</v>
       </c>
       <c r="X23" s="3" t="s">
@@ -3747,64 +3740,64 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="77" t="s">
         <v>185</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>122</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="84" t="s">
+      <c r="G24" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="85">
+      <c r="H24" s="79">
         <v>22</v>
       </c>
-      <c r="I24" s="86" t="s">
+      <c r="I24" s="80" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="86" t="s">
+      <c r="K24" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="86" t="s">
+      <c r="L24" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86" t="s">
+      <c r="M24" s="80"/>
+      <c r="N24" s="80" t="s">
         <v>121</v>
       </c>
       <c r="O24" s="15"/>
-      <c r="P24" s="85" t="s">
+      <c r="P24" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="87">
+      <c r="Q24" s="81">
         <v>6</v>
       </c>
-      <c r="R24" s="87" t="s">
+      <c r="R24" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="87" t="s">
+      <c r="S24" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="T24" s="88" t="s">
+      <c r="T24" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="U24" s="89" t="s">
+      <c r="U24" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="V24" s="130" t="s">
+      <c r="V24" s="123" t="s">
         <v>247</v>
       </c>
       <c r="W24" s="3"/>
@@ -3825,49 +3818,49 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="140" t="s">
+      <c r="G25" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="141">
+      <c r="H25" s="134">
         <v>23</v>
       </c>
-      <c r="I25" s="141" t="s">
+      <c r="I25" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="142" t="s">
+      <c r="J25" s="135" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="141" t="s">
+      <c r="K25" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="141" t="s">
+      <c r="L25" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="142"/>
-      <c r="P25" s="143" t="s">
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="144">
+      <c r="Q25" s="137">
         <v>8</v>
       </c>
-      <c r="R25" s="144" t="s">
+      <c r="R25" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="S25" s="144" t="s">
+      <c r="S25" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="T25" s="144" t="s">
+      <c r="T25" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="U25" s="145" t="s">
+      <c r="U25" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="V25" s="151" t="s">
+      <c r="V25" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="W25" s="160">
+      <c r="W25" s="152">
         <v>42404</v>
       </c>
       <c r="X25" s="20" t="s">
@@ -3889,49 +3882,49 @@
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="146" t="s">
+      <c r="G26" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="147">
+      <c r="H26" s="140">
         <v>24</v>
       </c>
-      <c r="I26" s="148" t="s">
+      <c r="I26" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="134" t="s">
+      <c r="J26" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="148" t="s">
+      <c r="K26" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="148" t="s">
+      <c r="L26" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="147" t="s">
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="149">
+      <c r="Q26" s="142">
         <v>8</v>
       </c>
-      <c r="R26" s="149" t="s">
+      <c r="R26" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="S26" s="149" t="s">
+      <c r="S26" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="T26" s="149" t="s">
+      <c r="T26" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="U26" s="150" t="s">
+      <c r="U26" s="143" t="s">
         <v>219</v>
       </c>
-      <c r="V26" s="151" t="s">
+      <c r="V26" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="W26" s="160">
+      <c r="W26" s="152">
         <v>42404</v>
       </c>
       <c r="X26" s="20" t="s">
@@ -3953,46 +3946,46 @@
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
-      <c r="G27" s="152" t="s">
+      <c r="G27" s="145" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="153">
+      <c r="H27" s="146">
         <v>25</v>
       </c>
-      <c r="I27" s="154" t="s">
+      <c r="I27" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="137" t="s">
+      <c r="J27" s="130" t="s">
         <v>259</v>
       </c>
-      <c r="K27" s="154" t="s">
+      <c r="K27" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="154" t="s">
+      <c r="L27" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="154"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="153" t="s">
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="155">
+      <c r="Q27" s="148">
         <v>8</v>
       </c>
-      <c r="R27" s="155" t="s">
+      <c r="R27" s="148" t="s">
         <v>217</v>
       </c>
-      <c r="S27" s="155" t="s">
+      <c r="S27" s="148" t="s">
         <v>218</v>
       </c>
-      <c r="T27" s="155" t="s">
+      <c r="T27" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="U27" s="156" t="s">
+      <c r="U27" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="V27" s="151" t="s">
+      <c r="V27" s="144" t="s">
         <v>246</v>
       </c>
       <c r="W27" s="20" t="s">
@@ -4017,49 +4010,49 @@
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="146" t="s">
+      <c r="G28" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="148">
+      <c r="H28" s="141">
         <v>26</v>
       </c>
-      <c r="I28" s="148" t="s">
+      <c r="I28" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="134" t="s">
+      <c r="J28" s="127" t="s">
         <v>261</v>
       </c>
-      <c r="K28" s="148" t="s">
+      <c r="K28" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="148" t="s">
+      <c r="L28" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="147" t="s">
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="149">
+      <c r="Q28" s="142">
         <v>8</v>
       </c>
-      <c r="R28" s="149" t="s">
+      <c r="R28" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="S28" s="149" t="s">
+      <c r="S28" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="T28" s="149" t="s">
+      <c r="T28" s="142" t="s">
         <v>221</v>
       </c>
-      <c r="U28" s="150" t="s">
+      <c r="U28" s="143" t="s">
         <v>219</v>
       </c>
-      <c r="V28" s="151" t="s">
+      <c r="V28" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="W28" s="160">
+      <c r="W28" s="152">
         <v>42404</v>
       </c>
       <c r="X28" s="20" t="s">
@@ -4067,60 +4060,60 @@
       </c>
     </row>
     <row r="29" spans="1:24" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="93" t="s">
         <v>186</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="152" t="s">
+      <c r="G29" s="145" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="153">
+      <c r="H29" s="146">
         <v>27</v>
       </c>
-      <c r="I29" s="154" t="s">
+      <c r="I29" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="137" t="s">
+      <c r="J29" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="K29" s="154" t="s">
+      <c r="K29" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="154" t="s">
+      <c r="L29" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="137"/>
-      <c r="P29" s="153" t="s">
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="155">
+      <c r="Q29" s="148">
         <v>8</v>
       </c>
-      <c r="R29" s="155" t="s">
+      <c r="R29" s="148" t="s">
         <v>217</v>
       </c>
-      <c r="S29" s="155" t="s">
+      <c r="S29" s="148" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="155" t="s">
+      <c r="T29" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="U29" s="156" t="s">
+      <c r="U29" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="V29" s="151" t="s">
+      <c r="V29" s="144" t="s">
         <v>246</v>
       </c>
       <c r="W29" s="20" t="s">
@@ -4188,11 +4181,11 @@
       <c r="U30" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="V30" s="132" t="s">
+      <c r="V30" s="125" t="s">
         <v>248</v>
       </c>
-      <c r="W30" s="136"/>
-      <c r="X30" s="136"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="129"/>
     </row>
     <row r="31" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="66" t="s">
@@ -4252,11 +4245,11 @@
       <c r="U31" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="V31" s="133" t="s">
+      <c r="V31" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="W31" s="136"/>
-      <c r="X31" s="136"/>
+      <c r="W31" s="129"/>
+      <c r="X31" s="129"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
@@ -4271,18 +4264,18 @@
       <c r="D32" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91" t="s">
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="92">
+      <c r="H32" s="86">
         <v>30</v>
       </c>
       <c r="I32" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="90" t="s">
+      <c r="J32" s="84" t="s">
         <v>245</v>
       </c>
       <c r="K32" s="49" t="s">
@@ -4295,32 +4288,32 @@
       <c r="N32" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="93" t="s">
+      <c r="O32" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="92" t="s">
+      <c r="P32" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="94">
+      <c r="Q32" s="88">
         <v>6</v>
       </c>
-      <c r="R32" s="94" t="s">
+      <c r="R32" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="94" t="s">
+      <c r="S32" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="T32" s="95" t="s">
+      <c r="T32" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="U32" s="94" t="s">
+      <c r="U32" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="V32" s="132" t="s">
+      <c r="V32" s="125" t="s">
         <v>254</v>
       </c>
-      <c r="W32" s="136"/>
-      <c r="X32" s="136"/>
+      <c r="W32" s="129"/>
+      <c r="X32" s="129"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
@@ -4337,40 +4330,40 @@
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
-      <c r="G33" s="152" t="s">
+      <c r="G33" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="153">
+      <c r="H33" s="146">
         <v>31</v>
       </c>
-      <c r="I33" s="154" t="s">
+      <c r="I33" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="137" t="s">
+      <c r="J33" s="130" t="s">
         <v>179</v>
       </c>
-      <c r="K33" s="154" t="s">
+      <c r="K33" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="154" t="s">
+      <c r="L33" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="153" t="s">
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="157" t="s">
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="W33" s="153"/>
-      <c r="X33" s="136" t="s">
+      <c r="W33" s="146"/>
+      <c r="X33" s="129" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4430,20 +4423,20 @@
       <c r="U34" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="V34" s="132" t="s">
+      <c r="V34" s="125" t="s">
         <v>247</v>
       </c>
-      <c r="W34" s="136"/>
-      <c r="X34" s="136"/>
+      <c r="W34" s="129"/>
+      <c r="X34" s="129"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C35" s="93" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -4454,100 +4447,100 @@
       <c r="G35" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H35" s="97">
+      <c r="H35" s="91">
         <v>33</v>
       </c>
-      <c r="I35" s="96" t="s">
+      <c r="I35" s="90" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="K35" s="96" t="s">
+      <c r="K35" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="96" t="s">
+      <c r="L35" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96" t="s">
+      <c r="M35" s="90"/>
+      <c r="N35" s="90" t="s">
         <v>52</v>
       </c>
       <c r="O35" s="20"/>
-      <c r="P35" s="97" t="s">
+      <c r="P35" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="98">
+      <c r="Q35" s="92">
         <v>6</v>
       </c>
-      <c r="R35" s="98" t="s">
+      <c r="R35" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="S35" s="98" t="s">
+      <c r="S35" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="T35" s="125" t="s">
+      <c r="T35" s="119" t="s">
         <v>216</v>
       </c>
-      <c r="U35" s="98" t="s">
+      <c r="U35" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="V35" s="133" t="s">
+      <c r="V35" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="W35" s="136"/>
-      <c r="X35" s="136"/>
+      <c r="W35" s="129"/>
+      <c r="X35" s="129"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="104"/>
-      <c r="U36" s="104"/>
-      <c r="V36" s="105"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="98"/>
+      <c r="U36" s="98"/>
+      <c r="V36" s="99"/>
       <c r="W36" s="18"/>
       <c r="X36" s="18"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="110"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="109" t="s">
-        <v>269</v>
+      <c r="A37" s="100"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="104"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="104"/>
+      <c r="T37" s="104"/>
+      <c r="U37" s="104"/>
+      <c r="V37" s="103" t="s">
+        <v>270</v>
       </c>
       <c r="W37" s="18" t="s">
         <v>264</v>
@@ -4555,882 +4548,882 @@
       <c r="X37" s="18"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
-      <c r="U38" s="109"/>
-      <c r="V38" s="109"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="103"/>
+      <c r="U38" s="103"/>
+      <c r="V38" s="103"/>
       <c r="W38" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="X38" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="X38" s="18" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="39" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109"/>
-      <c r="U39" s="109"/>
-      <c r="V39" s="109" t="s">
-        <v>268</v>
+      <c r="A39" s="100"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
+      <c r="T39" s="103"/>
+      <c r="U39" s="103"/>
+      <c r="V39" s="103" t="s">
+        <v>269</v>
       </c>
       <c r="W39" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="X39" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="X39" s="18" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="107"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="109"/>
-      <c r="U40" s="109"/>
-      <c r="V40" s="107"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="103"/>
+      <c r="V40" s="101"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="106"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="107"/>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="109"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="109"/>
-      <c r="U41" s="109"/>
-      <c r="V41" s="107"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="103"/>
+      <c r="U41" s="103"/>
+      <c r="V41" s="101"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="107"/>
-      <c r="P42" s="109"/>
-      <c r="Q42" s="109"/>
-      <c r="R42" s="109"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="109"/>
-      <c r="U42" s="109"/>
-      <c r="V42" s="107"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="101"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="103"/>
+      <c r="U42" s="103"/>
+      <c r="V42" s="101"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="107"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="109"/>
-      <c r="R43" s="109"/>
-      <c r="S43" s="109"/>
-      <c r="T43" s="109"/>
-      <c r="U43" s="109"/>
-      <c r="V43" s="107"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="101"/>
+      <c r="P43" s="103"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="103"/>
+      <c r="T43" s="103"/>
+      <c r="U43" s="103"/>
+      <c r="V43" s="101"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="107"/>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="109"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="109"/>
-      <c r="V44" s="107"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="103"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="103"/>
+      <c r="T44" s="103"/>
+      <c r="U44" s="103"/>
+      <c r="V44" s="101"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="106"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106"/>
-      <c r="N45" s="106"/>
-      <c r="O45" s="107"/>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="109"/>
-      <c r="U45" s="109"/>
-      <c r="V45" s="107"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="101"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="103"/>
+      <c r="T45" s="103"/>
+      <c r="U45" s="103"/>
+      <c r="V45" s="101"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="106"/>
-      <c r="M46" s="106"/>
-      <c r="N46" s="106"/>
-      <c r="O46" s="107"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="109"/>
-      <c r="T46" s="109"/>
-      <c r="U46" s="109"/>
-      <c r="V46" s="107"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="101"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="103"/>
+      <c r="V46" s="101"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="106"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="107"/>
-      <c r="P47" s="109"/>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="109"/>
-      <c r="S47" s="109"/>
-      <c r="T47" s="109"/>
-      <c r="U47" s="109"/>
-      <c r="V47" s="107"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="100"/>
+      <c r="O47" s="101"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="103"/>
+      <c r="T47" s="103"/>
+      <c r="U47" s="103"/>
+      <c r="V47" s="101"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="106"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="107"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="109"/>
-      <c r="T48" s="109"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="107"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="101"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="103"/>
+      <c r="T48" s="103"/>
+      <c r="U48" s="103"/>
+      <c r="V48" s="101"/>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="107"/>
-      <c r="P49" s="109"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="109"/>
-      <c r="S49" s="109"/>
-      <c r="T49" s="109"/>
-      <c r="U49" s="109"/>
-      <c r="V49" s="107"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="100"/>
+      <c r="O49" s="101"/>
+      <c r="P49" s="103"/>
+      <c r="Q49" s="103"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="103"/>
+      <c r="T49" s="103"/>
+      <c r="U49" s="103"/>
+      <c r="V49" s="101"/>
     </row>
     <row r="50" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="106"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="106"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="106"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="107"/>
-      <c r="P50" s="109"/>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="109"/>
-      <c r="U50" s="109"/>
-      <c r="V50" s="107"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="101"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="103"/>
+      <c r="T50" s="103"/>
+      <c r="U50" s="103"/>
+      <c r="V50" s="101"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="106"/>
-      <c r="B51" s="107"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="106"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="106"/>
-      <c r="N51" s="106"/>
-      <c r="O51" s="107"/>
-      <c r="P51" s="109"/>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="109"/>
-      <c r="T51" s="109"/>
-      <c r="U51" s="109"/>
-      <c r="V51" s="107"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="101"/>
+      <c r="P51" s="103"/>
+      <c r="Q51" s="103"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="103"/>
+      <c r="T51" s="103"/>
+      <c r="U51" s="103"/>
+      <c r="V51" s="101"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="106"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="106"/>
-      <c r="L52" s="106"/>
-      <c r="M52" s="106"/>
-      <c r="N52" s="106"/>
-      <c r="O52" s="107"/>
-      <c r="P52" s="109"/>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
-      <c r="U52" s="109"/>
-      <c r="V52" s="107"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="103"/>
+      <c r="Q52" s="103"/>
+      <c r="R52" s="103"/>
+      <c r="S52" s="103"/>
+      <c r="T52" s="103"/>
+      <c r="U52" s="103"/>
+      <c r="V52" s="101"/>
     </row>
     <row r="53" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="106"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="106"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="107"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="109"/>
-      <c r="U53" s="109"/>
-      <c r="V53" s="107"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="101"/>
+      <c r="P53" s="103"/>
+      <c r="Q53" s="103"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="103"/>
+      <c r="T53" s="103"/>
+      <c r="U53" s="103"/>
+      <c r="V53" s="101"/>
     </row>
     <row r="54" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="106"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="106"/>
-      <c r="M54" s="106"/>
-      <c r="N54" s="106"/>
-      <c r="O54" s="107"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
-      <c r="U54" s="109"/>
-      <c r="V54" s="107"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="100"/>
+      <c r="N54" s="100"/>
+      <c r="O54" s="101"/>
+      <c r="P54" s="103"/>
+      <c r="Q54" s="103"/>
+      <c r="R54" s="103"/>
+      <c r="S54" s="103"/>
+      <c r="T54" s="103"/>
+      <c r="U54" s="103"/>
+      <c r="V54" s="101"/>
     </row>
     <row r="55" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="106"/>
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106"/>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106"/>
-      <c r="O55" s="107"/>
-      <c r="P55" s="109"/>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="109"/>
-      <c r="S55" s="109"/>
-      <c r="T55" s="109"/>
-      <c r="U55" s="109"/>
-      <c r="V55" s="107"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="100"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="101"/>
+      <c r="P55" s="103"/>
+      <c r="Q55" s="103"/>
+      <c r="R55" s="103"/>
+      <c r="S55" s="103"/>
+      <c r="T55" s="103"/>
+      <c r="U55" s="103"/>
+      <c r="V55" s="101"/>
     </row>
     <row r="56" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="106"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="107"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="107"/>
-      <c r="K56" s="106"/>
-      <c r="L56" s="106"/>
-      <c r="M56" s="106"/>
-      <c r="N56" s="106"/>
-      <c r="O56" s="107"/>
-      <c r="P56" s="109"/>
-      <c r="Q56" s="109"/>
-      <c r="R56" s="109"/>
-      <c r="S56" s="109"/>
-      <c r="T56" s="109"/>
-      <c r="U56" s="109"/>
-      <c r="V56" s="107"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="101"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
+      <c r="N56" s="100"/>
+      <c r="O56" s="101"/>
+      <c r="P56" s="103"/>
+      <c r="Q56" s="103"/>
+      <c r="R56" s="103"/>
+      <c r="S56" s="103"/>
+      <c r="T56" s="103"/>
+      <c r="U56" s="103"/>
+      <c r="V56" s="101"/>
     </row>
     <row r="57" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="106"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
-      <c r="N57" s="106"/>
-      <c r="O57" s="107"/>
-      <c r="P57" s="109"/>
-      <c r="Q57" s="109"/>
-      <c r="R57" s="109"/>
-      <c r="S57" s="109"/>
-      <c r="T57" s="109"/>
-      <c r="U57" s="109"/>
-      <c r="V57" s="107"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="103"/>
+      <c r="Q57" s="103"/>
+      <c r="R57" s="103"/>
+      <c r="S57" s="103"/>
+      <c r="T57" s="103"/>
+      <c r="U57" s="103"/>
+      <c r="V57" s="101"/>
     </row>
     <row r="58" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="106"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="107"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="109"/>
-      <c r="S58" s="109"/>
-      <c r="T58" s="109"/>
-      <c r="U58" s="109"/>
-      <c r="V58" s="107"/>
+      <c r="A58" s="100"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="100"/>
+      <c r="N58" s="100"/>
+      <c r="O58" s="101"/>
+      <c r="P58" s="103"/>
+      <c r="Q58" s="103"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="103"/>
+      <c r="T58" s="103"/>
+      <c r="U58" s="103"/>
+      <c r="V58" s="101"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="106"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="107"/>
-      <c r="F59" s="107"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="107"/>
-      <c r="K59" s="106"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="106"/>
-      <c r="N59" s="106"/>
-      <c r="O59" s="107"/>
-      <c r="P59" s="109"/>
-      <c r="Q59" s="109"/>
-      <c r="R59" s="109"/>
-      <c r="S59" s="109"/>
-      <c r="T59" s="109"/>
-      <c r="U59" s="109"/>
-      <c r="V59" s="107"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="101"/>
+      <c r="P59" s="103"/>
+      <c r="Q59" s="103"/>
+      <c r="R59" s="103"/>
+      <c r="S59" s="103"/>
+      <c r="T59" s="103"/>
+      <c r="U59" s="103"/>
+      <c r="V59" s="101"/>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="106"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="106"/>
-      <c r="J60" s="107"/>
-      <c r="K60" s="106"/>
-      <c r="L60" s="106"/>
-      <c r="M60" s="106"/>
-      <c r="N60" s="106"/>
-      <c r="O60" s="107"/>
-      <c r="P60" s="109"/>
-      <c r="Q60" s="109"/>
-      <c r="R60" s="109"/>
-      <c r="S60" s="109"/>
-      <c r="T60" s="109"/>
-      <c r="U60" s="109"/>
-      <c r="V60" s="107"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="100"/>
+      <c r="L60" s="100"/>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="101"/>
+      <c r="P60" s="103"/>
+      <c r="Q60" s="103"/>
+      <c r="R60" s="103"/>
+      <c r="S60" s="103"/>
+      <c r="T60" s="103"/>
+      <c r="U60" s="103"/>
+      <c r="V60" s="101"/>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="106"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="106"/>
-      <c r="L61" s="106"/>
-      <c r="M61" s="106"/>
-      <c r="N61" s="106"/>
-      <c r="O61" s="107"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="109"/>
-      <c r="R61" s="109"/>
-      <c r="S61" s="109"/>
-      <c r="T61" s="109"/>
-      <c r="U61" s="109"/>
-      <c r="V61" s="107"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="101"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="103"/>
+      <c r="Q61" s="103"/>
+      <c r="R61" s="103"/>
+      <c r="S61" s="103"/>
+      <c r="T61" s="103"/>
+      <c r="U61" s="103"/>
+      <c r="V61" s="101"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="106"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="106"/>
-      <c r="J62" s="107"/>
-      <c r="K62" s="106"/>
-      <c r="L62" s="106"/>
-      <c r="M62" s="106"/>
-      <c r="N62" s="106"/>
-      <c r="O62" s="107"/>
-      <c r="P62" s="109"/>
-      <c r="Q62" s="109"/>
-      <c r="R62" s="109"/>
-      <c r="S62" s="109"/>
-      <c r="T62" s="109"/>
-      <c r="U62" s="109"/>
-      <c r="V62" s="107"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="101"/>
+      <c r="P62" s="103"/>
+      <c r="Q62" s="103"/>
+      <c r="R62" s="103"/>
+      <c r="S62" s="103"/>
+      <c r="T62" s="103"/>
+      <c r="U62" s="103"/>
+      <c r="V62" s="101"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="106"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="106"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="106"/>
-      <c r="L63" s="106"/>
-      <c r="M63" s="106"/>
-      <c r="N63" s="106"/>
-      <c r="O63" s="107"/>
-      <c r="P63" s="109"/>
-      <c r="Q63" s="109"/>
-      <c r="R63" s="109"/>
-      <c r="S63" s="109"/>
-      <c r="T63" s="109"/>
-      <c r="U63" s="109"/>
-      <c r="V63" s="107"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100"/>
+      <c r="M63" s="100"/>
+      <c r="N63" s="100"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="103"/>
+      <c r="R63" s="103"/>
+      <c r="S63" s="103"/>
+      <c r="T63" s="103"/>
+      <c r="U63" s="103"/>
+      <c r="V63" s="101"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="106"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
-      <c r="G64" s="108"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="107"/>
-      <c r="K64" s="106"/>
-      <c r="L64" s="106"/>
-      <c r="M64" s="106"/>
-      <c r="N64" s="106"/>
-      <c r="O64" s="107"/>
-      <c r="P64" s="109"/>
-      <c r="Q64" s="109"/>
-      <c r="R64" s="109"/>
-      <c r="S64" s="109"/>
-      <c r="T64" s="109"/>
-      <c r="U64" s="109"/>
-      <c r="V64" s="107"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="100"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="101"/>
+      <c r="P64" s="103"/>
+      <c r="Q64" s="103"/>
+      <c r="R64" s="103"/>
+      <c r="S64" s="103"/>
+      <c r="T64" s="103"/>
+      <c r="U64" s="103"/>
+      <c r="V64" s="101"/>
     </row>
     <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="108"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="106"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="106"/>
-      <c r="L65" s="106"/>
-      <c r="M65" s="106"/>
-      <c r="N65" s="106"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="109"/>
-      <c r="Q65" s="109"/>
-      <c r="R65" s="109"/>
-      <c r="S65" s="109"/>
-      <c r="T65" s="109"/>
-      <c r="U65" s="109"/>
-      <c r="V65" s="107"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="100"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="100"/>
+      <c r="L65" s="100"/>
+      <c r="M65" s="100"/>
+      <c r="N65" s="100"/>
+      <c r="O65" s="101"/>
+      <c r="P65" s="103"/>
+      <c r="Q65" s="103"/>
+      <c r="R65" s="103"/>
+      <c r="S65" s="103"/>
+      <c r="T65" s="103"/>
+      <c r="U65" s="103"/>
+      <c r="V65" s="101"/>
     </row>
     <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="108"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="107"/>
-      <c r="K66" s="106"/>
-      <c r="L66" s="106"/>
-      <c r="M66" s="106"/>
-      <c r="N66" s="106"/>
-      <c r="O66" s="107"/>
-      <c r="P66" s="109"/>
-      <c r="Q66" s="109"/>
-      <c r="R66" s="109"/>
-      <c r="S66" s="109"/>
-      <c r="T66" s="109"/>
-      <c r="U66" s="109"/>
-      <c r="V66" s="107"/>
+      <c r="A66" s="100"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="100"/>
+      <c r="J66" s="101"/>
+      <c r="K66" s="100"/>
+      <c r="L66" s="100"/>
+      <c r="M66" s="100"/>
+      <c r="N66" s="100"/>
+      <c r="O66" s="101"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="103"/>
+      <c r="R66" s="103"/>
+      <c r="S66" s="103"/>
+      <c r="T66" s="103"/>
+      <c r="U66" s="103"/>
+      <c r="V66" s="101"/>
     </row>
     <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="106"/>
-      <c r="B67" s="107"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="107"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="107"/>
-      <c r="K67" s="106"/>
-      <c r="L67" s="106"/>
-      <c r="M67" s="106"/>
-      <c r="N67" s="106"/>
-      <c r="O67" s="107"/>
-      <c r="P67" s="109"/>
-      <c r="Q67" s="109"/>
-      <c r="R67" s="109"/>
-      <c r="S67" s="109"/>
-      <c r="T67" s="109"/>
-      <c r="U67" s="109"/>
-      <c r="V67" s="107"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="101"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="100"/>
+      <c r="M67" s="100"/>
+      <c r="N67" s="100"/>
+      <c r="O67" s="101"/>
+      <c r="P67" s="103"/>
+      <c r="Q67" s="103"/>
+      <c r="R67" s="103"/>
+      <c r="S67" s="103"/>
+      <c r="T67" s="103"/>
+      <c r="U67" s="103"/>
+      <c r="V67" s="101"/>
     </row>
     <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="106"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="108"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="106"/>
-      <c r="J68" s="107"/>
-      <c r="K68" s="106"/>
-      <c r="L68" s="106"/>
-      <c r="M68" s="106"/>
-      <c r="N68" s="106"/>
-      <c r="O68" s="107"/>
-      <c r="P68" s="109"/>
-      <c r="Q68" s="109"/>
-      <c r="R68" s="109"/>
-      <c r="S68" s="109"/>
-      <c r="T68" s="109"/>
-      <c r="U68" s="109"/>
-      <c r="V68" s="107"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="101"/>
+      <c r="K68" s="100"/>
+      <c r="L68" s="100"/>
+      <c r="M68" s="100"/>
+      <c r="N68" s="100"/>
+      <c r="O68" s="101"/>
+      <c r="P68" s="103"/>
+      <c r="Q68" s="103"/>
+      <c r="R68" s="103"/>
+      <c r="S68" s="103"/>
+      <c r="T68" s="103"/>
+      <c r="U68" s="103"/>
+      <c r="V68" s="101"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
-      <c r="B69" s="107"/>
-      <c r="C69" s="107"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="107"/>
-      <c r="F69" s="107"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="106"/>
-      <c r="J69" s="107"/>
-      <c r="K69" s="106"/>
-      <c r="L69" s="106"/>
-      <c r="M69" s="106"/>
-      <c r="N69" s="106"/>
-      <c r="O69" s="107"/>
-      <c r="P69" s="109"/>
-      <c r="Q69" s="109"/>
-      <c r="R69" s="109"/>
-      <c r="S69" s="109"/>
-      <c r="T69" s="109"/>
-      <c r="U69" s="109"/>
-      <c r="V69" s="107"/>
+      <c r="A69" s="100"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="100"/>
+      <c r="J69" s="101"/>
+      <c r="K69" s="100"/>
+      <c r="L69" s="100"/>
+      <c r="M69" s="100"/>
+      <c r="N69" s="100"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="103"/>
+      <c r="Q69" s="103"/>
+      <c r="R69" s="103"/>
+      <c r="S69" s="103"/>
+      <c r="T69" s="103"/>
+      <c r="U69" s="103"/>
+      <c r="V69" s="101"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
-      <c r="B70" s="107"/>
-      <c r="C70" s="107"/>
-      <c r="D70" s="107"/>
-      <c r="E70" s="107"/>
-      <c r="F70" s="107"/>
-      <c r="G70" s="108"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="106"/>
-      <c r="J70" s="107"/>
-      <c r="K70" s="106"/>
-      <c r="L70" s="106"/>
-      <c r="M70" s="106"/>
-      <c r="N70" s="106"/>
-      <c r="O70" s="107"/>
-      <c r="P70" s="109"/>
-      <c r="Q70" s="109"/>
-      <c r="R70" s="109"/>
-      <c r="S70" s="109"/>
-      <c r="T70" s="109"/>
-      <c r="U70" s="109"/>
-      <c r="V70" s="107"/>
+      <c r="A70" s="100"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="101"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="101"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="100"/>
+      <c r="N70" s="100"/>
+      <c r="O70" s="101"/>
+      <c r="P70" s="103"/>
+      <c r="Q70" s="103"/>
+      <c r="R70" s="103"/>
+      <c r="S70" s="103"/>
+      <c r="T70" s="103"/>
+      <c r="U70" s="103"/>
+      <c r="V70" s="101"/>
     </row>
     <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="106"/>
-      <c r="B71" s="107"/>
-      <c r="C71" s="107"/>
-      <c r="D71" s="107"/>
-      <c r="E71" s="107"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="108"/>
-      <c r="H71" s="107"/>
-      <c r="I71" s="106"/>
-      <c r="J71" s="107"/>
-      <c r="K71" s="106"/>
-      <c r="L71" s="106"/>
-      <c r="M71" s="106"/>
-      <c r="N71" s="106"/>
-      <c r="O71" s="107"/>
-      <c r="P71" s="109"/>
-      <c r="Q71" s="109"/>
-      <c r="R71" s="109"/>
-      <c r="S71" s="109"/>
-      <c r="T71" s="109"/>
-      <c r="U71" s="109"/>
-      <c r="V71" s="107"/>
+      <c r="A71" s="100"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="102"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="100"/>
+      <c r="J71" s="101"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="100"/>
+      <c r="M71" s="100"/>
+      <c r="N71" s="100"/>
+      <c r="O71" s="101"/>
+      <c r="P71" s="103"/>
+      <c r="Q71" s="103"/>
+      <c r="R71" s="103"/>
+      <c r="S71" s="103"/>
+      <c r="T71" s="103"/>
+      <c r="U71" s="103"/>
+      <c r="V71" s="101"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="106"/>
-      <c r="B72" s="107"/>
-      <c r="C72" s="107"/>
-      <c r="D72" s="107"/>
-      <c r="E72" s="107"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="107"/>
-      <c r="I72" s="106"/>
-      <c r="J72" s="107"/>
-      <c r="K72" s="106"/>
-      <c r="L72" s="106"/>
-      <c r="M72" s="106"/>
-      <c r="N72" s="106"/>
-      <c r="O72" s="107"/>
-      <c r="P72" s="109"/>
-      <c r="Q72" s="109"/>
-      <c r="R72" s="109"/>
-      <c r="S72" s="109"/>
-      <c r="T72" s="109"/>
-      <c r="U72" s="109"/>
-      <c r="V72" s="107"/>
+      <c r="A72" s="100"/>
+      <c r="B72" s="101"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="100"/>
+      <c r="J72" s="101"/>
+      <c r="K72" s="100"/>
+      <c r="L72" s="100"/>
+      <c r="M72" s="100"/>
+      <c r="N72" s="100"/>
+      <c r="O72" s="101"/>
+      <c r="P72" s="103"/>
+      <c r="Q72" s="103"/>
+      <c r="R72" s="103"/>
+      <c r="S72" s="103"/>
+      <c r="T72" s="103"/>
+      <c r="U72" s="103"/>
+      <c r="V72" s="101"/>
     </row>
     <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
-      <c r="B73" s="107"/>
-      <c r="C73" s="107"/>
-      <c r="D73" s="107"/>
-      <c r="E73" s="107"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="108"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="106"/>
-      <c r="J73" s="107"/>
-      <c r="K73" s="106"/>
-      <c r="L73" s="106"/>
-      <c r="M73" s="106"/>
-      <c r="N73" s="106"/>
-      <c r="O73" s="107"/>
-      <c r="P73" s="109"/>
-      <c r="Q73" s="109"/>
-      <c r="R73" s="109"/>
-      <c r="S73" s="109"/>
-      <c r="T73" s="109"/>
-      <c r="U73" s="109"/>
-      <c r="V73" s="107"/>
+      <c r="A73" s="100"/>
+      <c r="B73" s="101"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="101"/>
+      <c r="I73" s="100"/>
+      <c r="J73" s="101"/>
+      <c r="K73" s="100"/>
+      <c r="L73" s="100"/>
+      <c r="M73" s="100"/>
+      <c r="N73" s="100"/>
+      <c r="O73" s="101"/>
+      <c r="P73" s="103"/>
+      <c r="Q73" s="103"/>
+      <c r="R73" s="103"/>
+      <c r="S73" s="103"/>
+      <c r="T73" s="103"/>
+      <c r="U73" s="103"/>
+      <c r="V73" s="101"/>
     </row>
     <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5794,7 +5787,16 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5809,12 +5811,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion08/ESCALETA_MA_08_08_CO.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1352,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1545,24 +1545,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1801,18 +1783,54 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1858,41 +1876,24 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2200,9 +2201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="91" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O32" sqref="O32"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2234,369 +2235,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="191" t="s">
+      <c r="C1" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="180" t="s">
+      <c r="D1" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="178" t="s">
+      <c r="E1" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="174" t="s">
+      <c r="F1" s="182" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="189" t="s">
+      <c r="G1" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="174" t="s">
+      <c r="H1" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="174" t="s">
+      <c r="I1" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="186" t="s">
+      <c r="J1" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="184" t="s">
+      <c r="K1" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="182" t="s">
+      <c r="L1" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="188" t="s">
+      <c r="M1" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="188"/>
-      <c r="O1" s="176" t="s">
+      <c r="N1" s="194"/>
+      <c r="O1" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="176" t="s">
+      <c r="P1" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="193" t="s">
+      <c r="Q1" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="197" t="s">
+      <c r="R1" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="193" t="s">
+      <c r="S1" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="195" t="s">
+      <c r="T1" s="178" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="193" t="s">
+      <c r="U1" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="199" t="s">
+      <c r="V1" s="168" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="201" t="s">
+      <c r="W1" s="170" t="s">
         <v>255</v>
       </c>
-      <c r="X1" s="203" t="s">
+      <c r="X1" s="172" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="181"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="183"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="189"/>
       <c r="M2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="177"/>
-      <c r="P2" s="177"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="204"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="173"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="160" t="s">
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="161">
+      <c r="H3" s="155">
         <v>1</v>
       </c>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="162" t="s">
+      <c r="J3" s="156" t="s">
         <v>225</v>
       </c>
-      <c r="K3" s="161" t="s">
+      <c r="K3" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="161" t="s">
+      <c r="L3" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="162" t="s">
+      <c r="N3" s="155"/>
+      <c r="O3" s="156" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="163" t="s">
+      <c r="P3" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="164">
+      <c r="Q3" s="158">
         <v>6</v>
       </c>
-      <c r="R3" s="164" t="s">
+      <c r="R3" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="164" t="s">
+      <c r="S3" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="165" t="s">
+      <c r="T3" s="159" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="166" t="s">
+      <c r="U3" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="V3" s="144" t="s">
+      <c r="V3" s="138" t="s">
         <v>250</v>
       </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="153">
+      <c r="X3" s="147">
         <v>42411</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="100" t="s">
         <v>125</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="171" t="s">
+      <c r="G4" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="156">
+      <c r="H4" s="150">
         <v>2</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="172" t="s">
+      <c r="J4" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="155" t="s">
+      <c r="K4" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="155" t="s">
+      <c r="L4" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155" t="s">
+      <c r="M4" s="149"/>
+      <c r="N4" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="173" t="s">
+      <c r="O4" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="156" t="s">
+      <c r="P4" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="157">
+      <c r="Q4" s="151">
         <v>6</v>
       </c>
-      <c r="R4" s="157" t="s">
+      <c r="R4" s="151" t="s">
         <v>192</v>
       </c>
-      <c r="S4" s="157" t="s">
+      <c r="S4" s="151" t="s">
         <v>193</v>
       </c>
-      <c r="T4" s="158" t="s">
+      <c r="T4" s="152" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="159" t="s">
+      <c r="U4" s="153" t="s">
         <v>195</v>
       </c>
-      <c r="V4" s="144" t="s">
+      <c r="V4" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="W4" s="132">
+      <c r="W4" s="126">
         <v>42417</v>
       </c>
-      <c r="X4" s="153">
+      <c r="X4" s="147">
         <v>42417</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="112" t="s">
         <v>125</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="155">
+      <c r="H5" s="149">
         <v>3</v>
       </c>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="155" t="s">
+      <c r="K5" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="155" t="s">
+      <c r="L5" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="155" t="s">
+      <c r="M5" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="167" t="s">
+      <c r="N5" s="149"/>
+      <c r="O5" s="161" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="156" t="s">
+      <c r="P5" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="157">
+      <c r="Q5" s="151">
         <v>6</v>
       </c>
-      <c r="R5" s="157" t="s">
+      <c r="R5" s="151" t="s">
         <v>188</v>
       </c>
-      <c r="S5" s="157" t="s">
+      <c r="S5" s="151" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="158" t="s">
+      <c r="T5" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="159" t="s">
+      <c r="U5" s="153" t="s">
         <v>191</v>
       </c>
-      <c r="V5" s="144" t="s">
+      <c r="V5" s="138" t="s">
         <v>253</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="X5" s="153">
+      <c r="X5" s="147">
         <v>42412</v>
       </c>
-      <c r="Y5" s="101" t="s">
+      <c r="Y5" s="95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="100" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="112">
+      <c r="H6" s="106">
         <v>4</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="107" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="113" t="s">
+      <c r="K6" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="113" t="s">
+      <c r="L6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113" t="s">
+      <c r="M6" s="107"/>
+      <c r="N6" s="107" t="s">
         <v>121</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="112" t="s">
+      <c r="P6" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="114">
+      <c r="Q6" s="108">
         <v>6</v>
       </c>
-      <c r="R6" s="114" t="s">
+      <c r="R6" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="114" t="s">
+      <c r="S6" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="T6" s="115" t="s">
+      <c r="T6" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="116" t="s">
+      <c r="U6" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="V6" s="123" t="s">
+      <c r="V6" s="117" t="s">
         <v>248</v>
       </c>
       <c r="W6" s="3"/>
@@ -2617,56 +2618,56 @@
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="168" t="s">
+      <c r="G7" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="161">
+      <c r="H7" s="155">
         <v>5</v>
       </c>
-      <c r="I7" s="161" t="s">
+      <c r="I7" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="169" t="s">
+      <c r="J7" s="163" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="161" t="s">
+      <c r="K7" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="161" t="s">
+      <c r="L7" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="161" t="s">
+      <c r="M7" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="161"/>
-      <c r="O7" s="162" t="s">
+      <c r="N7" s="155"/>
+      <c r="O7" s="156" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="163" t="s">
+      <c r="P7" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="164">
+      <c r="Q7" s="158">
         <v>6</v>
       </c>
-      <c r="R7" s="164" t="s">
+      <c r="R7" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="164" t="s">
+      <c r="S7" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="165" t="s">
+      <c r="T7" s="159" t="s">
         <v>198</v>
       </c>
-      <c r="U7" s="166" t="s">
+      <c r="U7" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="V7" s="144" t="s">
+      <c r="V7" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="W7" s="152">
+      <c r="W7" s="146">
         <v>42412</v>
       </c>
-      <c r="X7" s="153">
+      <c r="X7" s="147">
         <v>42047</v>
       </c>
     </row>
@@ -2685,121 +2686,121 @@
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="140">
+      <c r="H8" s="134">
         <v>6</v>
       </c>
-      <c r="I8" s="141" t="s">
+      <c r="I8" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="127" t="s">
+      <c r="J8" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="141" t="s">
+      <c r="K8" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="141" t="s">
+      <c r="L8" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141" t="s">
+      <c r="M8" s="135"/>
+      <c r="N8" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="127" t="s">
+      <c r="O8" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="140" t="s">
+      <c r="P8" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="142">
+      <c r="Q8" s="136">
         <v>6</v>
       </c>
-      <c r="R8" s="142" t="s">
+      <c r="R8" s="136" t="s">
         <v>192</v>
       </c>
-      <c r="S8" s="142" t="s">
+      <c r="S8" s="136" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="151" t="s">
+      <c r="T8" s="145" t="s">
         <v>199</v>
       </c>
-      <c r="U8" s="143" t="s">
+      <c r="U8" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="144" t="s">
+      <c r="V8" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="W8" s="132">
+      <c r="W8" s="146">
         <v>42418</v>
       </c>
-      <c r="X8" s="132">
+      <c r="X8" s="126">
         <v>42418</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="87" t="s">
         <v>123</v>
  